--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F4F33B-9B44-D744-BC03-144E7F35A7B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C8F03D-38E0-624D-977C-2BA8DB0C52C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="19560" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="steady" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="37">
   <si>
     <t>pr</t>
   </si>
@@ -133,9 +133,6 @@
     <t>18.1kpa</t>
   </si>
   <si>
-    <t>  </t>
-  </si>
-  <si>
     <t>lin-stab due to eigen</t>
   </si>
   <si>
@@ -149,6 +146,24 @@
   </si>
   <si>
     <t>mdot-in</t>
+  </si>
+  <si>
+    <t>18.25kpa</t>
+  </si>
+  <si>
+    <t>18.29kpa</t>
+  </si>
+  <si>
+    <t>unstable (1)</t>
+  </si>
+  <si>
+    <t>unstable (2)</t>
+  </si>
+  <si>
+    <t>unstable (4)</t>
+  </si>
+  <si>
+    <t>unstable (5)</t>
   </si>
 </sst>
 </file>
@@ -452,23 +467,25 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="8"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>steady!$G$3:$G$25</c:f>
+              <c:f>steady!$G$3:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -503,18 +520,24 @@
                   <c:v>0.96154182326719695</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.96005593916615672</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95870116248579673</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.95835154269731671</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>0.95415610523555638</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>0.94698889957171573</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -522,10 +545,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>steady!$D$3:$D$25</c:f>
+              <c:f>steady!$D$3:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.2401</c:v>
                 </c:pt>
@@ -560,12 +583,18 @@
                   <c:v>1.4634</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1.4637</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1.4639</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>1.4639</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.4641</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.4635</c:v>
                 </c:pt>
               </c:numCache>
@@ -790,23 +819,25 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="8"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>steady!$G$3:$G$25</c:f>
+              <c:f>steady!$G$3:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -841,18 +872,24 @@
                   <c:v>0.96154182326719695</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.96005593916615672</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95870116248579673</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.95835154269731671</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>0.95415610523555638</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>0.94698889957171573</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -860,10 +897,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>steady!$E$3:$E$25</c:f>
+              <c:f>steady!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0.66490000000000005</c:v>
                 </c:pt>
@@ -898,12 +935,18 @@
                   <c:v>0.82040000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.81940000000000002</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>0.81789999999999996</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>0.81469999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1117,10 +1160,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12059406961523565"/>
+          <c:x val="0.11718643688568348"/>
           <c:y val="4.2026875546806647E-2"/>
-          <c:w val="0.84169584778863693"/>
-          <c:h val="0.84147584380268681"/>
+          <c:w val="0.83331561476139115"/>
+          <c:h val="0.85406099986229556"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1131,7 +1174,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$K$1</c:f>
+              <c:f>eigenvalues!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1166,7 +1209,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$K$2:$K$31</c:f>
+              <c:f>eigenvalues!$O$2:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1265,7 +1308,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$L$2:$L$31</c:f>
+              <c:f>eigenvalues!$P$2:$P$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1374,7 +1417,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$I$1</c:f>
+              <c:f>eigenvalues!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1409,7 +1452,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$I$2:$I$31</c:f>
+              <c:f>eigenvalues!$M$2:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1448,7 +1491,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$J$2:$J$31</c:f>
+              <c:f>eigenvalues!$N$2:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1497,7 +1540,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$G$1</c:f>
+              <c:f>eigenvalues!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1519,10 +1562,256 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-6.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.13250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.3799999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2200000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0814999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1262000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0471999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8619</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1727000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6471-0047-B788-3F8398CDB6ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.25kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2600">
                   <a:alpha val="50000"/>
                 </a:srgbClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-3.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.0700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.4100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.12E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0791999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1235999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1284000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00B4-0B43-9706-60FC26806C18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.29kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2600">
+                  <a:alpha val="60000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1537,34 +1826,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-6.7000000000000002E-3</c:v>
+                  <c:v>-5.9999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.8E-3</c:v>
+                  <c:v>8.9999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6799999999999999E-2</c:v>
+                  <c:v>-8.6999999999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.8999999999999999E-3</c:v>
+                  <c:v>-2.3999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2E-2</c:v>
+                  <c:v>-9.4000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.13250000000000001</c:v>
+                  <c:v>-2.6200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.13070000000000001</c:v>
+                  <c:v>-0.14130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.6900000000000002E-2</c:v>
+                  <c:v>-0.13569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.3799999999999994E-2</c:v>
+                  <c:v>-9.4500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.2200000000000001E-2</c:v>
+                  <c:v>-2.0299999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,34 +1865,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.98399999999999999</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0347</c:v>
+                  <c:v>1.0321</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92589999999999995</c:v>
+                  <c:v>0.92459999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0814999999999999</c:v>
+                  <c:v>1.0781000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1262000000000001</c:v>
+                  <c:v>1.1222000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0471999999999999</c:v>
+                  <c:v>0.86109999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9425</c:v>
+                  <c:v>1.0472999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8619</c:v>
+                  <c:v>0.93730000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1245000000000001</c:v>
+                  <c:v>1.1318999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1727000000000001</c:v>
+                  <c:v>1.1684000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,13 +1900,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6471-0047-B788-3F8398CDB6ED}"/>
+              <c16:uniqueId val="{00000002-00B4-0B43-9706-60FC26806C18}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>eigenvalues!$E$1</c:f>
@@ -1642,7 +1931,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000">
-                  <a:alpha val="60000"/>
+                  <a:alpha val="70000"/>
                 </a:srgbClr>
               </a:solidFill>
               <a:ln w="12700">
@@ -1740,7 +2029,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>eigenvalues!$C$1</c:f>
@@ -1863,7 +2152,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="5"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>eigenvalues!$A$1</c:f>
@@ -1997,7 +2286,7 @@
         <c:axId val="143884368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.000000000000001E-2"/>
+          <c:max val="2.0000000000000004E-2"/>
           <c:min val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2014,35 +2303,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Real(\lambda)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2073,7 +2333,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2110,7 +2370,7 @@
         <c:axId val="143886048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.3"/>
+          <c:max val="1.5"/>
           <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2127,35 +2387,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Imag(\lambda)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2186,7 +2417,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2217,7 +2448,7 @@
         <c:crossAx val="143884368"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2225,608 +2456,6 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.74972140875054638"/>
-          <c:y val="5.5524959398248301E-2"/>
-          <c:w val="0.18701470381144303"/>
-          <c:h val="0.18347837332221503"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="2000" baseline="0"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>eigenvalues!$Y$1:$Y$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-9.8299999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.12479999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5.3900000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.14430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.16350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.1489</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.17530000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.17899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.21390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-8.6400000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-4.2099999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.12089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1.49E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.1535</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-9.2299999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.4E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.0000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.2359</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-7.4000000000000003E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>eigenvalues!$Z$1:$Z$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.1243000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1671</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1082000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0784</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1251</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2081999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86370000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1367</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1193</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3858999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5650999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3527</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4659</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6335999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.2826</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5385</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.2465999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-270C-F148-A263-C80545BFA5FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>eigenvalues!$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>15kpa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>eigenvalues!$S$2:$S$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>-8.8900000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.1449</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.9000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.21299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.7399999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.1676</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.14399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.25130000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.23669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-7.6600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.11849999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-4.9700000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-3.6900000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.17480000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-4.7399999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.17829999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.15590000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.2407</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>eigenvalues!$T$2:$T$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.0302</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0984</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1477999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1948000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0441</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2401</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1785000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2033</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0155000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0889</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4282999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4825999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3792</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3312999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5508999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2848999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.2401</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6972</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.2833000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6366000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-270C-F148-A263-C80545BFA5FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="235240831"/>
-        <c:axId val="235236975"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="235240831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="235236975"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="235236975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="235240831"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.5"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2862,7 +2491,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2995,46 +2624,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4583,535 +4172,19 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5141,13 +4214,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5182,16 +4255,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>720323</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>26185</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>681043</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>791024</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>31422</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>572635</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>192725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5211,42 +4284,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>280186</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>170207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>353505</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130929</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60BEDB6D-B0F0-AE44-B817-B33B08B7ADCA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5552,10 +4589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EA66BB-B451-4F4E-B1C9-5E3A555EB221}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5588,7 +4625,7 @@
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
       <c r="N1" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -5599,7 +4636,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -5611,10 +4648,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -5657,7 +4694,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A18" si="0">101325+B4*1000</f>
+        <f t="shared" ref="A4:A20" si="0">101325+B4*1000</f>
         <v>106325</v>
       </c>
       <c r="B4" s="3">
@@ -5676,7 +4713,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G18" si="1">C4/0.22882</f>
+        <f t="shared" ref="G4:G20" si="1">C4/0.22882</f>
         <v>1.00013110742068</v>
       </c>
       <c r="H4" s="3"/>
@@ -5752,7 +4789,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="17" customFormat="1">
@@ -5786,7 +4823,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="17" customFormat="1">
@@ -5820,7 +4857,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="17" customFormat="1">
@@ -5854,7 +4891,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="17" customFormat="1">
@@ -5888,7 +4925,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="17" customFormat="1">
@@ -5922,7 +4959,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="17" customFormat="1">
@@ -5956,7 +4993,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="17" customFormat="1">
@@ -5990,32 +5027,32 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="17" customFormat="1">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
-        <v>119625</v>
+        <v>119575</v>
       </c>
       <c r="B14" s="14">
-        <v>18.3</v>
+        <v>18.25</v>
       </c>
       <c r="C14" s="14">
-        <v>0.21929000000000001</v>
+        <v>0.21967999999999999</v>
       </c>
       <c r="D14" s="14">
-        <v>1.4639</v>
+        <v>1.4637</v>
       </c>
       <c r="E14" s="14">
-        <v>0.81940000000000002</v>
+        <v>0.82</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" si="1"/>
-        <v>0.95835154269731671</v>
+        <v>0.96005593916615672</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -6023,33 +5060,31 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="1:14" s="17" customFormat="1">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
-        <v>119725</v>
+        <v>119615</v>
       </c>
       <c r="B15" s="14">
-        <v>18.399999999999999</v>
+        <v>18.29</v>
       </c>
       <c r="C15" s="14">
-        <v>0.21833</v>
+        <v>0.21937000000000001</v>
       </c>
       <c r="D15" s="14">
-        <v>1.4641</v>
+        <v>1.4639</v>
       </c>
       <c r="E15" s="14">
-        <v>0.81789999999999996</v>
+        <v>0.81950000000000001</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" si="1"/>
-        <v>0.95415610523555638</v>
+        <v>0.95870116248579673</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -6058,102 +5093,170 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="17" customFormat="1">
       <c r="A16" s="14">
         <f t="shared" si="0"/>
-        <v>119825</v>
+        <v>119625</v>
       </c>
       <c r="B16" s="14">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="C16" s="14">
-        <v>0.21668999999999999</v>
+        <v>0.21929000000000001</v>
       </c>
       <c r="D16" s="14">
-        <v>1.4635</v>
+        <v>1.4639</v>
       </c>
       <c r="E16" s="14">
-        <v>0.81469999999999998</v>
+        <v>0.81940000000000002</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" si="1"/>
+        <v>0.95835154269731671</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="17" customFormat="1">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>119725</v>
+      </c>
+      <c r="B17" s="14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.21833</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1.4641</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="1"/>
+        <v>0.95415610523555638</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="17" customFormat="1">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
+        <v>119825</v>
+      </c>
+      <c r="B18" s="14">
+        <v>18.5</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.21668999999999999</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1.4635</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="1"/>
         <v>0.94698889957171573</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="25" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="21" t="s">
-        <v>12</v>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="3">
+    <row r="19" spans="1:14">
+      <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>119925</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B19" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="18" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G19" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="20"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="20"/>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="3">
+    <row r="20" spans="1:14">
+      <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>120325</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B20" s="3">
         <v>19</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="18" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G20" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="20"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I18:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6163,15 +5266,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47BBAE-5C45-FC47-9DB3-44760ECB14A5}">
-  <dimension ref="A1:AL31"/>
+  <dimension ref="A1:AP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:42">
       <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
@@ -6185,60 +5288,72 @@
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H1" s="27"/>
       <c r="I1" s="26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J1" s="27"/>
       <c r="K1" s="26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L1" s="27"/>
       <c r="M1" s="26" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N1" s="27"/>
       <c r="O1" s="26" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P1" s="27"/>
       <c r="Q1" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R1" s="27"/>
       <c r="S1" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T1" s="27"/>
       <c r="U1" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V1" s="27"/>
       <c r="W1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="12">
-        <v>-9.8299999999999998E-2</v>
-      </c>
-      <c r="Z1" s="7">
-        <v>1.1243000000000001</v>
-      </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="12">
+        <v>-0.1239</v>
+      </c>
+      <c r="AF1" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AG1" s="7">
+        <v>1.3297000000000001</v>
+      </c>
+      <c r="AH1" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="10"/>
-      <c r="AL1" s="12"/>
+      <c r="AI1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AP1" s="12"/>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:42">
       <c r="A2" s="13">
         <v>1.43E-2</v>
       </c>
@@ -6258,78 +5373,94 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="G2" s="9">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I2" s="9">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="K2" s="9">
         <v>-6.7000000000000002E-3</v>
       </c>
-      <c r="H2" s="9">
+      <c r="L2" s="9">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I2" s="9">
+      <c r="M2" s="9">
         <v>-1.43E-2</v>
       </c>
-      <c r="J2" s="9">
+      <c r="N2" s="9">
         <v>0.98850000000000005</v>
       </c>
-      <c r="K2" s="9">
+      <c r="O2" s="9">
         <v>-2.2800000000000001E-2</v>
       </c>
-      <c r="L2" s="9">
+      <c r="P2" s="9">
         <v>0.99250000000000005</v>
       </c>
-      <c r="M2" s="9">
+      <c r="Q2" s="9">
         <v>-3.95E-2</v>
       </c>
-      <c r="N2" s="9">
+      <c r="R2" s="9">
         <v>1.0056</v>
       </c>
-      <c r="O2" s="9">
+      <c r="S2" s="9">
         <v>-4.2700000000000002E-2</v>
       </c>
-      <c r="P2" s="9">
+      <c r="T2" s="9">
         <v>1.0105999999999999</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="U2" s="9">
         <v>-8.7099999999999997E-2</v>
       </c>
-      <c r="R2" s="9">
+      <c r="V2" s="9">
         <v>1.0533999999999999</v>
       </c>
-      <c r="S2" s="9">
+      <c r="W2" s="9">
         <v>-8.8900000000000007E-2</v>
       </c>
-      <c r="T2" s="9">
+      <c r="X2" s="9">
         <v>1.0302</v>
       </c>
-      <c r="U2" s="9">
+      <c r="Y2" s="9">
         <v>-1.24E-2</v>
       </c>
-      <c r="V2" s="9">
+      <c r="Z2" s="9">
         <v>1.8523000000000001</v>
       </c>
-      <c r="W2" s="9">
+      <c r="AA2" s="9">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="X2" s="9">
+      <c r="AB2" s="9">
         <v>0.95430000000000004</v>
       </c>
-      <c r="Y2" s="12">
-        <v>-0.12479999999999999</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>1.1093</v>
-      </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AC2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>-0.19309999999999999</v>
+      </c>
+      <c r="AF2" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="7">
+        <v>1.3849</v>
+      </c>
+      <c r="AH2" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="10"/>
-      <c r="AL2" s="12"/>
+      <c r="AI2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AP2" s="12"/>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:42">
       <c r="A3" s="13">
         <v>9.9000000000000008E-3</v>
       </c>
@@ -6348,79 +5479,95 @@
       <c r="F3" s="9">
         <v>1.0319</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="13">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.0321</v>
+      </c>
+      <c r="I3" s="9">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1.0327</v>
+      </c>
+      <c r="K3" s="9">
         <v>-3.8E-3</v>
       </c>
-      <c r="H3" s="9">
+      <c r="L3" s="9">
         <v>1.0347</v>
       </c>
-      <c r="I3" s="9">
+      <c r="M3" s="9">
         <v>-9.4000000000000004E-3</v>
       </c>
-      <c r="J3" s="9">
+      <c r="N3" s="9">
         <v>1.0397000000000001</v>
       </c>
-      <c r="K3" s="9">
+      <c r="O3" s="9">
         <v>-1.6400000000000001E-2</v>
       </c>
-      <c r="L3" s="9">
+      <c r="P3" s="9">
         <v>1.0438000000000001</v>
       </c>
-      <c r="M3" s="9">
+      <c r="Q3" s="9">
         <v>-2.7E-2</v>
       </c>
-      <c r="N3" s="9">
+      <c r="R3" s="9">
         <v>1.0592999999999999</v>
       </c>
-      <c r="O3" s="9">
+      <c r="S3" s="9">
         <v>-2.6700000000000002E-2</v>
       </c>
-      <c r="P3" s="9">
+      <c r="T3" s="9">
         <v>1.0676000000000001</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="U3" s="9">
         <v>-0.1152</v>
       </c>
-      <c r="R3" s="9">
+      <c r="V3" s="9">
         <v>1.1004</v>
       </c>
-      <c r="S3" s="9">
+      <c r="W3" s="9">
         <v>-0.1449</v>
       </c>
-      <c r="T3" s="9">
+      <c r="X3" s="9">
         <v>1.0984</v>
       </c>
-      <c r="U3" s="9">
+      <c r="Y3" s="9">
         <v>-0.26119999999999999</v>
       </c>
-      <c r="V3" s="9">
+      <c r="Z3" s="9">
         <v>2.0834999999999999</v>
       </c>
-      <c r="W3" s="9">
+      <c r="AA3" s="9">
         <v>-0.1983</v>
       </c>
-      <c r="X3" s="9">
+      <c r="AB3" s="9">
         <v>1.0486</v>
       </c>
-      <c r="Y3" s="12">
-        <v>-5.3900000000000003E-2</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>1.1671</v>
-      </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AC3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AD3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>-7.3499999999999996E-2</v>
+      </c>
+      <c r="AF3" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AG3" s="7">
+        <v>1.2745</v>
+      </c>
+      <c r="AH3" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="10"/>
-      <c r="AL3" s="12"/>
+      <c r="AI3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AP3" s="12"/>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:42">
       <c r="A4" s="13">
         <v>2.0999999999999999E-3</v>
       </c>
@@ -6440,78 +5587,94 @@
         <v>0.92469999999999997</v>
       </c>
       <c r="G4" s="9">
+        <v>-8.6999999999999994E-3</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="I4" s="9">
+        <v>-1.21E-2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="K4" s="9">
         <v>-1.6799999999999999E-2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="L4" s="9">
         <v>0.92589999999999995</v>
       </c>
-      <c r="I4" s="9">
+      <c r="M4" s="9">
         <v>-2.6700000000000002E-2</v>
       </c>
-      <c r="J4" s="9">
+      <c r="N4" s="9">
         <v>0.93010000000000004</v>
       </c>
-      <c r="K4" s="9">
+      <c r="O4" s="9">
         <v>-3.7199999999999997E-2</v>
       </c>
-      <c r="L4" s="9">
+      <c r="P4" s="9">
         <v>0.93410000000000004</v>
       </c>
-      <c r="M4" s="9">
+      <c r="Q4" s="9">
         <v>-6.1699999999999998E-2</v>
       </c>
-      <c r="N4" s="9">
+      <c r="R4" s="9">
         <v>0.94489999999999996</v>
       </c>
-      <c r="O4" s="9">
+      <c r="S4" s="9">
         <v>-6.9000000000000006E-2</v>
       </c>
-      <c r="P4" s="9">
+      <c r="T4" s="9">
         <v>0.94620000000000004</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="U4" s="9">
         <v>-0.11409999999999999</v>
       </c>
-      <c r="R4" s="9">
+      <c r="V4" s="9">
         <v>1.1072</v>
       </c>
-      <c r="S4" s="9">
+      <c r="W4" s="9">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="T4" s="9">
+      <c r="X4" s="9">
         <v>1.1477999999999999</v>
       </c>
-      <c r="U4" s="9">
+      <c r="Y4" s="9">
         <v>-8.4500000000000006E-2</v>
       </c>
-      <c r="V4" s="9">
+      <c r="Z4" s="9">
         <v>1.6802999999999999</v>
       </c>
-      <c r="W4" s="9">
+      <c r="AA4" s="9">
         <v>-8.6499999999999994E-2</v>
       </c>
-      <c r="X4" s="9">
+      <c r="AB4" s="9">
         <v>1.2423</v>
       </c>
-      <c r="Y4" s="12">
-        <v>-0.14430000000000001</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>1.1082000000000001</v>
-      </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AC4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AD4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>-0.2366</v>
+      </c>
+      <c r="AF4" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AG4" s="7">
+        <v>1.4634</v>
+      </c>
+      <c r="AH4" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="10"/>
-      <c r="AL4" s="12"/>
+      <c r="AI4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AP4" s="12"/>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:42">
       <c r="A5" s="13">
         <v>1.3100000000000001E-2</v>
       </c>
@@ -6531,78 +5694,94 @@
         <v>1.0779000000000001</v>
       </c>
       <c r="G5" s="9">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1.0781000000000001</v>
+      </c>
+      <c r="I5" s="9">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1.0791999999999999</v>
+      </c>
+      <c r="K5" s="9">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="H5" s="9">
+      <c r="L5" s="9">
         <v>1.0814999999999999</v>
       </c>
-      <c r="I5" s="9">
+      <c r="M5" s="9">
         <v>-1.01E-2</v>
       </c>
-      <c r="J5" s="9">
+      <c r="N5" s="9">
         <v>1.0869</v>
       </c>
-      <c r="K5" s="9">
+      <c r="O5" s="9">
         <v>-1.5900000000000001E-2</v>
       </c>
-      <c r="L5" s="9">
+      <c r="P5" s="9">
         <v>1.0911999999999999</v>
       </c>
-      <c r="M5" s="9">
+      <c r="Q5" s="9">
         <v>-2.1600000000000001E-2</v>
       </c>
-      <c r="N5" s="9">
+      <c r="R5" s="9">
         <v>1.1091</v>
       </c>
-      <c r="O5" s="9">
+      <c r="S5" s="9">
         <v>-9.1700000000000004E-2</v>
       </c>
-      <c r="P5" s="9">
+      <c r="T5" s="9">
         <v>1.0738000000000001</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="U5" s="9">
         <v>-0.1472</v>
       </c>
-      <c r="R5" s="9">
+      <c r="V5" s="9">
         <v>1.0589</v>
       </c>
-      <c r="S5" s="9">
+      <c r="W5" s="9">
         <v>-6.7299999999999999E-2</v>
       </c>
-      <c r="T5" s="9">
+      <c r="X5" s="9">
         <v>1.1948000000000001</v>
       </c>
-      <c r="U5" s="9">
+      <c r="Y5" s="9">
         <v>-0.32790000000000002</v>
       </c>
-      <c r="V5" s="9">
+      <c r="Z5" s="9">
         <v>1.8499000000000001</v>
       </c>
-      <c r="W5" s="9">
+      <c r="AA5" s="9">
         <v>-0.1145</v>
       </c>
-      <c r="X5" s="9">
+      <c r="AB5" s="9">
         <v>0.72950000000000004</v>
       </c>
-      <c r="Y5" s="12">
-        <v>-0.16350000000000001</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>1.0784</v>
-      </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AC5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC5" s="7" t="s">
+      <c r="AD5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>-3.9899999999999998E-2</v>
+      </c>
+      <c r="AF5" t="s">
         <v>10</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AG5" s="7">
+        <v>1.2197</v>
+      </c>
+      <c r="AH5" t="s">
         <v>11</v>
       </c>
-      <c r="AG5" s="10"/>
-      <c r="AL5" s="12"/>
+      <c r="AI5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AP5" s="12"/>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:42">
       <c r="A6" s="9">
         <v>-7.9000000000000008E-3</v>
       </c>
@@ -6622,78 +5801,94 @@
         <v>1.1218999999999999</v>
       </c>
       <c r="G6" s="9">
+        <v>-9.4000000000000004E-3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1.1222000000000001</v>
+      </c>
+      <c r="I6" s="9">
+        <v>-1.0500000000000001E-2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1.1235999999999999</v>
+      </c>
+      <c r="K6" s="9">
         <v>-1.2E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="L6" s="9">
         <v>1.1262000000000001</v>
       </c>
-      <c r="I6" s="9">
+      <c r="M6" s="9">
         <v>-1.52E-2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="N6" s="9">
         <v>1.1318999999999999</v>
       </c>
-      <c r="K6" s="9">
+      <c r="O6" s="9">
         <v>-0.121</v>
       </c>
-      <c r="L6" s="9">
+      <c r="P6" s="9">
         <v>1.0497000000000001</v>
       </c>
-      <c r="M6" s="9">
+      <c r="Q6" s="9">
         <v>-9.1300000000000006E-2</v>
       </c>
-      <c r="N6" s="9">
+      <c r="R6" s="9">
         <v>1.0896999999999999</v>
       </c>
-      <c r="O6" s="9">
+      <c r="S6" s="9">
         <v>-1.83E-2</v>
       </c>
-      <c r="P6" s="9">
+      <c r="T6" s="9">
         <v>1.1207</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="U6" s="9">
         <v>-0.14899999999999999</v>
       </c>
-      <c r="R6" s="9">
+      <c r="V6" s="9">
         <v>1.056</v>
       </c>
-      <c r="S6" s="9">
+      <c r="W6" s="9">
         <v>-0.21299999999999999</v>
       </c>
-      <c r="T6" s="9">
+      <c r="X6" s="9">
         <v>1.0441</v>
       </c>
-      <c r="U6" s="9">
+      <c r="Y6" s="9">
         <v>-0.3357</v>
       </c>
-      <c r="V6" s="9">
+      <c r="Z6" s="9">
         <v>1.8130999999999999</v>
       </c>
-      <c r="W6" s="9">
+      <c r="AA6" s="9">
         <v>-0.29499999999999998</v>
       </c>
-      <c r="X6" s="9">
+      <c r="AB6" s="9">
         <v>0.90980000000000005</v>
       </c>
-      <c r="Y6" s="12">
-        <v>-0.1489</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>1.1251</v>
-      </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AC6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="7" t="s">
+      <c r="AD6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>-0.28820000000000001</v>
+      </c>
+      <c r="AF6" t="s">
         <v>10</v>
       </c>
-      <c r="AE6" s="10" t="s">
+      <c r="AG6" s="7">
+        <v>1.4387000000000001</v>
+      </c>
+      <c r="AH6" t="s">
         <v>11</v>
       </c>
-      <c r="AG6" s="10"/>
-      <c r="AL6" s="12"/>
+      <c r="AI6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AP6" s="12"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:42">
       <c r="A7" s="13">
         <v>3.8E-3</v>
       </c>
@@ -6713,78 +5908,94 @@
         <v>0.86119999999999997</v>
       </c>
       <c r="G7" s="9">
+        <v>-2.6200000000000001E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="I7" s="9">
+        <v>-3.0700000000000002E-2</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="K7" s="9">
         <v>-0.13250000000000001</v>
       </c>
-      <c r="H7" s="9">
+      <c r="L7" s="9">
         <v>1.0471999999999999</v>
       </c>
-      <c r="I7" s="9">
+      <c r="M7" s="9">
         <v>-0.1263</v>
       </c>
-      <c r="J7" s="9">
+      <c r="N7" s="9">
         <v>1.0488</v>
       </c>
-      <c r="K7" s="9">
+      <c r="O7" s="9">
         <v>-0.126</v>
       </c>
-      <c r="L7" s="9">
+      <c r="P7" s="9">
         <v>0.95330000000000004</v>
       </c>
-      <c r="M7" s="9">
+      <c r="Q7" s="9">
         <v>-0.12770000000000001</v>
       </c>
-      <c r="N7" s="9">
+      <c r="R7" s="9">
         <v>1.0638000000000001</v>
       </c>
-      <c r="O7" s="9">
+      <c r="S7" s="9">
         <v>-0.1087</v>
       </c>
-      <c r="P7" s="9">
+      <c r="T7" s="9">
         <v>0.87660000000000005</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="U7" s="9">
         <v>-9.1999999999999998E-2</v>
       </c>
-      <c r="R7" s="9">
+      <c r="V7" s="9">
         <v>1.1519999999999999</v>
       </c>
-      <c r="S7" s="9">
+      <c r="W7" s="9">
         <v>-4.7399999999999998E-2</v>
       </c>
-      <c r="T7" s="9">
+      <c r="X7" s="9">
         <v>1.2401</v>
       </c>
-      <c r="U7" s="9">
+      <c r="Y7" s="9">
         <v>-0.28820000000000001</v>
       </c>
-      <c r="V7" s="9">
+      <c r="Z7" s="9">
         <v>1.7383</v>
       </c>
-      <c r="W7" s="9">
+      <c r="AA7" s="9">
         <v>-0.31319999999999998</v>
       </c>
-      <c r="X7" s="9">
+      <c r="AB7" s="9">
         <v>1.012</v>
       </c>
-      <c r="Y7" s="12">
-        <v>-2.4500000000000001E-2</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>1.2081999999999999</v>
-      </c>
-      <c r="AA7" s="12" t="s">
+      <c r="AC7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC7" s="7" t="s">
+      <c r="AD7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>-2.0299999999999999E-2</v>
+      </c>
+      <c r="AF7" t="s">
         <v>10</v>
       </c>
-      <c r="AE7" s="10" t="s">
+      <c r="AG7" s="7">
+        <v>1.1684000000000001</v>
+      </c>
+      <c r="AH7" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="10"/>
-      <c r="AL7" s="12"/>
+      <c r="AI7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AP7" s="12"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:42">
       <c r="A8" s="9">
         <v>-2.1399999999999999E-2</v>
       </c>
@@ -6804,78 +6015,94 @@
         <v>1.0475000000000001</v>
       </c>
       <c r="G8" s="9">
+        <v>-0.14130000000000001</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.0472999999999999</v>
+      </c>
+      <c r="I8" s="9">
+        <v>-0.13689999999999999</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1.0468</v>
+      </c>
+      <c r="K8" s="9">
         <v>-0.13070000000000001</v>
       </c>
-      <c r="H8" s="9">
+      <c r="L8" s="9">
         <v>0.9425</v>
       </c>
-      <c r="I8" s="9">
+      <c r="M8" s="9">
         <v>-0.12820000000000001</v>
       </c>
-      <c r="J8" s="9">
+      <c r="N8" s="9">
         <v>0.94869999999999999</v>
       </c>
-      <c r="K8" s="9">
+      <c r="O8" s="9">
         <v>-2.01E-2</v>
       </c>
-      <c r="L8" s="9">
+      <c r="P8" s="9">
         <v>1.1362000000000001</v>
       </c>
-      <c r="M8" s="9">
+      <c r="Q8" s="9">
         <v>-0.14360000000000001</v>
       </c>
-      <c r="N8" s="9">
+      <c r="R8" s="9">
         <v>0.9829</v>
       </c>
-      <c r="O8" s="9">
+      <c r="S8" s="9">
         <v>-1.6400000000000001E-2</v>
       </c>
-      <c r="P8" s="9">
+      <c r="T8" s="9">
         <v>1.171</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="U8" s="9">
         <v>-0.18429999999999999</v>
       </c>
-      <c r="R8" s="9">
+      <c r="V8" s="9">
         <v>1.0217000000000001</v>
       </c>
-      <c r="S8" s="9">
+      <c r="W8" s="9">
         <v>-0.1676</v>
       </c>
-      <c r="T8" s="9">
+      <c r="X8" s="9">
         <v>1.1785000000000001</v>
       </c>
-      <c r="U8" s="9">
+      <c r="Y8" s="9">
         <v>-0.35160000000000002</v>
       </c>
-      <c r="V8" s="9">
+      <c r="Z8" s="9">
         <v>2.1926999999999999</v>
       </c>
-      <c r="W8" s="9">
+      <c r="AA8" s="9">
         <v>-3.7499999999999999E-2</v>
       </c>
-      <c r="X8" s="9">
+      <c r="AB8" s="9">
         <v>1.3229</v>
       </c>
-      <c r="Y8" s="12">
-        <v>-0.17530000000000001</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0.86370000000000002</v>
-      </c>
-      <c r="AA8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC8" s="7" t="s">
+      <c r="AC8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>-0.17979999999999999</v>
+      </c>
+      <c r="AF8" t="s">
         <v>10</v>
       </c>
-      <c r="AE8" s="10" t="s">
+      <c r="AG8" s="7">
+        <v>1.1958</v>
+      </c>
+      <c r="AH8" t="s">
         <v>11</v>
       </c>
-      <c r="AG8" s="10"/>
-      <c r="AL8" s="12"/>
+      <c r="AI8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AP8" s="12"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:42">
       <c r="A9" s="9">
         <v>-9.69E-2</v>
       </c>
@@ -6895,78 +6122,94 @@
         <v>0.93679999999999997</v>
       </c>
       <c r="G9" s="9">
+        <v>-0.13569999999999999</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="I9" s="9">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="K9" s="9">
         <v>-3.6900000000000002E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="L9" s="9">
         <v>0.8619</v>
       </c>
-      <c r="I9" s="9">
+      <c r="M9" s="9">
         <v>-4.9700000000000001E-2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="N9" s="9">
         <v>0.8659</v>
       </c>
-      <c r="K9" s="9">
+      <c r="O9" s="9">
         <v>-6.2600000000000003E-2</v>
       </c>
-      <c r="L9" s="9">
+      <c r="P9" s="9">
         <v>0.87</v>
       </c>
-      <c r="M9" s="9">
+      <c r="Q9" s="9">
         <v>-9.6699999999999994E-2</v>
       </c>
-      <c r="N9" s="9">
+      <c r="R9" s="9">
         <v>0.87919999999999998</v>
       </c>
-      <c r="O9" s="9">
+      <c r="S9" s="9">
         <v>-0.17849999999999999</v>
       </c>
-      <c r="P9" s="9">
+      <c r="T9" s="9">
         <v>1.0297000000000001</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="U9" s="9">
         <v>-0.1008</v>
       </c>
-      <c r="R9" s="9">
+      <c r="V9" s="9">
         <v>1.1662999999999999</v>
       </c>
-      <c r="S9" s="9">
+      <c r="W9" s="9">
         <v>-0.14399999999999999</v>
       </c>
-      <c r="T9" s="9">
+      <c r="X9" s="9">
         <v>1.2033</v>
       </c>
-      <c r="U9" s="9">
+      <c r="Y9" s="9">
         <v>-0.40460000000000002</v>
       </c>
-      <c r="V9" s="9">
+      <c r="Z9" s="9">
         <v>1.9601999999999999</v>
       </c>
-      <c r="W9" s="9">
+      <c r="AA9" s="9">
         <v>-0.27810000000000001</v>
       </c>
-      <c r="X9" s="9">
+      <c r="AB9" s="9">
         <v>0.80049999999999999</v>
       </c>
-      <c r="Y9" s="12">
-        <v>-0.17899999999999999</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>1.1367</v>
-      </c>
-      <c r="AA9" s="12" t="s">
+      <c r="AC9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="7" t="s">
+      <c r="AD9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>-0.24640000000000001</v>
+      </c>
+      <c r="AF9" t="s">
         <v>10</v>
       </c>
-      <c r="AE9" s="10" t="s">
+      <c r="AG9" s="7">
+        <v>1.7737000000000001</v>
+      </c>
+      <c r="AH9" t="s">
         <v>11</v>
       </c>
-      <c r="AG9" s="10"/>
-      <c r="AL9" s="12"/>
+      <c r="AI9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AP9" s="12"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:42">
       <c r="A10" s="9">
         <v>-0.19089999999999999</v>
       </c>
@@ -6986,78 +6229,94 @@
         <v>1.1328</v>
       </c>
       <c r="G10" s="9">
+        <v>-9.4500000000000001E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1.1318999999999999</v>
+      </c>
+      <c r="I10" s="9">
+        <v>-9.4100000000000003E-2</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1.1284000000000001</v>
+      </c>
+      <c r="K10" s="9">
         <v>-9.3799999999999994E-2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="L10" s="9">
         <v>1.1245000000000001</v>
       </c>
-      <c r="I10" s="9">
+      <c r="M10" s="9">
         <v>-9.3299999999999994E-2</v>
       </c>
-      <c r="J10" s="9">
+      <c r="N10" s="9">
         <v>1.1177999999999999</v>
       </c>
-      <c r="K10" s="9">
+      <c r="O10" s="9">
         <v>-9.2799999999999994E-2</v>
       </c>
-      <c r="L10" s="9">
+      <c r="P10" s="9">
         <v>1.1121000000000001</v>
       </c>
-      <c r="M10" s="9">
+      <c r="Q10" s="9">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="N10" s="9">
+      <c r="R10" s="9">
         <v>1.1564000000000001</v>
       </c>
-      <c r="O10" s="9">
+      <c r="S10" s="9">
         <v>-0.15690000000000001</v>
       </c>
-      <c r="P10" s="9">
+      <c r="T10" s="9">
         <v>1.0954999999999999</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="U10" s="9">
         <v>-0.19750000000000001</v>
       </c>
-      <c r="R10" s="9">
+      <c r="V10" s="9">
         <v>1.0037</v>
       </c>
-      <c r="S10" s="9">
+      <c r="W10" s="9">
         <v>-0.25130000000000002</v>
       </c>
-      <c r="T10" s="9">
+      <c r="X10" s="9">
         <v>1.0155000000000001</v>
       </c>
-      <c r="U10" s="9">
+      <c r="Y10" s="9">
         <v>-0.2054</v>
       </c>
-      <c r="V10" s="9">
+      <c r="Z10" s="9">
         <v>1.6243000000000001</v>
       </c>
-      <c r="W10" s="9">
+      <c r="AA10" s="9">
         <v>-0.32800000000000001</v>
       </c>
-      <c r="X10" s="9">
+      <c r="AB10" s="9">
         <v>1.1084000000000001</v>
       </c>
-      <c r="Y10" s="12">
-        <v>-0.21390000000000001</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>1.1193</v>
-      </c>
-      <c r="AA10" s="12" t="s">
+      <c r="AC10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="7" t="s">
+      <c r="AD10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>-9.4000000000000004E-3</v>
+      </c>
+      <c r="AF10" t="s">
         <v>10</v>
       </c>
-      <c r="AE10" s="10" t="s">
+      <c r="AG10" s="7">
+        <v>1.1222000000000001</v>
+      </c>
+      <c r="AH10" t="s">
         <v>11</v>
       </c>
-      <c r="AG10" s="10"/>
-      <c r="AL10" s="12"/>
+      <c r="AI10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AP10" s="12"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:42">
       <c r="A11" s="9">
         <v>-4.4400000000000002E-2</v>
       </c>
@@ -7077,1144 +6336,1433 @@
         <v>1.1680999999999999</v>
       </c>
       <c r="G11" s="9">
+        <v>-2.0299999999999999E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1.1684000000000001</v>
+      </c>
+      <c r="I11" s="9">
+        <v>-2.12E-2</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1.17</v>
+      </c>
+      <c r="K11" s="9">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="L11" s="9">
         <v>1.1727000000000001</v>
       </c>
-      <c r="I11" s="9">
+      <c r="M11" s="9">
         <v>-2.4500000000000001E-2</v>
       </c>
-      <c r="J11" s="9">
+      <c r="N11" s="9">
         <v>1.1783999999999999</v>
       </c>
-      <c r="K11" s="9">
+      <c r="O11" s="9">
         <v>-2.86E-2</v>
       </c>
-      <c r="L11" s="9">
+      <c r="P11" s="9">
         <v>1.1825000000000001</v>
       </c>
-      <c r="M11" s="9">
+      <c r="Q11" s="9">
         <v>-0.1706</v>
       </c>
-      <c r="N11" s="9">
+      <c r="R11" s="9">
         <v>0.91579999999999995</v>
       </c>
-      <c r="O11" s="9">
+      <c r="S11" s="9">
         <v>-0.20319999999999999</v>
       </c>
-      <c r="P11" s="9">
+      <c r="T11" s="9">
         <v>0.97470000000000001</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="U11" s="9">
         <v>-7.9399999999999998E-2</v>
       </c>
-      <c r="R11" s="9">
+      <c r="V11" s="9">
         <v>1.1944999999999999</v>
       </c>
-      <c r="S11" s="9">
+      <c r="W11" s="9">
         <v>-0.23669999999999999</v>
       </c>
-      <c r="T11" s="9">
+      <c r="X11" s="9">
         <v>1.0889</v>
       </c>
-      <c r="U11" s="9">
+      <c r="Y11" s="9">
         <v>-0.32190000000000002</v>
       </c>
-      <c r="V11" s="9">
+      <c r="Z11" s="9">
         <v>1.6353</v>
       </c>
-      <c r="W11" s="9">
+      <c r="AA11" s="9">
         <v>-1.0200000000000001E-2</v>
       </c>
-      <c r="X11" s="9">
+      <c r="AB11" s="9">
         <v>1.3651</v>
       </c>
-      <c r="Y11">
-        <v>-8.6400000000000005E-2</v>
-      </c>
-      <c r="Z11">
-        <v>1.42</v>
+      <c r="AD11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE11">
+        <v>-0.2261</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG11">
+        <v>2.1333000000000002</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:42">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="9">
+        <v>-0.1239</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1.3297000000000001</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="9">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9">
         <v>-0.1191</v>
       </c>
-      <c r="L12" s="9">
+      <c r="P12" s="9">
         <v>1.3427</v>
       </c>
-      <c r="M12" s="9">
+      <c r="Q12" s="9">
         <v>-0.10589999999999999</v>
       </c>
-      <c r="N12" s="9">
+      <c r="R12" s="9">
         <v>1.3667</v>
       </c>
-      <c r="O12" s="9">
+      <c r="S12" s="9">
         <v>-0.29409999999999997</v>
       </c>
-      <c r="P12" s="9">
+      <c r="T12" s="9">
         <v>2.0175999999999998</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="U12" s="9">
         <v>-0.11990000000000001</v>
       </c>
-      <c r="R12" s="9">
+      <c r="V12" s="9">
         <v>1.3787</v>
       </c>
-      <c r="S12" s="9">
+      <c r="W12" s="9">
         <v>-7.6600000000000001E-2</v>
       </c>
-      <c r="T12" s="9">
+      <c r="X12" s="9">
         <v>1.4282999999999999</v>
       </c>
-      <c r="U12" s="9">
+      <c r="Y12" s="9">
         <v>-5.0200000000000002E-2</v>
       </c>
-      <c r="V12" s="9">
+      <c r="Z12" s="9">
         <v>1.4135</v>
       </c>
-      <c r="W12" s="9">
+      <c r="AA12" s="9">
         <v>-5.1000000000000004E-3</v>
       </c>
-      <c r="X12" s="9">
+      <c r="AB12" s="9">
         <v>1.4365000000000001</v>
       </c>
-      <c r="Y12">
-        <v>-4.2099999999999999E-2</v>
-      </c>
-      <c r="Z12">
-        <v>1.3858999999999999</v>
+      <c r="AD12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE12">
+        <v>-0.24640000000000001</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG12">
+        <v>1.7737000000000001</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:42">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="9">
+        <v>-0.19309999999999999</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1.3849</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="9">
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9">
         <v>-0.1794</v>
       </c>
-      <c r="L13" s="9">
+      <c r="P13" s="9">
         <v>1.3998999999999999</v>
       </c>
-      <c r="M13" s="9">
+      <c r="Q13" s="9">
         <v>-0.15870000000000001</v>
       </c>
-      <c r="N13" s="9">
+      <c r="R13" s="9">
         <v>1.4259999999999999</v>
       </c>
-      <c r="O13" s="9">
+      <c r="S13" s="9">
         <v>-0.30790000000000001</v>
       </c>
-      <c r="P13" s="9">
+      <c r="T13" s="9">
         <v>1.9577</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="U13" s="9">
         <v>-0.159</v>
       </c>
-      <c r="R13" s="9">
+      <c r="V13" s="9">
         <v>1.4369000000000001</v>
       </c>
-      <c r="S13" s="9">
+      <c r="W13" s="9">
         <v>-0.11849999999999999</v>
       </c>
-      <c r="T13" s="9">
+      <c r="X13" s="9">
         <v>1.4825999999999999</v>
       </c>
-      <c r="U13" s="9">
+      <c r="Y13" s="9">
         <v>-4.5900000000000003E-2</v>
       </c>
-      <c r="V13" s="9">
+      <c r="Z13" s="9">
         <v>1.3993</v>
       </c>
-      <c r="W13" s="9">
+      <c r="AA13" s="9">
         <v>-2.7E-2</v>
       </c>
-      <c r="X13" s="9">
+      <c r="AB13" s="9">
         <v>1.4397</v>
       </c>
-      <c r="Y13">
-        <v>-0.12089999999999999</v>
-      </c>
-      <c r="Z13">
-        <v>1.5650999999999999</v>
+      <c r="AD13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE13">
+        <v>-0.3422</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG13">
+        <v>1.9400999999999999</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:42">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="9">
+        <v>-7.3499999999999996E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1.2745</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="9">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9">
         <v>-7.4700000000000003E-2</v>
       </c>
-      <c r="L14" s="9">
+      <c r="P14" s="9">
         <v>1.2873000000000001</v>
       </c>
-      <c r="M14" s="9">
+      <c r="Q14" s="9">
         <v>-6.6900000000000001E-2</v>
       </c>
-      <c r="N14" s="9">
+      <c r="R14" s="9">
         <v>1.3103</v>
       </c>
-      <c r="O14" s="9">
+      <c r="S14" s="9">
         <v>-0.2132</v>
       </c>
-      <c r="P14" s="9">
+      <c r="T14" s="9">
         <v>1.7091000000000001</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="U14" s="9">
         <v>-9.2600000000000002E-2</v>
       </c>
-      <c r="R14" s="9">
+      <c r="V14" s="9">
         <v>1.3281000000000001</v>
       </c>
-      <c r="S14" s="9">
+      <c r="W14" s="9">
         <v>-4.9700000000000001E-2</v>
       </c>
-      <c r="T14" s="9">
+      <c r="X14" s="9">
         <v>1.3792</v>
       </c>
-      <c r="U14" s="9">
+      <c r="Y14" s="9">
         <v>-7.7499999999999999E-2</v>
       </c>
-      <c r="V14" s="9">
+      <c r="Z14" s="9">
         <v>1.4133</v>
       </c>
-      <c r="W14" s="13">
+      <c r="AA14" s="13">
         <v>6.3E-3</v>
       </c>
-      <c r="X14" s="9">
+      <c r="AB14" s="9">
         <v>1.4339999999999999</v>
       </c>
-      <c r="Y14">
-        <v>-1.49E-2</v>
-      </c>
-      <c r="Z14">
-        <v>1.3527</v>
+      <c r="AD14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE14">
+        <v>-0.31540000000000001</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14">
+        <v>1.7704</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="18">
+    <row r="15" spans="1:42" ht="18">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="9">
+        <v>-0.2366</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1.4634</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9">
         <v>-0.22900000000000001</v>
       </c>
-      <c r="L15" s="9">
+      <c r="P15" s="9">
         <v>1.4092</v>
       </c>
-      <c r="M15" s="9">
+      <c r="Q15" s="9">
         <v>-0.2281</v>
       </c>
-      <c r="N15" s="9">
+      <c r="R15" s="9">
         <v>1.4903999999999999</v>
       </c>
-      <c r="O15" s="9">
+      <c r="S15" s="9">
         <v>-0.2923</v>
       </c>
-      <c r="P15" s="9">
+      <c r="T15" s="9">
         <v>1.7077</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="U15" s="9">
         <v>-0.2094</v>
       </c>
-      <c r="R15" s="9">
+      <c r="V15" s="9">
         <v>1.5084</v>
       </c>
-      <c r="S15" s="9">
+      <c r="W15" s="9">
         <v>-3.6900000000000002E-2</v>
       </c>
-      <c r="T15" s="9">
+      <c r="X15" s="9">
         <v>1.3312999999999999</v>
       </c>
-      <c r="U15" s="9">
+      <c r="Y15" s="9">
         <v>-6.0999999999999999E-2</v>
       </c>
-      <c r="V15" s="9">
+      <c r="Z15" s="9">
         <v>1.381</v>
       </c>
-      <c r="W15" s="13">
+      <c r="AA15" s="13">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="X15" s="9">
+      <c r="AB15" s="9">
         <v>1.4268000000000001</v>
       </c>
-      <c r="Y15">
-        <v>-0.1535</v>
-      </c>
-      <c r="Z15">
-        <v>1.4659</v>
-      </c>
-      <c r="AE15" s="11"/>
+      <c r="AD15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE15">
+        <v>-0.26769999999999999</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG15">
+        <v>2.4479000000000002</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:38" ht="18">
+    <row r="16" spans="1:42" ht="18">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="9">
+        <v>-3.9899999999999998E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1.2197</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9">
         <v>-0.26040000000000002</v>
       </c>
-      <c r="L16" s="9">
+      <c r="P16" s="9">
         <v>1.4594</v>
       </c>
-      <c r="M16" s="9">
+      <c r="Q16" s="9">
         <v>-4.1300000000000003E-2</v>
       </c>
-      <c r="N16" s="9">
+      <c r="R16" s="9">
         <v>1.2557</v>
       </c>
-      <c r="O16" s="9">
+      <c r="S16" s="9">
         <v>-0.35160000000000002</v>
       </c>
-      <c r="P16" s="9">
+      <c r="T16" s="9">
         <v>1.7136</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="U16" s="9">
         <v>-7.7700000000000005E-2</v>
       </c>
-      <c r="R16" s="9">
+      <c r="V16" s="9">
         <v>1.2808999999999999</v>
       </c>
-      <c r="S16" s="9">
+      <c r="W16" s="9">
         <v>-0.17480000000000001</v>
       </c>
-      <c r="T16" s="9">
+      <c r="X16" s="9">
         <v>1.5508999999999999</v>
       </c>
-      <c r="U16" s="9">
+      <c r="Y16" s="9">
         <v>-9.3899999999999997E-2</v>
       </c>
-      <c r="V16" s="9">
+      <c r="Z16" s="9">
         <v>1.367</v>
       </c>
-      <c r="W16" s="9">
+      <c r="AA16" s="9">
         <v>-5.74E-2</v>
       </c>
-      <c r="X16" s="9">
+      <c r="AB16" s="9">
         <v>1.4495</v>
       </c>
-      <c r="Y16">
-        <v>-9.2299999999999993E-2</v>
-      </c>
-      <c r="Z16">
-        <v>1.6335999999999999</v>
-      </c>
-      <c r="AE16" s="11"/>
+      <c r="AD16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE16">
+        <v>-0.2366</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG16">
+        <v>1.4634</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI16" s="11"/>
     </row>
-    <row r="17" spans="1:31" ht="18">
+    <row r="17" spans="1:35" ht="18">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="9">
+        <v>-0.28820000000000001</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1.4387000000000001</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9">
         <v>-4.5199999999999997E-2</v>
       </c>
-      <c r="L17" s="9">
+      <c r="P17" s="9">
         <v>1.2332000000000001</v>
       </c>
-      <c r="M17" s="9">
+      <c r="Q17" s="9">
         <v>-0.21160000000000001</v>
       </c>
-      <c r="N17" s="9">
+      <c r="R17" s="9">
         <v>1.3565</v>
       </c>
-      <c r="O17" s="9">
+      <c r="S17" s="9">
         <v>-0.27700000000000002</v>
       </c>
-      <c r="P17" s="9">
+      <c r="T17" s="9">
         <v>1.5871999999999999</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="U17" s="9">
         <v>-0.14369999999999999</v>
       </c>
-      <c r="R17" s="9">
+      <c r="V17" s="9">
         <v>1.2873000000000001</v>
       </c>
-      <c r="S17" s="9">
+      <c r="W17" s="9">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="T17" s="9">
+      <c r="X17" s="9">
         <v>1.2848999999999999</v>
       </c>
-      <c r="U17" s="9">
+      <c r="Y17" s="9">
         <v>-0.1221</v>
       </c>
-      <c r="V17" s="9">
+      <c r="Z17" s="9">
         <v>1.3687</v>
       </c>
-      <c r="W17" s="13">
+      <c r="AA17" s="13">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="X17" s="9">
+      <c r="AB17" s="9">
         <v>1.4125000000000001</v>
       </c>
-      <c r="Y17">
-        <v>-1.4E-3</v>
-      </c>
-      <c r="Z17">
-        <v>1.3180000000000001</v>
-      </c>
-      <c r="AE17" s="11"/>
+      <c r="AD17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE17">
+        <v>-0.39689999999999998</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG17">
+        <v>1.5598000000000001</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:31" ht="18">
+    <row r="18" spans="1:35" ht="18">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="9">
+        <v>-2.0299999999999999E-2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1.1684000000000001</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="9">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9">
         <v>-2.86E-2</v>
       </c>
-      <c r="L18" s="9">
+      <c r="P18" s="9">
         <v>1.1825000000000001</v>
       </c>
-      <c r="M18" s="9">
+      <c r="Q18" s="9">
         <v>-2.7799999999999998E-2</v>
       </c>
-      <c r="N18" s="9">
+      <c r="R18" s="9">
         <v>1.2041999999999999</v>
       </c>
-      <c r="O18" s="9">
+      <c r="S18" s="9">
         <v>-0.376</v>
       </c>
-      <c r="P18" s="9">
+      <c r="T18" s="9">
         <v>2.3346</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="U18" s="9">
         <v>-0.16719999999999999</v>
       </c>
-      <c r="R18" s="9">
+      <c r="V18" s="9">
         <v>1.7121999999999999</v>
       </c>
-      <c r="S18" s="9">
+      <c r="W18" s="9">
         <v>-4.7399999999999998E-2</v>
       </c>
-      <c r="T18" s="9">
+      <c r="X18" s="9">
         <v>1.2401</v>
       </c>
-      <c r="U18" s="9">
+      <c r="Y18" s="9">
         <v>-8.4500000000000006E-2</v>
       </c>
-      <c r="V18" s="9">
+      <c r="Z18" s="9">
         <v>1.6802999999999999</v>
       </c>
-      <c r="W18" s="9">
+      <c r="AA18" s="9">
         <v>-9.1899999999999996E-2</v>
       </c>
-      <c r="X18" s="9">
+      <c r="AB18" s="9">
         <v>1.4694</v>
       </c>
-      <c r="Y18">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="Z18">
-        <v>1.2826</v>
-      </c>
-      <c r="AE18" s="11"/>
+      <c r="AD18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE18">
+        <v>-0.34350000000000003</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG18">
+        <v>2.4982000000000002</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:31" ht="18">
+    <row r="19" spans="1:35" ht="18">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="9">
+        <v>-0.17979999999999999</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1.1958</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="9">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9">
         <v>-0.22919999999999999</v>
       </c>
-      <c r="L19" s="9">
+      <c r="P19" s="9">
         <v>1.7507999999999999</v>
       </c>
-      <c r="M19" s="9">
+      <c r="Q19" s="9">
         <v>-0.21240000000000001</v>
       </c>
-      <c r="N19" s="9">
+      <c r="R19" s="9">
         <v>1.7239</v>
       </c>
-      <c r="O19" s="9">
+      <c r="S19" s="9">
         <v>-0.2908</v>
       </c>
-      <c r="P19" s="9">
+      <c r="T19" s="9">
         <v>2.4114</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="U19" s="9">
         <v>-7.4300000000000005E-2</v>
       </c>
-      <c r="R19" s="9">
+      <c r="V19" s="9">
         <v>1.2365999999999999</v>
       </c>
-      <c r="S19" s="9">
+      <c r="W19" s="9">
         <v>-0.17829999999999999</v>
       </c>
-      <c r="T19" s="9">
+      <c r="X19" s="9">
         <v>1.6972</v>
       </c>
-      <c r="U19" s="9">
+      <c r="Y19" s="9">
         <v>-0.1004</v>
       </c>
-      <c r="V19" s="9">
+      <c r="Z19" s="9">
         <v>1.2994000000000001</v>
       </c>
-      <c r="W19" s="13">
+      <c r="AA19" s="13">
         <v>2.3E-3</v>
       </c>
-      <c r="X19" s="9">
+      <c r="AB19" s="9">
         <v>1.3924000000000001</v>
       </c>
-      <c r="Y19">
-        <v>-0.2359</v>
-      </c>
-      <c r="Z19">
-        <v>1.5385</v>
-      </c>
-      <c r="AE19" s="11"/>
+      <c r="AD19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE19">
+        <v>-0.28820000000000001</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG19">
+        <v>1.4387000000000001</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:31" ht="18">
+    <row r="20" spans="1:35" ht="18">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="9">
+        <v>-0.24640000000000001</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1.7737000000000001</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="9">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9">
         <v>-0.14660000000000001</v>
       </c>
-      <c r="L20" s="9">
+      <c r="P20" s="9">
         <v>1.1751</v>
       </c>
-      <c r="M20" s="9">
+      <c r="Q20" s="9">
         <v>-0.31809999999999999</v>
       </c>
-      <c r="N20" s="9">
+      <c r="R20" s="9">
         <v>1.5532999999999999</v>
       </c>
-      <c r="O20" s="9">
+      <c r="S20" s="9">
         <v>-0.36840000000000001</v>
       </c>
-      <c r="P20" s="9">
+      <c r="T20" s="9">
         <v>1.6447000000000001</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="U20" s="9">
         <v>-0.27079999999999999</v>
       </c>
-      <c r="R20" s="9">
+      <c r="V20" s="9">
         <v>1.5912999999999999</v>
       </c>
-      <c r="S20" s="9">
+      <c r="W20" s="9">
         <v>-0.15590000000000001</v>
       </c>
-      <c r="T20" s="9">
+      <c r="X20" s="9">
         <v>1.2833000000000001</v>
       </c>
-      <c r="U20" s="9">
+      <c r="Y20" s="9">
         <v>-0.1295</v>
       </c>
-      <c r="V20" s="9">
+      <c r="Z20" s="9">
         <v>1.3130999999999999</v>
       </c>
-      <c r="W20" s="9">
+      <c r="AA20" s="9">
         <v>-0.12620000000000001</v>
       </c>
-      <c r="X20" s="9">
+      <c r="AB20" s="9">
         <v>1.5001</v>
       </c>
-      <c r="Y20">
-        <v>-7.4000000000000003E-3</v>
-      </c>
-      <c r="Z20">
-        <v>1.2465999999999999</v>
-      </c>
-      <c r="AE20" s="11"/>
+      <c r="AD20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE20">
+        <v>-0.19309999999999999</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG20">
+        <v>1.3849</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="1:31" ht="18">
+    <row r="21" spans="1:35" ht="18">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="G21" s="9">
+        <v>-9.4000000000000004E-3</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1.1222000000000001</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="9">
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9">
         <v>-2.01E-2</v>
       </c>
-      <c r="L21" s="9">
+      <c r="P21" s="9">
         <v>1.1362000000000001</v>
       </c>
-      <c r="M21" s="9">
+      <c r="Q21" s="9">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="N21" s="9">
+      <c r="R21" s="9">
         <v>1.1564000000000001</v>
       </c>
-      <c r="O21" s="9">
+      <c r="S21" s="9">
         <v>-0.19789999999999999</v>
       </c>
-      <c r="P21" s="9">
+      <c r="T21" s="9">
         <v>1.5167999999999999</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="U21" s="9">
         <v>-7.9399999999999998E-2</v>
       </c>
-      <c r="R21" s="9">
+      <c r="V21" s="9">
         <v>1.1944999999999999</v>
       </c>
-      <c r="S21" s="9">
+      <c r="W21" s="9">
         <v>-0.2407</v>
       </c>
-      <c r="T21" s="9">
+      <c r="X21" s="9">
         <v>1.6366000000000001</v>
       </c>
-      <c r="U21" s="9">
+      <c r="Y21" s="9">
         <v>-8.6599999999999996E-2</v>
       </c>
-      <c r="V21" s="9">
+      <c r="Z21" s="9">
         <v>1.282</v>
       </c>
-      <c r="W21" s="9">
+      <c r="AA21" s="9">
         <v>-1.0200000000000001E-2</v>
       </c>
-      <c r="X21" s="9">
+      <c r="AB21" s="9">
         <v>1.3651</v>
       </c>
-      <c r="AE21" s="11"/>
+      <c r="AI21" s="11"/>
     </row>
-    <row r="22" spans="1:31" ht="18">
+    <row r="22" spans="1:35" ht="18">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="9">
+        <v>-0.2261</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2.1333000000000002</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="9">
-        <v>-0.24610000000000001</v>
-      </c>
-      <c r="L22" s="9">
-        <v>2.0926999999999998</v>
-      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9">
+        <v>-0.24610000000000001</v>
+      </c>
+      <c r="P22" s="9">
+        <v>2.0926999999999998</v>
+      </c>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9">
         <v>-3.1E-2</v>
       </c>
-      <c r="P22" s="9">
+      <c r="T22" s="9">
         <v>1.2743</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="U22" s="9">
         <v>-0.2389</v>
       </c>
-      <c r="R22" s="9">
+      <c r="V22" s="9">
         <v>2.0192000000000001</v>
       </c>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9">
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9">
         <v>-0.18329999999999999</v>
       </c>
-      <c r="V22" s="9">
+      <c r="Z22" s="9">
         <v>0.99480000000000002</v>
       </c>
-      <c r="W22" s="9">
+      <c r="AA22" s="9">
         <v>-8.2699999999999996E-2</v>
       </c>
-      <c r="X22" s="9">
+      <c r="AB22" s="9">
         <v>2.0299</v>
       </c>
-      <c r="AE22" s="11"/>
+      <c r="AI22" s="11"/>
     </row>
-    <row r="23" spans="1:31" ht="18">
+    <row r="23" spans="1:35" ht="18">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="9">
+        <v>-0.24640000000000001</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1.7737000000000001</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9">
-        <v>-0.33479999999999999</v>
-      </c>
-      <c r="L23" s="9">
-        <v>1.9556</v>
-      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9">
+        <v>-0.33479999999999999</v>
+      </c>
+      <c r="P23" s="9">
+        <v>1.9556</v>
+      </c>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9">
         <v>-5.3499999999999999E-2</v>
       </c>
-      <c r="P23" s="9">
+      <c r="T23" s="9">
         <v>1.3303</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="U23" s="9">
         <v>-0.1711</v>
       </c>
-      <c r="R23" s="9">
+      <c r="V23" s="9">
         <v>1.7846</v>
       </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9">
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9">
         <v>-8.0600000000000005E-2</v>
       </c>
-      <c r="V23" s="9">
+      <c r="Z23" s="9">
         <v>1.264</v>
       </c>
-      <c r="W23" s="9">
+      <c r="AA23" s="9">
         <v>-5.0099999999999999E-2</v>
       </c>
-      <c r="X23" s="9">
+      <c r="AB23" s="9">
         <v>1.7568999999999999</v>
       </c>
-      <c r="AE23" s="11"/>
+      <c r="AI23" s="11"/>
     </row>
-    <row r="24" spans="1:31" ht="18">
+    <row r="24" spans="1:35" ht="18">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="9">
+        <v>-0.3422</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1.9400999999999999</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="9">
-        <v>-0.22919999999999999</v>
-      </c>
-      <c r="L24" s="9">
-        <v>1.7507999999999999</v>
-      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9">
+        <v>-0.22919999999999999</v>
+      </c>
+      <c r="P24" s="9">
+        <v>1.7507999999999999</v>
+      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9">
         <v>-1.9800000000000002E-2</v>
       </c>
-      <c r="P24" s="9">
+      <c r="T24" s="9">
         <v>1.2211000000000001</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="U24" s="9">
         <v>-0.16719999999999999</v>
       </c>
-      <c r="R24" s="9">
+      <c r="V24" s="9">
         <v>1.7121999999999999</v>
       </c>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9">
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9">
         <v>-0.1835</v>
       </c>
-      <c r="V24" s="9">
+      <c r="Z24" s="9">
         <v>0.77639999999999998</v>
       </c>
-      <c r="W24" s="9">
+      <c r="AA24" s="9">
         <v>-9.7299999999999998E-2</v>
       </c>
-      <c r="X24" s="9">
+      <c r="AB24" s="9">
         <v>1.77</v>
       </c>
-      <c r="AE24" s="11"/>
+      <c r="AI24" s="11"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:35">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="G25" s="9">
+        <v>-0.31540000000000001</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1.7704</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9">
-        <v>-0.29599999999999999</v>
-      </c>
-      <c r="L25" s="9">
-        <v>1.7391000000000001</v>
-      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9">
+        <v>-0.29599999999999999</v>
+      </c>
+      <c r="P25" s="9">
+        <v>1.7391000000000001</v>
+      </c>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9">
         <v>-8.8499999999999995E-2</v>
       </c>
-      <c r="P25" s="9">
+      <c r="T25" s="9">
         <v>1.3879999999999999</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="U25" s="9">
         <v>-0.22339999999999999</v>
       </c>
-      <c r="R25" s="9">
+      <c r="V25" s="9">
         <v>2.3130999999999999</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9">
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9">
         <v>-8.6599999999999996E-2</v>
       </c>
-      <c r="V25" s="9">
+      <c r="Z25" s="9">
         <v>1.282</v>
       </c>
-      <c r="W25" s="9">
+      <c r="AA25" s="9">
         <v>-4.0300000000000002E-2</v>
       </c>
-      <c r="X25" s="9">
+      <c r="AB25" s="9">
         <v>1.7504</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:35">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="G26" s="9">
+        <v>-0.26769999999999999</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2.4479000000000002</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="9">
-        <v>-0.312</v>
-      </c>
-      <c r="L26" s="9">
-        <v>2.3933</v>
-      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9">
+        <v>-0.312</v>
+      </c>
+      <c r="P26" s="9">
+        <v>2.3933</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9">
         <v>-1.6400000000000001E-2</v>
       </c>
-      <c r="P26" s="9">
+      <c r="T26" s="9">
         <v>1.171</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="U26" s="9">
         <v>-0.42549999999999999</v>
       </c>
-      <c r="R26" s="9">
+      <c r="V26" s="9">
         <v>1.9946999999999999</v>
       </c>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9">
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9">
         <v>-0.1004</v>
       </c>
-      <c r="V26" s="9">
+      <c r="Z26" s="9">
         <v>1.2994000000000001</v>
       </c>
-      <c r="W26" s="9">
+      <c r="AA26" s="9">
         <v>-0.25190000000000001</v>
       </c>
-      <c r="X26" s="9">
+      <c r="AB26" s="9">
         <v>1.9374</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:35">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="G27" s="9">
+        <v>-0.2366</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1.4634</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="9">
-        <v>-0.372</v>
-      </c>
-      <c r="L27" s="9">
-        <v>1.6120000000000001</v>
-      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9">
+        <v>-0.372</v>
+      </c>
+      <c r="P27" s="9">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9">
         <v>-1.83E-2</v>
       </c>
-      <c r="P27" s="9">
+      <c r="T27" s="9">
         <v>1.1207</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="U27" s="9">
         <v>-0.28889999999999999</v>
       </c>
-      <c r="R27" s="9">
+      <c r="V27" s="9">
         <v>2.3485999999999998</v>
       </c>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9">
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9">
         <v>-0.33760000000000001</v>
       </c>
-      <c r="V27" s="9">
+      <c r="Z27" s="9">
         <v>1.0242</v>
       </c>
-      <c r="W27" s="13">
+      <c r="AA27" s="13">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="X27" s="9">
+      <c r="AB27" s="9">
         <v>1.7364999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:35">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="G28" s="9">
+        <v>-0.39689999999999998</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1.5598000000000001</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="9">
-        <v>-0.3201</v>
-      </c>
-      <c r="L28" s="9">
-        <v>2.4603999999999999</v>
-      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9">
+        <v>-0.3201</v>
+      </c>
+      <c r="P28" s="9">
+        <v>2.4603999999999999</v>
+      </c>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9">
         <v>-0.1537</v>
       </c>
-      <c r="P28" s="9">
+      <c r="T28" s="9">
         <v>1.1843999999999999</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="U28" s="9">
         <v>-0.34079999999999999</v>
       </c>
-      <c r="R28" s="9">
+      <c r="V28" s="9">
         <v>1.6721999999999999</v>
       </c>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9">
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9">
         <v>-0.1295</v>
       </c>
-      <c r="V28" s="9">
+      <c r="Z28" s="9">
         <v>1.3130999999999999</v>
       </c>
-      <c r="W28" s="9">
+      <c r="AA28" s="9">
         <v>-0.15809999999999999</v>
       </c>
-      <c r="X28" s="9">
+      <c r="AB28" s="9">
         <v>1.7338</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:35">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="G29" s="9">
+        <v>-0.34350000000000003</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2.4982000000000002</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="9">
-        <v>-0.26040000000000002</v>
-      </c>
-      <c r="L29" s="9">
-        <v>1.4594</v>
-      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9">
+        <v>-0.26040000000000002</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1.4594</v>
+      </c>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9">
         <v>-0.13600000000000001</v>
       </c>
-      <c r="P29" s="9">
+      <c r="T29" s="9">
         <v>1.4493</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="U29" s="9">
         <v>-0.41020000000000001</v>
       </c>
-      <c r="R29" s="9">
+      <c r="V29" s="9">
         <v>1.7371000000000001</v>
       </c>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9">
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9">
         <v>-0.32569999999999999</v>
       </c>
-      <c r="V29" s="9">
+      <c r="Z29" s="9">
         <v>1.129</v>
       </c>
-      <c r="W29" s="9">
+      <c r="AA29" s="9">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="X29" s="9">
+      <c r="AB29" s="9">
         <v>1.6536</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:35">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="G30" s="9">
+        <v>-0.28820000000000001</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1.4387000000000001</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="9">
-        <v>-0.36849999999999999</v>
-      </c>
-      <c r="L30" s="9">
-        <v>1.5096000000000001</v>
-      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9">
+        <v>-0.36849999999999999</v>
+      </c>
+      <c r="P30" s="9">
+        <v>1.5096000000000001</v>
+      </c>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9">
         <v>-0.20269999999999999</v>
       </c>
-      <c r="P30" s="9">
+      <c r="T30" s="9">
         <v>1.3432999999999999</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="U30" s="9">
         <v>-0.45090000000000002</v>
       </c>
-      <c r="R30" s="9">
+      <c r="V30" s="9">
         <v>2.1907000000000001</v>
       </c>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9">
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9">
         <v>-0.3468</v>
       </c>
-      <c r="V30" s="9">
+      <c r="Z30" s="9">
         <v>0.91610000000000003</v>
       </c>
-      <c r="W30" s="9">
+      <c r="AA30" s="9">
         <v>-0.1862</v>
       </c>
-      <c r="X30" s="9">
+      <c r="AB30" s="9">
         <v>1.6648000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:35">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="G31" s="9">
+        <v>-0.19309999999999999</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1.3849</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="9">
-        <v>-0.1794</v>
-      </c>
-      <c r="L31" s="9">
-        <v>1.3998999999999999</v>
-      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9">
+        <v>-0.1794</v>
+      </c>
+      <c r="P31" s="9">
+        <v>1.3998999999999999</v>
+      </c>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9">
         <v>-2.6700000000000002E-2</v>
       </c>
-      <c r="P31" s="9">
+      <c r="T31" s="9">
         <v>1.0676000000000001</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="U31" s="9">
         <v>-0.27079999999999999</v>
       </c>
-      <c r="R31" s="9">
+      <c r="V31" s="9">
         <v>1.5912999999999999</v>
       </c>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9">
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9">
         <v>-0.29520000000000002</v>
       </c>
-      <c r="V31" s="9">
+      <c r="Z31" s="9">
         <v>1.2350000000000001</v>
       </c>
-      <c r="W31" s="9">
+      <c r="AA31" s="9">
         <v>-0.41110000000000002</v>
       </c>
-      <c r="X31" s="9">
+      <c r="AB31" s="9">
         <v>1.88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38">
+        <v>1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39">
+        <v>3.8E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+  <mergeCells count="14">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C8F03D-38E0-624D-977C-2BA8DB0C52C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3A3B36-A26A-8E43-AA76-4AE390128273}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16260" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="steady" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
   <si>
     <t>pr</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>unstable (5)</t>
+  </si>
+  <si>
+    <t>unstable?</t>
   </si>
 </sst>
 </file>
@@ -4255,16 +4258,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>681043</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>130927</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>746507</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>572635</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>192725</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>638099</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4591,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EA66BB-B451-4F4E-B1C9-5E3A555EB221}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4690,7 +4693,9 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="20"/>
+      <c r="N3" s="20" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3">
@@ -4722,7 +4727,9 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="20"/>
+      <c r="N4" s="20" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="17" customFormat="1">
       <c r="A5" s="14">
@@ -5060,7 +5067,9 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="22"/>
+      <c r="N14" s="22" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:14" s="17" customFormat="1">
       <c r="A15" s="14">
@@ -5268,7 +5277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47BBAE-5C45-FC47-9DB3-44760ECB14A5}">
   <dimension ref="A1:AP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -7749,11 +7758,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:B1"/>
@@ -7763,6 +7767,11 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3A3B36-A26A-8E43-AA76-4AE390128273}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A4004A-C971-2B40-9A91-B63BD9CEEAD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16260" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
+    <workbookView xWindow="4780" yWindow="440" windowWidth="28800" windowHeight="19000" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="steady" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>pr</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <t>c/d</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t>unstable</t>
@@ -167,6 +161,12 @@
   </si>
   <si>
     <t>unstable?</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -1163,25 +1163,25 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11718643688568348"/>
-          <c:y val="4.2026875546806647E-2"/>
-          <c:w val="0.83331561476139115"/>
-          <c:h val="0.85406099986229556"/>
+          <c:x val="0.14527526506315261"/>
+          <c:y val="9.7561181806070527E-2"/>
+          <c:w val="0.79399129733828766"/>
+          <c:h val="0.78741973390735365"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="10"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$O$1</c:f>
+              <c:f>eigenvalues!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18kpa</c:v>
+                  <c:v>15kpa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1198,7 +1198,734 @@
             <c:size val="12"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF2600">
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$W$2:$W$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-8.8900000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.7399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.25130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.23669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.6600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.11849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.17480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.7399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.17829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.15590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.2407</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2311</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.1457</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.17829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.2157</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.31119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.38129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.2407</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.42949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.44109999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$X$2:$X$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.0302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1477999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1948000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1785000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4282999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4825999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3792</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3312999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5508999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2848999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2833000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6366000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9771000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6972</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2829000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7271000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8065</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6366000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8744000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-C221-3A44-9308-B85C85E22A35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$U$2:$U$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-8.7099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.11409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.18429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.19750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.9399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.11990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.2600000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.2094</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.7700000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.14369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.16719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.4300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.27079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.9399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2389</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.1711</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.16719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.22339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.42549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.28889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.34079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.41020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.45090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.27079999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$V$2:$V$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.0533999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0217000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1662999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1944999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3787</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4369000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3281000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5084</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2808999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2873000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7121999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2365999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5912999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1944999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0192000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7846</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7121999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3130999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9946999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3485999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6721999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7371000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1907000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5912999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-C221-3A44-9308-B85C85E22A35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$S$2:$S$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-4.2700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.1700000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.83E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.17849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.15690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.20319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.29409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.30790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.2132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.2923</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.35160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.376</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.2908</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.36840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.19789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.3499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.9800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.8499999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.6400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.83E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.1537</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.20269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.6700000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$T$2:$T$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.0105999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0676000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94620000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0738000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87660000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0954999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0175999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9577</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7091000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7136</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5871999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3346</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6447000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2743</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2211000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1207</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1843999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4493</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3432999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0676000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-C221-3A44-9308-B85C85E22A35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0">
                   <a:alpha val="10000"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -1411,13 +2138,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-07D1-7F4F-887D-866DF772F3C1}"/>
+              <c16:uniqueId val="{00000000-C221-3A44-9308-B85C85E22A35}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>eigenvalues!$M$1</c:f>
@@ -1442,7 +2169,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000">
-                  <a:alpha val="30000"/>
+                  <a:alpha val="10000"/>
                 </a:srgbClr>
               </a:solidFill>
               <a:ln w="12700">
@@ -1534,13 +2261,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6822-7C47-809A-4BDFE443157C}"/>
+              <c16:uniqueId val="{00000001-C221-3A44-9308-B85C85E22A35}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>eigenvalues!$K$1</c:f>
@@ -1565,7 +2292,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000">
-                  <a:alpha val="40000"/>
+                  <a:alpha val="20000"/>
                 </a:srgbClr>
               </a:solidFill>
               <a:ln w="9525">
@@ -1657,13 +2384,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6471-0047-B788-3F8398CDB6ED}"/>
+              <c16:uniqueId val="{00000002-C221-3A44-9308-B85C85E22A35}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>eigenvalues!$I$1</c:f>
@@ -1688,7 +2415,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF2600">
-                  <a:alpha val="50000"/>
+                  <a:alpha val="30000"/>
                 </a:srgbClr>
               </a:solidFill>
               <a:ln w="12700">
@@ -1780,13 +2507,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-00B4-0B43-9706-60FC26806C18}"/>
+              <c16:uniqueId val="{00000003-C221-3A44-9308-B85C85E22A35}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="4"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>eigenvalues!$G$1</c:f>
@@ -1794,6 +2521,278 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>18.29kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2600">
+                  <a:alpha val="60000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="12"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF2600">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-C221-3A44-9308-B85C85E22A35}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.6999999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.6200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0299999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0781000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1222000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0472999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1318999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1684000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C221-3A44-9308-B85C85E22A35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.3kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.4600000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.01E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92469999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0779000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1218999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1680999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C221-3A44-9308-B85C85E22A35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.4kpa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1824,252 +2823,6 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$G$2:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-8.6999999999999994E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.3999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.4000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.6200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.14130000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.13569999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.0299999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>eigenvalues!$H$2:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.98199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0321</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92459999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0781000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1222000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.86109999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0472999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93730000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1318999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1684000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-00B4-0B43-9706-60FC26806C18}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>eigenvalues!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18.3kpa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>eigenvalues!$E$2:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-7.7999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.1000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.5100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.1426</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.13650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.4600000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.01E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>eigenvalues!$F$2:$F$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.98199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0319</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92469999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0779000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1218999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.86119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0475000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93679999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1328</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1680999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6471-0047-B788-3F8398CDB6ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>eigenvalues!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18.4kpa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF2600">
-                  <a:alpha val="80000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
               <c:f>eigenvalues!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2149,13 +2902,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6471-0047-B788-3F8398CDB6ED}"/>
+              <c16:uniqueId val="{00000006-C221-3A44-9308-B85C85E22A35}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="7"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>eigenvalues!$A$1</c:f>
@@ -2179,7 +2932,9 @@
             <c:size val="12"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="80000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:ln w="12700">
                 <a:solidFill>
@@ -2270,7 +3025,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F7BF-7244-A13E-FFE9FFDF7ED7}"/>
+              <c16:uniqueId val="{00000007-C221-3A44-9308-B85C85E22A35}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2289,8 +3044,8 @@
         <c:axId val="143884368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.0000000000000004E-2"/>
-          <c:min val="-0.1"/>
+          <c:max val="0.2"/>
+          <c:min val="-0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2306,6 +3061,32 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Real part</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2321,10 +3102,7 @@
               <a:pPr>
                 <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2367,14 +3145,14 @@
         <c:crossAx val="143886048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="143886048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.5"/>
-          <c:min val="0.70000000000000007"/>
+          <c:max val="2.2000000000000002"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2390,9 +3168,45 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>imaginary part</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3417008954355041E-2"/>
+              <c:y val="0.38480702467328753"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2405,10 +3219,7 @@
               <a:pPr>
                 <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2422,7 +3233,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2451,7 +3262,7 @@
         <c:crossAx val="143884368"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
+        <c:majorUnit val="0.4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2463,6 +3274,50 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15355209764344566"/>
+          <c:y val="0.40184353654437543"/>
+          <c:w val="0.1792882195284827"/>
+          <c:h val="0.47366855289129928"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2480,10 +3335,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4258,27 +5110,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>746507</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>65463</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>340411</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>65465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>638099</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>127261</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523711</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>91650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CA0FC3-0730-784E-9CC6-2DC43A826FA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E9ECC08-A9E5-5942-8D9A-876F8BC2E47D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4594,7 +5448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EA66BB-B451-4F4E-B1C9-5E3A555EB221}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -4628,7 +5482,7 @@
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
       <c r="N1" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4639,7 +5493,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -4651,10 +5505,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4694,7 +5548,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4728,7 +5582,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="17" customFormat="1">
@@ -4762,7 +5616,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="17" customFormat="1">
@@ -4796,7 +5650,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="17" customFormat="1">
@@ -4830,7 +5684,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="17" customFormat="1">
@@ -4864,7 +5718,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="17" customFormat="1">
@@ -4898,7 +5752,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="17" customFormat="1">
@@ -4932,7 +5786,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="17" customFormat="1">
@@ -4966,7 +5820,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="17" customFormat="1">
@@ -5000,7 +5854,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="17" customFormat="1">
@@ -5034,7 +5888,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="17" customFormat="1">
@@ -5068,7 +5922,7 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="17" customFormat="1">
@@ -5102,7 +5956,7 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="17" customFormat="1">
@@ -5136,7 +5990,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="17" customFormat="1">
@@ -5170,7 +6024,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="17" customFormat="1">
@@ -5206,7 +6060,7 @@
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
       <c r="N18" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5275,88 +6129,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47BBAE-5C45-FC47-9DB3-44760ECB14A5}">
-  <dimension ref="A1:AP39"/>
+  <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H1" s="27"/>
       <c r="I1" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" s="27"/>
       <c r="K1" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L1" s="27"/>
       <c r="M1" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N1" s="27"/>
       <c r="O1" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P1" s="27"/>
       <c r="Q1" s="26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R1" s="27"/>
       <c r="S1" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T1" s="27"/>
       <c r="U1" s="26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V1" s="27"/>
       <c r="W1" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X1" s="27"/>
       <c r="Y1" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z1" s="27"/>
       <c r="AA1" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB1" s="27"/>
-      <c r="AC1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="12">
-        <v>-0.1239</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG1" s="7">
-        <v>1.3297000000000001</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>11</v>
+      <c r="AC1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="10">
+        <v>-0.2311</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1">
+        <v>1.9771000000000001</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="AI1" s="10"/>
       <c r="AK1" s="10"/>
@@ -5447,23 +6298,20 @@
       <c r="AB2" s="9">
         <v>0.95430000000000004</v>
       </c>
-      <c r="AC2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE2" s="12">
-        <v>-0.19309999999999999</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG2" s="7">
-        <v>1.3849</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>11</v>
+      <c r="AC2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>-0.1457</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="AI2" s="10"/>
       <c r="AK2" s="10"/>
@@ -5554,23 +6402,20 @@
       <c r="AB3" s="9">
         <v>1.0486</v>
       </c>
-      <c r="AC3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE3" s="12">
-        <v>-7.3499999999999996E-2</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG3" s="7">
-        <v>1.2745</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>11</v>
+      <c r="AC3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>-0.17829999999999999</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3">
+        <v>1.6972</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="AI3" s="10"/>
       <c r="AK3" s="10"/>
@@ -5661,23 +6506,20 @@
       <c r="AB4" s="9">
         <v>1.2423</v>
       </c>
-      <c r="AC4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>-0.2366</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG4" s="7">
-        <v>1.4634</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>11</v>
+      <c r="AC4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>-0.2157</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4">
+        <v>2.2829000000000002</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="AI4" s="10"/>
       <c r="AK4" s="10"/>
@@ -5768,23 +6610,20 @@
       <c r="AB5" s="9">
         <v>0.72950000000000004</v>
       </c>
-      <c r="AC5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE5" s="12">
-        <v>-3.9899999999999998E-2</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>1.2197</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>11</v>
+      <c r="AC5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>-0.31119999999999998</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5">
+        <v>1.7271000000000001</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="AI5" s="10"/>
       <c r="AK5" s="10"/>
@@ -5875,23 +6714,20 @@
       <c r="AB6" s="9">
         <v>0.90980000000000005</v>
       </c>
-      <c r="AC6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE6" s="12">
-        <v>-0.28820000000000001</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>1.4387000000000001</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>11</v>
+      <c r="AC6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>-0.28399999999999997</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6">
+        <v>2.3010999999999999</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="AI6" s="10"/>
       <c r="AK6" s="10"/>
@@ -5982,23 +6818,20 @@
       <c r="AB7" s="9">
         <v>1.012</v>
       </c>
-      <c r="AC7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE7" s="12">
-        <v>-2.0299999999999999E-2</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>1.1684000000000001</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>11</v>
+      <c r="AC7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>-0.38129999999999997</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7">
+        <v>1.8065</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AK7" s="10"/>
@@ -6089,23 +6922,20 @@
       <c r="AB8" s="9">
         <v>1.3229</v>
       </c>
-      <c r="AC8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE8" s="12">
-        <v>-0.17979999999999999</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>1.1958</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>11</v>
+      <c r="AC8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>-0.2407</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF8">
+        <v>1.6366000000000001</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="AI8" s="10"/>
       <c r="AK8" s="10"/>
@@ -6196,23 +7026,20 @@
       <c r="AB9" s="9">
         <v>0.80049999999999999</v>
       </c>
-      <c r="AC9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE9" s="12">
-        <v>-0.24640000000000001</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG9" s="7">
-        <v>1.7737000000000001</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>11</v>
+      <c r="AC9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>-0.42949999999999999</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9">
+        <v>1.8744000000000001</v>
+      </c>
+      <c r="AG9" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="AI9" s="10"/>
       <c r="AK9" s="10"/>
@@ -6303,23 +7130,20 @@
       <c r="AB10" s="9">
         <v>1.1084000000000001</v>
       </c>
-      <c r="AC10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE10" s="12">
-        <v>-9.4000000000000004E-3</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG10" s="7">
-        <v>1.1222000000000001</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>11</v>
+      <c r="AC10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>-0.44109999999999999</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10">
+        <v>1.8587</v>
+      </c>
+      <c r="AG10" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="AI10" s="10"/>
       <c r="AK10" s="10"/>
@@ -6410,21 +7234,7 @@
       <c r="AB11" s="9">
         <v>1.3651</v>
       </c>
-      <c r="AD11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE11">
-        <v>-0.2261</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG11">
-        <v>2.1333000000000002</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD11" s="10"/>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="8"/>
@@ -6487,21 +7297,7 @@
       <c r="AB12" s="9">
         <v>1.4365000000000001</v>
       </c>
-      <c r="AD12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE12">
-        <v>-0.24640000000000001</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG12">
-        <v>1.7737000000000001</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD12" s="10"/>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" s="8"/>
@@ -6564,21 +7360,7 @@
       <c r="AB13" s="9">
         <v>1.4397</v>
       </c>
-      <c r="AD13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE13">
-        <v>-0.3422</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG13">
-        <v>1.9400999999999999</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD13" s="10"/>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" s="8"/>
@@ -6641,21 +7423,7 @@
       <c r="AB14" s="9">
         <v>1.4339999999999999</v>
       </c>
-      <c r="AD14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE14">
-        <v>-0.31540000000000001</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG14">
-        <v>1.7704</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD14" s="10"/>
     </row>
     <row r="15" spans="1:42" ht="18">
       <c r="A15" s="8"/>
@@ -6718,21 +7486,7 @@
       <c r="AB15" s="9">
         <v>1.4268000000000001</v>
       </c>
-      <c r="AD15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE15">
-        <v>-0.26769999999999999</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG15">
-        <v>2.4479000000000002</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD15" s="10"/>
       <c r="AI15" s="11"/>
     </row>
     <row r="16" spans="1:42" ht="18">
@@ -6796,21 +7550,7 @@
       <c r="AB16" s="9">
         <v>1.4495</v>
       </c>
-      <c r="AD16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE16">
-        <v>-0.2366</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG16">
-        <v>1.4634</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD16" s="10"/>
       <c r="AI16" s="11"/>
     </row>
     <row r="17" spans="1:35" ht="18">
@@ -6874,21 +7614,7 @@
       <c r="AB17" s="9">
         <v>1.4125000000000001</v>
       </c>
-      <c r="AD17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE17">
-        <v>-0.39689999999999998</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG17">
-        <v>1.5598000000000001</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD17" s="10"/>
       <c r="AI17" s="11"/>
     </row>
     <row r="18" spans="1:35" ht="18">
@@ -6952,21 +7678,7 @@
       <c r="AB18" s="9">
         <v>1.4694</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE18">
-        <v>-0.34350000000000003</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG18">
-        <v>2.4982000000000002</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD18" s="10"/>
       <c r="AI18" s="11"/>
     </row>
     <row r="19" spans="1:35" ht="18">
@@ -7030,21 +7742,7 @@
       <c r="AB19" s="9">
         <v>1.3924000000000001</v>
       </c>
-      <c r="AD19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE19">
-        <v>-0.28820000000000001</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG19">
-        <v>1.4387000000000001</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD19" s="10"/>
       <c r="AI19" s="11"/>
     </row>
     <row r="20" spans="1:35" ht="18">
@@ -7108,21 +7806,7 @@
       <c r="AB20" s="9">
         <v>1.5001</v>
       </c>
-      <c r="AD20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE20">
-        <v>-0.19309999999999999</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG20">
-        <v>1.3849</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD20" s="10"/>
       <c r="AI20" s="11"/>
     </row>
     <row r="21" spans="1:35" ht="18">
@@ -7227,8 +7911,12 @@
       <c r="V22" s="9">
         <v>2.0192000000000001</v>
       </c>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
+      <c r="W22" s="9">
+        <v>-0.2311</v>
+      </c>
+      <c r="X22" s="9">
+        <v>1.9771000000000001</v>
+      </c>
       <c r="Y22" s="9">
         <v>-0.18329999999999999</v>
       </c>
@@ -7282,8 +7970,12 @@
       <c r="V23" s="9">
         <v>1.7846</v>
       </c>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
+      <c r="W23" s="9">
+        <v>-0.1457</v>
+      </c>
+      <c r="X23" s="9">
+        <v>1.7689999999999999</v>
+      </c>
       <c r="Y23" s="9">
         <v>-8.0600000000000005E-2</v>
       </c>
@@ -7337,8 +8029,12 @@
       <c r="V24" s="9">
         <v>1.7121999999999999</v>
       </c>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
+      <c r="W24" s="9">
+        <v>-0.17829999999999999</v>
+      </c>
+      <c r="X24" s="9">
+        <v>1.6972</v>
+      </c>
       <c r="Y24" s="9">
         <v>-0.1835</v>
       </c>
@@ -7392,8 +8088,12 @@
       <c r="V25" s="9">
         <v>2.3130999999999999</v>
       </c>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
+      <c r="W25" s="9">
+        <v>-0.2157</v>
+      </c>
+      <c r="X25" s="9">
+        <v>2.2829000000000002</v>
+      </c>
       <c r="Y25" s="9">
         <v>-8.6599999999999996E-2</v>
       </c>
@@ -7446,8 +8146,12 @@
       <c r="V26" s="9">
         <v>1.9946999999999999</v>
       </c>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
+      <c r="W26" s="9">
+        <v>-0.31119999999999998</v>
+      </c>
+      <c r="X26" s="9">
+        <v>1.7271000000000001</v>
+      </c>
       <c r="Y26" s="9">
         <v>-0.1004</v>
       </c>
@@ -7500,8 +8204,12 @@
       <c r="V27" s="9">
         <v>2.3485999999999998</v>
       </c>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
+      <c r="W27" s="9">
+        <v>-0.28399999999999997</v>
+      </c>
+      <c r="X27" s="9">
+        <v>2.3010999999999999</v>
+      </c>
       <c r="Y27" s="9">
         <v>-0.33760000000000001</v>
       </c>
@@ -7554,8 +8262,12 @@
       <c r="V28" s="9">
         <v>1.6721999999999999</v>
       </c>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
+      <c r="W28" s="9">
+        <v>-0.38129999999999997</v>
+      </c>
+      <c r="X28" s="9">
+        <v>1.8065</v>
+      </c>
       <c r="Y28" s="9">
         <v>-0.1295</v>
       </c>
@@ -7608,8 +8320,12 @@
       <c r="V29" s="9">
         <v>1.7371000000000001</v>
       </c>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
+      <c r="W29" s="9">
+        <v>-0.2407</v>
+      </c>
+      <c r="X29" s="9">
+        <v>1.6366000000000001</v>
+      </c>
       <c r="Y29" s="9">
         <v>-0.32569999999999999</v>
       </c>
@@ -7662,8 +8378,12 @@
       <c r="V30" s="9">
         <v>2.1907000000000001</v>
       </c>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
+      <c r="W30" s="9">
+        <v>-0.42949999999999999</v>
+      </c>
+      <c r="X30" s="9">
+        <v>1.8744000000000001</v>
+      </c>
       <c r="Y30" s="9">
         <v>-0.3468</v>
       </c>
@@ -7716,8 +8436,12 @@
       <c r="V31" s="9">
         <v>1.5912999999999999</v>
       </c>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
+      <c r="W31" s="9">
+        <v>-0.44109999999999999</v>
+      </c>
+      <c r="X31" s="9">
+        <v>1.8587</v>
+      </c>
       <c r="Y31" s="9">
         <v>-0.29520000000000002</v>
       </c>
@@ -7729,31 +8453,6 @@
       </c>
       <c r="AB31" s="9">
         <v>1.88</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36">
-        <v>9.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37">
-        <v>1.43E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38">
-        <v>1.3100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39">
-        <v>3.8E-3</v>
       </c>
     </row>
   </sheetData>

--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A4004A-C971-2B40-9A91-B63BD9CEEAD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBE2BB7-1DD5-5148-9B1B-750AC5BE0A7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="440" windowWidth="28800" windowHeight="19000" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
+    <workbookView xWindow="4780" yWindow="440" windowWidth="28800" windowHeight="19000" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="steady" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>pr</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>c/d</t>
-  </si>
-  <si>
-    <t>unstable</t>
   </si>
   <si>
     <t>18.5kpa</t>
@@ -160,13 +157,16 @@
     <t>unstable (5)</t>
   </si>
   <si>
-    <t>unstable?</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>unstable(5)</t>
+  </si>
+  <si>
+    <t>have not analyzed</t>
   </si>
 </sst>
 </file>
@@ -338,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +398,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,6 +414,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,15 +479,13 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -822,15 +829,13 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -5448,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EA66BB-B451-4F4E-B1C9-5E3A555EB221}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5464,25 +5469,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -5493,7 +5498,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -5505,10 +5510,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -5548,7 +5553,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5582,41 +5587,43 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="17" customFormat="1">
-      <c r="A5" s="14">
+      <c r="A5" s="23">
         <f t="shared" si="0"/>
         <v>111325</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="23">
         <v>10</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="30">
         <v>0.22891</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="23">
         <v>1.3637999999999999</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="23">
         <v>0.77229999999999999</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="29">
         <f t="shared" si="1"/>
         <v>1.00039332226204</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="I5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="21" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="17" customFormat="1">
@@ -5650,7 +5657,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="17" customFormat="1">
@@ -5684,7 +5691,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="17" customFormat="1">
@@ -5718,7 +5725,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="17" customFormat="1">
@@ -5752,7 +5759,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="17" customFormat="1">
@@ -5786,7 +5793,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="17" customFormat="1">
@@ -5820,7 +5827,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="17" customFormat="1">
@@ -5854,7 +5861,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="17" customFormat="1">
@@ -5888,7 +5895,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="17" customFormat="1">
@@ -5922,41 +5929,43 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="17" customFormat="1">
-      <c r="A15" s="14">
+      <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>119615</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="23">
         <v>18.29</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="23">
         <v>0.21937000000000001</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="23">
         <v>1.4639</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="23">
         <v>0.81950000000000001</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="29">
         <f t="shared" si="1"/>
         <v>0.95870116248579673</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="I15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="17" customFormat="1">
@@ -5990,7 +5999,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="17" customFormat="1">
@@ -6024,43 +6033,43 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="17" customFormat="1">
-      <c r="A18" s="14">
+      <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>119825</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="23">
         <v>18.5</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="23">
         <v>0.21668999999999999</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="23">
         <v>1.4635</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="23">
         <v>0.81469999999999998</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="29">
         <f t="shared" si="1"/>
         <v>0.94698889957171573</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -6116,10 +6125,12 @@
       <c r="N20" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6131,83 +6142,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47BBAE-5C45-FC47-9DB3-44760ECB14A5}">
   <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="S1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="28"/>
+      <c r="O1" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="28"/>
+      <c r="S1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="26" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="26" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="27"/>
-      <c r="W1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="AD1" s="10">
         <v>-0.2311</v>
       </c>
       <c r="AE1" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF1">
         <v>1.9771000000000001</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI1" s="10"/>
       <c r="AK1" s="10"/>
@@ -6299,19 +6310,19 @@
         <v>0.95430000000000004</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD2" s="10">
         <v>-0.1457</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF2">
         <v>1.7689999999999999</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI2" s="10"/>
       <c r="AK2" s="10"/>
@@ -6403,19 +6414,19 @@
         <v>1.0486</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD3" s="10">
         <v>-0.17829999999999999</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF3">
         <v>1.6972</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI3" s="10"/>
       <c r="AK3" s="10"/>
@@ -6507,19 +6518,19 @@
         <v>1.2423</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD4" s="10">
         <v>-0.2157</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF4">
         <v>2.2829000000000002</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI4" s="10"/>
       <c r="AK4" s="10"/>
@@ -6611,19 +6622,19 @@
         <v>0.72950000000000004</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD5" s="10">
         <v>-0.31119999999999998</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF5">
         <v>1.7271000000000001</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI5" s="10"/>
       <c r="AK5" s="10"/>
@@ -6715,19 +6726,19 @@
         <v>0.90980000000000005</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD6" s="10">
         <v>-0.28399999999999997</v>
       </c>
       <c r="AE6" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF6">
         <v>2.3010999999999999</v>
       </c>
       <c r="AG6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI6" s="10"/>
       <c r="AK6" s="10"/>
@@ -6819,19 +6830,19 @@
         <v>1.012</v>
       </c>
       <c r="AC7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD7" s="10">
         <v>-0.38129999999999997</v>
       </c>
       <c r="AE7" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF7">
         <v>1.8065</v>
       </c>
       <c r="AG7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AK7" s="10"/>
@@ -6923,19 +6934,19 @@
         <v>1.3229</v>
       </c>
       <c r="AC8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD8" s="10">
         <v>-0.2407</v>
       </c>
       <c r="AE8" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF8">
         <v>1.6366000000000001</v>
       </c>
       <c r="AG8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI8" s="10"/>
       <c r="AK8" s="10"/>
@@ -7027,19 +7038,19 @@
         <v>0.80049999999999999</v>
       </c>
       <c r="AC9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD9" s="10">
         <v>-0.42949999999999999</v>
       </c>
       <c r="AE9" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF9">
         <v>1.8744000000000001</v>
       </c>
       <c r="AG9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI9" s="10"/>
       <c r="AK9" s="10"/>
@@ -7131,19 +7142,19 @@
         <v>1.1084000000000001</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD10" s="10">
         <v>-0.44109999999999999</v>
       </c>
       <c r="AE10" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF10">
         <v>1.8587</v>
       </c>
       <c r="AG10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI10" s="10"/>
       <c r="AK10" s="10"/>

--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBE2BB7-1DD5-5148-9B1B-750AC5BE0A7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08862693-F594-D545-B7D3-3AAF1617F89E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="440" windowWidth="28800" windowHeight="19000" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
@@ -5454,7 +5454,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08862693-F594-D545-B7D3-3AAF1617F89E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EBF29-EC0D-4A44-A494-E65F3393A61B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="440" windowWidth="28800" windowHeight="19000" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
+    <workbookView xWindow="4760" yWindow="440" windowWidth="28800" windowHeight="19000" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="steady" sheetId="1" r:id="rId1"/>
@@ -401,6 +401,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,12 +420,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,10 +1168,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14527526506315261"/>
-          <c:y val="9.7561181806070527E-2"/>
-          <c:w val="0.79399129733828766"/>
-          <c:h val="0.78741973390735365"/>
+          <c:x val="0.17996450343109177"/>
+          <c:y val="5.5894575678040244E-2"/>
+          <c:w val="0.7768081178792533"/>
+          <c:h val="0.79891271229807226"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3285,10 +3285,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15355209764344566"/>
-          <c:y val="0.40184353654437543"/>
-          <c:w val="0.1792882195284827"/>
-          <c:h val="0.47366855289129928"/>
+          <c:x val="0.1905890930300379"/>
+          <c:y val="0.38102626244531251"/>
+          <c:w val="0.19086231408573928"/>
+          <c:h val="0.45733518151563185"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3310,7 +3310,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5115,16 +5115,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>340411</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>65465</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91648</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523711</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>91650</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>628975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65989</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5453,7 +5453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EA66BB-B451-4F4E-B1C9-5E3A555EB221}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -5469,23 +5469,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="19" t="s">
         <v>23</v>
       </c>
@@ -5598,7 +5598,7 @@
       <c r="B5" s="23">
         <v>10</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="25">
         <v>0.22891</v>
       </c>
       <c r="D5" s="23">
@@ -5610,18 +5610,18 @@
       <c r="F5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="24">
         <f t="shared" si="1"/>
         <v>1.00039332226204</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="21" t="s">
         <v>36</v>
       </c>
@@ -5952,18 +5952,18 @@
       <c r="F15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="24">
         <f t="shared" si="1"/>
         <v>0.95870116248579673</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="21" t="s">
         <v>30</v>
       </c>
@@ -6056,18 +6056,18 @@
       <c r="F18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="24">
         <f t="shared" si="1"/>
         <v>0.94698889957171573</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="21" t="s">
         <v>33</v>
       </c>
@@ -6142,69 +6142,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47BBAE-5C45-FC47-9DB3-44760ECB14A5}">
   <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="27" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="27" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="27" t="s">
+      <c r="R1" s="30"/>
+      <c r="S1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="27" t="s">
+      <c r="T1" s="30"/>
+      <c r="U1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="30"/>
+      <c r="W1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="27" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="27" t="s">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="28"/>
+      <c r="AB1" s="30"/>
       <c r="AC1" s="12" t="s">
         <v>12</v>
       </c>
@@ -8468,6 +8468,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:B1"/>
@@ -8477,11 +8482,6 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EBF29-EC0D-4A44-A494-E65F3393A61B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B7F378-6F45-9649-A8BE-4543FE456A2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="440" windowWidth="28800" windowHeight="19000" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="steady" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>pr</t>
   </si>
@@ -155,12 +155,6 @@
   </si>
   <si>
     <t>unstable (5)</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t>unstable(5)</t>
@@ -338,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,9 +353,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2221,6 +2212,66 @@
                 <c:pt idx="9">
                   <c:v>-2.4500000000000001E-2</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.11890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.18160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.2800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.23280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.26629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.23519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.15559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2394</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.23519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.33739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.3004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.37990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.3276</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.26629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.23280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.38040000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2259,6 +2310,66 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.1783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3395999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3964000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4544999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2295</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7572000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1318999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7572000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9500999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7477</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4117999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5952</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4733999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4544999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5008999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2739,6 +2850,66 @@
                 <c:pt idx="9">
                   <c:v>-2.01E-2</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.12429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.23669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.9800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.28970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.18160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.24690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2253</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.24690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.34250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.3165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.23669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.34429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.28970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.1938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2777,6 +2948,66 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.1680999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3291999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3841000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2741</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2193000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1680999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1974</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7748999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1218999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1349</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7748999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.772</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4498000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4656</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4994999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3841000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2862,6 +3093,66 @@
                 <c:pt idx="9">
                   <c:v>-9.5799999999999996E-2</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.2389</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.20369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.30859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.8800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.20269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.5799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.25219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.34570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.32990000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.2467</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.2389</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.4113</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.35439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.30859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.20369999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2900,6 +3191,66 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.1436999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4905999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3743000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2685</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2144999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4218</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1637999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2214</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1436999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1184000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1535000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7881</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9345000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7918000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4708000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4905999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5152999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4218</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3743000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5115,16 +5466,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>91648</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>157115</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437219</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>34319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>628975</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>65989</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>141990</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145851</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5469,24 +5820,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="19" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5520,7 +5871,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="20"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3">
@@ -5552,8 +5903,8 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="20" t="s">
-        <v>37</v>
+      <c r="N3" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5586,489 +5937,489 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="20" t="s">
-        <v>37</v>
+      <c r="N4" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="17" customFormat="1">
-      <c r="A5" s="23">
+    <row r="5" spans="1:14" s="16" customFormat="1">
+      <c r="A5" s="22">
         <f t="shared" si="0"/>
         <v>111325</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>10</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>0.22891</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>1.3637999999999999</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>0.77229999999999999</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <f t="shared" si="1"/>
         <v>1.00039332226204</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="28" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="21" t="s">
-        <v>36</v>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="17" customFormat="1">
-      <c r="A6" s="14">
+    <row r="6" spans="1:14" s="16" customFormat="1">
+      <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>113825</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>12.5</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0.22842999999999999</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>1.3965000000000001</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>0.79290000000000005</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <f t="shared" si="1"/>
         <v>0.99829560353115987</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="22" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="17" customFormat="1">
-      <c r="A7" s="14">
+    <row r="7" spans="1:14" s="16" customFormat="1">
+      <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>116325</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>15</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0.22692999999999999</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>1.4283999999999999</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0.81040000000000001</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <f t="shared" si="1"/>
         <v>0.99174023249715937</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="22" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="17" customFormat="1">
-      <c r="A8" s="14">
+    <row r="8" spans="1:14" s="16" customFormat="1">
+      <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>117325</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>16</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>0.22575999999999999</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>1.4404999999999999</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>0.81599999999999995</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <f t="shared" si="1"/>
         <v>0.98662704309063887</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="22" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="17" customFormat="1">
-      <c r="A9" s="14">
+    <row r="9" spans="1:14" s="16" customFormat="1">
+      <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>118325</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>17</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0.22406999999999999</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>1.452</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>0.82030000000000003</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <f t="shared" si="1"/>
         <v>0.9792413250589983</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="22" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="17" customFormat="1">
-      <c r="A10" s="14">
+    <row r="10" spans="1:14" s="16" customFormat="1">
+      <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>118825</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>17.5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>0.22283</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>1.4572000000000001</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>0.82150000000000001</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <f t="shared" si="1"/>
         <v>0.97382221833755789</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="22" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="17" customFormat="1">
-      <c r="A11" s="14">
+    <row r="11" spans="1:14" s="16" customFormat="1">
+      <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>119325</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>18</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>0.22106999999999999</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>1.462</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>0.82130000000000003</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <f t="shared" si="1"/>
         <v>0.9661305829909973</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="22" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="17" customFormat="1">
-      <c r="A12" s="14">
+    <row r="12" spans="1:14" s="16" customFormat="1">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>119425</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>18.100000000000001</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>0.22059000000000001</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>1.4628000000000001</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>0.82099999999999995</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <f t="shared" si="1"/>
         <v>0.96403286426011714</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="22" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="17" customFormat="1">
-      <c r="A13" s="14">
+    <row r="13" spans="1:14" s="16" customFormat="1">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>119525</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>18.2</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>0.22001999999999999</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>1.4634</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>0.82040000000000002</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <f t="shared" si="1"/>
         <v>0.96154182326719695</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="22" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="17" customFormat="1">
-      <c r="A14" s="14">
+    <row r="14" spans="1:14" s="16" customFormat="1">
+      <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>119575</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>18.25</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>0.21967999999999999</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>1.4637</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>0.82</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <f t="shared" si="1"/>
         <v>0.96005593916615672</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="22" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="17" customFormat="1">
-      <c r="A15" s="23">
+    <row r="15" spans="1:14" s="16" customFormat="1">
+      <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>119615</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>18.29</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>0.21937000000000001</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>1.4639</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>0.81950000000000001</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <f t="shared" si="1"/>
         <v>0.95870116248579673</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="28" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="21" t="s">
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="17" customFormat="1">
-      <c r="A16" s="14">
+    <row r="16" spans="1:14" s="16" customFormat="1">
+      <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>119625</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>18.3</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>0.21929000000000001</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>1.4639</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>0.81940000000000002</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <f t="shared" si="1"/>
         <v>0.95835154269731671</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="21" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="17" customFormat="1">
-      <c r="A17" s="14">
+    <row r="17" spans="1:14" s="16" customFormat="1">
+      <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>119725</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>18.399999999999999</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>0.21833</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>1.4641</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>0.81789999999999996</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <f t="shared" si="1"/>
         <v>0.95415610523555638</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="21" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="17" customFormat="1">
-      <c r="A18" s="23">
+    <row r="18" spans="1:14" s="16" customFormat="1">
+      <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>119825</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>18.5</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>0.21668999999999999</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>1.4635</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>0.81469999999999998</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <f t="shared" si="1"/>
         <v>0.94698889957171573</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="28" t="s">
+      <c r="H18" s="13"/>
+      <c r="I18" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="21" t="s">
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6083,7 +6434,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="4">
@@ -6096,7 +6447,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="20"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3">
@@ -6109,7 +6460,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="4">
@@ -6122,7 +6473,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="20"/>
+      <c r="N20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6142,2337 +6493,2672 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47BBAE-5C45-FC47-9DB3-44760ECB14A5}">
   <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="AA39" sqref="AA39"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:42">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:42" ht="18">
+      <c r="A1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="29" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="29" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="29" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="29" t="s">
+      <c r="R1" s="29"/>
+      <c r="S1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="30"/>
-      <c r="U1" s="29" t="s">
+      <c r="T1" s="29"/>
+      <c r="U1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="30"/>
-      <c r="W1" s="29" t="s">
+      <c r="V1" s="29"/>
+      <c r="W1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="29" t="s">
+      <c r="X1" s="29"/>
+      <c r="Y1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="29" t="s">
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="12" t="s">
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="10">
-        <v>-0.2311</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF1">
-        <v>1.9771000000000001</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AP1" s="12"/>
+      <c r="AD1" s="10"/>
+      <c r="AG1" s="7"/>
+      <c r="AI1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AP1" s="11"/>
     </row>
-    <row r="2" spans="1:42">
-      <c r="A2" s="13">
+    <row r="2" spans="1:42" ht="18">
+      <c r="A2" s="12">
         <v>1.43E-2</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>0.98269999999999991</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>0.98170000000000002</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>1E-4</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>0.98199999999999998</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>0.98199999999999998</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>-3.0999999999999999E-3</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>0.98229999999999995</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>-6.7000000000000002E-3</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>0.98399999999999999</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>-1.43E-2</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>0.98850000000000005</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <v>-2.2800000000000001E-2</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="8">
         <v>0.99250000000000005</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="8">
         <v>-3.95E-2</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="8">
         <v>1.0056</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="8">
         <v>-4.2700000000000002E-2</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="8">
         <v>1.0105999999999999</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="8">
         <v>-8.7099999999999997E-2</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="8">
         <v>1.0533999999999999</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W2" s="8">
         <v>-8.8900000000000007E-2</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="8">
         <v>1.0302</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Y2" s="8">
         <v>-1.24E-2</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="Z2" s="8">
         <v>1.8523000000000001</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="AA2" s="8">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AB2" s="8">
         <v>0.95430000000000004</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AC2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="10">
-        <v>-0.1457</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF2">
-        <v>1.7689999999999999</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AP2" s="12"/>
+      <c r="AD2" s="10"/>
+      <c r="AG2" s="7"/>
+      <c r="AI2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:42">
-      <c r="A3" s="13">
+    <row r="3" spans="1:42" ht="18">
+      <c r="A3" s="12">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1.0302</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>1.0306999999999999</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>1.4E-3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1.0319</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>1.0321</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>-1.1000000000000001E-3</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>1.0327</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>-3.8E-3</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>1.0347</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>-9.4000000000000004E-3</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>1.0397000000000001</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>-1.6400000000000001E-2</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <v>1.0438000000000001</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <v>-2.7E-2</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="8">
         <v>1.0592999999999999</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="8">
         <v>-2.6700000000000002E-2</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <v>1.0676000000000001</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="8">
         <v>-0.1152</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="8">
         <v>1.1004</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="8">
         <v>-0.1449</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="8">
         <v>1.0984</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="8">
         <v>-0.26119999999999999</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="8">
         <v>2.0834999999999999</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="8">
         <v>-0.1983</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="8">
         <v>1.0486</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AC3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="10">
-        <v>-0.17829999999999999</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF3">
-        <v>1.6972</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AP3" s="12"/>
+      <c r="AD3" s="10"/>
+      <c r="AG3" s="7"/>
+      <c r="AI3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AP3" s="11"/>
     </row>
-    <row r="4" spans="1:42">
-      <c r="A4" s="13">
+    <row r="4" spans="1:42" ht="18">
+      <c r="A4" s="12">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1.0731000000000002</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>2E-3</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>0.92530000000000001</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>-7.7999999999999996E-3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>0.92469999999999997</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>-8.6999999999999994E-3</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>0.92459999999999998</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>-1.21E-2</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>0.92459999999999998</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>-1.6799999999999999E-2</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>0.92589999999999995</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>-2.6700000000000002E-2</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>0.93010000000000004</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <v>-3.7199999999999997E-2</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>0.93410000000000004</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <v>-6.1699999999999998E-2</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="8">
         <v>0.94489999999999996</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <v>-6.9000000000000006E-2</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="8">
         <v>0.94620000000000004</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="8">
         <v>-0.11409999999999999</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="8">
         <v>1.1072</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="8">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" s="8">
         <v>1.1477999999999999</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Y4" s="8">
         <v>-8.4500000000000006E-2</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="8">
         <v>1.6802999999999999</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA4" s="8">
         <v>-8.6499999999999994E-2</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="8">
         <v>1.2423</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="10">
-        <v>-0.2157</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF4">
-        <v>2.2829000000000002</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AP4" s="12"/>
+      <c r="AD4" s="10"/>
+      <c r="AG4" s="7"/>
+      <c r="AI4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AP4" s="11"/>
     </row>
-    <row r="5" spans="1:42">
-      <c r="A5" s="13">
+    <row r="5" spans="1:42" ht="18">
+      <c r="A5" s="12">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.92730000000000001</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>1.4E-3</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>1.0753999999999999</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>-2E-3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>1.0779000000000001</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-2.3999999999999998E-3</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>1.0781000000000001</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>-3.8999999999999998E-3</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>1.0791999999999999</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>1.0814999999999999</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>-1.01E-2</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>1.0869</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <v>-1.5900000000000001E-2</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>1.0911999999999999</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <v>-2.1600000000000001E-2</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <v>1.1091</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <v>-9.1700000000000004E-2</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="8">
         <v>1.0738000000000001</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="8">
         <v>-0.1472</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="8">
         <v>1.0589</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="8">
         <v>-6.7299999999999999E-2</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="8">
         <v>1.1948000000000001</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="8">
         <v>-0.32790000000000002</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="8">
         <v>1.8499000000000001</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="8">
         <v>-0.1145</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="8">
         <v>0.72950000000000004</v>
       </c>
-      <c r="AC5" s="12" t="s">
+      <c r="AC5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="10">
-        <v>-0.31119999999999998</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF5">
-        <v>1.7271000000000001</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AP5" s="12"/>
+      <c r="AD5" s="10"/>
+      <c r="AG5" s="7"/>
+      <c r="AI5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AP5" s="11"/>
     </row>
-    <row r="6" spans="1:42">
-      <c r="A6" s="9">
+    <row r="6" spans="1:42" ht="18">
+      <c r="A6" s="8">
         <v>-7.9000000000000008E-3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1.1143000000000001</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>-6.7999999999999996E-3</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>1.1184000000000001</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>-9.1000000000000004E-3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>1.1218999999999999</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>-9.4000000000000004E-3</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>1.1222000000000001</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>-1.0500000000000001E-2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>1.1235999999999999</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>-1.2E-2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>1.1262000000000001</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>-1.52E-2</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>1.1318999999999999</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <v>-0.121</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <v>1.0497000000000001</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <v>-9.1300000000000006E-2</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="8">
         <v>1.0896999999999999</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <v>-1.83E-2</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="8">
         <v>1.1207</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="8">
         <v>-0.14899999999999999</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="8">
         <v>1.056</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="8">
         <v>-0.21299999999999999</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="8">
         <v>1.0441</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="8">
         <v>-0.3357</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="8">
         <v>1.8130999999999999</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AA6" s="8">
         <v>-0.29499999999999998</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="8">
         <v>0.90980000000000005</v>
       </c>
-      <c r="AC6" s="12" t="s">
+      <c r="AC6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD6" s="10">
-        <v>-0.28399999999999997</v>
-      </c>
-      <c r="AE6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF6">
-        <v>2.3010999999999999</v>
-      </c>
-      <c r="AG6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AP6" s="12"/>
+      <c r="AD6" s="10"/>
+      <c r="AG6" s="7"/>
+      <c r="AI6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AP6" s="11"/>
     </row>
-    <row r="7" spans="1:42">
-      <c r="A7" s="13">
+    <row r="7" spans="1:42" ht="18">
+      <c r="A7" s="12">
         <v>3.8E-3</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>0.86480000000000001</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>-1.23E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0.86229999999999996</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>-2.5100000000000001E-2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>0.86119999999999997</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>-2.6200000000000001E-2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>0.86109999999999998</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>-3.0700000000000002E-2</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>0.86080000000000001</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>-0.13250000000000001</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>1.0471999999999999</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>-0.1263</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>1.0488</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <v>-0.126</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <v>0.95330000000000004</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="8">
         <v>-0.12770000000000001</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="8">
         <v>1.0638000000000001</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="8">
         <v>-0.1087</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="8">
         <v>0.87660000000000005</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="8">
         <v>-9.1999999999999998E-2</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="8">
         <v>1.1519999999999999</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="8">
         <v>-4.7399999999999998E-2</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X7" s="8">
         <v>1.2401</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Y7" s="8">
         <v>-0.28820000000000001</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="8">
         <v>1.7383</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AA7" s="8">
         <v>-0.31319999999999998</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="8">
         <v>1.012</v>
       </c>
-      <c r="AC7" s="12" t="s">
+      <c r="AC7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD7" s="10">
-        <v>-0.38129999999999997</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF7">
-        <v>1.8065</v>
-      </c>
-      <c r="AG7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AP7" s="12"/>
+      <c r="AD7" s="10"/>
+      <c r="AG7" s="7"/>
+      <c r="AI7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AP7" s="11"/>
     </row>
-    <row r="8" spans="1:42">
-      <c r="A8" s="9">
+    <row r="8" spans="1:42" ht="18">
+      <c r="A8" s="8">
         <v>-2.1399999999999999E-2</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>1.1585000000000001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>-0.14979999999999999</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0.93200000000000005</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>-0.1426</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>1.0475000000000001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>-0.14130000000000001</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>1.0472999999999999</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>-0.13689999999999999</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>1.0468</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>-0.13070000000000001</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>0.9425</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>-0.12820000000000001</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>0.94869999999999999</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <v>-2.01E-2</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>1.1362000000000001</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="8">
         <v>-0.14360000000000001</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="8">
         <v>0.9829</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="8">
         <v>-1.6400000000000001E-2</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="8">
         <v>1.171</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="8">
         <v>-0.18429999999999999</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="8">
         <v>1.0217000000000001</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="8">
         <v>-0.1676</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="8">
         <v>1.1785000000000001</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="8">
         <v>-0.35160000000000002</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="8">
         <v>2.1926999999999999</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AA8" s="8">
         <v>-3.7499999999999999E-2</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="8">
         <v>1.3229</v>
       </c>
-      <c r="AC8" s="12" t="s">
+      <c r="AC8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD8" s="10">
-        <v>-0.2407</v>
-      </c>
-      <c r="AE8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF8">
-        <v>1.6366000000000001</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AP8" s="12"/>
+      <c r="AD8" s="10"/>
+      <c r="AG8" s="7"/>
+      <c r="AI8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AP8" s="11"/>
     </row>
-    <row r="9" spans="1:42">
-      <c r="A9" s="9">
+    <row r="9" spans="1:42" ht="18">
+      <c r="A9" s="8">
         <v>-9.69E-2</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>1.1615</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>-1.8800000000000001E-2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>1.1637999999999999</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>-0.13650000000000001</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>0.93679999999999997</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>-0.13569999999999999</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>0.93730000000000002</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>-0.13300000000000001</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>0.93930000000000002</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>-3.6900000000000002E-2</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>0.8619</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>-4.9700000000000001E-2</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>0.8659</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>-6.2600000000000003E-2</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>0.87</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <v>-9.6699999999999994E-2</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="8">
         <v>0.87919999999999998</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <v>-0.17849999999999999</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="8">
         <v>1.0297000000000001</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="8">
         <v>-0.1008</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="8">
         <v>1.1662999999999999</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="8">
         <v>-0.14399999999999999</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X9" s="8">
         <v>1.2033</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="8">
         <v>-0.40460000000000002</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="8">
         <v>1.9601999999999999</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AA9" s="8">
         <v>-0.27810000000000001</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="8">
         <v>0.80049999999999999</v>
       </c>
-      <c r="AC9" s="12" t="s">
+      <c r="AC9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD9" s="10">
-        <v>-0.42949999999999999</v>
-      </c>
-      <c r="AE9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF9">
-        <v>1.8744000000000001</v>
-      </c>
-      <c r="AG9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AP9" s="12"/>
+      <c r="AD9" s="10"/>
+      <c r="AG9" s="7"/>
+      <c r="AI9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AP9" s="11"/>
     </row>
-    <row r="10" spans="1:42">
-      <c r="A10" s="9">
+    <row r="10" spans="1:42" ht="18">
+      <c r="A10" s="8">
         <v>-0.19089999999999999</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>0.92720000000000002</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>-0.16159999999999999</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>1.0524</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>-9.4600000000000004E-2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>1.1328</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>-9.4500000000000001E-2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>1.1318999999999999</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>-9.4100000000000003E-2</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>1.1284000000000001</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>-9.3799999999999994E-2</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>1.1245000000000001</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>-9.3299999999999994E-2</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>1.1177999999999999</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <v>-9.2799999999999994E-2</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <v>1.1121000000000001</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="8">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="8">
         <v>1.1564000000000001</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="8">
         <v>-0.15690000000000001</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="8">
         <v>1.0954999999999999</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="8">
         <v>-0.19750000000000001</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="8">
         <v>1.0037</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="8">
         <v>-0.25130000000000002</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="8">
         <v>1.0155000000000001</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="8">
         <v>-0.2054</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z10" s="8">
         <v>1.6243000000000001</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA10" s="8">
         <v>-0.32800000000000001</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="8">
         <v>1.1084000000000001</v>
       </c>
-      <c r="AC10" s="12" t="s">
+      <c r="AC10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD10" s="10">
-        <v>-0.44109999999999999</v>
-      </c>
-      <c r="AE10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF10">
-        <v>1.8587</v>
-      </c>
-      <c r="AG10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AP10" s="12"/>
+      <c r="AD10" s="10"/>
+      <c r="AG10" s="7"/>
+      <c r="AI10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AP10" s="11"/>
     </row>
     <row r="11" spans="1:42">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>-4.4400000000000002E-2</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>1.2084000000000001</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>-9.5799999999999996E-2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>1.1436999999999999</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>-2.01E-2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>1.1680999999999999</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>-2.0299999999999999E-2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>1.1684000000000001</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>-2.12E-2</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>1.17</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>1.1727000000000001</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>-2.4500000000000001E-2</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <v>1.1783999999999999</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="8">
         <v>-2.86E-2</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <v>1.1825000000000001</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="8">
         <v>-0.1706</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="8">
         <v>0.91579999999999995</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="8">
         <v>-0.20319999999999999</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="8">
         <v>0.97470000000000001</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="8">
         <v>-7.9399999999999998E-2</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="8">
         <v>1.1944999999999999</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="8">
         <v>-0.23669999999999999</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="8">
         <v>1.0889</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y11" s="8">
         <v>-0.32190000000000002</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z11" s="8">
         <v>1.6353</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AA11" s="8">
         <v>-1.0200000000000001E-2</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AB11" s="8">
         <v>1.3651</v>
       </c>
-      <c r="AD11" s="10"/>
+      <c r="AD11" s="9"/>
     </row>
-    <row r="12" spans="1:42">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9">
+    <row r="12" spans="1:42" ht="18">
+      <c r="A12" s="10">
+        <v>-0.14219999999999999</v>
+      </c>
+      <c r="B12">
+        <v>1.3123</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-0.1293</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.3222</v>
+      </c>
+      <c r="E12" s="8">
+        <v>-0.12429999999999999</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.3291999999999999</v>
+      </c>
+      <c r="G12" s="8">
         <v>-0.1239</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>1.3297000000000001</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8">
+        <v>-0.1212</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1.3345</v>
+      </c>
+      <c r="M12" s="8">
+        <v>-0.11890000000000001</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1.3395999999999999</v>
+      </c>
+      <c r="O12" s="8">
         <v>-0.1191</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <v>1.3427</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="8">
         <v>-0.10589999999999999</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <v>1.3667</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <v>-0.29409999999999997</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <v>2.0175999999999998</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="8">
         <v>-0.11990000000000001</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="8">
         <v>1.3787</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="8">
         <v>-7.6600000000000001E-2</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="8">
         <v>1.4282999999999999</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="8">
         <v>-5.0200000000000002E-2</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="8">
         <v>1.4135</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="8">
         <v>-5.1000000000000004E-3</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="8">
         <v>1.4365000000000001</v>
       </c>
-      <c r="AD12" s="10"/>
+      <c r="AD12" s="9"/>
     </row>
-    <row r="13" spans="1:42">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9">
+    <row r="13" spans="1:42" ht="18">
+      <c r="A13" s="10">
+        <v>-0.24610000000000001</v>
+      </c>
+      <c r="B13">
+        <v>1.5302</v>
+      </c>
+      <c r="C13" s="8">
+        <v>-0.2389</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.4905999999999999</v>
+      </c>
+      <c r="E13" s="8">
+        <v>-0.1938</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.3841000000000001</v>
+      </c>
+      <c r="G13" s="8">
         <v>-0.19309999999999999</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>1.3849</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8">
+        <v>-0.18690000000000001</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1.3909</v>
+      </c>
+      <c r="M13" s="8">
+        <v>-0.18160000000000001</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1.3964000000000001</v>
+      </c>
+      <c r="O13" s="8">
         <v>-0.1794</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="8">
         <v>1.3998999999999999</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="8">
         <v>-0.15870000000000001</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="8">
         <v>1.4259999999999999</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="8">
         <v>-0.30790000000000001</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="8">
         <v>1.9577</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="8">
         <v>-0.159</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="8">
         <v>1.4369000000000001</v>
       </c>
-      <c r="W13" s="9">
+      <c r="W13" s="8">
         <v>-0.11849999999999999</v>
       </c>
-      <c r="X13" s="9">
+      <c r="X13" s="8">
         <v>1.4825999999999999</v>
       </c>
-      <c r="Y13" s="9">
+      <c r="Y13" s="8">
         <v>-4.5900000000000003E-2</v>
       </c>
-      <c r="Z13" s="9">
+      <c r="Z13" s="8">
         <v>1.3993</v>
       </c>
-      <c r="AA13" s="9">
+      <c r="AA13" s="8">
         <v>-2.7E-2</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AB13" s="8">
         <v>1.4397</v>
       </c>
-      <c r="AD13" s="10"/>
+      <c r="AD13" s="9"/>
     </row>
-    <row r="14" spans="1:42">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9">
+    <row r="14" spans="1:42" ht="18">
+      <c r="A14" s="10">
+        <v>-8.3400000000000002E-2</v>
+      </c>
+      <c r="B14">
+        <v>1.2613000000000001</v>
+      </c>
+      <c r="C14" s="8">
+        <v>-0.20369999999999999</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.3743000000000001</v>
+      </c>
+      <c r="E14" s="8">
+        <v>-7.3599999999999999E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.2741</v>
+      </c>
+      <c r="G14" s="8">
         <v>-7.3499999999999996E-2</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>1.2745</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1.2788999999999999</v>
+      </c>
+      <c r="M14" s="8">
+        <v>-7.2800000000000004E-2</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1.284</v>
+      </c>
+      <c r="O14" s="8">
         <v>-7.4700000000000003E-2</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="8">
         <v>1.2873000000000001</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="8">
         <v>-6.6900000000000001E-2</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="8">
         <v>1.3103</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="8">
         <v>-0.2132</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="8">
         <v>1.7091000000000001</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="8">
         <v>-9.2600000000000002E-2</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="8">
         <v>1.3281000000000001</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="8">
         <v>-4.9700000000000001E-2</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="8">
         <v>1.3792</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="8">
         <v>-7.7499999999999999E-2</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="8">
         <v>1.4133</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="12">
         <v>6.3E-3</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="8">
         <v>1.4339999999999999</v>
       </c>
-      <c r="AD14" s="10"/>
+      <c r="AD14" s="9"/>
     </row>
     <row r="15" spans="1:42" ht="18">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9">
+      <c r="A15" s="10">
+        <v>-0.22520000000000001</v>
+      </c>
+      <c r="B15">
+        <v>1.3586</v>
+      </c>
+      <c r="C15" s="8">
+        <v>-7.5600000000000001E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.2685</v>
+      </c>
+      <c r="E15" s="8">
+        <v>-0.23669999999999999</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.4656</v>
+      </c>
+      <c r="G15" s="8">
         <v>-0.2366</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>1.4634</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8">
+        <v>-0.23519999999999999</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1.4452</v>
+      </c>
+      <c r="M15" s="8">
+        <v>-0.23280000000000001</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1.4268000000000001</v>
+      </c>
+      <c r="O15" s="8">
         <v>-0.22900000000000001</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="8">
         <v>1.4092</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="8">
         <v>-0.2281</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="8">
         <v>1.4903999999999999</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="8">
         <v>-0.2923</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="8">
         <v>1.7077</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="8">
         <v>-0.2094</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="8">
         <v>1.5084</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="8">
         <v>-3.6900000000000002E-2</v>
       </c>
-      <c r="X15" s="9">
+      <c r="X15" s="8">
         <v>1.3312999999999999</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y15" s="8">
         <v>-6.0999999999999999E-2</v>
       </c>
-      <c r="Z15" s="9">
+      <c r="Z15" s="8">
         <v>1.381</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="12">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AB15" s="8">
         <v>1.4268000000000001</v>
       </c>
-      <c r="AD15" s="10"/>
-      <c r="AI15" s="11"/>
+      <c r="AD15" s="9"/>
+      <c r="AI15" s="10"/>
     </row>
     <row r="16" spans="1:42" ht="18">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9">
+      <c r="A16" s="10">
+        <v>-4.4400000000000002E-2</v>
+      </c>
+      <c r="B16">
+        <v>1.2083999999999999</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-3.9699999999999999E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.2144999999999999</v>
+      </c>
+      <c r="E16" s="8">
+        <v>-3.9800000000000002E-2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1.2193000000000001</v>
+      </c>
+      <c r="G16" s="8">
         <v>-3.9899999999999998E-2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>1.2197</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8">
+        <v>-4.0800000000000003E-2</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1.224</v>
+      </c>
+      <c r="M16" s="8">
+        <v>-0.26629999999999998</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1.4544999999999999</v>
+      </c>
+      <c r="O16" s="8">
         <v>-0.26040000000000002</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="8">
         <v>1.4594</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="8">
         <v>-4.1300000000000003E-2</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="8">
         <v>1.2557</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="8">
         <v>-0.35160000000000002</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="8">
         <v>1.7136</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="8">
         <v>-7.7700000000000005E-2</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="8">
         <v>1.2808999999999999</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="8">
         <v>-0.17480000000000001</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="8">
         <v>1.5508999999999999</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="8">
         <v>-9.3899999999999997E-2</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="8">
         <v>1.367</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA16" s="8">
         <v>-5.74E-2</v>
       </c>
-      <c r="AB16" s="9">
+      <c r="AB16" s="8">
         <v>1.4495</v>
       </c>
-      <c r="AD16" s="10"/>
-      <c r="AI16" s="11"/>
+      <c r="AD16" s="9"/>
+      <c r="AI16" s="10"/>
     </row>
     <row r="17" spans="1:35" ht="18">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
+      <c r="A17" s="10">
+        <v>-0.22470000000000001</v>
+      </c>
+      <c r="B17">
+        <v>1.2784</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-0.30859999999999999</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1.4218</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-0.28970000000000001</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1.4375</v>
+      </c>
+      <c r="G17" s="8">
         <v>-0.28820000000000001</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>1.4387000000000001</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8">
+        <v>-0.27629999999999999</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1.4475</v>
+      </c>
+      <c r="M17" s="8">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1.2295</v>
+      </c>
+      <c r="O17" s="8">
         <v>-4.5199999999999997E-2</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="8">
         <v>1.2332000000000001</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="8">
         <v>-0.21160000000000001</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="8">
         <v>1.3565</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="8">
         <v>-0.27700000000000002</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="8">
         <v>1.5871999999999999</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="8">
         <v>-0.14369999999999999</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="8">
         <v>1.2873000000000001</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="8">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="8">
         <v>1.2848999999999999</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="8">
         <v>-0.1221</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="8">
         <v>1.3687</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AA17" s="12">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AB17" s="8">
         <v>1.4125000000000001</v>
       </c>
-      <c r="AD17" s="10"/>
-      <c r="AI17" s="11"/>
+      <c r="AD17" s="9"/>
+      <c r="AI17" s="10"/>
     </row>
     <row r="18" spans="1:35" ht="18">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9">
+      <c r="A18" s="10">
+        <v>-2.1399999999999999E-2</v>
+      </c>
+      <c r="B18">
+        <v>1.1585000000000001</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-1.8800000000000001E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1.1637999999999999</v>
+      </c>
+      <c r="E18" s="8">
+        <v>-2.01E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1.1680999999999999</v>
+      </c>
+      <c r="G18" s="8">
         <v>-2.0299999999999999E-2</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>1.1684000000000001</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8">
+        <v>-2.2200000000000001E-2</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1.1727000000000001</v>
+      </c>
+      <c r="M18" s="8">
+        <v>-2.4500000000000001E-2</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1.1783999999999999</v>
+      </c>
+      <c r="O18" s="8">
         <v>-2.86E-2</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="8">
         <v>1.1825000000000001</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="8">
         <v>-2.7799999999999998E-2</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="8">
         <v>1.2041999999999999</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="8">
         <v>-0.376</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="8">
         <v>2.3346</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="8">
         <v>-0.16719999999999999</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="8">
         <v>1.7121999999999999</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="8">
         <v>-4.7399999999999998E-2</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="8">
         <v>1.2401</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="8">
         <v>-8.4500000000000006E-2</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z18" s="8">
         <v>1.6802999999999999</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA18" s="8">
         <v>-9.1899999999999996E-2</v>
       </c>
-      <c r="AB18" s="9">
+      <c r="AB18" s="8">
         <v>1.4694</v>
       </c>
-      <c r="AD18" s="10"/>
-      <c r="AI18" s="11"/>
+      <c r="AD18" s="9"/>
+      <c r="AI18" s="10"/>
     </row>
     <row r="19" spans="1:35" ht="18">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9">
+      <c r="A19" s="10">
+        <v>-9.69E-2</v>
+      </c>
+      <c r="B19">
+        <v>1.1615</v>
+      </c>
+      <c r="C19" s="8">
+        <v>-0.20269999999999999</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1.2214</v>
+      </c>
+      <c r="E19" s="8">
+        <v>-0.18160000000000001</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1.1974</v>
+      </c>
+      <c r="G19" s="8">
         <v>-0.17979999999999999</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>1.1958</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8">
+        <v>-0.1666</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1.1860999999999999</v>
+      </c>
+      <c r="M19" s="8">
+        <v>-0.23519999999999999</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1.7572000000000001</v>
+      </c>
+      <c r="O19" s="8">
         <v>-0.22919999999999999</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="8">
         <v>1.7507999999999999</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="8">
         <v>-0.21240000000000001</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="8">
         <v>1.7239</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="8">
         <v>-0.2908</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="8">
         <v>2.4114</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="8">
         <v>-7.4300000000000005E-2</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="8">
         <v>1.2365999999999999</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="8">
         <v>-0.17829999999999999</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X19" s="8">
         <v>1.6972</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y19" s="8">
         <v>-0.1004</v>
       </c>
-      <c r="Z19" s="9">
+      <c r="Z19" s="8">
         <v>1.2994000000000001</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AA19" s="12">
         <v>2.3E-3</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AB19" s="8">
         <v>1.3924000000000001</v>
       </c>
-      <c r="AD19" s="10"/>
-      <c r="AI19" s="11"/>
+      <c r="AD19" s="9"/>
+      <c r="AI19" s="10"/>
     </row>
     <row r="20" spans="1:35" ht="18">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9">
+      <c r="A20" s="10">
+        <v>-0.34810000000000002</v>
+      </c>
+      <c r="B20">
+        <v>1.3913</v>
+      </c>
+      <c r="C20" s="8">
+        <v>-9.5799999999999996E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1.1436999999999999</v>
+      </c>
+      <c r="E20" s="8">
+        <v>-0.24690000000000001</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1.7748999999999999</v>
+      </c>
+      <c r="G20" s="8">
         <v>-0.24640000000000001</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>1.7737000000000001</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8">
+        <v>-0.24160000000000001</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1.7646999999999999</v>
+      </c>
+      <c r="M20" s="8">
+        <v>-0.15559999999999999</v>
+      </c>
+      <c r="N20" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="O20" s="8">
         <v>-0.14660000000000001</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="8">
         <v>1.1751</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="8">
         <v>-0.31809999999999999</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="8">
         <v>1.5532999999999999</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="8">
         <v>-0.36840000000000001</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="8">
         <v>1.6447000000000001</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="8">
         <v>-0.27079999999999999</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V20" s="8">
         <v>1.5912999999999999</v>
       </c>
-      <c r="W20" s="9">
+      <c r="W20" s="8">
         <v>-0.15590000000000001</v>
       </c>
-      <c r="X20" s="9">
+      <c r="X20" s="8">
         <v>1.2833000000000001</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y20" s="8">
         <v>-0.1295</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z20" s="8">
         <v>1.3130999999999999</v>
       </c>
-      <c r="AA20" s="9">
+      <c r="AA20" s="8">
         <v>-0.12620000000000001</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB20" s="8">
         <v>1.5001</v>
       </c>
-      <c r="AD20" s="10"/>
-      <c r="AI20" s="11"/>
+      <c r="AD20" s="9"/>
+      <c r="AI20" s="10"/>
     </row>
     <row r="21" spans="1:35" ht="18">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9">
+      <c r="A21" s="10">
+        <v>-7.9000000000000008E-3</v>
+      </c>
+      <c r="B21">
+        <v>1.1143000000000001</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-6.7999999999999996E-3</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.1184000000000001</v>
+      </c>
+      <c r="E21" s="8">
+        <v>-9.1000000000000004E-3</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1.1218999999999999</v>
+      </c>
+      <c r="G21" s="8">
         <v>-9.4000000000000004E-3</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>1.1222000000000001</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1.1262000000000001</v>
+      </c>
+      <c r="M21" s="8">
+        <v>-1.52E-2</v>
+      </c>
+      <c r="N21" s="8">
+        <v>1.1318999999999999</v>
+      </c>
+      <c r="O21" s="8">
         <v>-2.01E-2</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="8">
         <v>1.1362000000000001</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="8">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="8">
         <v>1.1564000000000001</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="8">
         <v>-0.19789999999999999</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="8">
         <v>1.5167999999999999</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="8">
         <v>-7.9399999999999998E-2</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="8">
         <v>1.1944999999999999</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="8">
         <v>-0.2407</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X21" s="8">
         <v>1.6366000000000001</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y21" s="8">
         <v>-8.6599999999999996E-2</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Z21" s="8">
         <v>1.282</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="8">
         <v>-1.0200000000000001E-2</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AB21" s="8">
         <v>1.3651</v>
       </c>
-      <c r="AI21" s="11"/>
+      <c r="AI21" s="10"/>
     </row>
     <row r="22" spans="1:35" ht="18">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9">
+      <c r="A22" s="10">
+        <v>-0.20530000000000001</v>
+      </c>
+      <c r="B22">
+        <v>2.1814</v>
+      </c>
+      <c r="C22" s="8">
+        <v>-0.217</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="E22" s="8">
+        <v>-0.2253</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2.1349</v>
+      </c>
+      <c r="G22" s="8">
         <v>-0.2261</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>2.1333000000000002</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8">
+        <v>-0.23250000000000001</v>
+      </c>
+      <c r="L22" s="8">
+        <v>2.1196000000000002</v>
+      </c>
+      <c r="M22" s="8">
+        <v>-0.2394</v>
+      </c>
+      <c r="N22" s="8">
+        <v>2.1055999999999999</v>
+      </c>
+      <c r="O22" s="8">
         <v>-0.24610000000000001</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="8">
         <v>2.0926999999999998</v>
       </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9">
+      <c r="Q22" s="8">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="R22" s="8">
+        <v>2.0464000000000002</v>
+      </c>
+      <c r="S22" s="8">
         <v>-3.1E-2</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="8">
         <v>1.2743</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="8">
         <v>-0.2389</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="8">
         <v>2.0192000000000001</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="8">
         <v>-0.2311</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22" s="8">
         <v>1.9771000000000001</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22" s="8">
         <v>-0.18329999999999999</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Z22" s="8">
         <v>0.99480000000000002</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="8">
         <v>-8.2699999999999996E-2</v>
       </c>
-      <c r="AB22" s="9">
+      <c r="AB22" s="8">
         <v>2.0299</v>
       </c>
-      <c r="AI22" s="11"/>
+      <c r="AI22" s="10"/>
     </row>
     <row r="23" spans="1:35" ht="18">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9">
+      <c r="A23" s="10">
+        <v>-0.25950000000000001</v>
+      </c>
+      <c r="B23">
+        <v>1.8072999999999999</v>
+      </c>
+      <c r="C23" s="8">
+        <v>-0.25219999999999998</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1.7881</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-0.24690000000000001</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1.7748999999999999</v>
+      </c>
+      <c r="G23" s="8">
         <v>-0.24640000000000001</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>1.7737000000000001</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8">
+        <v>-0.24160000000000001</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1.7646999999999999</v>
+      </c>
+      <c r="M23" s="8">
+        <v>-0.23519999999999999</v>
+      </c>
+      <c r="N23" s="8">
+        <v>1.7572000000000001</v>
+      </c>
+      <c r="O23" s="8">
         <v>-0.33479999999999999</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="8">
         <v>1.9556</v>
       </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9">
+      <c r="Q23" s="8">
+        <v>-0.31690000000000002</v>
+      </c>
+      <c r="R23" s="8">
+        <v>1.9671000000000001</v>
+      </c>
+      <c r="S23" s="8">
         <v>-5.3499999999999999E-2</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="8">
         <v>1.3303</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="8">
         <v>-0.1711</v>
       </c>
-      <c r="V23" s="9">
+      <c r="V23" s="8">
         <v>1.7846</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="8">
         <v>-0.1457</v>
       </c>
-      <c r="X23" s="9">
+      <c r="X23" s="8">
         <v>1.7689999999999999</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="Y23" s="8">
         <v>-8.0600000000000005E-2</v>
       </c>
-      <c r="Z23" s="9">
+      <c r="Z23" s="8">
         <v>1.264</v>
       </c>
-      <c r="AA23" s="9">
+      <c r="AA23" s="8">
         <v>-5.0099999999999999E-2</v>
       </c>
-      <c r="AB23" s="9">
+      <c r="AB23" s="8">
         <v>1.7568999999999999</v>
       </c>
-      <c r="AI23" s="11"/>
+      <c r="AI23" s="10"/>
     </row>
     <row r="24" spans="1:35" ht="18">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9">
+      <c r="A24" s="10">
+        <v>-0.34949999999999998</v>
+      </c>
+      <c r="B24">
+        <v>1.9268000000000001</v>
+      </c>
+      <c r="C24" s="8">
+        <v>-0.34570000000000001</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1.9345000000000001</v>
+      </c>
+      <c r="E24" s="8">
+        <v>-0.34250000000000003</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1.9397</v>
+      </c>
+      <c r="G24" s="8">
         <v>-0.3422</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>1.9400999999999999</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9">
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
+        <v>-0.33979999999999999</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1.9444999999999999</v>
+      </c>
+      <c r="M24" s="8">
+        <v>-0.33739999999999998</v>
+      </c>
+      <c r="N24" s="8">
+        <v>1.9500999999999999</v>
+      </c>
+      <c r="O24" s="8">
         <v>-0.22919999999999999</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="8">
         <v>1.7507999999999999</v>
       </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9">
+      <c r="Q24" s="8">
+        <v>-0.21240000000000001</v>
+      </c>
+      <c r="R24" s="8">
+        <v>1.7239</v>
+      </c>
+      <c r="S24" s="8">
         <v>-1.9800000000000002E-2</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="8">
         <v>1.2211000000000001</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="8">
         <v>-0.16719999999999999</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24" s="8">
         <v>1.7121999999999999</v>
       </c>
-      <c r="W24" s="9">
+      <c r="W24" s="8">
         <v>-0.17829999999999999</v>
       </c>
-      <c r="X24" s="9">
+      <c r="X24" s="8">
         <v>1.6972</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="Y24" s="8">
         <v>-0.1835</v>
       </c>
-      <c r="Z24" s="9">
+      <c r="Z24" s="8">
         <v>0.77639999999999998</v>
       </c>
-      <c r="AA24" s="9">
+      <c r="AA24" s="8">
         <v>-9.7299999999999998E-2</v>
       </c>
-      <c r="AB24" s="9">
+      <c r="AB24" s="8">
         <v>1.77</v>
       </c>
-      <c r="AI24" s="11"/>
+      <c r="AI24" s="10"/>
     </row>
-    <row r="25" spans="1:35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9">
+    <row r="25" spans="1:35" ht="18">
+      <c r="A25" s="10">
+        <v>-0.35120000000000001</v>
+      </c>
+      <c r="B25">
+        <v>1.8278000000000001</v>
+      </c>
+      <c r="C25" s="8">
+        <v>-0.32990000000000003</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1.7918000000000001</v>
+      </c>
+      <c r="E25" s="8">
+        <v>-0.3165</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1.772</v>
+      </c>
+      <c r="G25" s="8">
         <v>-0.31540000000000001</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>1.7704</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8">
+        <v>-0.30690000000000001</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1.7582</v>
+      </c>
+      <c r="M25" s="8">
+        <v>-0.3004</v>
+      </c>
+      <c r="N25" s="8">
+        <v>1.7477</v>
+      </c>
+      <c r="O25" s="8">
         <v>-0.29599999999999999</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="8">
         <v>1.7391000000000001</v>
       </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9">
+      <c r="Q25" s="8">
+        <v>-0.28639999999999999</v>
+      </c>
+      <c r="R25" s="8">
+        <v>1.7176</v>
+      </c>
+      <c r="S25" s="8">
         <v>-8.8499999999999995E-2</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="8">
         <v>1.3879999999999999</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="8">
         <v>-0.22339999999999999</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V25" s="8">
         <v>2.3130999999999999</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W25" s="8">
         <v>-0.2157</v>
       </c>
-      <c r="X25" s="9">
+      <c r="X25" s="8">
         <v>2.2829000000000002</v>
       </c>
-      <c r="Y25" s="9">
+      <c r="Y25" s="8">
         <v>-8.6599999999999996E-2</v>
       </c>
-      <c r="Z25" s="9">
+      <c r="Z25" s="8">
         <v>1.282</v>
       </c>
-      <c r="AA25" s="9">
+      <c r="AA25" s="8">
         <v>-4.0300000000000002E-2</v>
       </c>
-      <c r="AB25" s="9">
+      <c r="AB25" s="8">
         <v>1.7504</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9">
+    <row r="26" spans="1:35" ht="18">
+      <c r="A26" s="10">
+        <v>-0.24610000000000001</v>
+      </c>
+      <c r="B26">
+        <v>1.5302</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-0.2467</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2.4708000000000001</v>
+      </c>
+      <c r="E26" s="8">
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2.4498000000000002</v>
+      </c>
+      <c r="G26" s="8">
         <v>-0.26769999999999999</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>2.4479000000000002</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9">
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8">
+        <v>-0.28220000000000001</v>
+      </c>
+      <c r="L26" s="8">
+        <v>2.431</v>
+      </c>
+      <c r="M26" s="8">
+        <v>-0.29799999999999999</v>
+      </c>
+      <c r="N26" s="8">
+        <v>2.4117999999999999</v>
+      </c>
+      <c r="O26" s="8">
         <v>-0.312</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="8">
         <v>2.3933</v>
       </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9">
+      <c r="Q26" s="8">
+        <v>-0.34739999999999999</v>
+      </c>
+      <c r="R26" s="8">
+        <v>1.6692</v>
+      </c>
+      <c r="S26" s="8">
         <v>-1.6400000000000001E-2</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="8">
         <v>1.171</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="8">
         <v>-0.42549999999999999</v>
       </c>
-      <c r="V26" s="9">
+      <c r="V26" s="8">
         <v>1.9946999999999999</v>
       </c>
-      <c r="W26" s="9">
+      <c r="W26" s="8">
         <v>-0.31119999999999998</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X26" s="8">
         <v>1.7271000000000001</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="Y26" s="8">
         <v>-0.1004</v>
       </c>
-      <c r="Z26" s="9">
+      <c r="Z26" s="8">
         <v>1.2994000000000001</v>
       </c>
-      <c r="AA26" s="9">
+      <c r="AA26" s="8">
         <v>-0.25190000000000001</v>
       </c>
-      <c r="AB26" s="9">
+      <c r="AB26" s="8">
         <v>1.9374</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9">
+    <row r="27" spans="1:35" ht="18">
+      <c r="A27" s="10">
+        <v>-0.21659999999999999</v>
+      </c>
+      <c r="B27">
+        <v>2.5011999999999999</v>
+      </c>
+      <c r="C27" s="8">
+        <v>-0.2389</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1.4905999999999999</v>
+      </c>
+      <c r="E27" s="8">
+        <v>-0.23669999999999999</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1.4656</v>
+      </c>
+      <c r="G27" s="8">
         <v>-0.2366</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>1.4634</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9">
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8">
+        <v>-0.38850000000000001</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1.5768</v>
+      </c>
+      <c r="M27" s="8">
+        <v>-0.37990000000000002</v>
+      </c>
+      <c r="N27" s="8">
+        <v>1.5952</v>
+      </c>
+      <c r="O27" s="8">
         <v>-0.372</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27" s="8">
         <v>1.6120000000000001</v>
       </c>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9">
+      <c r="Q27" s="8">
+        <v>-0.36659999999999998</v>
+      </c>
+      <c r="R27" s="8">
+        <v>2.3401000000000001</v>
+      </c>
+      <c r="S27" s="8">
         <v>-1.83E-2</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="8">
         <v>1.1207</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27" s="8">
         <v>-0.28889999999999999</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V27" s="8">
         <v>2.3485999999999998</v>
       </c>
-      <c r="W27" s="9">
+      <c r="W27" s="8">
         <v>-0.28399999999999997</v>
       </c>
-      <c r="X27" s="9">
+      <c r="X27" s="8">
         <v>2.3010999999999999</v>
       </c>
-      <c r="Y27" s="9">
+      <c r="Y27" s="8">
         <v>-0.33760000000000001</v>
       </c>
-      <c r="Z27" s="9">
+      <c r="Z27" s="8">
         <v>1.0242</v>
       </c>
-      <c r="AA27" s="13">
+      <c r="AA27" s="12">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="AB27" s="9">
+      <c r="AB27" s="8">
         <v>1.7364999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9">
+    <row r="28" spans="1:35" ht="18">
+      <c r="A28" s="10">
+        <v>-0.43569999999999998</v>
+      </c>
+      <c r="B28">
+        <v>1.51</v>
+      </c>
+      <c r="C28" s="8">
+        <v>-0.4113</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1.5367999999999999</v>
+      </c>
+      <c r="E28" s="8">
+        <v>-0.39800000000000002</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1.5579000000000001</v>
+      </c>
+      <c r="G28" s="8">
         <v>-0.39689999999999998</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>1.5598000000000001</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9">
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8">
+        <v>-0.33610000000000001</v>
+      </c>
+      <c r="L28" s="8">
+        <v>2.4864000000000002</v>
+      </c>
+      <c r="M28" s="8">
+        <v>-0.3276</v>
+      </c>
+      <c r="N28" s="8">
+        <v>2.4733999999999998</v>
+      </c>
+      <c r="O28" s="8">
         <v>-0.3201</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P28" s="8">
         <v>2.4603999999999999</v>
       </c>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9">
+      <c r="Q28" s="8">
+        <v>-0.30309999999999998</v>
+      </c>
+      <c r="R28" s="8">
+        <v>2.4214000000000002</v>
+      </c>
+      <c r="S28" s="8">
         <v>-0.1537</v>
       </c>
-      <c r="T28" s="9">
+      <c r="T28" s="8">
         <v>1.1843999999999999</v>
       </c>
-      <c r="U28" s="9">
+      <c r="U28" s="8">
         <v>-0.34079999999999999</v>
       </c>
-      <c r="V28" s="9">
+      <c r="V28" s="8">
         <v>1.6721999999999999</v>
       </c>
-      <c r="W28" s="9">
+      <c r="W28" s="8">
         <v>-0.38129999999999997</v>
       </c>
-      <c r="X28" s="9">
+      <c r="X28" s="8">
         <v>1.8065</v>
       </c>
-      <c r="Y28" s="9">
+      <c r="Y28" s="8">
         <v>-0.1295</v>
       </c>
-      <c r="Z28" s="9">
+      <c r="Z28" s="8">
         <v>1.3130999999999999</v>
       </c>
-      <c r="AA28" s="9">
+      <c r="AA28" s="8">
         <v>-0.15809999999999999</v>
       </c>
-      <c r="AB28" s="9">
+      <c r="AB28" s="8">
         <v>1.7338</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9">
+    <row r="29" spans="1:35" ht="18">
+      <c r="A29" s="10">
+        <v>-0.37219999999999998</v>
+      </c>
+      <c r="B29">
+        <v>2.5398999999999998</v>
+      </c>
+      <c r="C29" s="8">
+        <v>-0.35439999999999999</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2.5152999999999999</v>
+      </c>
+      <c r="E29" s="8">
+        <v>-0.34429999999999999</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2.4994999999999998</v>
+      </c>
+      <c r="G29" s="8">
         <v>-0.34350000000000003</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>2.4982000000000002</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9">
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8">
+        <v>-0.23519999999999999</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1.4452</v>
+      </c>
+      <c r="M29" s="8">
+        <v>-0.26629999999999998</v>
+      </c>
+      <c r="N29" s="8">
+        <v>1.4544999999999999</v>
+      </c>
+      <c r="O29" s="8">
         <v>-0.26040000000000002</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="8">
         <v>1.4594</v>
       </c>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9">
+      <c r="Q29" s="8">
+        <v>-0.31809999999999999</v>
+      </c>
+      <c r="R29" s="8">
+        <v>1.5532999999999999</v>
+      </c>
+      <c r="S29" s="8">
         <v>-0.13600000000000001</v>
       </c>
-      <c r="T29" s="9">
+      <c r="T29" s="8">
         <v>1.4493</v>
       </c>
-      <c r="U29" s="9">
+      <c r="U29" s="8">
         <v>-0.41020000000000001</v>
       </c>
-      <c r="V29" s="9">
+      <c r="V29" s="8">
         <v>1.7371000000000001</v>
       </c>
-      <c r="W29" s="9">
+      <c r="W29" s="8">
         <v>-0.2407</v>
       </c>
-      <c r="X29" s="9">
+      <c r="X29" s="8">
         <v>1.6366000000000001</v>
       </c>
-      <c r="Y29" s="9">
+      <c r="Y29" s="8">
         <v>-0.32569999999999999</v>
       </c>
-      <c r="Z29" s="9">
+      <c r="Z29" s="8">
         <v>1.129</v>
       </c>
-      <c r="AA29" s="9">
+      <c r="AA29" s="8">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="AB29" s="9">
+      <c r="AB29" s="8">
         <v>1.6536</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9">
+    <row r="30" spans="1:35" ht="18">
+      <c r="A30" s="10">
+        <v>-0.22520000000000001</v>
+      </c>
+      <c r="B30">
+        <v>1.3586</v>
+      </c>
+      <c r="C30" s="8">
+        <v>-0.30859999999999999</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1.4218</v>
+      </c>
+      <c r="E30" s="8">
+        <v>-0.28970000000000001</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1.4375</v>
+      </c>
+      <c r="G30" s="8">
         <v>-0.28820000000000001</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>1.4387000000000001</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9">
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8">
+        <v>-0.27629999999999999</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1.4475</v>
+      </c>
+      <c r="M30" s="8">
+        <v>-0.23280000000000001</v>
+      </c>
+      <c r="N30" s="8">
+        <v>1.4268000000000001</v>
+      </c>
+      <c r="O30" s="8">
         <v>-0.36849999999999999</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P30" s="8">
         <v>1.5096000000000001</v>
       </c>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9">
+      <c r="Q30" s="8">
+        <v>-0.2281</v>
+      </c>
+      <c r="R30" s="8">
+        <v>1.4903999999999999</v>
+      </c>
+      <c r="S30" s="8">
         <v>-0.20269999999999999</v>
       </c>
-      <c r="T30" s="9">
+      <c r="T30" s="8">
         <v>1.3432999999999999</v>
       </c>
-      <c r="U30" s="9">
+      <c r="U30" s="8">
         <v>-0.45090000000000002</v>
       </c>
-      <c r="V30" s="9">
+      <c r="V30" s="8">
         <v>2.1907000000000001</v>
       </c>
-      <c r="W30" s="9">
+      <c r="W30" s="8">
         <v>-0.42949999999999999</v>
       </c>
-      <c r="X30" s="9">
+      <c r="X30" s="8">
         <v>1.8744000000000001</v>
       </c>
-      <c r="Y30" s="9">
+      <c r="Y30" s="8">
         <v>-0.3468</v>
       </c>
-      <c r="Z30" s="9">
+      <c r="Z30" s="8">
         <v>0.91610000000000003</v>
       </c>
-      <c r="AA30" s="9">
+      <c r="AA30" s="8">
         <v>-0.1862</v>
       </c>
-      <c r="AB30" s="9">
+      <c r="AB30" s="8">
         <v>1.6648000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9">
+    <row r="31" spans="1:35" ht="18">
+      <c r="A31" s="10">
+        <v>-0.34810000000000002</v>
+      </c>
+      <c r="B31">
+        <v>1.3913</v>
+      </c>
+      <c r="C31" s="8">
+        <v>-0.20369999999999999</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1.3743000000000001</v>
+      </c>
+      <c r="E31" s="8">
+        <v>-0.1938</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1.3841000000000001</v>
+      </c>
+      <c r="G31" s="8">
         <v>-0.19309999999999999</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>1.3849</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9">
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8">
+        <v>-0.18690000000000001</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1.3909</v>
+      </c>
+      <c r="M31" s="8">
+        <v>-0.38040000000000002</v>
+      </c>
+      <c r="N31" s="8">
+        <v>1.5008999999999999</v>
+      </c>
+      <c r="O31" s="8">
         <v>-0.1794</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="8">
         <v>1.3998999999999999</v>
       </c>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9">
+      <c r="Q31" s="8">
+        <v>-0.4209</v>
+      </c>
+      <c r="R31" s="8">
+        <v>1.5927</v>
+      </c>
+      <c r="S31" s="8">
         <v>-2.6700000000000002E-2</v>
       </c>
-      <c r="T31" s="9">
+      <c r="T31" s="8">
         <v>1.0676000000000001</v>
       </c>
-      <c r="U31" s="9">
+      <c r="U31" s="8">
         <v>-0.27079999999999999</v>
       </c>
-      <c r="V31" s="9">
+      <c r="V31" s="8">
         <v>1.5912999999999999</v>
       </c>
-      <c r="W31" s="9">
+      <c r="W31" s="8">
         <v>-0.44109999999999999</v>
       </c>
-      <c r="X31" s="9">
+      <c r="X31" s="8">
         <v>1.8587</v>
       </c>
-      <c r="Y31" s="9">
+      <c r="Y31" s="8">
         <v>-0.29520000000000002</v>
       </c>
-      <c r="Z31" s="9">
+      <c r="Z31" s="8">
         <v>1.2350000000000001</v>
       </c>
-      <c r="AA31" s="9">
+      <c r="AA31" s="8">
         <v>-0.41110000000000002</v>
       </c>
-      <c r="AB31" s="9">
+      <c r="AB31" s="8">
         <v>1.88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:B1"/>
@@ -8482,6 +9168,11 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B7F378-6F45-9649-A8BE-4543FE456A2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5D12E2-E374-544F-934A-473F11D8B512}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="19560" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="steady" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
   <si>
     <t>pr</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>have not analyzed</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -2421,10 +2427,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$K$2:$K$11</c:f>
+              <c:f>eigenvalues!$K$2:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>-6.7000000000000002E-3</c:v>
                 </c:pt>
@@ -2454,16 +2460,76 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-2.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1212</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.18690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.23519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.0800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.27629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.1666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.24160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.23250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.24160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.33979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.30690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.28220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.38850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.33610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.23519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.27629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.18690000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$L$2:$L$11</c:f>
+              <c:f>eigenvalues!$L$2:$L$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.98399999999999999</c:v>
                 </c:pt>
@@ -2493,6 +2559,66 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.1727000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3345</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3909</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2788999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4452</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.224</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4475</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1727000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1860999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7646999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1262000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1196000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7646999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9444999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7582</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.431</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5768</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4864000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4452</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4475</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,10 +2670,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$I$2:$I$11</c:f>
+              <c:f>eigenvalues!$I$2:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>-3.0999999999999999E-3</c:v>
                 </c:pt>
@@ -2577,16 +2703,76 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-2.12E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.12280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1903</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.3400000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.2361</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.0300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.28270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.12E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.17349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.2445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.2445</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.31130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.3931</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.2361</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.34050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.28270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.1903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$J$2:$J$11</c:f>
+              <c:f>eigenvalues!$J$2:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.98229999999999995</c:v>
                 </c:pt>
@@ -2616,6 +2802,66 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3318000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3875999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2763</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2214</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7694000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1235999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1271</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7694000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9419</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7645999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5671999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3875999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2693,10 +2939,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$G$2:$G$11</c:f>
+              <c:f>eigenvalues!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>-5.9999999999999995E-4</c:v>
                 </c:pt>
@@ -2726,16 +2972,76 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-2.0299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.19309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.3499999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.2366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.9899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.28820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.17979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.24640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2261</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.24640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.3422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.31540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.26769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.2366</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.39689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.34350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.28820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.19309999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$H$2:$H$11</c:f>
+              <c:f>eigenvalues!$H$2:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.98199999999999998</c:v>
                 </c:pt>
@@ -2765,6 +3071,66 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.1684000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3849</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4387000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1684000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1958</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7737000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1222000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7737000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9400999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7704</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4479000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4634</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5598000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4982000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4387000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3302,10 +3668,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$A$2:$A$11</c:f>
+              <c:f>eigenvalues!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1.43E-2</c:v>
                 </c:pt>
@@ -3335,16 +3701,76 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-4.4400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.14219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.24610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.3400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.22520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.4400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.22470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.1399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.34810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.20530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.25950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.34949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.35120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.24610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.21659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.43569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.37219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.22520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.34810000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$B$2:$B$11</c:f>
+              <c:f>eigenvalues!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.98269999999999991</c:v>
                 </c:pt>
@@ -3374,6 +3800,66 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.2084000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2613000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3586</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2083999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2784</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1615</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3913</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1814</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8072999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8278000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5302</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5011999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5398999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3586</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3636,10 +4122,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1905890930300379"/>
-          <c:y val="0.38102626244531251"/>
-          <c:w val="0.19086231408573928"/>
-          <c:h val="0.45733518151563185"/>
+          <c:x val="0.7582731183631084"/>
+          <c:y val="6.2842481949886106E-2"/>
+          <c:w val="0.18854804002939124"/>
+          <c:h val="0.43658409367813472"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5466,16 +5952,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>437219</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>34319</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>775887</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>141990</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>145851</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>480658</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61185</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6493,8 +6979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47BBAE-5C45-FC47-9DB3-44760ECB14A5}">
   <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6559,9 +7045,21 @@
       <c r="AC1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="10"/>
-      <c r="AG1" s="7"/>
-      <c r="AI1" s="9"/>
+      <c r="AD1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1">
+        <v>-0.12280000000000001</v>
+      </c>
+      <c r="AJ1" s="7">
+        <v>1.3318000000000001</v>
+      </c>
       <c r="AK1" s="9"/>
       <c r="AP1" s="11"/>
     </row>
@@ -6653,9 +7151,21 @@
       <c r="AC2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="10"/>
-      <c r="AG2" s="7"/>
-      <c r="AI2" s="9"/>
+      <c r="AD2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2">
+        <v>-0.1903</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>1.3875999999999999</v>
+      </c>
       <c r="AK2" s="9"/>
       <c r="AP2" s="11"/>
     </row>
@@ -6747,9 +7257,21 @@
       <c r="AC3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="10"/>
-      <c r="AG3" s="7"/>
-      <c r="AI3" s="9"/>
+      <c r="AD3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI3">
+        <v>-7.3400000000000007E-2</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>1.2763</v>
+      </c>
       <c r="AK3" s="9"/>
       <c r="AP3" s="11"/>
     </row>
@@ -6841,9 +7363,21 @@
       <c r="AC4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="10"/>
-      <c r="AG4" s="7"/>
-      <c r="AI4" s="9"/>
+      <c r="AD4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4">
+        <v>-0.2361</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>1.4550000000000001</v>
+      </c>
       <c r="AK4" s="9"/>
       <c r="AP4" s="11"/>
     </row>
@@ -6935,9 +7469,21 @@
       <c r="AC5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="10"/>
-      <c r="AG5" s="7"/>
-      <c r="AI5" s="9"/>
+      <c r="AD5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5">
+        <v>-4.0300000000000002E-2</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>1.2214</v>
+      </c>
       <c r="AK5" s="9"/>
       <c r="AP5" s="11"/>
     </row>
@@ -7029,9 +7575,21 @@
       <c r="AC6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD6" s="10"/>
-      <c r="AG6" s="7"/>
-      <c r="AI6" s="9"/>
+      <c r="AD6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI6">
+        <v>-0.28270000000000001</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>1.4430000000000001</v>
+      </c>
       <c r="AK6" s="9"/>
       <c r="AP6" s="11"/>
     </row>
@@ -7123,9 +7681,21 @@
       <c r="AC7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD7" s="10"/>
-      <c r="AG7" s="7"/>
-      <c r="AI7" s="9"/>
+      <c r="AD7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI7">
+        <v>-2.12E-2</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>1.17</v>
+      </c>
       <c r="AK7" s="9"/>
       <c r="AP7" s="11"/>
     </row>
@@ -7217,9 +7787,21 @@
       <c r="AC8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD8" s="10"/>
-      <c r="AG8" s="7"/>
-      <c r="AI8" s="9"/>
+      <c r="AD8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI8">
+        <v>-0.17349999999999999</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>1.1906000000000001</v>
+      </c>
       <c r="AK8" s="9"/>
       <c r="AP8" s="11"/>
     </row>
@@ -7311,9 +7893,21 @@
       <c r="AC9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD9" s="10"/>
-      <c r="AG9" s="7"/>
-      <c r="AI9" s="9"/>
+      <c r="AD9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI9">
+        <v>-0.2445</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>1.7694000000000001</v>
+      </c>
       <c r="AK9" s="9"/>
       <c r="AP9" s="11"/>
     </row>
@@ -7405,9 +7999,21 @@
       <c r="AC10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD10" s="10"/>
-      <c r="AG10" s="7"/>
-      <c r="AI10" s="9"/>
+      <c r="AD10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI10">
+        <v>-1.0500000000000001E-2</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>1.1235999999999999</v>
+      </c>
       <c r="AK10" s="9"/>
       <c r="AP10" s="11"/>
     </row>
@@ -7497,12 +8103,18 @@
         <v>1.3651</v>
       </c>
       <c r="AD11" s="9"/>
+      <c r="AI11">
+        <v>-0.22900000000000001</v>
+      </c>
+      <c r="AJ11">
+        <v>2.1271</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" ht="18">
-      <c r="A12" s="10">
+    <row r="12" spans="1:42">
+      <c r="A12" s="8">
         <v>-0.14219999999999999</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>1.3123</v>
       </c>
       <c r="C12" s="8">
@@ -7523,8 +8135,12 @@
       <c r="H12" s="8">
         <v>1.3297000000000001</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="8">
+        <v>-0.12280000000000001</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1.3318000000000001</v>
+      </c>
       <c r="K12" s="8">
         <v>-0.1212</v>
       </c>
@@ -7579,13 +8195,27 @@
       <c r="AB12" s="8">
         <v>1.4365000000000001</v>
       </c>
-      <c r="AD12" s="9"/>
+      <c r="AD12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI12">
+        <v>-0.2445</v>
+      </c>
+      <c r="AJ12">
+        <v>1.7694000000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" ht="18">
-      <c r="A13" s="10">
+    <row r="13" spans="1:42">
+      <c r="A13" s="8">
         <v>-0.24610000000000001</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>1.5302</v>
       </c>
       <c r="C13" s="8">
@@ -7606,8 +8236,12 @@
       <c r="H13" s="8">
         <v>1.3849</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="8">
+        <v>-0.1903</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1.3875999999999999</v>
+      </c>
       <c r="K13" s="8">
         <v>-0.18690000000000001</v>
       </c>
@@ -7662,13 +8296,27 @@
       <c r="AB13" s="8">
         <v>1.4397</v>
       </c>
-      <c r="AD13" s="9"/>
+      <c r="AD13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI13">
+        <v>-0.34100000000000003</v>
+      </c>
+      <c r="AJ13">
+        <v>1.9419</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" ht="18">
-      <c r="A14" s="10">
+    <row r="14" spans="1:42">
+      <c r="A14" s="8">
         <v>-8.3400000000000002E-2</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>1.2613000000000001</v>
       </c>
       <c r="C14" s="8">
@@ -7689,8 +8337,12 @@
       <c r="H14" s="8">
         <v>1.2745</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="8">
+        <v>-7.3400000000000007E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1.2763</v>
+      </c>
       <c r="K14" s="8">
         <v>-7.2999999999999995E-2</v>
       </c>
@@ -7745,13 +8397,27 @@
       <c r="AB14" s="8">
         <v>1.4339999999999999</v>
       </c>
-      <c r="AD14" s="9"/>
+      <c r="AD14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI14">
+        <v>-0.31130000000000002</v>
+      </c>
+      <c r="AJ14">
+        <v>1.7645999999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" ht="18">
-      <c r="A15" s="10">
+    <row r="15" spans="1:42">
+      <c r="A15" s="8">
         <v>-0.22520000000000001</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>1.3586</v>
       </c>
       <c r="C15" s="8">
@@ -7772,8 +8438,12 @@
       <c r="H15" s="8">
         <v>1.4634</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="I15" s="8">
+        <v>-0.2361</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1.4550000000000001</v>
+      </c>
       <c r="K15" s="8">
         <v>-0.23519999999999999</v>
       </c>
@@ -7828,14 +8498,27 @@
       <c r="AB15" s="8">
         <v>1.4268000000000001</v>
       </c>
-      <c r="AD15" s="9"/>
-      <c r="AI15" s="10"/>
+      <c r="AD15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI15">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="AJ15">
+        <v>2.4405999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" ht="18">
-      <c r="A16" s="10">
+    <row r="16" spans="1:42">
+      <c r="A16" s="8">
         <v>-4.4400000000000002E-2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>1.2083999999999999</v>
       </c>
       <c r="C16" s="8">
@@ -7856,8 +8539,12 @@
       <c r="H16" s="8">
         <v>1.2197</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="8">
+        <v>-4.0300000000000002E-2</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1.2214</v>
+      </c>
       <c r="K16" s="8">
         <v>-4.0800000000000003E-2</v>
       </c>
@@ -7912,14 +8599,27 @@
       <c r="AB16" s="8">
         <v>1.4495</v>
       </c>
-      <c r="AD16" s="9"/>
-      <c r="AI16" s="10"/>
+      <c r="AD16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI16">
+        <v>-0.3931</v>
+      </c>
+      <c r="AJ16">
+        <v>1.5671999999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" ht="18">
-      <c r="A17" s="10">
+    <row r="17" spans="1:36">
+      <c r="A17" s="8">
         <v>-0.22470000000000001</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>1.2784</v>
       </c>
       <c r="C17" s="8">
@@ -7940,8 +8640,12 @@
       <c r="H17" s="8">
         <v>1.4387000000000001</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="8">
+        <v>-0.28270000000000001</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1.4430000000000001</v>
+      </c>
       <c r="K17" s="8">
         <v>-0.27629999999999999</v>
       </c>
@@ -7996,14 +8700,27 @@
       <c r="AB17" s="8">
         <v>1.4125000000000001</v>
       </c>
-      <c r="AD17" s="9"/>
-      <c r="AI17" s="10"/>
+      <c r="AD17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI17">
+        <v>-0.2361</v>
+      </c>
+      <c r="AJ17">
+        <v>1.4550000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" ht="18">
-      <c r="A18" s="10">
+    <row r="18" spans="1:36">
+      <c r="A18" s="8">
         <v>-2.1399999999999999E-2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>1.1585000000000001</v>
       </c>
       <c r="C18" s="8">
@@ -8024,8 +8741,12 @@
       <c r="H18" s="8">
         <v>1.1684000000000001</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="I18" s="8">
+        <v>-2.12E-2</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1.17</v>
+      </c>
       <c r="K18" s="8">
         <v>-2.2200000000000001E-2</v>
       </c>
@@ -8080,14 +8801,27 @@
       <c r="AB18" s="8">
         <v>1.4694</v>
       </c>
-      <c r="AD18" s="9"/>
-      <c r="AI18" s="10"/>
+      <c r="AD18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI18">
+        <v>-0.34050000000000002</v>
+      </c>
+      <c r="AJ18">
+        <v>2.4929999999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" ht="18">
-      <c r="A19" s="10">
+    <row r="19" spans="1:36">
+      <c r="A19" s="8">
         <v>-9.69E-2</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>1.1615</v>
       </c>
       <c r="C19" s="8">
@@ -8108,8 +8842,12 @@
       <c r="H19" s="8">
         <v>1.1958</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="8">
+        <v>-0.17349999999999999</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1.1906000000000001</v>
+      </c>
       <c r="K19" s="8">
         <v>-0.1666</v>
       </c>
@@ -8164,14 +8902,27 @@
       <c r="AB19" s="8">
         <v>1.3924000000000001</v>
       </c>
-      <c r="AD19" s="9"/>
-      <c r="AI19" s="10"/>
+      <c r="AD19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI19">
+        <v>-0.28270000000000001</v>
+      </c>
+      <c r="AJ19">
+        <v>1.4430000000000001</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" ht="18">
-      <c r="A20" s="10">
+    <row r="20" spans="1:36">
+      <c r="A20" s="8">
         <v>-0.34810000000000002</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>1.3913</v>
       </c>
       <c r="C20" s="8">
@@ -8192,8 +8943,12 @@
       <c r="H20" s="8">
         <v>1.7737000000000001</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="I20" s="8">
+        <v>-0.2445</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1.7694000000000001</v>
+      </c>
       <c r="K20" s="8">
         <v>-0.24160000000000001</v>
       </c>
@@ -8248,14 +9003,27 @@
       <c r="AB20" s="8">
         <v>1.5001</v>
       </c>
-      <c r="AD20" s="9"/>
-      <c r="AI20" s="10"/>
+      <c r="AD20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI20">
+        <v>-0.1903</v>
+      </c>
+      <c r="AJ20">
+        <v>1.3875999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" ht="18">
-      <c r="A21" s="10">
+    <row r="21" spans="1:36" ht="18">
+      <c r="A21" s="8">
         <v>-7.9000000000000008E-3</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>1.1143000000000001</v>
       </c>
       <c r="C21" s="8">
@@ -8276,8 +9044,12 @@
       <c r="H21" s="8">
         <v>1.1222000000000001</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="I21" s="8">
+        <v>-1.0500000000000001E-2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1.1235999999999999</v>
+      </c>
       <c r="K21" s="8">
         <v>-1.2E-2</v>
       </c>
@@ -8332,13 +9104,22 @@
       <c r="AB21" s="8">
         <v>1.3651</v>
       </c>
+      <c r="AD21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>37</v>
+      </c>
       <c r="AI21" s="10"/>
     </row>
-    <row r="22" spans="1:35" ht="18">
-      <c r="A22" s="10">
+    <row r="22" spans="1:36" ht="18">
+      <c r="A22" s="8">
         <v>-0.20530000000000001</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>2.1814</v>
       </c>
       <c r="C22" s="8">
@@ -8359,8 +9140,12 @@
       <c r="H22" s="8">
         <v>2.1333000000000002</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="I22" s="8">
+        <v>-0.22900000000000001</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2.1271</v>
+      </c>
       <c r="K22" s="8">
         <v>-0.23250000000000001</v>
       </c>
@@ -8417,11 +9202,11 @@
       </c>
       <c r="AI22" s="10"/>
     </row>
-    <row r="23" spans="1:35" ht="18">
-      <c r="A23" s="10">
+    <row r="23" spans="1:36" ht="18">
+      <c r="A23" s="8">
         <v>-0.25950000000000001</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>1.8072999999999999</v>
       </c>
       <c r="C23" s="8">
@@ -8442,8 +9227,12 @@
       <c r="H23" s="8">
         <v>1.7737000000000001</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="I23" s="8">
+        <v>-0.2445</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1.7694000000000001</v>
+      </c>
       <c r="K23" s="8">
         <v>-0.24160000000000001</v>
       </c>
@@ -8500,11 +9289,11 @@
       </c>
       <c r="AI23" s="10"/>
     </row>
-    <row r="24" spans="1:35" ht="18">
-      <c r="A24" s="10">
+    <row r="24" spans="1:36" ht="18">
+      <c r="A24" s="8">
         <v>-0.34949999999999998</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>1.9268000000000001</v>
       </c>
       <c r="C24" s="8">
@@ -8525,8 +9314,12 @@
       <c r="H24" s="8">
         <v>1.9400999999999999</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="8">
+        <v>-0.34100000000000003</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1.9419</v>
+      </c>
       <c r="K24" s="8">
         <v>-0.33979999999999999</v>
       </c>
@@ -8583,11 +9376,11 @@
       </c>
       <c r="AI24" s="10"/>
     </row>
-    <row r="25" spans="1:35" ht="18">
-      <c r="A25" s="10">
+    <row r="25" spans="1:36">
+      <c r="A25" s="8">
         <v>-0.35120000000000001</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>1.8278000000000001</v>
       </c>
       <c r="C25" s="8">
@@ -8608,8 +9401,12 @@
       <c r="H25" s="8">
         <v>1.7704</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="I25" s="8">
+        <v>-0.31130000000000002</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1.7645999999999999</v>
+      </c>
       <c r="K25" s="8">
         <v>-0.30690000000000001</v>
       </c>
@@ -8665,11 +9462,11 @@
         <v>1.7504</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="18">
-      <c r="A26" s="10">
+    <row r="26" spans="1:36">
+      <c r="A26" s="8">
         <v>-0.24610000000000001</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>1.5302</v>
       </c>
       <c r="C26" s="8">
@@ -8690,8 +9487,12 @@
       <c r="H26" s="8">
         <v>2.4479000000000002</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="I26" s="8">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="J26" s="8">
+        <v>2.4405999999999999</v>
+      </c>
       <c r="K26" s="8">
         <v>-0.28220000000000001</v>
       </c>
@@ -8747,11 +9548,11 @@
         <v>1.9374</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="18">
-      <c r="A27" s="10">
+    <row r="27" spans="1:36">
+      <c r="A27" s="8">
         <v>-0.21659999999999999</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>2.5011999999999999</v>
       </c>
       <c r="C27" s="8">
@@ -8772,8 +9573,12 @@
       <c r="H27" s="8">
         <v>1.4634</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="I27" s="8">
+        <v>-0.3931</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1.5671999999999999</v>
+      </c>
       <c r="K27" s="8">
         <v>-0.38850000000000001</v>
       </c>
@@ -8829,11 +9634,11 @@
         <v>1.7364999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="18">
-      <c r="A28" s="10">
+    <row r="28" spans="1:36">
+      <c r="A28" s="8">
         <v>-0.43569999999999998</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>1.51</v>
       </c>
       <c r="C28" s="8">
@@ -8854,8 +9659,12 @@
       <c r="H28" s="8">
         <v>1.5598000000000001</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="I28" s="8">
+        <v>-0.2361</v>
+      </c>
+      <c r="J28" s="8">
+        <v>1.4550000000000001</v>
+      </c>
       <c r="K28" s="8">
         <v>-0.33610000000000001</v>
       </c>
@@ -8911,11 +9720,11 @@
         <v>1.7338</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="18">
-      <c r="A29" s="10">
+    <row r="29" spans="1:36">
+      <c r="A29" s="8">
         <v>-0.37219999999999998</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>2.5398999999999998</v>
       </c>
       <c r="C29" s="8">
@@ -8936,8 +9745,12 @@
       <c r="H29" s="8">
         <v>2.4982000000000002</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="I29" s="8">
+        <v>-0.34050000000000002</v>
+      </c>
+      <c r="J29" s="8">
+        <v>2.4929999999999999</v>
+      </c>
       <c r="K29" s="8">
         <v>-0.23519999999999999</v>
       </c>
@@ -8993,11 +9806,11 @@
         <v>1.6536</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="18">
-      <c r="A30" s="10">
+    <row r="30" spans="1:36">
+      <c r="A30" s="8">
         <v>-0.22520000000000001</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>1.3586</v>
       </c>
       <c r="C30" s="8">
@@ -9018,8 +9831,12 @@
       <c r="H30" s="8">
         <v>1.4387000000000001</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="I30" s="8">
+        <v>-0.28270000000000001</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1.4430000000000001</v>
+      </c>
       <c r="K30" s="8">
         <v>-0.27629999999999999</v>
       </c>
@@ -9075,11 +9892,11 @@
         <v>1.6648000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="18">
-      <c r="A31" s="10">
+    <row r="31" spans="1:36">
+      <c r="A31" s="8">
         <v>-0.34810000000000002</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>1.3913</v>
       </c>
       <c r="C31" s="8">
@@ -9100,8 +9917,12 @@
       <c r="H31" s="8">
         <v>1.3849</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="I31" s="8">
+        <v>-0.1903</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1.3875999999999999</v>
+      </c>
       <c r="K31" s="8">
         <v>-0.18690000000000001</v>
       </c>

--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5D12E2-E374-544F-934A-473F11D8B512}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E4C52B-83CC-1C4A-B47B-3668F8B5A23B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="19560" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16000" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="steady" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <t>pr</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>17kpa</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>15kpa</t>
@@ -163,10 +160,25 @@
     <t>have not analyzed</t>
   </si>
   <si>
-    <t>+</t>
+    <t>i</t>
   </si>
   <si>
-    <t>i</t>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>1.5i</t>
+  </si>
+  <si>
+    <t>2i</t>
+  </si>
+  <si>
+    <t>0.3i</t>
+  </si>
+  <si>
+    <t>0.7i</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
 </sst>
 </file>
@@ -253,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +293,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,6 +428,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,6 +442,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,10 +1243,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$W$2:$W$31</c:f>
+              <c:f>eigenvalues!$W$2:$W$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>-8.8900000000000007E-2</c:v>
                 </c:pt>
@@ -1305,16 +1336,76 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.44109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.27550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.26869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.2944</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.37469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.32450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.13059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.13059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.26450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.26290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.2646</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-8.8900000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.26040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.32450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.26869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.25130000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$X$2:$X$31</c:f>
+              <c:f>eigenvalues!$X$2:$X$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0302</c:v>
                 </c:pt>
@@ -1404,6 +1495,66 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.8587</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.4158</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.13739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.5333</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69179999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.69179999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.74719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.64419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.84230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.5333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0302</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93169999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.52939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4158</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0155000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,10 +1606,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$U$2:$U$31</c:f>
+              <c:f>eigenvalues!$U$2:$U$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>-8.7099999999999997E-2</c:v>
                 </c:pt>
@@ -1548,16 +1699,76 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.27079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.2412</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.2417</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.27789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.2407</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.27010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.2326</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.24959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.2417</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.10979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.2442</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.24429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.2417</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.2326</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.2276</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.2407</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2099</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.19750000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$V$2:$V$31</c:f>
+              <c:f>eigenvalues!$V$2:$V$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0533999999999999</c:v>
                 </c:pt>
@@ -1647,6 +1858,66 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.5912999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.34689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1089</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3700000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.57130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.7077</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.67010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.75960000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.55259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.84140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.91539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,10 +1969,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$S$2:$S$31</c:f>
+              <c:f>eigenvalues!$S$2:$S$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>-4.2700000000000002E-2</c:v>
                 </c:pt>
@@ -1791,16 +2062,76 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-2.6700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.19220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.1986</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.21310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.17319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.2001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.2205</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.3029</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.12540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.15459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.1087</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.22170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.2351</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.2293</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.2356</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.17319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.23050000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$T$2:$T$31</c:f>
+              <c:f>eigenvalues!$T$2:$T$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0105999999999999</c:v>
                 </c:pt>
@@ -1890,6 +2221,66 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.0676000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.17749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4138</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1245</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.51819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.68930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.87660000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.69810000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.77649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94620000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.8498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,10 +2332,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$O$2:$O$31</c:f>
+              <c:f>eigenvalues!$O$2:$O$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>-2.2800000000000001E-2</c:v>
                 </c:pt>
@@ -2034,16 +2425,76 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.1794</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1333</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.15110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.18440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.17580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.1807</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.19320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.1641</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.1085</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.2014</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.15429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9.4799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.1800000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.1085</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.2600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.18679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.16919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.7199999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$P$2:$P$31</c:f>
+              <c:f>eigenvalues!$P$2:$P$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.99250000000000005</c:v>
                 </c:pt>
@@ -2133,6 +2584,66 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.3998999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.36759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.20930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55510000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.4985</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.7100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.55510000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.72350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.65010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.87150000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93410000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2184,10 +2695,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$M$2:$M$31</c:f>
+              <c:f>eigenvalues!$M$2:$M$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>-1.43E-2</c:v>
                 </c:pt>
@@ -2277,16 +2788,76 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.38040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1268</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1459</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.1817</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.15540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.17280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.19070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.16070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.19889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.1028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.15010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9.4799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.5800000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.1157</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.1028</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.18410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.16750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.1469</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.6700000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$N$2:$N$31</c:f>
+              <c:f>eigenvalues!$N$2:$N$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.98850000000000005</c:v>
                 </c:pt>
@@ -2376,6 +2947,66 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.5008999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.37259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.2072</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.39879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.1600000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.48480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.55769999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.73140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.8659</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.55769999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.78649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.63639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.86370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93010000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,10 +3058,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$K$2:$K$31</c:f>
+              <c:f>eigenvalues!$K$2:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>-6.7000000000000002E-3</c:v>
                 </c:pt>
@@ -2520,16 +3151,76 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.18690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.11849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1394</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.17860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.1295</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.16930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.18779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.14510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9.5100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.15670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9.3899999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-5.9499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-9.5100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.18090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.16539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.1467</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6799999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$L$2:$L$31</c:f>
+              <c:f>eigenvalues!$L$2:$L$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.98399999999999999</c:v>
                 </c:pt>
@@ -2619,6 +3310,66 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.3909</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2883</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.42459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.18490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.38329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.73580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.8619</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.77359999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.62009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.85370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.92589999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2670,10 +3421,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$I$2:$I$31</c:f>
+              <c:f>eigenvalues!$I$2:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>-3.0999999999999999E-3</c:v>
                 </c:pt>
@@ -2763,16 +3514,76 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.1903</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1142</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.13619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.1172</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.17730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.18659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.16789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.14280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8.4400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-5.16E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.3200000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.0700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.1651</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.1799</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.14749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.19120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.21E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$J$2:$J$31</c:f>
+              <c:f>eigenvalues!$J$2:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.98229999999999995</c:v>
                 </c:pt>
@@ -2862,6 +3673,66 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.3875999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.42449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.37430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1769</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.3899999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6583</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78059999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.73880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.56530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.76649999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.84840000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.92459999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2895,13 +3766,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="triangle"/>
             <c:size val="12"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF2600">
-                  <a:alpha val="60000"/>
-                </a:srgbClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="12700">
                 <a:solidFill>
@@ -2914,13 +3783,11 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:marker>
-              <c:symbol val="square"/>
+              <c:symbol val="triangle"/>
               <c:size val="12"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF2600">
-                    <a:alpha val="40000"/>
-                  </a:srgbClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:ln w="12700">
                   <a:solidFill>
@@ -2939,10 +3806,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$G$2:$G$31</c:f>
+              <c:f>eigenvalues!$G$2:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>-5.9999999999999995E-4</c:v>
                 </c:pt>
@@ -3032,16 +3899,76 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.19309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1113</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1343</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.10879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.1769</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.1862</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.1673</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.1416</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.7599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.1542</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.7299999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.7599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.6200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.1656</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.1797</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.1489</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.19059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-8.6999999999999994E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$H$2:$H$31</c:f>
+              <c:f>eigenvalues!$H$2:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.98199999999999998</c:v>
                 </c:pt>
@@ -3131,6 +4058,66 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.3849</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.39019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.42509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.3664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.16969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.45079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.0299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.7419</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.56910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.76090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68079999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.84430000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.60319999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.92459999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,10 +4169,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$E$2:$E$31</c:f>
+              <c:f>eigenvalues!$E$2:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1E-4</c:v>
                 </c:pt>
@@ -3275,16 +4262,76 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.1938</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1338</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.1067</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.17680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.18609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.16719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.14130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.6800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.154</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-4.4600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.2299999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.6800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.1658</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.1797</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.14940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.19059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-7.7999999999999996E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$F$2:$F$31</c:f>
+              <c:f>eigenvalues!$F$2:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.98199999999999998</c:v>
                 </c:pt>
@@ -3374,6 +4421,66 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.3841000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.23089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.42520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.36430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1678</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.4486</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.57010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.3199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.65910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.74270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.75939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.84330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.60119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.92469999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,10 +4532,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$C$2:$C$31</c:f>
+              <c:f>eigenvalues!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>7.3000000000000001E-3</c:v>
                 </c:pt>
@@ -3518,16 +4625,76 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.20369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.12790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.2799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.17649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.1862</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.16639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.1381</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.8299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.0300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.17080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.18190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.15809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$D$2:$D$31</c:f>
+              <c:f>eigenvalues!$D$2:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.98170000000000002</c:v>
                 </c:pt>
@@ -3617,6 +4784,66 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.3743000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4269</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.24640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1027</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.50039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.58169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.75219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.58169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.74209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.83130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.92530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.57750000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3668,10 +4895,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$A$2:$A$31</c:f>
+              <c:f>eigenvalues!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.43E-2</c:v>
                 </c:pt>
@@ -3761,16 +4988,76 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.34810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1166</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.9099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.4500000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.18959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.17860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.13250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.20169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.16669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-6.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.7099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-6.0600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.19159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.19550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.18809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$B$2:$B$31</c:f>
+              <c:f>eigenvalues!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.98269999999999991</c:v>
                 </c:pt>
@@ -3860,6 +5147,66 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.3913</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.42870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.29670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2051</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.13950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.45779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.10489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.76790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.5998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.7117</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.62180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.81040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.92730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.53739999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,9 +5523,4374 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17996450343109177"/>
+          <c:y val="5.5894575678040244E-2"/>
+          <c:w val="0.7768081178792533"/>
+          <c:h val="0.79891271229807226"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$W$2:$W$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-8.8900000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.7399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.25130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.23669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.6600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.11849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.17480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.7399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.17829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.15590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.2407</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2311</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.1457</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.17829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.2157</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.31119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.38129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.2407</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.42949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.44109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.27550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.26869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.2944</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.37469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.32450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.13059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.13059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.26450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.26290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.2646</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-8.8900000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.26040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.32450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.26869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.25130000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$X$2:$X$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1477999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1948000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1785000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4282999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4825999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3792</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3312999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5508999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2848999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2833000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6366000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9771000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6972</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2829000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7271000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8065</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6366000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8744000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8587</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.4158</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.13739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.5333</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69179999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.69179999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.74719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.64419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.84230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.5333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0302</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93169999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.52939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4158</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0155000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAE9-5A4F-BC46-425397B6AEC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$U$2:$U$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-8.7099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.11409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.18429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.19750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.9399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.11990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.2600000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.2094</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.7700000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.14369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.16719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.4300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.27079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.9399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2389</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.1711</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.16719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.22339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.42549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.28889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.34079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.41020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.45090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.27079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.2412</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.2417</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.27789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.2407</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.27010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.2326</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.24959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.2417</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.10979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.2442</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.24429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.2417</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.2326</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.2276</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.2407</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2099</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.19750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$V$2:$V$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0533999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0217000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1662999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1944999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3787</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4369000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3281000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5084</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2808999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2873000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7121999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2365999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5912999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1944999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0192000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7846</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7121999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3130999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9946999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3485999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6721999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7371000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1907000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5912999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.34689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1089</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3700000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.57130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.7077</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.67010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.75960000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.55259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.84140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.91539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AAE9-5A4F-BC46-425397B6AEC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$S$2:$S$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-4.2700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.1700000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.83E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.17849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.15690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.20319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.29409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.30790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.2132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.2923</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.35160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.376</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.2908</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.36840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.19789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.3499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.9800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.8499999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.6400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.83E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.1537</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.20269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.6700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.19220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.1986</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.21310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.17319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.2001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.2205</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.3029</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.12540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.15459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.1087</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.22170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.2351</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.2293</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.2356</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.17319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.23050000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$T$2:$T$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0105999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0676000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94620000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0738000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87660000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0954999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0175999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9577</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7091000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7136</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5871999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3346</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6447000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2743</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2211000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1207</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1843999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4493</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3432999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0676000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.17749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4138</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1245</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.51819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.68930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.87660000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.69810000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.77649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94620000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.8498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AAE9-5A4F-BC46-425397B6AEC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$O$2:$O$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-2.2800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.2600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.2799999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.86E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1191</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1794</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.4700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.26040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.5199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.86E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.22919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.14660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.24610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.33479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.22919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.312</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.372</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.3201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.26040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.36849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.1794</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1333</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.15110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.18440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.17580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.1807</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.19320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.1641</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.1085</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.2014</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.15429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9.4799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.1800000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.1085</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.2600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.18679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.16919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.7199999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$P$2:$P$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.99250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0438000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0497000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1362000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1121000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1825000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3427</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3998999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2873000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4092</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4594</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1825000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7507999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1751</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1362000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0926999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9556</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7507999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7391000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3933</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4594</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5096000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3998999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.36759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.20930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55510000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.4985</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.7100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.55510000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.72350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.65010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.87150000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93410000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AAE9-5A4F-BC46-425397B6AEC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.1kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$M$2:$M$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.12820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.3299999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.11890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.18160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.2800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.23280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.26629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.23519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.15559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2394</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.23519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.33739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.3004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.37990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.3276</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.26629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.23280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.38040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1268</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1459</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.1817</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.15540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.17280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.19070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.16070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.19889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.1028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.15010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9.4799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.5800000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.1157</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.1028</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.18410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.16750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.1469</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.6700000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$N$2:$N$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.98850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0397000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93010000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1318999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8659</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1177999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3395999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3964000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4544999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2295</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7572000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1318999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7572000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9500999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7477</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4117999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5952</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4733999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4544999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5008999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.37259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.2072</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.39879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.1600000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.48480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.55769999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.73140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.8659</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.55769999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.78649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.63639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.86370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93010000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AAE9-5A4F-BC46-425397B6AEC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.2kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="20000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$K$2:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-6.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.13250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.3799999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1212</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.18690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.23519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.0800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.27629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.1666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.24160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.23250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.24160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.33979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.30690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.28220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.38850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.33610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.23519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.27629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.18690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.11849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1394</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.17860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.1295</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.16930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.18779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.14510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9.5100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.15670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9.3899999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-5.9499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-9.5100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.18090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.16539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.1467</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6799999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$L$2:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0814999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1262000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0471999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8619</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1727000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3345</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3909</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2788999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4452</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.224</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4475</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1727000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1860999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7646999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1262000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1196000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7646999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9444999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7582</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.431</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5768</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4864000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4452</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4475</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3909</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2883</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.42459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.18490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.38329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.73580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.8619</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.77359999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.62009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.85370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AAE9-5A4F-BC46-425397B6AEC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.25kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2600">
+                  <a:alpha val="30000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-3.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.0700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.4100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.12E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.12280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1903</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.3400000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.2361</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.0300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.28270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.12E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.17349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.2445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.2445</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.31130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.3931</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.2361</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.34050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.28270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.1903</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1142</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.13619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.1172</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.17730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.18659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.16789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.14280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8.4400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-5.16E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.3200000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.0700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.1651</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.1799</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.14749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.19120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.21E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$J$2:$J$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.98229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0791999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1235999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1284000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3318000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3875999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2763</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2214</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7694000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1235999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1271</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7694000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9419</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7645999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5671999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3875999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.42449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.37430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1769</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.3899999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6583</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78059999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.73880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.56530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.76649999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.84840000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.92459999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AAE9-5A4F-BC46-425397B6AEC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.29kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="12"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AAE9-5A4F-BC46-425397B6AEC2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$G$2:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.6999999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.6200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.19309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.3499999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.2366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.9899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.28820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.17979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.24640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2261</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.24640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.3422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.31540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.26769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.2366</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.39689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.34350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.28820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.19309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1113</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1343</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.10879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.1769</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.1862</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.1673</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.1416</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.7599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.1542</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.7299999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.7599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.6200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.1656</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.1797</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.1489</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.19059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-8.6999999999999994E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$H$2:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0781000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1222000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0472999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1318999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1684000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3849</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4387000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1684000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1958</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7737000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1222000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7737000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9400999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7704</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4479000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4634</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5598000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4982000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4387000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3849</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.39019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.42509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.3664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.16969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.45079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.0299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.7419</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.56910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.76090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68079999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.84430000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.60319999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.92459999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AAE9-5A4F-BC46-425397B6AEC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.3kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.4600000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.12429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.23669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.9800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.28970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.18160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.24690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2253</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.24690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.34250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.3165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.23669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.34429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.28970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.1938</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1338</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.1067</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.17680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.18609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.16719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.14130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.6800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.154</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-4.4600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.2299999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.6800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.1658</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.1797</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.14940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.19059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-7.7999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92469999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0779000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1218999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1680999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3291999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3841000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2741</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2193000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1680999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1974</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7748999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1218999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1349</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7748999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.772</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4498000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4656</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4994999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3841000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.23089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.42520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.36430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1678</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.4486</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.57010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.3199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.65910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.74270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.75939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.84330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.60119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.92469999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-AAE9-5A4F-BC46-425397B6AEC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.4kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2600">
+                  <a:alpha val="60000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.8800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.16159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.5799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.2389</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.20369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.30859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.8800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.20269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.5799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.25219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.34570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.32990000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.2467</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.2389</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.4113</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.35439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.30859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.20369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.12790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.2799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.17649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.1862</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.16639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.1381</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.8299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.0300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.17080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.18190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.15809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.98170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0306999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0753999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1184000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1637999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1436999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4905999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3743000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2685</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2144999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4218</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1637999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2214</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1436999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1184000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1535000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7881</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9345000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7918000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4708000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4905999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5152999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4218</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3743000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4269</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.24640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1027</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.50039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.58169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.75219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.58169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.74209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.83130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.92530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.57750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AAE9-5A4F-BC46-425397B6AEC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eigenvalues!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.5kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="80000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>eigenvalues!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.1399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.19089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.4400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.14219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.24610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.3400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.22520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.4400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.22470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.1399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.34810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.20530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.25950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.34949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.35120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.24610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.21659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.43569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.37219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.22520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.34810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1166</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.9099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.4500000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.18959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.17860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.13250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.20169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.16669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-6.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.7099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-6.0600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.19159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.19550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.18809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>eigenvalues!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.98269999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0731000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2084000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2613000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3586</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2083999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2784</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1615</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3913</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1814</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8072999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8278000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5302</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5011999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5398999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3586</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3913</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.42870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.29670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2051</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.13950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.45779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.10489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.76790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.5998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.7117</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.62180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.81040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.92730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.53739999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-AAE9-5A4F-BC46-425397B6AEC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="143884368"/>
+        <c:axId val="143886048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="143884368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Real part</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143886048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="143886048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>imaginary part</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3417008954355041E-2"/>
+              <c:y val="0.38480702467328753"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143884368"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7582731183631084"/>
+          <c:y val="6.2842481949886106E-2"/>
+          <c:w val="0.18854804002939124"/>
+          <c:h val="0.43658409367813472"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4282,6 +9994,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5869,6 +11621,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5952,16 +12220,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>775887</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90763</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>73770</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>64908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>480658</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61185</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>598414</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5983,6 +12251,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>176835</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>701479</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>26821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC5D0C3-13BE-2947-8783-9AB7E97243CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6291,7 +12597,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6306,25 +12612,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6335,7 +12641,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -6347,10 +12653,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -6390,7 +12696,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6424,7 +12730,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="16" customFormat="1">
@@ -6452,15 +12758,15 @@
         <v>1.00039332226204</v>
       </c>
       <c r="H5" s="13"/>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="16" customFormat="1">
@@ -6494,7 +12800,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="16" customFormat="1">
@@ -6528,7 +12834,7 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="16" customFormat="1">
@@ -6562,7 +12868,7 @@
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="16" customFormat="1">
@@ -6596,7 +12902,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="16" customFormat="1">
@@ -6630,7 +12936,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="16" customFormat="1">
@@ -6664,7 +12970,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="16" customFormat="1">
@@ -6698,7 +13004,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1">
@@ -6732,7 +13038,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1">
@@ -6766,7 +13072,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="16" customFormat="1">
@@ -6794,15 +13100,15 @@
         <v>0.95870116248579673</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="16" customFormat="1">
@@ -6836,7 +13142,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="16" customFormat="1">
@@ -6870,7 +13176,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="16" customFormat="1">
@@ -6898,15 +13204,15 @@
         <v>0.94698889957171573</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -6977,91 +13283,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47BBAE-5C45-FC47-9DB3-44760ECB14A5}">
-  <dimension ref="A1:AP31"/>
+  <dimension ref="A1:AP51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="T13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="AK51" sqref="AK51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="29" max="29" width="6.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="18">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="28" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="30"/>
+      <c r="S1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="30"/>
+      <c r="U1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="30"/>
+      <c r="W1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="W1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI1">
-        <v>-0.12280000000000001</v>
-      </c>
-      <c r="AJ1" s="7">
-        <v>1.3318000000000001</v>
-      </c>
-      <c r="AK1" s="9"/>
-      <c r="AP1" s="11"/>
+      <c r="AD1" s="9"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1">
+        <v>-0.27550000000000002</v>
+      </c>
+      <c r="AM1">
+        <v>0.28689999999999999</v>
+      </c>
+      <c r="AN1">
+        <v>0.28689999999999999</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:42" ht="18">
       <c r="A2" s="12">
@@ -7148,26 +13460,29 @@
       <c r="AB2" s="8">
         <v>0.95430000000000004</v>
       </c>
-      <c r="AC2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI2">
-        <v>-0.1903</v>
-      </c>
-      <c r="AJ2" s="7">
-        <v>1.3875999999999999</v>
-      </c>
-      <c r="AK2" s="9"/>
-      <c r="AP2" s="11"/>
+      <c r="AC2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="9"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL2">
+        <v>-0.26869999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>0.4158</v>
+      </c>
+      <c r="AN2">
+        <v>0.4158</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:42" ht="18">
       <c r="A3" s="12">
@@ -7254,26 +13569,27 @@
       <c r="AB3" s="8">
         <v>1.0486</v>
       </c>
-      <c r="AC3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI3">
-        <v>-7.3400000000000007E-2</v>
-      </c>
-      <c r="AJ3" s="7">
-        <v>1.2763</v>
-      </c>
-      <c r="AK3" s="9"/>
-      <c r="AP3" s="11"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="9"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:42" ht="18">
       <c r="A4" s="12">
@@ -7360,26 +13676,27 @@
       <c r="AB4" s="8">
         <v>1.2423</v>
       </c>
-      <c r="AC4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI4">
-        <v>-0.2361</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="AK4" s="9"/>
-      <c r="AP4" s="11"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="9"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL4">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:42" ht="18">
       <c r="A5" s="12">
@@ -7466,26 +13783,27 @@
       <c r="AB5" s="8">
         <v>0.72950000000000004</v>
       </c>
-      <c r="AC5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI5">
-        <v>-4.0300000000000002E-2</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>1.2214</v>
-      </c>
-      <c r="AK5" s="9"/>
-      <c r="AP5" s="11"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="9"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL5">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:42" ht="18">
       <c r="A6" s="8">
@@ -7572,26 +13890,27 @@
       <c r="AB6" s="8">
         <v>0.90980000000000005</v>
       </c>
-      <c r="AC6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI6">
-        <v>-0.28270000000000001</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="AK6" s="9"/>
-      <c r="AP6" s="11"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="9"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL6">
+        <v>-0.2944</v>
+      </c>
+      <c r="AM6">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="AN6">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:42" ht="18">
       <c r="A7" s="12">
@@ -7678,26 +13997,27 @@
       <c r="AB7" s="8">
         <v>1.012</v>
       </c>
-      <c r="AC7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI7">
-        <v>-2.12E-2</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>1.17</v>
-      </c>
-      <c r="AK7" s="9"/>
-      <c r="AP7" s="11"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="9"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL7">
+        <v>-0.26400000000000001</v>
+      </c>
+      <c r="AM7">
+        <v>0.5333</v>
+      </c>
+      <c r="AN7">
+        <v>0.5333</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP7" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:42" ht="18">
       <c r="A8" s="8">
@@ -7784,26 +14104,27 @@
       <c r="AB8" s="8">
         <v>1.3229</v>
       </c>
-      <c r="AC8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI8">
-        <v>-0.17349999999999999</v>
-      </c>
-      <c r="AJ8" s="7">
-        <v>1.1906000000000001</v>
-      </c>
-      <c r="AK8" s="9"/>
-      <c r="AP8" s="11"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="9"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL8">
+        <v>-0.37469999999999998</v>
+      </c>
+      <c r="AM8">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="AN8">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP8" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:42" ht="18">
       <c r="A9" s="8">
@@ -7890,26 +14211,27 @@
       <c r="AB9" s="8">
         <v>0.80049999999999999</v>
       </c>
-      <c r="AC9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI9">
-        <v>-0.2445</v>
-      </c>
-      <c r="AJ9" s="7">
-        <v>1.7694000000000001</v>
-      </c>
-      <c r="AK9" s="9"/>
-      <c r="AP9" s="11"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="9"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL9">
+        <v>-0.32450000000000001</v>
+      </c>
+      <c r="AM9">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="AN9">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:42" ht="18">
       <c r="A10" s="8">
@@ -7996,28 +14318,29 @@
       <c r="AB10" s="8">
         <v>1.1084000000000001</v>
       </c>
-      <c r="AC10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI10">
-        <v>-1.0500000000000001E-2</v>
-      </c>
-      <c r="AJ10" s="7">
-        <v>1.1235999999999999</v>
-      </c>
-      <c r="AK10" s="9"/>
-      <c r="AP10" s="11"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="9"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL10">
+        <v>-0.13059999999999999</v>
+      </c>
+      <c r="AM10">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="AN10">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP10" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" ht="18">
       <c r="A11" s="8">
         <v>-4.4400000000000002E-2</v>
       </c>
@@ -8102,15 +14425,25 @@
       <c r="AB11" s="8">
         <v>1.3651</v>
       </c>
+      <c r="AC11" s="31"/>
       <c r="AD11" s="9"/>
-      <c r="AI11">
-        <v>-0.22900000000000001</v>
-      </c>
-      <c r="AJ11">
-        <v>2.1271</v>
+      <c r="AK11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL11">
+        <v>-0.13059999999999999</v>
+      </c>
+      <c r="AM11">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="AN11">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:42" ht="18">
       <c r="A12" s="8">
         <v>-0.14219999999999999</v>
       </c>
@@ -8195,23 +14528,27 @@
       <c r="AB12" s="8">
         <v>1.4365000000000001</v>
       </c>
-      <c r="AD12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AC12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AI12">
-        <v>-0.2445</v>
-      </c>
-      <c r="AJ12">
-        <v>1.7694000000000001</v>
+      <c r="AD12" s="9"/>
+      <c r="AK12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL12">
+        <v>-0.26450000000000001</v>
+      </c>
+      <c r="AM12">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="AN12">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" ht="18">
       <c r="A13" s="8">
         <v>-0.24610000000000001</v>
       </c>
@@ -8296,23 +14633,25 @@
       <c r="AB13" s="8">
         <v>1.4397</v>
       </c>
-      <c r="AD13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI13">
-        <v>-0.34100000000000003</v>
-      </c>
-      <c r="AJ13">
-        <v>1.9419</v>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="9"/>
+      <c r="AK13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL13">
+        <v>-0.26290000000000002</v>
+      </c>
+      <c r="AM13">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="AN13">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" ht="18">
       <c r="A14" s="8">
         <v>-8.3400000000000002E-2</v>
       </c>
@@ -8397,23 +14736,25 @@
       <c r="AB14" s="8">
         <v>1.4339999999999999</v>
       </c>
-      <c r="AD14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI14">
-        <v>-0.31130000000000002</v>
-      </c>
-      <c r="AJ14">
-        <v>1.7645999999999999</v>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="9"/>
+      <c r="AK14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL14">
+        <v>-0.2646</v>
+      </c>
+      <c r="AM14">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="AN14">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" ht="18">
       <c r="A15" s="8">
         <v>-0.22520000000000001</v>
       </c>
@@ -8498,23 +14839,25 @@
       <c r="AB15" s="8">
         <v>1.4268000000000001</v>
       </c>
-      <c r="AD15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI15">
-        <v>-0.27400000000000002</v>
-      </c>
-      <c r="AJ15">
-        <v>2.4405999999999999</v>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="9"/>
+      <c r="AK15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL15">
+        <v>-0.26400000000000001</v>
+      </c>
+      <c r="AM15">
+        <v>0.5333</v>
+      </c>
+      <c r="AN15">
+        <v>0.5333</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" ht="18">
       <c r="A16" s="8">
         <v>-4.4400000000000002E-2</v>
       </c>
@@ -8599,23 +14942,25 @@
       <c r="AB16" s="8">
         <v>1.4495</v>
       </c>
-      <c r="AD16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI16">
-        <v>-0.3931</v>
-      </c>
-      <c r="AJ16">
-        <v>1.5671999999999999</v>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="9"/>
+      <c r="AK16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL16">
+        <v>-8.8900000000000007E-2</v>
+      </c>
+      <c r="AM16">
+        <v>1.0302</v>
+      </c>
+      <c r="AN16">
+        <v>1.0302</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:41" ht="18">
       <c r="A17" s="8">
         <v>-0.22470000000000001</v>
       </c>
@@ -8700,23 +15045,25 @@
       <c r="AB17" s="8">
         <v>1.4125000000000001</v>
       </c>
-      <c r="AD17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI17">
-        <v>-0.2361</v>
-      </c>
-      <c r="AJ17">
-        <v>1.4550000000000001</v>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="9"/>
+      <c r="AK17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL17">
+        <v>-0.26040000000000002</v>
+      </c>
+      <c r="AM17">
+        <v>0.93169999999999997</v>
+      </c>
+      <c r="AN17">
+        <v>0.93169999999999997</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:41" ht="18">
       <c r="A18" s="8">
         <v>-2.1399999999999999E-2</v>
       </c>
@@ -8801,23 +15148,25 @@
       <c r="AB18" s="8">
         <v>1.4694</v>
       </c>
-      <c r="AD18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI18">
-        <v>-0.34050000000000002</v>
-      </c>
-      <c r="AJ18">
-        <v>2.4929999999999999</v>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="9"/>
+      <c r="AK18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL18">
+        <v>-0.32450000000000001</v>
+      </c>
+      <c r="AM18">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="AN18">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:41" ht="18">
       <c r="A19" s="8">
         <v>-9.69E-2</v>
       </c>
@@ -8902,23 +15251,25 @@
       <c r="AB19" s="8">
         <v>1.3924000000000001</v>
       </c>
-      <c r="AD19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI19">
-        <v>-0.28270000000000001</v>
-      </c>
-      <c r="AJ19">
-        <v>1.4430000000000001</v>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="9"/>
+      <c r="AK19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL19">
+        <v>-0.26869999999999999</v>
+      </c>
+      <c r="AM19">
+        <v>0.4158</v>
+      </c>
+      <c r="AN19">
+        <v>0.4158</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:41" ht="18">
       <c r="A20" s="8">
         <v>-0.34810000000000002</v>
       </c>
@@ -9003,23 +15354,25 @@
       <c r="AB20" s="8">
         <v>1.5001</v>
       </c>
-      <c r="AD20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI20">
-        <v>-0.1903</v>
-      </c>
-      <c r="AJ20">
-        <v>1.3875999999999999</v>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="9"/>
+      <c r="AK20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL20">
+        <v>-0.25130000000000002</v>
+      </c>
+      <c r="AM20">
+        <v>1.0155000000000001</v>
+      </c>
+      <c r="AN20">
+        <v>1.0155000000000001</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="18">
+    <row r="21" spans="1:41" ht="18">
       <c r="A21" s="8">
         <v>-7.9000000000000008E-3</v>
       </c>
@@ -9104,18 +15457,14 @@
       <c r="AB21" s="8">
         <v>1.3651</v>
       </c>
-      <c r="AD21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>37</v>
-      </c>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="9"/>
       <c r="AI21" s="10"/>
+      <c r="AK21" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" ht="18">
+    <row r="22" spans="1:41" ht="18">
       <c r="A22" s="8">
         <v>-0.20530000000000001</v>
       </c>
@@ -9200,9 +15549,15 @@
       <c r="AB22" s="8">
         <v>2.0299</v>
       </c>
+      <c r="AC22" s="31" t="s">
+        <v>38</v>
+      </c>
       <c r="AI22" s="10"/>
+      <c r="AK22" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" ht="18">
+    <row r="23" spans="1:41" ht="18">
       <c r="A23" s="8">
         <v>-0.25950000000000001</v>
       </c>
@@ -9287,9 +15642,13 @@
       <c r="AB23" s="8">
         <v>1.7568999999999999</v>
       </c>
+      <c r="AC23" s="31"/>
       <c r="AI23" s="10"/>
+      <c r="AK23" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" ht="18">
+    <row r="24" spans="1:41" ht="18">
       <c r="A24" s="8">
         <v>-0.34949999999999998</v>
       </c>
@@ -9374,9 +15733,13 @@
       <c r="AB24" s="8">
         <v>1.77</v>
       </c>
+      <c r="AC24" s="31"/>
       <c r="AI24" s="10"/>
+      <c r="AK24" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:41" ht="18">
       <c r="A25" s="8">
         <v>-0.35120000000000001</v>
       </c>
@@ -9461,8 +15824,12 @@
       <c r="AB25" s="8">
         <v>1.7504</v>
       </c>
+      <c r="AC25" s="31"/>
+      <c r="AK25" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:41" ht="18">
       <c r="A26" s="8">
         <v>-0.24610000000000001</v>
       </c>
@@ -9547,8 +15914,12 @@
       <c r="AB26" s="8">
         <v>1.9374</v>
       </c>
+      <c r="AC26" s="31"/>
+      <c r="AK26" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:41">
       <c r="A27" s="8">
         <v>-0.21659999999999999</v>
       </c>
@@ -9633,8 +16004,9 @@
       <c r="AB27" s="8">
         <v>1.7364999999999999</v>
       </c>
+      <c r="AC27" s="31"/>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:41">
       <c r="A28" s="8">
         <v>-0.43569999999999998</v>
       </c>
@@ -9719,8 +16091,9 @@
       <c r="AB28" s="8">
         <v>1.7338</v>
       </c>
+      <c r="AC28" s="31"/>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:41">
       <c r="A29" s="8">
         <v>-0.37219999999999998</v>
       </c>
@@ -9805,8 +16178,9 @@
       <c r="AB29" s="8">
         <v>1.6536</v>
       </c>
+      <c r="AC29" s="31"/>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:41">
       <c r="A30" s="8">
         <v>-0.22520000000000001</v>
       </c>
@@ -9891,8 +16265,9 @@
       <c r="AB30" s="8">
         <v>1.6648000000000001</v>
       </c>
+      <c r="AC30" s="31"/>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:41">
       <c r="A31" s="8">
         <v>-0.34810000000000002</v>
       </c>
@@ -9977,9 +16352,1644 @@
       <c r="AB31" s="8">
         <v>1.88</v>
       </c>
+      <c r="AC31" s="31"/>
+    </row>
+    <row r="32" spans="1:41">
+      <c r="A32" s="8">
+        <v>-0.1166</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.28439999999999999</v>
+      </c>
+      <c r="C32" s="8">
+        <v>-0.12790000000000001</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.2505</v>
+      </c>
+      <c r="E32" s="8">
+        <v>-0.1105</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.3916</v>
+      </c>
+      <c r="G32" s="8">
+        <v>-0.1113</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.39019999999999999</v>
+      </c>
+      <c r="I32" s="8">
+        <v>-0.1142</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="K32" s="8">
+        <v>-0.11849999999999999</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="M32" s="8">
+        <v>-0.1268</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0.37259999999999999</v>
+      </c>
+      <c r="O32" s="8">
+        <v>-0.1333</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0.36759999999999998</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>-0.16309999999999999</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="S32" s="8">
+        <v>-0.19220000000000001</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="U32" s="8">
+        <v>-0.2412</v>
+      </c>
+      <c r="V32" s="8">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="W32" s="8">
+        <v>-0.27550000000000002</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0.28689999999999999</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>-0.24740000000000001</v>
+      </c>
+      <c r="AB32" s="8">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="AC32" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="8">
+        <v>-4.9099999999999998E-2</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.42870000000000003</v>
+      </c>
+      <c r="C33" s="8">
+        <v>-0.1013</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E33" s="8">
+        <v>-0.1338</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="G33" s="8">
+        <v>-0.1343</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="I33" s="8">
+        <v>-0.13619999999999999</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="K33" s="8">
+        <v>-0.1394</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0.217</v>
+      </c>
+      <c r="M33" s="8">
+        <v>-0.1459</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0.2072</v>
+      </c>
+      <c r="O33" s="8">
+        <v>-0.15110000000000001</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0.19989999999999999</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>-0.1918</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0.25769999999999998</v>
+      </c>
+      <c r="S33" s="8">
+        <v>-0.20699999999999999</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="U33" s="8">
+        <v>-0.2417</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="W33" s="8">
+        <v>-0.26869999999999999</v>
+      </c>
+      <c r="X33" s="8">
+        <v>0.4158</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>-0.24249999999999999</v>
+      </c>
+      <c r="AB33" s="8">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="AC33" s="32"/>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="8">
+        <v>-8.4500000000000006E-2</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="C34" s="8">
+        <v>-8.2799999999999999E-2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.4269</v>
+      </c>
+      <c r="E34" s="8">
+        <v>-0.1067</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="G34" s="8">
+        <v>-0.10879999999999999</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0.42509999999999998</v>
+      </c>
+      <c r="I34" s="8">
+        <v>-0.1172</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0.42449999999999999</v>
+      </c>
+      <c r="K34" s="8">
+        <v>-0.17860000000000001</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0.2883</v>
+      </c>
+      <c r="M34" s="8">
+        <v>-0.1817</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="O34" s="8">
+        <v>-0.18440000000000001</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0.31469999999999998</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>-0.1993</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="S34" s="8">
+        <v>-0.1986</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="U34" s="8">
+        <v>-0.27789999999999998</v>
+      </c>
+      <c r="V34" s="8">
+        <v>0.312</v>
+      </c>
+      <c r="W34" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="X34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>-0.24310000000000001</v>
+      </c>
+      <c r="AB34" s="8">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="AC34" s="32"/>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="8">
+        <v>-0.18959999999999999</v>
+      </c>
+      <c r="B35" s="8">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="C35" s="8">
+        <v>-0.17649999999999999</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="E35" s="8">
+        <v>-0.17680000000000001</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G35" s="8">
+        <v>-0.1769</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="I35" s="8">
+        <v>-0.17730000000000001</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.27979999999999999</v>
+      </c>
+      <c r="K35" s="8">
+        <v>-0.1295</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0.42459999999999998</v>
+      </c>
+      <c r="M35" s="8">
+        <v>-0.15540000000000001</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="O35" s="8">
+        <v>-0.17580000000000001</v>
+      </c>
+      <c r="P35" s="8">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>-0.17580000000000001</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0.1636</v>
+      </c>
+      <c r="S35" s="8">
+        <v>-0.21310000000000001</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0.4138</v>
+      </c>
+      <c r="U35" s="8">
+        <v>-0.2407</v>
+      </c>
+      <c r="V35" s="8">
+        <v>0.46329999999999999</v>
+      </c>
+      <c r="W35" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="X35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="32"/>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="8">
+        <v>-0.17860000000000001</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.2051</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-0.1862</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.33939999999999998</v>
+      </c>
+      <c r="E36" s="8">
+        <v>-0.18609999999999999</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.36430000000000001</v>
+      </c>
+      <c r="G36" s="8">
+        <v>-0.1862</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.3664</v>
+      </c>
+      <c r="I36" s="8">
+        <v>-0.18659999999999999</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.37430000000000002</v>
+      </c>
+      <c r="K36" s="8">
+        <v>-0.16930000000000001</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0.18490000000000001</v>
+      </c>
+      <c r="M36" s="8">
+        <v>-0.17280000000000001</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="O36" s="8">
+        <v>-0.1807</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0.42770000000000002</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>-0.18179999999999999</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0.1358</v>
+      </c>
+      <c r="S36" s="8">
+        <v>-0.17319999999999999</v>
+      </c>
+      <c r="T36" s="8">
+        <v>0.497</v>
+      </c>
+      <c r="U36" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0</v>
+      </c>
+      <c r="W36" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="AB36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="32"/>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="8">
+        <v>-0.13250000000000001</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="C37" s="8">
+        <v>-0.16639999999999999</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E37" s="8">
+        <v>-0.16719999999999999</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.1678</v>
+      </c>
+      <c r="G37" s="8">
+        <v>-0.1673</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="I37" s="8">
+        <v>-0.16789999999999999</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.1769</v>
+      </c>
+      <c r="K37" s="8">
+        <v>-0.18779999999999999</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0.38329999999999997</v>
+      </c>
+      <c r="M37" s="8">
+        <v>-0.19070000000000001</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0.39879999999999999</v>
+      </c>
+      <c r="O37" s="8">
+        <v>-0.19320000000000001</v>
+      </c>
+      <c r="P37" s="8">
+        <v>0.41170000000000001</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>-0.20749999999999999</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0.46820000000000001</v>
+      </c>
+      <c r="S37" s="8">
+        <v>-0.2001</v>
+      </c>
+      <c r="T37" s="8">
+        <v>0.1245</v>
+      </c>
+      <c r="U37" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="V37" s="8">
+        <v>0</v>
+      </c>
+      <c r="W37" s="8">
+        <v>-0.2944</v>
+      </c>
+      <c r="X37" s="8">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="AA37" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="AB37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="32"/>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" s="8">
+        <v>-0.19850000000000001</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="C38" s="8">
+        <v>-0.19409999999999999</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E38" s="8">
+        <v>-0.19409999999999999</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.4486</v>
+      </c>
+      <c r="G38" s="8">
+        <v>-0.19420000000000001</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.45079999999999998</v>
+      </c>
+      <c r="I38" s="8">
+        <v>-0.19470000000000001</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="K38" s="8">
+        <v>-0.19589999999999999</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0.46839999999999998</v>
+      </c>
+      <c r="M38" s="8">
+        <v>-0.16070000000000001</v>
+      </c>
+      <c r="N38" s="8">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="O38" s="8">
+        <v>-0.1641</v>
+      </c>
+      <c r="P38" s="8">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>-0.13850000000000001</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="S38" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="T38" s="8">
+        <v>0</v>
+      </c>
+      <c r="U38" s="8">
+        <v>-0.27010000000000001</v>
+      </c>
+      <c r="V38" s="8">
+        <v>0.1089</v>
+      </c>
+      <c r="W38" s="8">
+        <v>-0.26400000000000001</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0.5333</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>-0.30480000000000002</v>
+      </c>
+      <c r="AB38" s="8">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="AC38" s="32"/>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39" s="8">
+        <v>-0.20169999999999999</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0.45779999999999998</v>
+      </c>
+      <c r="C39" s="8">
+        <v>-0.1381</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.1027</v>
+      </c>
+      <c r="E39" s="8">
+        <v>-0.14130000000000001</v>
+      </c>
+      <c r="F39" s="8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="G39" s="8">
+        <v>-0.1416</v>
+      </c>
+      <c r="H39" s="8">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="I39" s="8">
+        <v>-0.14280000000000001</v>
+      </c>
+      <c r="J39" s="8">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="K39" s="8">
+        <v>-0.14510000000000001</v>
+      </c>
+      <c r="L39" s="8">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="M39" s="8">
+        <v>-0.19889999999999999</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="O39" s="8">
+        <v>-0.1085</v>
+      </c>
+      <c r="P39" s="8">
+        <v>0.55510000000000004</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>-0.26719999999999999</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0.42770000000000002</v>
+      </c>
+      <c r="S39" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="T39" s="8">
+        <v>0</v>
+      </c>
+      <c r="U39" s="8">
+        <v>-0.2326</v>
+      </c>
+      <c r="V39" s="8">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="W39" s="8">
+        <v>-0.37469999999999998</v>
+      </c>
+      <c r="X39" s="8">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="AA39" s="8">
+        <v>-0.25040000000000001</v>
+      </c>
+      <c r="AB39" s="8">
+        <v>0.56810000000000005</v>
+      </c>
+      <c r="AC39" s="32"/>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" s="8">
+        <v>-0.16669999999999999</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="C40" s="8">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="E40" s="8">
+        <v>-8.6800000000000002E-2</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="G40" s="8">
+        <v>-8.7599999999999997E-2</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0.56910000000000005</v>
+      </c>
+      <c r="I40" s="8">
+        <v>-9.0899999999999995E-2</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0.56530000000000002</v>
+      </c>
+      <c r="K40" s="8">
+        <v>-9.5100000000000004E-2</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="M40" s="8">
+        <v>-0.1028</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="O40" s="8">
+        <v>-0.2014</v>
+      </c>
+      <c r="P40" s="8">
+        <v>0.4985</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0</v>
+      </c>
+      <c r="S40" s="8">
+        <v>-0.2205</v>
+      </c>
+      <c r="T40" s="8">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="U40" s="8">
+        <v>-0.24959999999999999</v>
+      </c>
+      <c r="V40" s="8">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="W40" s="8">
+        <v>-0.32450000000000001</v>
+      </c>
+      <c r="X40" s="8">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="AA40" s="8">
+        <v>-0.254</v>
+      </c>
+      <c r="AB40" s="8">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="AC40" s="32"/>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8">
+        <v>-7.6899999999999996E-2</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="E41" s="8">
+        <v>-0.154</v>
+      </c>
+      <c r="F41" s="8">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="G41" s="8">
+        <v>-0.1542</v>
+      </c>
+      <c r="H41" s="8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I41" s="8">
+        <v>-0.155</v>
+      </c>
+      <c r="J41" s="8">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="K41" s="8">
+        <v>-0.15670000000000001</v>
+      </c>
+      <c r="L41" s="8">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="M41" s="8">
+        <v>-0.15010000000000001</v>
+      </c>
+      <c r="N41" s="8">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="O41" s="8">
+        <v>-0.15429999999999999</v>
+      </c>
+      <c r="P41" s="8">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0</v>
+      </c>
+      <c r="S41" s="8">
+        <v>-0.3029</v>
+      </c>
+      <c r="T41" s="8">
+        <v>0.41549999999999998</v>
+      </c>
+      <c r="U41" s="8">
+        <v>-0.2417</v>
+      </c>
+      <c r="V41" s="8">
+        <v>0.57130000000000003</v>
+      </c>
+      <c r="W41" s="8">
+        <v>-0.13059999999999999</v>
+      </c>
+      <c r="X41" s="8">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="AA41" s="8">
+        <v>-0.254</v>
+      </c>
+      <c r="AB41" s="8">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="AC41" s="32"/>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" s="8">
+        <v>-2.6800000000000001E-2</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0.66339999999999999</v>
+      </c>
+      <c r="C42" s="8">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="E42" s="8">
+        <v>-7.5499999999999998E-2</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0.65910000000000002</v>
+      </c>
+      <c r="G42" s="8">
+        <v>-7.7299999999999994E-2</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="I42" s="8">
+        <v>-8.4400000000000003E-2</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0.6583</v>
+      </c>
+      <c r="K42" s="8">
+        <v>-9.3899999999999997E-2</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0.73580000000000001</v>
+      </c>
+      <c r="M42" s="8">
+        <v>-9.4799999999999995E-2</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="O42" s="8">
+        <v>-9.4799999999999995E-2</v>
+      </c>
+      <c r="P42" s="8">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>-0.1036</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="S42" s="8">
+        <v>-0.12540000000000001</v>
+      </c>
+      <c r="T42" s="8">
+        <v>0.68930000000000002</v>
+      </c>
+      <c r="U42" s="8">
+        <v>-0.10979999999999999</v>
+      </c>
+      <c r="V42" s="8">
+        <v>0.7077</v>
+      </c>
+      <c r="W42" s="8">
+        <v>-0.13059999999999999</v>
+      </c>
+      <c r="X42" s="8">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="AA42" s="8">
+        <v>-0.1145</v>
+      </c>
+      <c r="AB42" s="8">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="AC42" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" s="8">
+        <v>-6.7999999999999996E-3</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="C43" s="8">
+        <v>-2.8299999999999999E-2</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="E43" s="8">
+        <v>-4.4600000000000001E-2</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.78129999999999999</v>
+      </c>
+      <c r="G43" s="8">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="I43" s="8">
+        <v>-5.16E-2</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="K43" s="8">
+        <v>-5.9499999999999997E-2</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0.78149999999999997</v>
+      </c>
+      <c r="M43" s="8">
+        <v>-7.5800000000000006E-2</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="O43" s="8">
+        <v>-9.1800000000000007E-2</v>
+      </c>
+      <c r="P43" s="8">
+        <v>0.78920000000000001</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>-0.1376</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="S43" s="8">
+        <v>-0.15459999999999999</v>
+      </c>
+      <c r="T43" s="8">
+        <v>0.78920000000000001</v>
+      </c>
+      <c r="U43" s="8">
+        <v>-0.2442</v>
+      </c>
+      <c r="V43" s="8">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="W43" s="8">
+        <v>-0.26450000000000001</v>
+      </c>
+      <c r="X43" s="8">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="AA43" s="8">
+        <v>-0.26429999999999998</v>
+      </c>
+      <c r="AB43" s="8">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="AC43" s="31"/>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44" s="8">
+        <v>-8.7099999999999997E-2</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="C44" s="8">
+        <v>-9.0300000000000005E-2</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="E44" s="8">
+        <v>-9.2299999999999993E-2</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.74270000000000003</v>
+      </c>
+      <c r="G44" s="8">
+        <v>-9.2499999999999999E-2</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.7419</v>
+      </c>
+      <c r="I44" s="8">
+        <v>-9.3200000000000005E-2</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="K44" s="8">
+        <v>-9.4500000000000001E-2</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="M44" s="8">
+        <v>-0.1157</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="O44" s="8">
+        <v>-0.13639999999999999</v>
+      </c>
+      <c r="P44" s="8">
+        <v>0.66590000000000005</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>-0.19919999999999999</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="S44" s="8">
+        <v>-0.1087</v>
+      </c>
+      <c r="T44" s="8">
+        <v>0.87660000000000005</v>
+      </c>
+      <c r="U44" s="8">
+        <v>-0.24429999999999999</v>
+      </c>
+      <c r="V44" s="8">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="W44" s="8">
+        <v>-0.26290000000000002</v>
+      </c>
+      <c r="X44" s="8">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="AA44" s="8">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="AB44" s="8">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="AC44" s="31"/>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" s="8">
+        <v>-6.0600000000000001E-2</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0.5998</v>
+      </c>
+      <c r="C45" s="8">
+        <v>-7.6899999999999996E-2</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="E45" s="8">
+        <v>-8.6800000000000002E-2</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="G45" s="8">
+        <v>-8.7599999999999997E-2</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0.56910000000000005</v>
+      </c>
+      <c r="I45" s="8">
+        <v>-9.0899999999999995E-2</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0.56530000000000002</v>
+      </c>
+      <c r="K45" s="8">
+        <v>-3.6900000000000002E-2</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0.8619</v>
+      </c>
+      <c r="M45" s="8">
+        <v>-4.9700000000000001E-2</v>
+      </c>
+      <c r="N45" s="8">
+        <v>0.8659</v>
+      </c>
+      <c r="O45" s="8">
+        <v>-0.1085</v>
+      </c>
+      <c r="P45" s="8">
+        <v>0.55510000000000004</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>-9.6699999999999994E-2</v>
+      </c>
+      <c r="R45" s="8">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="S45" s="8">
+        <v>-0.22170000000000001</v>
+      </c>
+      <c r="T45" s="8">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="U45" s="8">
+        <v>-0.2417</v>
+      </c>
+      <c r="V45" s="8">
+        <v>0.57130000000000003</v>
+      </c>
+      <c r="W45" s="8">
+        <v>-0.2646</v>
+      </c>
+      <c r="X45" s="8">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="AA45" s="8">
+        <v>-0.25040000000000001</v>
+      </c>
+      <c r="AB45" s="8">
+        <v>0.56810000000000005</v>
+      </c>
+      <c r="AC45" s="31"/>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" s="8">
+        <v>3.8E-3</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="C46" s="8">
+        <v>-1.23E-2</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="E46" s="8">
+        <v>-2.5100000000000001E-2</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="G46" s="8">
+        <v>-2.6200000000000001E-2</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="I46" s="8">
+        <v>-3.0700000000000002E-2</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="K46" s="8">
+        <v>-9.5100000000000004E-2</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="M46" s="8">
+        <v>-0.1028</v>
+      </c>
+      <c r="N46" s="8">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="O46" s="8">
+        <v>-6.2600000000000003E-2</v>
+      </c>
+      <c r="P46" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>-0.13850000000000001</v>
+      </c>
+      <c r="R46" s="8">
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="S46" s="8">
+        <v>-0.2351</v>
+      </c>
+      <c r="T46" s="8">
+        <v>0.69810000000000005</v>
+      </c>
+      <c r="U46" s="8">
+        <v>-0.2326</v>
+      </c>
+      <c r="V46" s="8">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="W46" s="8">
+        <v>-0.26400000000000001</v>
+      </c>
+      <c r="X46" s="8">
+        <v>0.5333</v>
+      </c>
+      <c r="AA46" s="8">
+        <v>-0.27810000000000001</v>
+      </c>
+      <c r="AB46" s="8">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="AC46" s="31"/>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47" s="8">
+        <v>-0.19159999999999999</v>
+      </c>
+      <c r="B47" s="8">
+        <v>0.7117</v>
+      </c>
+      <c r="C47" s="8">
+        <v>-0.17080000000000001</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0.74209999999999998</v>
+      </c>
+      <c r="E47" s="8">
+        <v>-0.1658</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0.75939999999999996</v>
+      </c>
+      <c r="G47" s="8">
+        <v>-0.1656</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="I47" s="8">
+        <v>-0.1651</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="K47" s="8">
+        <v>-0.18090000000000001</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="M47" s="8">
+        <v>-0.18410000000000001</v>
+      </c>
+      <c r="N47" s="8">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="O47" s="8">
+        <v>-0.18679999999999999</v>
+      </c>
+      <c r="P47" s="8">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>-0.219</v>
+      </c>
+      <c r="R47" s="8">
+        <v>0.71509999999999996</v>
+      </c>
+      <c r="S47" s="8">
+        <v>-0.2293</v>
+      </c>
+      <c r="T47" s="8">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="U47" s="8">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="V47" s="8">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="W47" s="8">
+        <v>-8.8900000000000007E-2</v>
+      </c>
+      <c r="X47" s="8">
+        <v>1.0302</v>
+      </c>
+      <c r="AA47" s="8">
+        <v>-0.24249999999999999</v>
+      </c>
+      <c r="AB47" s="8">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="AC47" s="31"/>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="A48" s="8">
+        <v>-0.19550000000000001</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="C48" s="8">
+        <v>-0.18190000000000001</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E48" s="8">
+        <v>-0.1797</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="G48" s="8">
+        <v>-0.1797</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0.68079999999999996</v>
+      </c>
+      <c r="I48" s="8">
+        <v>-0.1799</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0.68769999999999998</v>
+      </c>
+      <c r="K48" s="8">
+        <v>-0.16539999999999999</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="M48" s="8">
+        <v>-0.16750000000000001</v>
+      </c>
+      <c r="N48" s="8">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="O48" s="8">
+        <v>-0.16919999999999999</v>
+      </c>
+      <c r="P48" s="8">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>-0.2097</v>
+      </c>
+      <c r="R48" s="8">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="S48" s="8">
+        <v>-0.2356</v>
+      </c>
+      <c r="T48" s="8">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="U48" s="8">
+        <v>-0.2276</v>
+      </c>
+      <c r="V48" s="8">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="W48" s="8">
+        <v>-0.26040000000000002</v>
+      </c>
+      <c r="X48" s="8">
+        <v>0.93169999999999997</v>
+      </c>
+      <c r="AA48" s="8">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="AB48" s="8">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="AC48" s="31"/>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" s="8">
+        <v>-0.18809999999999999</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="C49" s="8">
+        <v>-0.15809999999999999</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0.83130000000000004</v>
+      </c>
+      <c r="E49" s="8">
+        <v>-0.14940000000000001</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="G49" s="8">
+        <v>-0.1489</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="I49" s="8">
+        <v>-0.14749999999999999</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="K49" s="8">
+        <v>-0.19259999999999999</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0.62009999999999998</v>
+      </c>
+      <c r="M49" s="8">
+        <v>-0.19620000000000001</v>
+      </c>
+      <c r="N49" s="8">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="O49" s="8">
+        <v>-0.19919999999999999</v>
+      </c>
+      <c r="P49" s="8">
+        <v>0.65010000000000001</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>-0.22109999999999999</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="S49" s="8">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="T49" s="8">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="U49" s="8">
+        <v>-0.2407</v>
+      </c>
+      <c r="V49" s="8">
+        <v>0.46329999999999999</v>
+      </c>
+      <c r="W49" s="8">
+        <v>-0.32450000000000001</v>
+      </c>
+      <c r="X49" s="8">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="AA49" s="8">
+        <v>-0.1983</v>
+      </c>
+      <c r="AB49" s="8">
+        <v>1.0486</v>
+      </c>
+      <c r="AC49" s="31"/>
+    </row>
+    <row r="50" spans="1:29">
+      <c r="A50" s="8">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="C50" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="E50" s="8">
+        <v>-0.19059999999999999</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.60119999999999996</v>
+      </c>
+      <c r="G50" s="8">
+        <v>-0.19059999999999999</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="I50" s="8">
+        <v>-0.19120000000000001</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="K50" s="8">
+        <v>-0.1467</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="M50" s="8">
+        <v>-0.1469</v>
+      </c>
+      <c r="N50" s="8">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="O50" s="8">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="P50" s="8">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>-0.1938</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="S50" s="8">
+        <v>-0.17319999999999999</v>
+      </c>
+      <c r="T50" s="8">
+        <v>0.497</v>
+      </c>
+      <c r="U50" s="8">
+        <v>-0.2099</v>
+      </c>
+      <c r="V50" s="8">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="W50" s="8">
+        <v>-0.26869999999999999</v>
+      </c>
+      <c r="X50" s="8">
+        <v>0.4158</v>
+      </c>
+      <c r="AA50" s="8">
+        <v>-0.31319999999999998</v>
+      </c>
+      <c r="AB50" s="8">
+        <v>1.012</v>
+      </c>
+      <c r="AC50" s="31"/>
+    </row>
+    <row r="51" spans="1:29">
+      <c r="A51" s="8">
+        <v>-0.1996</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="C51" s="8">
+        <v>-0.191</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="E51" s="8">
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="G51" s="8">
+        <v>-8.6999999999999994E-3</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="I51" s="8">
+        <v>-1.21E-2</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="K51" s="8">
+        <v>-1.6799999999999999E-2</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="M51" s="8">
+        <v>-2.6700000000000002E-2</v>
+      </c>
+      <c r="N51" s="8">
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="O51" s="8">
+        <v>-3.7199999999999997E-2</v>
+      </c>
+      <c r="P51" s="8">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>-6.1699999999999998E-2</v>
+      </c>
+      <c r="R51" s="8">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="S51" s="8">
+        <v>-0.23050000000000001</v>
+      </c>
+      <c r="T51" s="8">
+        <v>0.8498</v>
+      </c>
+      <c r="U51" s="8">
+        <v>-0.19750000000000001</v>
+      </c>
+      <c r="V51" s="8">
+        <v>1.0037</v>
+      </c>
+      <c r="W51" s="8">
+        <v>-0.25130000000000002</v>
+      </c>
+      <c r="X51" s="8">
+        <v>1.0155000000000001</v>
+      </c>
+      <c r="AA51" s="8">
+        <v>-0.24740000000000001</v>
+      </c>
+      <c r="AB51" s="8">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="AC51" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
+    <mergeCell ref="AC2:AC11"/>
+    <mergeCell ref="AC12:AC21"/>
+    <mergeCell ref="AC22:AC31"/>
+    <mergeCell ref="AC32:AC41"/>
+    <mergeCell ref="AC42:AC51"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:B1"/>
@@ -9989,11 +17999,6 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E4C52B-83CC-1C4A-B47B-3668F8B5A23B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864754C7-96A5-0346-ABF8-5EB49FCBED48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16000" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="steady" sheetId="1" r:id="rId1"/>
-    <sheet name="eigenvalues" sheetId="2" r:id="rId2"/>
+    <sheet name="eigenvalues-drdv" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
   <si>
     <t>pr</t>
   </si>
@@ -180,6 +181,9 @@
   <si>
     <t> </t>
   </si>
+  <si>
+    <t>  </t>
+  </si>
 </sst>
 </file>
 
@@ -243,12 +247,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Courier"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -264,8 +262,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +309,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,8 +398,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -404,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,10 +422,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,16 +447,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1210,7 +1223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$W$1</c:f>
+              <c:f>'eigenvalues-drdv'!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1243,7 +1256,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$W$2:$W$51</c:f>
+              <c:f>'eigenvalues-drdv'!$W$2:$W$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1343,15 +1356,6 @@
                 <c:pt idx="31">
                   <c:v>-0.26869999999999999</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>-0.2944</c:v>
                 </c:pt>
@@ -1402,7 +1406,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$X$2:$X$51</c:f>
+              <c:f>'eigenvalues-drdv'!$X$2:$X$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1501,15 +1505,6 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.4158</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.13739999999999999</c:v>
@@ -1571,7 +1566,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$U$1</c:f>
+              <c:f>'eigenvalues-drdv'!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1606,7 +1601,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$U$2:$U$51</c:f>
+              <c:f>'eigenvalues-drdv'!$U$2:$U$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1712,12 +1707,6 @@
                 <c:pt idx="33">
                   <c:v>-0.2407</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
                 <c:pt idx="36">
                   <c:v>-0.27010000000000001</c:v>
                 </c:pt>
@@ -1765,7 +1754,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$V$2:$V$51</c:f>
+              <c:f>'eigenvalues-drdv'!$V$2:$V$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1870,12 +1859,6 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.46329999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.1089</c:v>
@@ -1934,7 +1917,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$S$1</c:f>
+              <c:f>'eigenvalues-drdv'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1969,7 +1952,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$S$2:$S$51</c:f>
+              <c:f>'eigenvalues-drdv'!$S$2:$S$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2081,12 +2064,6 @@
                 <c:pt idx="35">
                   <c:v>-0.2001</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
                 <c:pt idx="38">
                   <c:v>-0.2205</c:v>
                 </c:pt>
@@ -2128,7 +2105,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$T$2:$T$51</c:f>
+              <c:f>'eigenvalues-drdv'!$T$2:$T$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2239,12 +2216,6 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.1245</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.51819999999999999</c:v>
@@ -2297,7 +2268,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$O$1</c:f>
+              <c:f>'eigenvalues-drdv'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2332,7 +2303,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$O$2:$O$51</c:f>
+              <c:f>'eigenvalues-drdv'!$O$2:$O$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2491,7 +2462,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$P$2:$P$51</c:f>
+              <c:f>'eigenvalues-drdv'!$P$2:$P$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2660,7 +2631,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$M$1</c:f>
+              <c:f>'eigenvalues-drdv'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2695,7 +2666,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$M$2:$M$51</c:f>
+              <c:f>'eigenvalues-drdv'!$M$2:$M$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2854,7 +2825,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$N$2:$N$51</c:f>
+              <c:f>'eigenvalues-drdv'!$N$2:$N$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3023,7 +2994,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$K$1</c:f>
+              <c:f>'eigenvalues-drdv'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3058,7 +3029,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$K$2:$K$51</c:f>
+              <c:f>'eigenvalues-drdv'!$K$2:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3217,7 +3188,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$L$2:$L$51</c:f>
+              <c:f>'eigenvalues-drdv'!$L$2:$L$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3386,7 +3357,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$I$1</c:f>
+              <c:f>'eigenvalues-drdv'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3421,7 +3392,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$I$2:$I$51</c:f>
+              <c:f>'eigenvalues-drdv'!$I$2:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3580,7 +3551,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$J$2:$J$51</c:f>
+              <c:f>'eigenvalues-drdv'!$J$2:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3749,7 +3720,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$G$1</c:f>
+              <c:f>'eigenvalues-drdv'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3806,318 +3777,318 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$G$2:$G$51</c:f>
+              <c:f>'eigenvalues-drdv'!$G$2:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>-5.9999999999999995E-4</c:v>
+                  <c:v>3.4599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9999999999999998E-4</c:v>
+                  <c:v>3.3399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.6999999999999994E-3</c:v>
+                  <c:v>2.9399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3999999999999998E-3</c:v>
+                  <c:v>2.6599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.4000000000000004E-3</c:v>
+                  <c:v>1.55E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.6200000000000001E-2</c:v>
+                  <c:v>-0.126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.14130000000000001</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.13569999999999999</c:v>
+                  <c:v>1.2999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.4500000000000001E-2</c:v>
+                  <c:v>-0.14280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.0299999999999999E-2</c:v>
+                  <c:v>-0.13589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.1239</c:v>
+                  <c:v>-0.1724</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.19309999999999999</c:v>
+                  <c:v>-0.1552</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.3499999999999996E-2</c:v>
+                  <c:v>-9.4100000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.2366</c:v>
+                  <c:v>-4.99E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.9899999999999998E-2</c:v>
+                  <c:v>-0.24260000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.28820000000000001</c:v>
+                  <c:v>-1.9099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.0299999999999999E-2</c:v>
+                  <c:v>-0.14929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.17979999999999999</c:v>
+                  <c:v>-0.1822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.24640000000000001</c:v>
+                  <c:v>-0.16009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9.4000000000000004E-3</c:v>
+                  <c:v>1.2999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.2261</c:v>
+                  <c:v>-0.13089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.24640000000000001</c:v>
+                  <c:v>-0.219</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.3422</c:v>
+                  <c:v>-0.16009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.31540000000000001</c:v>
+                  <c:v>-0.1517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.26769999999999999</c:v>
+                  <c:v>-0.31369999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.2366</c:v>
+                  <c:v>-0.1724</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.39689999999999998</c:v>
+                  <c:v>-0.30740000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.34350000000000003</c:v>
+                  <c:v>-0.2402</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.28820000000000001</c:v>
+                  <c:v>-0.32379999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.19309999999999999</c:v>
+                  <c:v>-0.1452</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.1113</c:v>
+                  <c:v>-3.1399999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.1343</c:v>
+                  <c:v>-2E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.10879999999999999</c:v>
+                  <c:v>-9.0700000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.1769</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.1862</c:v>
+                  <c:v>-0.1623</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.1673</c:v>
+                  <c:v>-0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.19420000000000001</c:v>
+                  <c:v>-0.17449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.1416</c:v>
+                  <c:v>-0.12989999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-8.7599999999999997E-2</c:v>
+                  <c:v>-8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.1542</c:v>
+                  <c:v>2.9399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-7.7299999999999994E-2</c:v>
+                  <c:v>-0.10290000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-4.5999999999999999E-2</c:v>
+                  <c:v>-7.9799999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-9.2499999999999999E-2</c:v>
+                  <c:v>-0.12230000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-8.7599999999999997E-2</c:v>
+                  <c:v>-0.16700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2.6200000000000001E-2</c:v>
+                  <c:v>-0.17710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.1656</c:v>
+                  <c:v>-8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.1797</c:v>
+                  <c:v>-0.15629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.1489</c:v>
+                  <c:v>-0.18540000000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.19059999999999999</c:v>
+                  <c:v>-0.1293</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-8.6999999999999994E-3</c:v>
+                  <c:v>-0.18770000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$H$2:$H$51</c:f>
+              <c:f>'eigenvalues-drdv'!$H$2:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.98199999999999998</c:v>
+                  <c:v>0.98140000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0321</c:v>
+                  <c:v>1.0319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92459999999999998</c:v>
+                  <c:v>0.92369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0781000000000001</c:v>
+                  <c:v>1.0775999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1222000000000001</c:v>
+                  <c:v>1.1191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86109999999999998</c:v>
+                  <c:v>0.96799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0472999999999999</c:v>
+                  <c:v>0.85799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93730000000000002</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1318999999999999</c:v>
+                  <c:v>1.089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1684000000000001</c:v>
+                  <c:v>0.89990000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3297000000000001</c:v>
+                  <c:v>1.5552999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3849</c:v>
+                  <c:v>1.3485</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2745</c:v>
+                  <c:v>1.2976000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4634</c:v>
+                  <c:v>1.2498</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2197</c:v>
+                  <c:v>1.4041999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4387000000000001</c:v>
+                  <c:v>1.2035</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1684000000000001</c:v>
+                  <c:v>1.2431000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1958</c:v>
+                  <c:v>1.2532000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7737000000000001</c:v>
+                  <c:v>1.7910999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1222000000000001</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1333000000000002</c:v>
+                  <c:v>1.8728</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7737000000000001</c:v>
+                  <c:v>2.1124999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9400999999999999</c:v>
+                  <c:v>1.7910999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.7704</c:v>
+                  <c:v>2.2915999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4479000000000002</c:v>
+                  <c:v>1.8727</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4634</c:v>
+                  <c:v>1.5552999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5598000000000001</c:v>
+                  <c:v>2.3685</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4982000000000002</c:v>
+                  <c:v>2.5358000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4387000000000001</c:v>
+                  <c:v>2.5062000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3849</c:v>
+                  <c:v>2.6139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.39019999999999999</c:v>
+                  <c:v>0.64870000000000005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.22919999999999999</c:v>
+                  <c:v>0.77600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.42509999999999998</c:v>
+                  <c:v>0.58450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.27229999999999999</c:v>
+                  <c:v>0.85799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.3664</c:v>
+                  <c:v>0.70099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.16969999999999999</c:v>
+                  <c:v>0.78080000000000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.45079999999999998</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.0299999999999996E-2</c:v>
+                  <c:v>0.86880000000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.56910000000000005</c:v>
+                  <c:v>0.4919</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>0.92369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.65900000000000003</c:v>
+                  <c:v>0.34949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.78120000000000001</c:v>
+                  <c:v>0.41620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.7419</c:v>
+                  <c:v>0.2089</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.56910000000000005</c:v>
+                  <c:v>0.24709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.86109999999999998</c:v>
+                  <c:v>0.33289999999999997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.76090000000000002</c:v>
+                  <c:v>0.4919</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.68079999999999996</c:v>
+                  <c:v>0.15340000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.84430000000000005</c:v>
+                  <c:v>0.40989999999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.60319999999999996</c:v>
+                  <c:v>7.4800000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.92459999999999998</c:v>
+                  <c:v>0.48110000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4134,7 +4105,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$E$1</c:f>
+              <c:f>'eigenvalues-drdv'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4169,7 +4140,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$E$2:$E$51</c:f>
+              <c:f>'eigenvalues-drdv'!$E$2:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4328,7 +4299,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$F$2:$F$51</c:f>
+              <c:f>'eigenvalues-drdv'!$F$2:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4497,7 +4468,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$C$1</c:f>
+              <c:f>'eigenvalues-drdv'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4532,7 +4503,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$C$2:$C$51</c:f>
+              <c:f>'eigenvalues-drdv'!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4691,7 +4662,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$D$2:$D$51</c:f>
+              <c:f>'eigenvalues-drdv'!$D$2:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4860,7 +4831,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$A$1</c:f>
+              <c:f>'eigenvalues-drdv'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4895,7 +4866,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$A$2:$A$51</c:f>
+              <c:f>'eigenvalues-drdv'!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5016,9 +4987,6 @@
                 <c:pt idx="38">
                   <c:v>-0.16669999999999999</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
                 <c:pt idx="40">
                   <c:v>-2.6800000000000001E-2</c:v>
                 </c:pt>
@@ -5054,7 +5022,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$B$2:$B$51</c:f>
+              <c:f>'eigenvalues-drdv'!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5174,9 +5142,6 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.10489999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.66339999999999999</c:v>
@@ -5341,7 +5306,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.2000000000000002"/>
-          <c:min val="0.60000000000000009"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5523,7 +5488,9 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5581,7 +5548,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$W$1</c:f>
+              <c:f>'eigenvalues-drdv'!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5614,7 +5581,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$W$2:$W$51</c:f>
+              <c:f>'eigenvalues-drdv'!$W$2:$W$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5714,15 +5681,6 @@
                 <c:pt idx="31">
                   <c:v>-0.26869999999999999</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>-0.2944</c:v>
                 </c:pt>
@@ -5773,7 +5731,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$X$2:$X$51</c:f>
+              <c:f>'eigenvalues-drdv'!$X$2:$X$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5872,15 +5830,6 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.4158</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.13739999999999999</c:v>
@@ -5933,7 +5882,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AAE9-5A4F-BC46-425397B6AEC2}"/>
+              <c16:uniqueId val="{00000000-07FC-E545-AB75-712401F5E7EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5942,7 +5891,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$U$1</c:f>
+              <c:f>'eigenvalues-drdv'!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5977,7 +5926,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$U$2:$U$51</c:f>
+              <c:f>'eigenvalues-drdv'!$U$2:$U$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -6083,12 +6032,6 @@
                 <c:pt idx="33">
                   <c:v>-0.2407</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
                 <c:pt idx="36">
                   <c:v>-0.27010000000000001</c:v>
                 </c:pt>
@@ -6136,7 +6079,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$V$2:$V$51</c:f>
+              <c:f>'eigenvalues-drdv'!$V$2:$V$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -6241,12 +6184,6 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.46329999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.1089</c:v>
@@ -6296,7 +6233,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AAE9-5A4F-BC46-425397B6AEC2}"/>
+              <c16:uniqueId val="{00000001-07FC-E545-AB75-712401F5E7EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6305,7 +6242,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$S$1</c:f>
+              <c:f>'eigenvalues-drdv'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6340,7 +6277,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$S$2:$S$51</c:f>
+              <c:f>'eigenvalues-drdv'!$S$2:$S$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -6452,12 +6389,6 @@
                 <c:pt idx="35">
                   <c:v>-0.2001</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
                 <c:pt idx="38">
                   <c:v>-0.2205</c:v>
                 </c:pt>
@@ -6499,7 +6430,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$T$2:$T$51</c:f>
+              <c:f>'eigenvalues-drdv'!$T$2:$T$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -6610,12 +6541,6 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.1245</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.51819999999999999</c:v>
@@ -6659,7 +6584,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AAE9-5A4F-BC46-425397B6AEC2}"/>
+              <c16:uniqueId val="{00000002-07FC-E545-AB75-712401F5E7EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6668,7 +6593,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$O$1</c:f>
+              <c:f>'eigenvalues-drdv'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6703,7 +6628,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$O$2:$O$51</c:f>
+              <c:f>'eigenvalues-drdv'!$O$2:$O$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -6862,7 +6787,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$P$2:$P$51</c:f>
+              <c:f>'eigenvalues-drdv'!$P$2:$P$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -7022,2216 +6947,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AAE9-5A4F-BC46-425397B6AEC2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>eigenvalues!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18.1kpa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000">
-                  <a:alpha val="10000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>eigenvalues!$M$2:$M$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>-1.43E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9.4000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.6700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.01E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.52E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.1263</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.12820000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.9700000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.3299999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.11890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.18160000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-7.2800000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.23280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.26629999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-4.2000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.23519999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.15559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.52E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.2394</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.23519999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.33739999999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.3004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.29799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.37990000000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.3276</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.26629999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.23280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.38040000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.1268</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.1459</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.1817</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.15540000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.17280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.19070000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.16070000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.19889999999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.1028</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.15010000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-9.4799999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-7.5800000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.1157</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-4.9700000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.1028</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.18410000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.16750000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.19620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.1469</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-2.6700000000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>eigenvalues!$N$2:$N$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.98850000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0397000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93010000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0869</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1318999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0488</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94869999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8659</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1177999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1783999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3395999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3964000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.284</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4268000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4544999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2295</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1783999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7572000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1318999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1055999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.7572000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9500999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.7477</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4117999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.5952</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.4733999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.4544999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4268000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.5008999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.37259999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.2072</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.30280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.42599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.19839999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.39879999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.1600000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.48480000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.55769999999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.5800000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.73140000000000005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.78520000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.66220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.8659</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.55769999999999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.71099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.78649999999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.63639999999999997</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.86370000000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.93010000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AAE9-5A4F-BC46-425397B6AEC2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>eigenvalues!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18.2kpa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000">
-                  <a:alpha val="20000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>eigenvalues!$K$2:$K$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>-6.7000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.8E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.6799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.8999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.13250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.13070000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3.6900000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.3799999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.2200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.1212</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.18690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-7.2999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.23519999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4.0800000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.27629999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2.2200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.1666</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.24160000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.23250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.24160000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.33979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.30690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.28220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.38850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.33610000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.23519999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.27629999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.18690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.11849999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.1394</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.17860000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.1295</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.16930000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.18779999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.19589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.14510000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-9.5100000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.15670000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-9.3899999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-5.9499999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-9.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-3.6900000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-9.5100000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.18090000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.16539999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.19259999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.1467</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-1.6799999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>eigenvalues!$L$2:$L$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0347</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92589999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0814999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1262000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0471999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9425</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8619</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1245000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1727000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3345</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3909</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2788999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4452</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.224</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4475</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1727000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1860999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7646999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1262000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1196000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.7646999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9444999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.7582</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.431</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.5768</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.4864000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.4452</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4475</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.3909</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.2883</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.42459999999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.18490000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.38329999999999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46839999999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.7000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.56200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.9199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.73580000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.78149999999999997</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.65900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.8619</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.56200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.69599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.77359999999999995</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.62009999999999998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.85370000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.92589999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-AAE9-5A4F-BC46-425397B6AEC2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>eigenvalues!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18.25kpa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF2600">
-                  <a:alpha val="30000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>eigenvalues!$I$2:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>-3.0999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.1000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.21E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.8999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.13689999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.13300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.4100000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.12E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.12280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.1903</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-7.3400000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.2361</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4.0300000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.28270000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2.12E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.17349999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.2445</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.22900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.2445</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.34100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.31130000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.27400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.3931</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.2361</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.34050000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.28270000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.1903</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.1142</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.13619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.1172</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.17730000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.18659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.16789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.19470000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.14280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-9.0899999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.155</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-8.4400000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-5.16E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-9.3200000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-9.0899999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.1651</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.1799</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.14749999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.19120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-1.21E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>eigenvalues!$J$2:$J$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.98229999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0327</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92459999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0791999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1235999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.86080000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0468</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93930000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1284000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3318000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3875999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2763</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4550000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2214</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1906000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7694000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1235999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1271</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.7694000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9419</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.7645999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4405999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.5671999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.4550000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.4929999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.3875999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.38500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.22320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.42449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.27979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.37430000000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.1769</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.45900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.3899999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.56530000000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.1699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.6583</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.78059999999999996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.73880000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.56530000000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.86080000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.76649999999999996</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.68769999999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.84840000000000004</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.61099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.92459999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-AAE9-5A4F-BC46-425397B6AEC2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>eigenvalues!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18.29kpa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="triangle"/>
-              <c:size val="12"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln w="12700">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-AAE9-5A4F-BC46-425397B6AEC2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>eigenvalues!$G$2:$G$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-8.6999999999999994E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.3999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.4000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.6200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.14130000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.13569999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.0299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.1239</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.19309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-7.3499999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.2366</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.9899999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.28820000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2.0299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.17979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.24640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-9.4000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.2261</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.24640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.3422</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.31540000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.26769999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.2366</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.39689999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.34350000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.28820000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.19309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.1113</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.1343</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.10879999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.1769</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.1862</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.1673</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.19420000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.1416</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-8.7599999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.1542</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-7.7299999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-9.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-8.7599999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-2.6200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.1656</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.1797</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.1489</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.19059999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-8.6999999999999994E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>eigenvalues!$H$2:$H$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.98199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0321</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92459999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0781000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1222000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.86109999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0472999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93730000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1318999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1684000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3297000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3849</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2745</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4634</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2197</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4387000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1684000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1958</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7737000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1222000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1333000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.7737000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9400999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.7704</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4479000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4634</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.5598000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.4982000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4387000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.3849</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.39019999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.22919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.42509999999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.27229999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.3664</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.16969999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.45079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.0299999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.56910000000000005</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.65900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.78120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.7419</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.56910000000000005</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.86109999999999998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.76090000000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.68079999999999996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.84430000000000005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.60319999999999996</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.92459999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-AAE9-5A4F-BC46-425397B6AEC2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>eigenvalues!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18.3kpa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>eigenvalues!$E$2:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-7.7999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.1000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.5100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.1426</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.13650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.4600000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.01E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.12429999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.1938</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-7.3599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.23669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.9800000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.28970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2.01E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.18160000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.24690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-9.1000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.2253</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.24690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.34250000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.3165</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.26600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.23669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.39800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.34429999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.28970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.1938</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.1105</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.1338</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.1067</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.17680000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.18609999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.16719999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.19409999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.14130000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-8.6800000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.154</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-7.5499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-4.4600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-9.2299999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-8.6800000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-2.5100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.1658</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.1797</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.14940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.19059999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-7.7999999999999996E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>eigenvalues!$F$2:$F$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.98199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0319</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92469999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0779000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1218999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.86119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0475000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93679999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1328</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1680999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3291999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3841000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2741</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4656</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2193000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4375</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1680999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1974</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7748999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1218999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1349</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.7748999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9397</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.772</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4498000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4656</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.5579000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.4994999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.3841000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3916</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.23089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.42520000000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.27029999999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.36430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.1678</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.4486</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.2000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.57010000000000005</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.3199999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.65910000000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.78129999999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.74270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.57010000000000005</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.86119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.75939999999999996</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.67900000000000005</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.84330000000000005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.60119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.92469999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-AAE9-5A4F-BC46-425397B6AEC2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>eigenvalues!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18.4kpa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF2600">
-                  <a:alpha val="60000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>eigenvalues!$C$2:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>7.3000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4000000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6.7999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.23E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.14979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.8800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.16159999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9.5799999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.1293</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.2389</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.20369999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-7.5600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.9699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.30859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.8800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.20269999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-9.5799999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-6.7999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.217</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.25219999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.34570000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.32990000000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.2467</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.2389</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.4113</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.35439999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.30859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.20369999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.12790000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.1013</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-8.2799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.17649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.1862</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.16639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.19409999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.1381</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.19600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-7.6899999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-2.8299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-9.0300000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-7.6899999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-1.23E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.17080000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.18190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.15809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.191</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>eigenvalues!$D$2:$D$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.98170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0306999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92530000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0753999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1184000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.86229999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1637999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0524</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1436999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3222</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4905999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3743000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2685</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2144999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4218</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1637999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.2214</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1436999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1184000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1535000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.7881</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9345000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.7918000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4708000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4905999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.5367999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.5152999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4218</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.3743000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.2505</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.40799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.4269</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.24640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.33939999999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.14499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.42299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.1027</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.50039999999999996</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.58169999999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.66100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.78300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.75219999999999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.58169999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.86229999999999996</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.74209999999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.65800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.83130000000000004</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.92530000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.57750000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-AAE9-5A4F-BC46-425397B6AEC2}"/>
+              <c16:uniqueId val="{00000003-07FC-E545-AB75-712401F5E7EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="10"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>eigenvalues!$A$1</c:f>
+              <c:f>'eigenvalues-drdv'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9266,7 +6991,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>eigenvalues!$A$2:$A$51</c:f>
+              <c:f>'eigenvalues-drdv'!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -9387,9 +7112,6 @@
                 <c:pt idx="38">
                   <c:v>-0.16669999999999999</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
                 <c:pt idx="40">
                   <c:v>-2.6800000000000001E-2</c:v>
                 </c:pt>
@@ -9425,7 +7147,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>eigenvalues!$B$2:$B$51</c:f>
+              <c:f>'eigenvalues-drdv'!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -9545,9 +7267,6 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.10489999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.66339999999999999</c:v>
@@ -9585,7 +7304,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-AAE9-5A4F-BC46-425397B6AEC2}"/>
+              <c16:uniqueId val="{0000000B-07FC-E545-AB75-712401F5E7EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9604,6 +7323,8 @@
         <c:axId val="143884368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="-0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9703,12 +7424,14 @@
         <c:crossAx val="143886048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="143886048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.2000000000000002"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9754,8 +7477,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.3417008954355041E-2"/>
-              <c:y val="0.38480702467328753"/>
+              <c:x val="8.7873651210265379E-3"/>
+              <c:y val="0.31304771799358411"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9818,7 +7541,7 @@
         <c:crossAx val="143884368"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
+        <c:majorUnit val="0.4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9839,7 +7562,7 @@
           <c:x val="0.7582731183631084"/>
           <c:y val="6.2842481949886106E-2"/>
           <c:w val="0.18854804002939124"/>
-          <c:h val="0.43658409367813472"/>
+          <c:h val="0.283472888603922"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9890,7 +7613,637 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10503681831437738"/>
+          <c:y val="6.0524205307669873E-2"/>
+          <c:w val="0.84019466316710412"/>
+          <c:h val="0.85009678477690287"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eigenvalues-drdv'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.29kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="10"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9E0C-EA48-941E-0C6BF082C913}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$G$2:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>3.4599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.14280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1724</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1552</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.4100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.99E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.24260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.9099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.14929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.1822</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.16009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.13089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.219</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.16009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.1517</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.31369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.1724</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.30740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.2402</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.32379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.1452</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.1399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-9.0700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.1623</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.17449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.12989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.10290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.9799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.12230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.17710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.15629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.18540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.1293</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.18770000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$H$2:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.98140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0775999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89990000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5552999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3485</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4041999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2431000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2532000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7910999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7910999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2915999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8727</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5552999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3685</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5358000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5062000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.58450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.78080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.86880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.4919</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.2089</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.24709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.33289999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.4919</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.15340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.40989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.4800000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48110000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9E0C-EA48-941E-0C6BF082C913}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="143884368"/>
+        <c:axId val="143886048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="143884368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+          <c:min val="-0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143886048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="143886048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143884368"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64008723458479599"/>
+          <c:y val="7.4529599095649393E-2"/>
+          <c:w val="0.30002077535524396"/>
+          <c:h val="9.2149675031210368E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -10034,6 +8387,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12137,6 +10530,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12221,15 +11130,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>73770</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>64908</xdr:rowOff>
+      <xdr:colOff>238870</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>598414</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>27425</xdr:rowOff>
+      <xdr:colOff>763514</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12258,23 +11167,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>176835</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>128608</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>185113</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>701479</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>26821</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99291</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC5D0C3-13BE-2947-8783-9AB7E97243CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8F8DB9-893E-2B48-B57F-28D2DAF6C2A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12289,6 +11198,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>241684</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>775084</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C129614-87E3-814C-B825-225A435E68DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12597,7 +11544,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12612,24 +11559,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="18" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12663,7 +11610,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="19"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3">
@@ -12695,7 +11642,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12729,489 +11676,489 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="16" customFormat="1">
-      <c r="A5" s="22">
+    <row r="5" spans="1:14" s="15" customFormat="1">
+      <c r="A5" s="21">
         <f t="shared" si="0"/>
         <v>111325</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>10</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>0.22891</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>1.3637999999999999</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>0.77229999999999999</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <f t="shared" si="1"/>
         <v>1.00039332226204</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="28" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="20" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="16" customFormat="1">
-      <c r="A6" s="13">
+    <row r="6" spans="1:14" s="15" customFormat="1">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>113825</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>12.5</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>0.22842999999999999</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>1.3965000000000001</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>0.79290000000000005</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f t="shared" si="1"/>
         <v>0.99829560353115987</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="21" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="16" customFormat="1">
-      <c r="A7" s="13">
+    <row r="7" spans="1:14" s="15" customFormat="1">
+      <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>116325</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>0.22692999999999999</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>1.4283999999999999</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>0.81040000000000001</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
         <v>0.99174023249715937</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="21" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="16" customFormat="1">
-      <c r="A8" s="13">
+    <row r="8" spans="1:14" s="15" customFormat="1">
+      <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>117325</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>0.22575999999999999</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>1.4404999999999999</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>0.81599999999999995</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f t="shared" si="1"/>
         <v>0.98662704309063887</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="21" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="16" customFormat="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:14" s="15" customFormat="1">
+      <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>118325</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>0.22406999999999999</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>1.452</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>0.82030000000000003</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
         <v>0.9792413250589983</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="21" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="16" customFormat="1">
-      <c r="A10" s="13">
+    <row r="10" spans="1:14" s="15" customFormat="1">
+      <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>118825</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>17.5</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>0.22283</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>1.4572000000000001</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>0.82150000000000001</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <f t="shared" si="1"/>
         <v>0.97382221833755789</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="21" t="s">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="16" customFormat="1">
-      <c r="A11" s="13">
+    <row r="11" spans="1:14" s="15" customFormat="1">
+      <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>119325</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>18</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>0.22106999999999999</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>1.462</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>0.82130000000000003</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
         <v>0.9661305829909973</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="21" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="16" customFormat="1">
-      <c r="A12" s="13">
+    <row r="12" spans="1:14" s="15" customFormat="1">
+      <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>119425</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>18.100000000000001</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>0.22059000000000001</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>1.4628000000000001</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>0.82099999999999995</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <f t="shared" si="1"/>
         <v>0.96403286426011714</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="21" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="16" customFormat="1">
-      <c r="A13" s="13">
+    <row r="13" spans="1:14" s="15" customFormat="1">
+      <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>119525</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>18.2</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>0.22001999999999999</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>1.4634</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>0.82040000000000002</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <f t="shared" si="1"/>
         <v>0.96154182326719695</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="21" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="16" customFormat="1">
-      <c r="A14" s="13">
+    <row r="14" spans="1:14" s="15" customFormat="1">
+      <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>119575</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>18.25</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>0.21967999999999999</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>1.4637</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>0.82</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <f t="shared" si="1"/>
         <v>0.96005593916615672</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="21" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="16" customFormat="1">
-      <c r="A15" s="22">
+    <row r="15" spans="1:14" s="15" customFormat="1">
+      <c r="A15" s="21">
         <f t="shared" si="0"/>
         <v>119615</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>18.29</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>0.21937000000000001</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>1.4639</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>0.81950000000000001</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <f t="shared" si="1"/>
         <v>0.95870116248579673</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="28" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="20" t="s">
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="16" customFormat="1">
-      <c r="A16" s="13">
+    <row r="16" spans="1:14" s="15" customFormat="1">
+      <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>119625</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>18.3</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>0.21929000000000001</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>1.4639</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>0.81940000000000002</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <f t="shared" si="1"/>
         <v>0.95835154269731671</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="20" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="16" customFormat="1">
-      <c r="A17" s="13">
+    <row r="17" spans="1:14" s="15" customFormat="1">
+      <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>119725</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>18.399999999999999</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>0.21833</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>1.4641</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>0.81789999999999996</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <f t="shared" si="1"/>
         <v>0.95415610523555638</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="20" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="16" customFormat="1">
-      <c r="A18" s="22">
+    <row r="18" spans="1:14" s="15" customFormat="1">
+      <c r="A18" s="21">
         <f t="shared" si="0"/>
         <v>119825</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>18.5</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>0.21668999999999999</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>1.4635</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>0.81469999999999998</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <f t="shared" si="1"/>
         <v>0.94698889957171573</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="28" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="20" t="s">
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13226,7 +12173,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="4">
@@ -13239,7 +12186,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="19"/>
+      <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3">
@@ -13252,7 +12199,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="4">
@@ -13265,7 +12212,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="19"/>
+      <c r="N20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13283,10 +12230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47BBAE-5C45-FC47-9DB3-44760ECB14A5}">
-  <dimension ref="A1:AP51"/>
+  <dimension ref="A1:AS51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="AK51" sqref="AK51"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13294,111 +12241,121 @@
     <col min="29" max="29" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="18">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:45">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="29" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="29" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="29" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="31"/>
+      <c r="Q1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="29" t="s">
+      <c r="R1" s="31"/>
+      <c r="S1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="30"/>
-      <c r="U1" s="29" t="s">
+      <c r="T1" s="31"/>
+      <c r="U1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="30"/>
-      <c r="W1" s="29" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="29" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="29" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="25" t="s">
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="24" t="s">
         <v>36</v>
       </c>
       <c r="AD1" s="9"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="10" t="s">
+      <c r="AG1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AL1">
-        <v>-0.27550000000000002</v>
-      </c>
-      <c r="AM1">
-        <v>0.28689999999999999</v>
+      <c r="AL1" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="AN1">
-        <v>0.28689999999999999</v>
-      </c>
-      <c r="AO1" t="s">
+        <v>-0.10290000000000001</v>
+      </c>
+      <c r="AO1" s="32">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="AP1" s="32">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AR1">
+        <v>1.8728</v>
+      </c>
+      <c r="AS1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="18">
-      <c r="A2" s="12">
+    <row r="2" spans="1:45">
+      <c r="A2" s="11">
         <v>1.43E-2</v>
       </c>
       <c r="B2" s="8">
         <v>0.98269999999999991</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="D2" s="8">
         <v>0.98170000000000002</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>1E-4</v>
       </c>
       <c r="F2" s="8">
         <v>0.98199999999999998</v>
       </c>
-      <c r="G2" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0.98199999999999998</v>
+      <c r="G2">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.98140000000000005</v>
       </c>
       <c r="I2" s="8">
         <v>-3.0999999999999999E-3</v>
@@ -13460,54 +12417,64 @@
       <c r="AB2" s="8">
         <v>0.95430000000000004</v>
       </c>
-      <c r="AC2" s="31" t="s">
+      <c r="AC2" s="28" t="s">
         <v>35</v>
       </c>
       <c r="AD2" s="9"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="10" t="s">
+      <c r="AG2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AL2">
-        <v>-0.26869999999999999</v>
-      </c>
-      <c r="AM2">
-        <v>0.4158</v>
+      <c r="AL2" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="AN2">
-        <v>0.4158</v>
-      </c>
-      <c r="AO2" t="s">
+        <v>-7.9799999999999996E-2</v>
+      </c>
+      <c r="AO2" s="32">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="AP2" s="32">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>35</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AR2">
+        <v>2.1124999999999998</v>
+      </c>
+      <c r="AS2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="18">
-      <c r="A3" s="12">
+    <row r="3" spans="1:45">
+      <c r="A3" s="11">
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="B3" s="8">
         <v>1.0302</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="D3" s="8">
         <v>1.0306999999999999</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>1.4E-3</v>
       </c>
       <c r="F3" s="8">
         <v>1.0319</v>
       </c>
-      <c r="G3" s="12">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1.0321</v>
+      <c r="G3">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.0319</v>
       </c>
       <c r="I3" s="8">
         <v>-1.1000000000000001E-3</v>
@@ -13569,36 +12536,46 @@
       <c r="AB3" s="8">
         <v>1.0486</v>
       </c>
-      <c r="AC3" s="31"/>
+      <c r="AC3" s="28"/>
       <c r="AD3" s="9"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="10" t="s">
+      <c r="AG3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AL3">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
+      <c r="AL3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="s">
+        <v>-0.12230000000000001</v>
+      </c>
+      <c r="AO3" s="32">
+        <v>0.2089</v>
+      </c>
+      <c r="AP3" s="32">
+        <v>0.2089</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>35</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AR3">
+        <v>1.7910999999999999</v>
+      </c>
+      <c r="AS3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="18">
-      <c r="A4" s="12">
+    <row r="4" spans="1:45">
+      <c r="A4" s="11">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="B4" s="8">
         <v>1.0731000000000002</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>2E-3</v>
       </c>
       <c r="D4" s="8">
@@ -13610,11 +12587,11 @@
       <c r="F4" s="8">
         <v>0.92469999999999997</v>
       </c>
-      <c r="G4" s="8">
-        <v>-8.6999999999999994E-3</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.92459999999999998</v>
+      <c r="G4">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.92369999999999997</v>
       </c>
       <c r="I4" s="8">
         <v>-1.21E-2</v>
@@ -13676,36 +12653,46 @@
       <c r="AB4" s="8">
         <v>1.2423</v>
       </c>
-      <c r="AC4" s="31"/>
+      <c r="AC4" s="28"/>
       <c r="AD4" s="9"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="10" t="s">
+      <c r="AG4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AL4">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
+      <c r="AL4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="s">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="AO4" s="32">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="AP4" s="32">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>35</v>
       </c>
-      <c r="AP4" s="11" t="s">
+      <c r="AR4">
+        <v>2.2915999999999999</v>
+      </c>
+      <c r="AS4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="18">
-      <c r="A5" s="12">
+    <row r="5" spans="1:45">
+      <c r="A5" s="11">
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="B5" s="8">
         <v>0.92730000000000001</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>1.4E-3</v>
       </c>
       <c r="D5" s="8">
@@ -13717,11 +12704,11 @@
       <c r="F5" s="8">
         <v>1.0779000000000001</v>
       </c>
-      <c r="G5" s="8">
-        <v>-2.3999999999999998E-3</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1.0781000000000001</v>
+      <c r="G5">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.0775999999999999</v>
       </c>
       <c r="I5" s="8">
         <v>-3.8999999999999998E-3</v>
@@ -13783,29 +12770,39 @@
       <c r="AB5" s="8">
         <v>0.72950000000000004</v>
       </c>
-      <c r="AC5" s="31"/>
+      <c r="AC5" s="28"/>
       <c r="AD5" s="9"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="10" t="s">
+      <c r="AG5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AL5">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
+      <c r="AL5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="s">
+        <v>-0.17710000000000001</v>
+      </c>
+      <c r="AO5" s="32">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="AP5" s="32">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>35</v>
       </c>
-      <c r="AP5" s="11" t="s">
+      <c r="AR5">
+        <v>1.8727</v>
+      </c>
+      <c r="AS5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="18">
+    <row r="6" spans="1:45">
       <c r="A6" s="8">
         <v>-7.9000000000000008E-3</v>
       </c>
@@ -13824,11 +12821,11 @@
       <c r="F6" s="8">
         <v>1.1218999999999999</v>
       </c>
-      <c r="G6" s="8">
-        <v>-9.4000000000000004E-3</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1.1222000000000001</v>
+      <c r="G6">
+        <v>1.55E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.1191</v>
       </c>
       <c r="I6" s="8">
         <v>-1.0500000000000001E-2</v>
@@ -13890,30 +12887,40 @@
       <c r="AB6" s="8">
         <v>0.90980000000000005</v>
       </c>
-      <c r="AC6" s="31"/>
+      <c r="AC6" s="28"/>
       <c r="AD6" s="9"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="10" t="s">
+      <c r="AG6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AL6">
-        <v>-0.2944</v>
-      </c>
-      <c r="AM6">
-        <v>0.13739999999999999</v>
+      <c r="AL6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="AN6">
-        <v>0.13739999999999999</v>
-      </c>
-      <c r="AO6" t="s">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="AO6" s="32">
+        <v>0.4919</v>
+      </c>
+      <c r="AP6" s="32">
+        <v>0.4919</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>35</v>
       </c>
-      <c r="AP6" s="11" t="s">
+      <c r="AR6">
+        <v>1.5552999999999999</v>
+      </c>
+      <c r="AS6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="18">
-      <c r="A7" s="12">
+    <row r="7" spans="1:45">
+      <c r="A7" s="11">
         <v>3.8E-3</v>
       </c>
       <c r="B7" s="8">
@@ -13931,11 +12938,11 @@
       <c r="F7" s="8">
         <v>0.86119999999999997</v>
       </c>
-      <c r="G7" s="8">
-        <v>-2.6200000000000001E-2</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.86109999999999998</v>
+      <c r="G7">
+        <v>-0.126</v>
+      </c>
+      <c r="H7">
+        <v>0.96799999999999997</v>
       </c>
       <c r="I7" s="8">
         <v>-3.0700000000000002E-2</v>
@@ -13997,29 +13004,39 @@
       <c r="AB7" s="8">
         <v>1.012</v>
       </c>
-      <c r="AC7" s="31"/>
+      <c r="AC7" s="28"/>
       <c r="AD7" s="9"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="10" t="s">
+      <c r="AG7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AL7">
-        <v>-0.26400000000000001</v>
-      </c>
-      <c r="AM7">
-        <v>0.5333</v>
+      <c r="AL7" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="AN7">
-        <v>0.5333</v>
-      </c>
-      <c r="AO7" t="s">
+        <v>-0.15629999999999999</v>
+      </c>
+      <c r="AO7" s="32">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="AP7" s="32">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>35</v>
       </c>
-      <c r="AP7" s="11" t="s">
+      <c r="AR7">
+        <v>2.3685</v>
+      </c>
+      <c r="AS7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="18">
+    <row r="8" spans="1:45">
       <c r="A8" s="8">
         <v>-2.1399999999999999E-2</v>
       </c>
@@ -14038,11 +13055,11 @@
       <c r="F8" s="8">
         <v>1.0475000000000001</v>
       </c>
-      <c r="G8" s="8">
-        <v>-0.14130000000000001</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1.0472999999999999</v>
+      <c r="G8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.85799999999999998</v>
       </c>
       <c r="I8" s="8">
         <v>-0.13689999999999999</v>
@@ -14104,29 +13121,39 @@
       <c r="AB8" s="8">
         <v>1.3229</v>
       </c>
-      <c r="AC8" s="31"/>
+      <c r="AC8" s="28"/>
       <c r="AD8" s="9"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="10" t="s">
+      <c r="AG8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AL8">
-        <v>-0.37469999999999998</v>
-      </c>
-      <c r="AM8">
-        <v>0.23369999999999999</v>
+      <c r="AL8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="AN8">
-        <v>0.23369999999999999</v>
-      </c>
-      <c r="AO8" t="s">
+        <v>-0.18540000000000001</v>
+      </c>
+      <c r="AO8" s="32">
+        <v>0.40989999999999999</v>
+      </c>
+      <c r="AP8" s="32">
+        <v>0.40989999999999999</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>35</v>
       </c>
-      <c r="AP8" s="11" t="s">
+      <c r="AR8">
+        <v>2.5358000000000001</v>
+      </c>
+      <c r="AS8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="18">
+    <row r="9" spans="1:45">
       <c r="A9" s="8">
         <v>-9.69E-2</v>
       </c>
@@ -14145,11 +13172,11 @@
       <c r="F9" s="8">
         <v>0.93679999999999997</v>
       </c>
-      <c r="G9" s="8">
-        <v>-0.13569999999999999</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.93730000000000002</v>
+      <c r="G9">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H9">
+        <v>1.1599999999999999</v>
       </c>
       <c r="I9" s="8">
         <v>-0.13300000000000001</v>
@@ -14211,29 +13238,39 @@
       <c r="AB9" s="8">
         <v>0.80049999999999999</v>
       </c>
-      <c r="AC9" s="31"/>
+      <c r="AC9" s="28"/>
       <c r="AD9" s="9"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="10" t="s">
+      <c r="AG9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AL9">
-        <v>-0.32450000000000001</v>
-      </c>
-      <c r="AM9">
-        <v>0.52939999999999998</v>
+      <c r="AL9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM9" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="AN9">
-        <v>0.52939999999999998</v>
-      </c>
-      <c r="AO9" t="s">
+        <v>-0.1293</v>
+      </c>
+      <c r="AO9" s="32">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="AP9" s="32">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>35</v>
       </c>
-      <c r="AP9" s="11" t="s">
+      <c r="AR9">
+        <v>2.5062000000000002</v>
+      </c>
+      <c r="AS9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="18">
+    <row r="10" spans="1:45">
       <c r="A10" s="8">
         <v>-0.19089999999999999</v>
       </c>
@@ -14252,11 +13289,11 @@
       <c r="F10" s="8">
         <v>1.1328</v>
       </c>
-      <c r="G10" s="8">
-        <v>-9.4500000000000001E-2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1.1318999999999999</v>
+      <c r="G10">
+        <v>-0.14280000000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.089</v>
       </c>
       <c r="I10" s="8">
         <v>-9.4100000000000003E-2</v>
@@ -14318,29 +13355,39 @@
       <c r="AB10" s="8">
         <v>1.1084000000000001</v>
       </c>
-      <c r="AC10" s="31"/>
+      <c r="AC10" s="28"/>
       <c r="AD10" s="9"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="10" t="s">
+      <c r="AG10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AL10">
-        <v>-0.13059999999999999</v>
-      </c>
-      <c r="AM10">
-        <v>0.69179999999999997</v>
-      </c>
       <c r="AN10">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AO10" t="s">
+        <v>-0.18770000000000001</v>
+      </c>
+      <c r="AO10" s="32">
+        <v>0.48110000000000003</v>
+      </c>
+      <c r="AP10" s="32">
+        <v>0.48110000000000003</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>35</v>
       </c>
-      <c r="AP10" s="11" t="s">
+      <c r="AR10">
+        <v>2.6139999999999999</v>
+      </c>
+      <c r="AS10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="18">
+    <row r="11" spans="1:45" ht="18">
       <c r="A11" s="8">
         <v>-4.4400000000000002E-2</v>
       </c>
@@ -14359,11 +13406,11 @@
       <c r="F11" s="8">
         <v>1.1680999999999999</v>
       </c>
-      <c r="G11" s="8">
-        <v>-2.0299999999999999E-2</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1.1684000000000001</v>
+      <c r="G11">
+        <v>-0.13589999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.89990000000000003</v>
       </c>
       <c r="I11" s="8">
         <v>-2.12E-2</v>
@@ -14425,25 +13472,12 @@
       <c r="AB11" s="8">
         <v>1.3651</v>
       </c>
-      <c r="AC11" s="31"/>
+      <c r="AC11" s="28"/>
       <c r="AD11" s="9"/>
-      <c r="AK11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL11">
-        <v>-0.13059999999999999</v>
-      </c>
-      <c r="AM11">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AN11">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>35</v>
-      </c>
+      <c r="AH11" s="10"/>
+      <c r="AK11" s="32"/>
     </row>
-    <row r="12" spans="1:42" ht="18">
+    <row r="12" spans="1:45" ht="18">
       <c r="A12" s="8">
         <v>-0.14219999999999999</v>
       </c>
@@ -14462,11 +13496,11 @@
       <c r="F12" s="8">
         <v>1.3291999999999999</v>
       </c>
-      <c r="G12" s="8">
-        <v>-0.1239</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1.3297000000000001</v>
+      <c r="G12">
+        <v>-0.1724</v>
+      </c>
+      <c r="H12">
+        <v>1.5552999999999999</v>
       </c>
       <c r="I12" s="8">
         <v>-0.12280000000000001</v>
@@ -14528,27 +13562,14 @@
       <c r="AB12" s="8">
         <v>1.4365000000000001</v>
       </c>
-      <c r="AC12" s="32" t="s">
+      <c r="AC12" s="29" t="s">
         <v>37</v>
       </c>
       <c r="AD12" s="9"/>
-      <c r="AK12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL12">
-        <v>-0.26450000000000001</v>
-      </c>
-      <c r="AM12">
-        <v>0.74719999999999998</v>
-      </c>
-      <c r="AN12">
-        <v>0.74719999999999998</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>35</v>
-      </c>
+      <c r="AH12" s="10"/>
+      <c r="AK12" s="32"/>
     </row>
-    <row r="13" spans="1:42" ht="18">
+    <row r="13" spans="1:45" ht="18">
       <c r="A13" s="8">
         <v>-0.24610000000000001</v>
       </c>
@@ -14567,11 +13588,11 @@
       <c r="F13" s="8">
         <v>1.3841000000000001</v>
       </c>
-      <c r="G13" s="8">
-        <v>-0.19309999999999999</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1.3849</v>
+      <c r="G13">
+        <v>-0.1552</v>
+      </c>
+      <c r="H13">
+        <v>1.3485</v>
       </c>
       <c r="I13" s="8">
         <v>-0.1903</v>
@@ -14633,25 +13654,12 @@
       <c r="AB13" s="8">
         <v>1.4397</v>
       </c>
-      <c r="AC13" s="32"/>
+      <c r="AC13" s="29"/>
       <c r="AD13" s="9"/>
-      <c r="AK13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL13">
-        <v>-0.26290000000000002</v>
-      </c>
-      <c r="AM13">
-        <v>0.64419999999999999</v>
-      </c>
-      <c r="AN13">
-        <v>0.64419999999999999</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>35</v>
-      </c>
+      <c r="AH13" s="10"/>
+      <c r="AK13" s="32"/>
     </row>
-    <row r="14" spans="1:42" ht="18">
+    <row r="14" spans="1:45" ht="18">
       <c r="A14" s="8">
         <v>-8.3400000000000002E-2</v>
       </c>
@@ -14670,11 +13678,11 @@
       <c r="F14" s="8">
         <v>1.2741</v>
       </c>
-      <c r="G14" s="8">
-        <v>-7.3499999999999996E-2</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1.2745</v>
+      <c r="G14">
+        <v>-9.4100000000000003E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.2976000000000001</v>
       </c>
       <c r="I14" s="8">
         <v>-7.3400000000000007E-2</v>
@@ -14730,31 +13738,18 @@
       <c r="Z14" s="8">
         <v>1.4133</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA14" s="11">
         <v>6.3E-3</v>
       </c>
       <c r="AB14" s="8">
         <v>1.4339999999999999</v>
       </c>
-      <c r="AC14" s="32"/>
+      <c r="AC14" s="29"/>
       <c r="AD14" s="9"/>
-      <c r="AK14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL14">
-        <v>-0.2646</v>
-      </c>
-      <c r="AM14">
-        <v>0.84230000000000005</v>
-      </c>
-      <c r="AN14">
-        <v>0.84230000000000005</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>35</v>
-      </c>
+      <c r="AH14" s="10"/>
+      <c r="AK14" s="32"/>
     </row>
-    <row r="15" spans="1:42" ht="18">
+    <row r="15" spans="1:45" ht="18">
       <c r="A15" s="8">
         <v>-0.22520000000000001</v>
       </c>
@@ -14773,11 +13768,11 @@
       <c r="F15" s="8">
         <v>1.4656</v>
       </c>
-      <c r="G15" s="8">
-        <v>-0.2366</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1.4634</v>
+      <c r="G15">
+        <v>-4.99E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.2498</v>
       </c>
       <c r="I15" s="8">
         <v>-0.2361</v>
@@ -14833,31 +13828,18 @@
       <c r="Z15" s="8">
         <v>1.381</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA15" s="11">
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="AB15" s="8">
         <v>1.4268000000000001</v>
       </c>
-      <c r="AC15" s="32"/>
+      <c r="AC15" s="29"/>
       <c r="AD15" s="9"/>
-      <c r="AK15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL15">
-        <v>-0.26400000000000001</v>
-      </c>
-      <c r="AM15">
-        <v>0.5333</v>
-      </c>
-      <c r="AN15">
-        <v>0.5333</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>35</v>
-      </c>
+      <c r="AH15" s="10"/>
+      <c r="AK15" s="32"/>
     </row>
-    <row r="16" spans="1:42" ht="18">
+    <row r="16" spans="1:45" ht="18">
       <c r="A16" s="8">
         <v>-4.4400000000000002E-2</v>
       </c>
@@ -14876,11 +13858,11 @@
       <c r="F16" s="8">
         <v>1.2193000000000001</v>
       </c>
-      <c r="G16" s="8">
-        <v>-3.9899999999999998E-2</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1.2197</v>
+      <c r="G16">
+        <v>-0.24260000000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.4041999999999999</v>
       </c>
       <c r="I16" s="8">
         <v>-4.0300000000000002E-2</v>
@@ -14942,25 +13924,12 @@
       <c r="AB16" s="8">
         <v>1.4495</v>
       </c>
-      <c r="AC16" s="32"/>
+      <c r="AC16" s="29"/>
       <c r="AD16" s="9"/>
-      <c r="AK16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL16">
-        <v>-8.8900000000000007E-2</v>
-      </c>
-      <c r="AM16">
-        <v>1.0302</v>
-      </c>
-      <c r="AN16">
-        <v>1.0302</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>35</v>
-      </c>
+      <c r="AH16" s="10"/>
+      <c r="AK16" s="32"/>
     </row>
-    <row r="17" spans="1:41" ht="18">
+    <row r="17" spans="1:37" ht="18">
       <c r="A17" s="8">
         <v>-0.22470000000000001</v>
       </c>
@@ -14979,11 +13948,11 @@
       <c r="F17" s="8">
         <v>1.4375</v>
       </c>
-      <c r="G17" s="8">
-        <v>-0.28820000000000001</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1.4387000000000001</v>
+      <c r="G17">
+        <v>-1.9099999999999999E-2</v>
+      </c>
+      <c r="H17">
+        <v>1.2035</v>
       </c>
       <c r="I17" s="8">
         <v>-0.28270000000000001</v>
@@ -15039,31 +14008,18 @@
       <c r="Z17" s="8">
         <v>1.3687</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AA17" s="11">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="AB17" s="8">
         <v>1.4125000000000001</v>
       </c>
-      <c r="AC17" s="32"/>
+      <c r="AC17" s="29"/>
       <c r="AD17" s="9"/>
-      <c r="AK17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL17">
-        <v>-0.26040000000000002</v>
-      </c>
-      <c r="AM17">
-        <v>0.93169999999999997</v>
-      </c>
-      <c r="AN17">
-        <v>0.93169999999999997</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>35</v>
-      </c>
+      <c r="AH17" s="10"/>
+      <c r="AK17" s="32"/>
     </row>
-    <row r="18" spans="1:41" ht="18">
+    <row r="18" spans="1:37" ht="18">
       <c r="A18" s="8">
         <v>-2.1399999999999999E-2</v>
       </c>
@@ -15082,11 +14038,11 @@
       <c r="F18" s="8">
         <v>1.1680999999999999</v>
       </c>
-      <c r="G18" s="8">
-        <v>-2.0299999999999999E-2</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1.1684000000000001</v>
+      <c r="G18">
+        <v>-0.14929999999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.2431000000000001</v>
       </c>
       <c r="I18" s="8">
         <v>-2.12E-2</v>
@@ -15148,25 +14104,12 @@
       <c r="AB18" s="8">
         <v>1.4694</v>
       </c>
-      <c r="AC18" s="32"/>
+      <c r="AC18" s="29"/>
       <c r="AD18" s="9"/>
-      <c r="AK18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL18">
-        <v>-0.32450000000000001</v>
-      </c>
-      <c r="AM18">
-        <v>0.52939999999999998</v>
-      </c>
-      <c r="AN18">
-        <v>0.52939999999999998</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>35</v>
-      </c>
+      <c r="AH18" s="10"/>
+      <c r="AK18" s="32"/>
     </row>
-    <row r="19" spans="1:41" ht="18">
+    <row r="19" spans="1:37" ht="18">
       <c r="A19" s="8">
         <v>-9.69E-2</v>
       </c>
@@ -15185,11 +14128,11 @@
       <c r="F19" s="8">
         <v>1.1974</v>
       </c>
-      <c r="G19" s="8">
-        <v>-0.17979999999999999</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1.1958</v>
+      <c r="G19">
+        <v>-0.1822</v>
+      </c>
+      <c r="H19">
+        <v>1.2532000000000001</v>
       </c>
       <c r="I19" s="8">
         <v>-0.17349999999999999</v>
@@ -15245,31 +14188,18 @@
       <c r="Z19" s="8">
         <v>1.2994000000000001</v>
       </c>
-      <c r="AA19" s="12">
+      <c r="AA19" s="11">
         <v>2.3E-3</v>
       </c>
       <c r="AB19" s="8">
         <v>1.3924000000000001</v>
       </c>
-      <c r="AC19" s="32"/>
+      <c r="AC19" s="29"/>
       <c r="AD19" s="9"/>
-      <c r="AK19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL19">
-        <v>-0.26869999999999999</v>
-      </c>
-      <c r="AM19">
-        <v>0.4158</v>
-      </c>
-      <c r="AN19">
-        <v>0.4158</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>35</v>
-      </c>
+      <c r="AH19" s="10"/>
+      <c r="AK19" s="32"/>
     </row>
-    <row r="20" spans="1:41" ht="18">
+    <row r="20" spans="1:37" ht="18">
       <c r="A20" s="8">
         <v>-0.34810000000000002</v>
       </c>
@@ -15288,11 +14218,11 @@
       <c r="F20" s="8">
         <v>1.7748999999999999</v>
       </c>
-      <c r="G20" s="8">
-        <v>-0.24640000000000001</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1.7737000000000001</v>
+      <c r="G20">
+        <v>-0.16009999999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.7910999999999999</v>
       </c>
       <c r="I20" s="8">
         <v>-0.2445</v>
@@ -15354,25 +14284,12 @@
       <c r="AB20" s="8">
         <v>1.5001</v>
       </c>
-      <c r="AC20" s="32"/>
+      <c r="AC20" s="29"/>
       <c r="AD20" s="9"/>
-      <c r="AK20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL20">
-        <v>-0.25130000000000002</v>
-      </c>
-      <c r="AM20">
-        <v>1.0155000000000001</v>
-      </c>
-      <c r="AN20">
-        <v>1.0155000000000001</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>35</v>
-      </c>
+      <c r="AH20" s="10"/>
+      <c r="AK20" s="32"/>
     </row>
-    <row r="21" spans="1:41" ht="18">
+    <row r="21" spans="1:37" ht="18">
       <c r="A21" s="8">
         <v>-7.9000000000000008E-3</v>
       </c>
@@ -15391,11 +14308,11 @@
       <c r="F21" s="8">
         <v>1.1218999999999999</v>
       </c>
-      <c r="G21" s="8">
-        <v>-9.4000000000000004E-3</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1.1222000000000001</v>
+      <c r="G21">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H21">
+        <v>1.1599999999999999</v>
       </c>
       <c r="I21" s="8">
         <v>-1.0500000000000001E-2</v>
@@ -15457,14 +14374,11 @@
       <c r="AB21" s="8">
         <v>1.3651</v>
       </c>
-      <c r="AC21" s="32"/>
+      <c r="AC21" s="29"/>
       <c r="AD21" s="9"/>
-      <c r="AI21" s="10"/>
-      <c r="AK21" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="AK21" s="10"/>
     </row>
-    <row r="22" spans="1:41" ht="18">
+    <row r="22" spans="1:37" ht="18">
       <c r="A22" s="8">
         <v>-0.20530000000000001</v>
       </c>
@@ -15483,11 +14397,11 @@
       <c r="F22" s="8">
         <v>2.1349</v>
       </c>
-      <c r="G22" s="8">
-        <v>-0.2261</v>
-      </c>
-      <c r="H22" s="8">
-        <v>2.1333000000000002</v>
+      <c r="G22">
+        <v>-0.13089999999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.8728</v>
       </c>
       <c r="I22" s="8">
         <v>-0.22900000000000001</v>
@@ -15549,15 +14463,12 @@
       <c r="AB22" s="8">
         <v>2.0299</v>
       </c>
-      <c r="AC22" s="31" t="s">
+      <c r="AC22" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AI22" s="10"/>
-      <c r="AK22" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="AK22" s="10"/>
     </row>
-    <row r="23" spans="1:41" ht="18">
+    <row r="23" spans="1:37" ht="18">
       <c r="A23" s="8">
         <v>-0.25950000000000001</v>
       </c>
@@ -15576,11 +14487,11 @@
       <c r="F23" s="8">
         <v>1.7748999999999999</v>
       </c>
-      <c r="G23" s="8">
-        <v>-0.24640000000000001</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1.7737000000000001</v>
+      <c r="G23">
+        <v>-0.219</v>
+      </c>
+      <c r="H23">
+        <v>2.1124999999999998</v>
       </c>
       <c r="I23" s="8">
         <v>-0.2445</v>
@@ -15642,13 +14553,10 @@
       <c r="AB23" s="8">
         <v>1.7568999999999999</v>
       </c>
-      <c r="AC23" s="31"/>
-      <c r="AI23" s="10"/>
-      <c r="AK23" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="AC23" s="28"/>
+      <c r="AK23" s="10"/>
     </row>
-    <row r="24" spans="1:41" ht="18">
+    <row r="24" spans="1:37" ht="18">
       <c r="A24" s="8">
         <v>-0.34949999999999998</v>
       </c>
@@ -15667,11 +14575,11 @@
       <c r="F24" s="8">
         <v>1.9397</v>
       </c>
-      <c r="G24" s="8">
-        <v>-0.3422</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1.9400999999999999</v>
+      <c r="G24">
+        <v>-0.16009999999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.7910999999999999</v>
       </c>
       <c r="I24" s="8">
         <v>-0.34100000000000003</v>
@@ -15733,13 +14641,10 @@
       <c r="AB24" s="8">
         <v>1.77</v>
       </c>
-      <c r="AC24" s="31"/>
-      <c r="AI24" s="10"/>
-      <c r="AK24" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="AC24" s="28"/>
+      <c r="AK24" s="10"/>
     </row>
-    <row r="25" spans="1:41" ht="18">
+    <row r="25" spans="1:37" ht="18">
       <c r="A25" s="8">
         <v>-0.35120000000000001</v>
       </c>
@@ -15758,11 +14663,11 @@
       <c r="F25" s="8">
         <v>1.772</v>
       </c>
-      <c r="G25" s="8">
-        <v>-0.31540000000000001</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1.7704</v>
+      <c r="G25">
+        <v>-0.1517</v>
+      </c>
+      <c r="H25">
+        <v>2.2915999999999999</v>
       </c>
       <c r="I25" s="8">
         <v>-0.31130000000000002</v>
@@ -15824,12 +14729,10 @@
       <c r="AB25" s="8">
         <v>1.7504</v>
       </c>
-      <c r="AC25" s="31"/>
-      <c r="AK25" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="AC25" s="28"/>
+      <c r="AK25" s="10"/>
     </row>
-    <row r="26" spans="1:41" ht="18">
+    <row r="26" spans="1:37" ht="18">
       <c r="A26" s="8">
         <v>-0.24610000000000001</v>
       </c>
@@ -15848,11 +14751,11 @@
       <c r="F26" s="8">
         <v>2.4498000000000002</v>
       </c>
-      <c r="G26" s="8">
-        <v>-0.26769999999999999</v>
-      </c>
-      <c r="H26" s="8">
-        <v>2.4479000000000002</v>
+      <c r="G26">
+        <v>-0.31369999999999998</v>
+      </c>
+      <c r="H26">
+        <v>1.8727</v>
       </c>
       <c r="I26" s="8">
         <v>-0.27400000000000002</v>
@@ -15914,12 +14817,10 @@
       <c r="AB26" s="8">
         <v>1.9374</v>
       </c>
-      <c r="AC26" s="31"/>
-      <c r="AK26" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="AC26" s="28"/>
+      <c r="AK26" s="10"/>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:37">
       <c r="A27" s="8">
         <v>-0.21659999999999999</v>
       </c>
@@ -15938,11 +14839,11 @@
       <c r="F27" s="8">
         <v>1.4656</v>
       </c>
-      <c r="G27" s="8">
-        <v>-0.2366</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1.4634</v>
+      <c r="G27">
+        <v>-0.1724</v>
+      </c>
+      <c r="H27">
+        <v>1.5552999999999999</v>
       </c>
       <c r="I27" s="8">
         <v>-0.3931</v>
@@ -15998,15 +14899,15 @@
       <c r="Z27" s="8">
         <v>1.0242</v>
       </c>
-      <c r="AA27" s="12">
+      <c r="AA27" s="11">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="AB27" s="8">
         <v>1.7364999999999999</v>
       </c>
-      <c r="AC27" s="31"/>
+      <c r="AC27" s="28"/>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:37">
       <c r="A28" s="8">
         <v>-0.43569999999999998</v>
       </c>
@@ -16025,11 +14926,11 @@
       <c r="F28" s="8">
         <v>1.5579000000000001</v>
       </c>
-      <c r="G28" s="8">
-        <v>-0.39689999999999998</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1.5598000000000001</v>
+      <c r="G28">
+        <v>-0.30740000000000001</v>
+      </c>
+      <c r="H28">
+        <v>2.3685</v>
       </c>
       <c r="I28" s="8">
         <v>-0.2361</v>
@@ -16091,9 +14992,9 @@
       <c r="AB28" s="8">
         <v>1.7338</v>
       </c>
-      <c r="AC28" s="31"/>
+      <c r="AC28" s="28"/>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:37">
       <c r="A29" s="8">
         <v>-0.37219999999999998</v>
       </c>
@@ -16112,11 +15013,11 @@
       <c r="F29" s="8">
         <v>2.4994999999999998</v>
       </c>
-      <c r="G29" s="8">
-        <v>-0.34350000000000003</v>
-      </c>
-      <c r="H29" s="8">
-        <v>2.4982000000000002</v>
+      <c r="G29">
+        <v>-0.2402</v>
+      </c>
+      <c r="H29">
+        <v>2.5358000000000001</v>
       </c>
       <c r="I29" s="8">
         <v>-0.34050000000000002</v>
@@ -16178,9 +15079,9 @@
       <c r="AB29" s="8">
         <v>1.6536</v>
       </c>
-      <c r="AC29" s="31"/>
+      <c r="AC29" s="28"/>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:37">
       <c r="A30" s="8">
         <v>-0.22520000000000001</v>
       </c>
@@ -16199,11 +15100,11 @@
       <c r="F30" s="8">
         <v>1.4375</v>
       </c>
-      <c r="G30" s="8">
-        <v>-0.28820000000000001</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1.4387000000000001</v>
+      <c r="G30">
+        <v>-0.32379999999999998</v>
+      </c>
+      <c r="H30">
+        <v>2.5062000000000002</v>
       </c>
       <c r="I30" s="8">
         <v>-0.28270000000000001</v>
@@ -16265,9 +15166,9 @@
       <c r="AB30" s="8">
         <v>1.6648000000000001</v>
       </c>
-      <c r="AC30" s="31"/>
+      <c r="AC30" s="28"/>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:37">
       <c r="A31" s="8">
         <v>-0.34810000000000002</v>
       </c>
@@ -16286,11 +15187,11 @@
       <c r="F31" s="8">
         <v>1.3841000000000001</v>
       </c>
-      <c r="G31" s="8">
-        <v>-0.19309999999999999</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1.3849</v>
+      <c r="G31">
+        <v>-0.1452</v>
+      </c>
+      <c r="H31">
+        <v>2.6139999999999999</v>
       </c>
       <c r="I31" s="8">
         <v>-0.1903</v>
@@ -16352,9 +15253,9 @@
       <c r="AB31" s="8">
         <v>1.88</v>
       </c>
-      <c r="AC31" s="31"/>
+      <c r="AC31" s="28"/>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:37">
       <c r="A32" s="8">
         <v>-0.1166</v>
       </c>
@@ -16373,11 +15274,11 @@
       <c r="F32" s="8">
         <v>0.3916</v>
       </c>
-      <c r="G32" s="8">
-        <v>-0.1113</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0.39019999999999999</v>
+      <c r="G32">
+        <v>-3.1399999999999997E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.64870000000000005</v>
       </c>
       <c r="I32" s="8">
         <v>-0.1142</v>
@@ -16433,7 +15334,7 @@
       <c r="AB32" s="8">
         <v>0.30359999999999998</v>
       </c>
-      <c r="AC32" s="32" t="s">
+      <c r="AC32" s="29" t="s">
         <v>39</v>
       </c>
     </row>
@@ -16456,11 +15357,11 @@
       <c r="F33" s="8">
         <v>0.23089999999999999</v>
       </c>
-      <c r="G33" s="8">
-        <v>-0.1343</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0.22919999999999999</v>
+      <c r="G33">
+        <v>-2E-3</v>
+      </c>
+      <c r="H33">
+        <v>0.77600000000000002</v>
       </c>
       <c r="I33" s="8">
         <v>-0.13619999999999999</v>
@@ -16516,7 +15417,7 @@
       <c r="AB33" s="8">
         <v>0.43640000000000001</v>
       </c>
-      <c r="AC33" s="32"/>
+      <c r="AC33" s="29"/>
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="8">
@@ -16537,11 +15438,11 @@
       <c r="F34" s="8">
         <v>0.42520000000000002</v>
       </c>
-      <c r="G34" s="8">
-        <v>-0.10879999999999999</v>
-      </c>
-      <c r="H34" s="8">
-        <v>0.42509999999999998</v>
+      <c r="G34">
+        <v>-9.0700000000000003E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.58450000000000002</v>
       </c>
       <c r="I34" s="8">
         <v>-0.1172</v>
@@ -16585,19 +15486,15 @@
       <c r="V34" s="8">
         <v>0.312</v>
       </c>
-      <c r="W34" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="X34" s="8">
-        <v>0</v>
-      </c>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
       <c r="AA34" s="8">
         <v>-0.24310000000000001</v>
       </c>
       <c r="AB34" s="8">
         <v>0.15959999999999999</v>
       </c>
-      <c r="AC34" s="32"/>
+      <c r="AC34" s="29"/>
     </row>
     <row r="35" spans="1:29">
       <c r="A35" s="8">
@@ -16618,11 +15515,11 @@
       <c r="F35" s="8">
         <v>0.27029999999999998</v>
       </c>
-      <c r="G35" s="8">
-        <v>-0.1769</v>
-      </c>
-      <c r="H35" s="8">
-        <v>0.27229999999999999</v>
+      <c r="G35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.85799999999999998</v>
       </c>
       <c r="I35" s="8">
         <v>-0.17730000000000001</v>
@@ -16666,19 +15563,11 @@
       <c r="V35" s="8">
         <v>0.46329999999999999</v>
       </c>
-      <c r="W35" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="X35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="AB35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="32"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="29"/>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="8">
@@ -16699,11 +15588,11 @@
       <c r="F36" s="8">
         <v>0.36430000000000001</v>
       </c>
-      <c r="G36" s="8">
-        <v>-0.1862</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0.3664</v>
+      <c r="G36">
+        <v>-0.1623</v>
+      </c>
+      <c r="H36">
+        <v>0.70099999999999996</v>
       </c>
       <c r="I36" s="8">
         <v>-0.18659999999999999</v>
@@ -16741,25 +15630,13 @@
       <c r="T36" s="8">
         <v>0.497</v>
       </c>
-      <c r="U36" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="V36" s="8">
-        <v>0</v>
-      </c>
-      <c r="W36" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="X36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="AB36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="32"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="29"/>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="8">
@@ -16780,11 +15657,11 @@
       <c r="F37" s="8">
         <v>0.1678</v>
       </c>
-      <c r="G37" s="8">
-        <v>-0.1673</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0.16969999999999999</v>
+      <c r="G37">
+        <v>-0.14599999999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.78080000000000005</v>
       </c>
       <c r="I37" s="8">
         <v>-0.16789999999999999</v>
@@ -16822,25 +15699,17 @@
       <c r="T37" s="8">
         <v>0.1245</v>
       </c>
-      <c r="U37" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="V37" s="8">
-        <v>0</v>
-      </c>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
       <c r="W37" s="8">
         <v>-0.2944</v>
       </c>
       <c r="X37" s="8">
         <v>0.13739999999999999</v>
       </c>
-      <c r="AA37" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="AB37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="32"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="29"/>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="8">
@@ -16861,11 +15730,11 @@
       <c r="F38" s="8">
         <v>0.4486</v>
       </c>
-      <c r="G38" s="8">
-        <v>-0.19420000000000001</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0.45079999999999998</v>
+      <c r="G38">
+        <v>-0.17449999999999999</v>
+      </c>
+      <c r="H38">
+        <v>0.625</v>
       </c>
       <c r="I38" s="8">
         <v>-0.19470000000000001</v>
@@ -16897,12 +15766,8 @@
       <c r="R38" s="8">
         <v>0.53249999999999997</v>
       </c>
-      <c r="S38" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="T38" s="8">
-        <v>0</v>
-      </c>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
       <c r="U38" s="8">
         <v>-0.27010000000000001</v>
       </c>
@@ -16921,7 +15786,7 @@
       <c r="AB38" s="8">
         <v>0.30719999999999997</v>
       </c>
-      <c r="AC38" s="32"/>
+      <c r="AC38" s="29"/>
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="8">
@@ -16942,11 +15807,11 @@
       <c r="F39" s="8">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="G39" s="8">
-        <v>-0.1416</v>
-      </c>
-      <c r="H39" s="8">
-        <v>8.0299999999999996E-2</v>
+      <c r="G39">
+        <v>-0.12989999999999999</v>
+      </c>
+      <c r="H39">
+        <v>0.86880000000000002</v>
       </c>
       <c r="I39" s="8">
         <v>-0.14280000000000001</v>
@@ -16978,12 +15843,8 @@
       <c r="R39" s="8">
         <v>0.42770000000000002</v>
       </c>
-      <c r="S39" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="T39" s="8">
-        <v>0</v>
-      </c>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
       <c r="U39" s="8">
         <v>-0.2326</v>
       </c>
@@ -17002,7 +15863,7 @@
       <c r="AB39" s="8">
         <v>0.56810000000000005</v>
       </c>
-      <c r="AC39" s="32"/>
+      <c r="AC39" s="29"/>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="8">
@@ -17023,11 +15884,11 @@
       <c r="F40" s="8">
         <v>0.57010000000000005</v>
       </c>
-      <c r="G40" s="8">
-        <v>-8.7599999999999997E-2</v>
-      </c>
-      <c r="H40" s="8">
-        <v>0.56910000000000005</v>
+      <c r="G40">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.4919</v>
       </c>
       <c r="I40" s="8">
         <v>-9.0899999999999995E-2</v>
@@ -17053,12 +15914,8 @@
       <c r="P40" s="8">
         <v>0.4985</v>
       </c>
-      <c r="Q40" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="R40" s="8">
-        <v>0</v>
-      </c>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
       <c r="S40" s="8">
         <v>-0.2205</v>
       </c>
@@ -17083,15 +15940,11 @@
       <c r="AB40" s="8">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="AC40" s="32"/>
+      <c r="AC40" s="29"/>
     </row>
     <row r="41" spans="1:29">
-      <c r="A41" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="B41" s="8">
-        <v>0</v>
-      </c>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="8">
         <v>-7.6899999999999996E-2</v>
       </c>
@@ -17104,11 +15957,11 @@
       <c r="F41" s="8">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="G41" s="8">
-        <v>-0.1542</v>
-      </c>
-      <c r="H41" s="8">
-        <v>5.5E-2</v>
+      <c r="G41">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="H41">
+        <v>0.92369999999999997</v>
       </c>
       <c r="I41" s="8">
         <v>-0.155</v>
@@ -17134,12 +15987,8 @@
       <c r="P41" s="8">
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="Q41" s="8">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="R41" s="8">
-        <v>0</v>
-      </c>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
       <c r="S41" s="8">
         <v>-0.3029</v>
       </c>
@@ -17164,7 +16013,7 @@
       <c r="AB41" s="8">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="AC41" s="32"/>
+      <c r="AC41" s="29"/>
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="8">
@@ -17185,11 +16034,11 @@
       <c r="F42" s="8">
         <v>0.65910000000000002</v>
       </c>
-      <c r="G42" s="8">
-        <v>-7.7299999999999994E-2</v>
-      </c>
-      <c r="H42" s="8">
-        <v>0.65900000000000003</v>
+      <c r="G42">
+        <v>-0.10290000000000001</v>
+      </c>
+      <c r="H42" s="32">
+        <v>0.34949999999999998</v>
       </c>
       <c r="I42" s="8">
         <v>-8.4400000000000003E-2</v>
@@ -17245,7 +16094,7 @@
       <c r="AB42" s="8">
         <v>0.72950000000000004</v>
       </c>
-      <c r="AC42" s="31" t="s">
+      <c r="AC42" s="28" t="s">
         <v>40</v>
       </c>
     </row>
@@ -17268,11 +16117,11 @@
       <c r="F43" s="8">
         <v>0.78129999999999999</v>
       </c>
-      <c r="G43" s="8">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0.78120000000000001</v>
+      <c r="G43">
+        <v>-7.9799999999999996E-2</v>
+      </c>
+      <c r="H43" s="32">
+        <v>0.41620000000000001</v>
       </c>
       <c r="I43" s="8">
         <v>-5.16E-2</v>
@@ -17328,7 +16177,7 @@
       <c r="AB43" s="8">
         <v>0.68710000000000004</v>
       </c>
-      <c r="AC43" s="31"/>
+      <c r="AC43" s="28"/>
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="8">
@@ -17349,11 +16198,11 @@
       <c r="F44" s="8">
         <v>0.74270000000000003</v>
       </c>
-      <c r="G44" s="8">
-        <v>-9.2499999999999999E-2</v>
-      </c>
-      <c r="H44" s="8">
-        <v>0.7419</v>
+      <c r="G44">
+        <v>-0.12230000000000001</v>
+      </c>
+      <c r="H44" s="32">
+        <v>0.2089</v>
       </c>
       <c r="I44" s="8">
         <v>-9.3200000000000005E-2</v>
@@ -17409,7 +16258,7 @@
       <c r="AB44" s="8">
         <v>0.95430000000000004</v>
       </c>
-      <c r="AC44" s="31"/>
+      <c r="AC44" s="28"/>
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="8">
@@ -17430,11 +16279,11 @@
       <c r="F45" s="8">
         <v>0.57010000000000005</v>
       </c>
-      <c r="G45" s="8">
-        <v>-8.7599999999999997E-2</v>
-      </c>
-      <c r="H45" s="8">
-        <v>0.56910000000000005</v>
+      <c r="G45">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="H45" s="32">
+        <v>0.24709999999999999</v>
       </c>
       <c r="I45" s="8">
         <v>-9.0899999999999995E-2</v>
@@ -17490,7 +16339,7 @@
       <c r="AB45" s="8">
         <v>0.56810000000000005</v>
       </c>
-      <c r="AC45" s="31"/>
+      <c r="AC45" s="28"/>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="8">
@@ -17511,11 +16360,11 @@
       <c r="F46" s="8">
         <v>0.86119999999999997</v>
       </c>
-      <c r="G46" s="8">
-        <v>-2.6200000000000001E-2</v>
-      </c>
-      <c r="H46" s="8">
-        <v>0.86109999999999998</v>
+      <c r="G46">
+        <v>-0.17710000000000001</v>
+      </c>
+      <c r="H46" s="32">
+        <v>0.33289999999999997</v>
       </c>
       <c r="I46" s="8">
         <v>-3.0700000000000002E-2</v>
@@ -17571,7 +16420,7 @@
       <c r="AB46" s="8">
         <v>0.80049999999999999</v>
       </c>
-      <c r="AC46" s="31"/>
+      <c r="AC46" s="28"/>
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="8">
@@ -17592,11 +16441,11 @@
       <c r="F47" s="8">
         <v>0.75939999999999996</v>
       </c>
-      <c r="G47" s="8">
-        <v>-0.1656</v>
-      </c>
-      <c r="H47" s="8">
-        <v>0.76090000000000002</v>
+      <c r="G47">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="H47" s="32">
+        <v>0.4919</v>
       </c>
       <c r="I47" s="8">
         <v>-0.1651</v>
@@ -17652,7 +16501,7 @@
       <c r="AB47" s="8">
         <v>0.43640000000000001</v>
       </c>
-      <c r="AC47" s="31"/>
+      <c r="AC47" s="28"/>
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="8">
@@ -17673,11 +16522,11 @@
       <c r="F48" s="8">
         <v>0.67900000000000005</v>
       </c>
-      <c r="G48" s="8">
-        <v>-0.1797</v>
-      </c>
-      <c r="H48" s="8">
-        <v>0.68079999999999996</v>
+      <c r="G48">
+        <v>-0.15629999999999999</v>
+      </c>
+      <c r="H48" s="32">
+        <v>0.15340000000000001</v>
       </c>
       <c r="I48" s="8">
         <v>-0.1799</v>
@@ -17733,7 +16582,7 @@
       <c r="AB48" s="8">
         <v>0.90980000000000005</v>
       </c>
-      <c r="AC48" s="31"/>
+      <c r="AC48" s="28"/>
     </row>
     <row r="49" spans="1:29">
       <c r="A49" s="8">
@@ -17754,11 +16603,11 @@
       <c r="F49" s="8">
         <v>0.84330000000000005</v>
       </c>
-      <c r="G49" s="8">
-        <v>-0.1489</v>
-      </c>
-      <c r="H49" s="8">
-        <v>0.84430000000000005</v>
+      <c r="G49">
+        <v>-0.18540000000000001</v>
+      </c>
+      <c r="H49" s="32">
+        <v>0.40989999999999999</v>
       </c>
       <c r="I49" s="8">
         <v>-0.14749999999999999</v>
@@ -17814,7 +16663,7 @@
       <c r="AB49" s="8">
         <v>1.0486</v>
       </c>
-      <c r="AC49" s="31"/>
+      <c r="AC49" s="28"/>
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="8">
@@ -17835,11 +16684,11 @@
       <c r="F50" s="8">
         <v>0.60119999999999996</v>
       </c>
-      <c r="G50" s="8">
-        <v>-0.19059999999999999</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0.60319999999999996</v>
+      <c r="G50">
+        <v>-0.1293</v>
+      </c>
+      <c r="H50" s="32">
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="I50" s="8">
         <v>-0.19120000000000001</v>
@@ -17895,7 +16744,7 @@
       <c r="AB50" s="8">
         <v>1.012</v>
       </c>
-      <c r="AC50" s="31"/>
+      <c r="AC50" s="28"/>
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="8">
@@ -17916,11 +16765,11 @@
       <c r="F51" s="8">
         <v>0.92469999999999997</v>
       </c>
-      <c r="G51" s="8">
-        <v>-8.6999999999999994E-3</v>
-      </c>
-      <c r="H51" s="8">
-        <v>0.92459999999999998</v>
+      <c r="G51">
+        <v>-0.18770000000000001</v>
+      </c>
+      <c r="H51" s="32">
+        <v>0.48110000000000003</v>
       </c>
       <c r="I51" s="8">
         <v>-1.21E-2</v>
@@ -17976,20 +16825,10 @@
       <c r="AB51" s="8">
         <v>0.30359999999999998</v>
       </c>
-      <c r="AC51" s="31"/>
+      <c r="AC51" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC2:AC11"/>
-    <mergeCell ref="AC12:AC21"/>
-    <mergeCell ref="AC22:AC31"/>
-    <mergeCell ref="AC32:AC41"/>
-    <mergeCell ref="AC42:AC51"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:B1"/>
@@ -17999,8 +16838,47 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AC11"/>
+    <mergeCell ref="AC12:AC21"/>
+    <mergeCell ref="AC22:AC31"/>
+    <mergeCell ref="AC32:AC41"/>
+    <mergeCell ref="AC42:AC51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F20E5F-3D36-9C46-9CAF-0042F3D18B7F}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <f>LN(1000)</f>
+        <v>6.9077552789821368</v>
+      </c>
+      <c r="B1">
+        <f>A1/(6000*0.00002)</f>
+        <v>57.564627324851138</v>
+      </c>
+      <c r="C1">
+        <f>B1/1680</f>
+        <v>3.4264659121935201E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5742E8-F7DD-D140-B168-81C4E5EDCD77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67E38A5-F6C4-F24D-8D84-6CF545BA805C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
@@ -17,14 +17,6 @@
     <sheet name="eigenvalues-drdv" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'eigenvalues-drdv'!$O$54:$O$69</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'eigenvalues-drdv'!$P$54:$P$69</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'eigenvalues-drdv'!$O$54:$O$69</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'eigenvalues-drdv'!$P$54:$P$69</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'eigenvalues-drdv'!$O$54:$O$69</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'eigenvalues-drdv'!$P$54:$P$69</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="44">
   <si>
     <t>pr</t>
   </si>
@@ -203,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,6 +267,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Courier"/>
       <family val="1"/>
@@ -383,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -456,6 +454,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,9 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +490,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF2600"/>
       <color rgb="FFED7D31"/>
-      <color rgb="FFFF2600"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3775,7 +3777,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eigenvalues-drdv'!$AC$1:$AD$1</c:f>
+              <c:f>'eigenvalues-drdv'!$AE$1:$AF$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3808,7 +3810,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'eigenvalues-drdv'!$AC$2:$AC$51</c:f>
+              <c:f>'eigenvalues-drdv'!$AE$2:$AE$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3902,12 +3904,66 @@
                 <c:pt idx="29">
                   <c:v>-0.15540000000000001</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1595</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.24260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.19839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.24229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.2382</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.28050000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.2135</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.2195</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.1764</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.22470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.21879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.23100000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'eigenvalues-drdv'!$AD$2:$AD$51</c:f>
+              <c:f>'eigenvalues-drdv'!$AF$2:$AF$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4000,6 +4056,60 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.5160999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.55810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.87570000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.8427</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77470000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.84899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70640000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5181</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.27739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4642</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1857</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.41649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1091</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4016,7 +4126,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eigenvalues-drdv'!$AE$1:$AF$1</c:f>
+              <c:f>'eigenvalues-drdv'!$AG$1:$AH$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4052,7 +4162,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'eigenvalues-drdv'!$AE$2:$AE$51</c:f>
+              <c:f>'eigenvalues-drdv'!$AG$2:$AG$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4205,7 +4315,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'eigenvalues-drdv'!$AF$2:$AF$51</c:f>
+              <c:f>'eigenvalues-drdv'!$AH$2:$AH$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4368,7 +4478,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eigenvalues-drdv'!$AG$1:$AH$1</c:f>
+              <c:f>'eigenvalues-drdv'!$AI$1:$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4404,7 +4514,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'eigenvalues-drdv'!$AG$2:$AG$51</c:f>
+              <c:f>'eigenvalues-drdv'!$AI$2:$AI$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4557,7 +4667,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'eigenvalues-drdv'!$AH$2:$AH$51</c:f>
+              <c:f>'eigenvalues-drdv'!$AJ$2:$AJ$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4720,7 +4830,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eigenvalues-drdv'!$AI$1:$AJ$1</c:f>
+              <c:f>'eigenvalues-drdv'!$AK$1:$AL$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4756,7 +4866,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'eigenvalues-drdv'!$AI$2:$AI$51</c:f>
+              <c:f>'eigenvalues-drdv'!$AK$2:$AK$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4909,7 +5019,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'eigenvalues-drdv'!$AJ$2:$AJ$51</c:f>
+              <c:f>'eigenvalues-drdv'!$AL$2:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5072,7 +5182,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eigenvalues-drdv'!$AK$1:$AL$1</c:f>
+              <c:f>'eigenvalues-drdv'!$AM$1:$AN$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5107,7 +5217,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'eigenvalues-drdv'!$AK$2:$AK$51</c:f>
+              <c:f>'eigenvalues-drdv'!$AM$2:$AM$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5260,7 +5370,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'eigenvalues-drdv'!$AL$2:$AL$51</c:f>
+              <c:f>'eigenvalues-drdv'!$AN$2:$AN$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5423,7 +5533,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eigenvalues-drdv'!$AM$1:$AN$1</c:f>
+              <c:f>'eigenvalues-drdv'!$AO$1:$AP$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5458,7 +5568,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'eigenvalues-drdv'!$AM$2:$AM$51</c:f>
+              <c:f>'eigenvalues-drdv'!$AO$2:$AO$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5611,7 +5721,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'eigenvalues-drdv'!$AN$2:$AN$51</c:f>
+              <c:f>'eigenvalues-drdv'!$AP$2:$AP$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5919,10 +6029,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.83725387698205267"/>
-          <c:y val="1.0975675238451903E-2"/>
+          <c:x val="0.78428697376242185"/>
+          <c:y val="4.2228288914018842E-2"/>
           <c:w val="0.14711708349296757"/>
-          <c:h val="0.45505624049284604"/>
+          <c:h val="0.39976322991647173"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6372,6 +6482,2142 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5801778866587931E-2"/>
+          <c:y val="2.9165352697534536E-2"/>
+          <c:w val="0.84942970175643351"/>
+          <c:h val="0.89005244915828707"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eigenvalues-drdv'!$Y$1:$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.7kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2600"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$Y$2:$Y$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-1.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.1500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.18870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.15620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.2700000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.15340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.1638</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.5800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.2334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.1535</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.14319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.1288</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.1535</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.36559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.307</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.1638</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.2616</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.2334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.32640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.1371</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.104</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.20319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.15620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.24329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.245</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.23710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.1500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.1971</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.2127</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.17169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.20380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.21959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.104</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.28439999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$Z$2:$Z$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89380000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1363000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0481</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0946</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4077</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3617999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5444</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2726999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5165</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6932</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2281</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1835</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8352999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0184000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2231999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6932</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3208000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5444</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5165</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5682</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.80559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.55559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.66959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.89380000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.87339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.76419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.60260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.25890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30370000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.18509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.4113</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.42420000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A664-0D45-A63B-D27B25BFB6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eigenvalues-drdv'!$AA$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.6kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$AA$2:$AA$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-2.7300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.0199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.14729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1275</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.18160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1578</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.8900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.4600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.15229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.1593</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.3199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.14560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.2382</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.1366</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.12790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.14560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.35970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.29920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.15229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.25850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.2382</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.29980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.9099999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.16470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.1085</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.1578</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.24340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.24429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.2379</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.24049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6.0199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.2046</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.216</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.1739</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.2082</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.22220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9.9099999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.2112</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.22969999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$AB$2:$AB$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0371999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97609999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0076000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1862999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4037999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3585</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5464</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4557</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3152999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.272</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6811</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5157</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2291000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1862999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8230999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2136</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6811</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3108</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4546999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5157</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4489000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.55649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8226</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.87429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6865</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.69179999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77059999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.60780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97609999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.26679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30620000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4491</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1862</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.4148</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1038</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51570000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A664-0D45-A63B-D27B25BFB6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eigenvalues-drdv'!$AC$1:$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$AC$2:$AC$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-3.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.1599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.44E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.15859999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$AD$2:$AD$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98240000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0943000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0423</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0859000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0063</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-A664-0D45-A63B-D27B25BFB6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eigenvalues-drdv'!$AE$1:$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.5kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$AE$2:$AE$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-4.7300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.3299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.13420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.11609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.16969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.13880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1079</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.4399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.16739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.4099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.13450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.5299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.2445</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.12640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.22770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.12640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.13450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.28939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.34910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.13880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.25480000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.29289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.15540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1595</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.24260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.19839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.24229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.2382</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.28050000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.2135</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.2195</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.1764</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.22470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.21879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.23100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$AF$2:$AF$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0974999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0828</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1446000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0044999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87570000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3960999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3514999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4492</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3098000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.669</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2685999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5124</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2279</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0154999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2021999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.669</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3001999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7565</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4504999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4357000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5160999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.55810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.87570000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.8427</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77470000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.84899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70640000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5181</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.27739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4642</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1857</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.41649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1091</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A664-0D45-A63B-D27B25BFB6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eigenvalues-drdv'!$AG$1:$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.4kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$AG$2:$AG$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-6.6799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.1099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.12089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.10489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.58E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.15720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.16270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.19439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1268</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.4399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.17530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.1229</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.5199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.76E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.25019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.2089</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.22639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.1242</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.11609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.1229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.28060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.33679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.1268</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.28620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.25159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.15359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.16120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.24179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.2402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.23849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.2331</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.2316</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.1794</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.16270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.2326</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.22320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.223</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.21790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.1794</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.2273</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.2266</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.2326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$AH$2:$AH$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0355000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0781000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0014000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5542</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3876999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3435999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6591</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3035000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2644</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5085</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2261</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2791999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0142000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1913</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6591</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2911000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5542</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4466000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5114000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.55969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.87680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6986</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.77810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85219999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.86170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.94089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5202</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.28649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1857</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.47789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.41810000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1133</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A664-0D45-A63B-D27B25BFB6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eigenvalues-drdv'!$AI$1:$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.3kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$AI$2:$AI$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-8.3099999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.11070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.5500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.6100000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.12479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.8899999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.18559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.1600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1178</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1242</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.2600000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.1129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.18149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.4300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.7699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.25419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.19739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.22559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.1077</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.1129</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.3256</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.1178</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.28079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.24940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.152</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.16270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.24149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.2387</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.23930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.2301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.1832</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.2344</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.214</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.18559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.2268</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.2321</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.2225</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.2301</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.1832</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.2344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$AJ$2:$AJ$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0752999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1504000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95389999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1889000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.381</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3373999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6518999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4365000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2987</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2614000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5057</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2946</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1821999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7918000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6518999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2841999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7296</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5581</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4161999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5072000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.87739999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.70209999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.78190000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85609999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95389999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.31019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2923</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.18709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.48830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.56069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.11509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A664-0D45-A63B-D27B25BFB6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="143884368"/>
+        <c:axId val="143886048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="143884368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143886048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="143886048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143884368"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7819840638634995"/>
+          <c:y val="4.7036379833125176E-2"/>
+          <c:w val="0.14711708349296757"/>
+          <c:h val="0.21465172953087802"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6493,6 +8739,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8596,6 +10882,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8679,16 +11481,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>502082</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19119</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>222961</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>214504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>252998</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>166057</xdr:rowOff>
+      <xdr:colOff>797284</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8723,7 +11525,7 @@
       <xdr:rowOff>156705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>645763</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>43051</xdr:rowOff>
@@ -8746,6 +11548,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>41868</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>616191</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>132982</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FB4DF6-F273-9742-80CE-98699135B9E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9053,7 +11893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EA66BB-B451-4F4E-B1C9-5E3A555EB221}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:G18"/>
     </sheetView>
   </sheetViews>
@@ -9069,23 +11909,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
       <c r="N1" s="23" t="s">
         <v>34</v>
       </c>
@@ -9699,138 +12539,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47BBAE-5C45-FC47-9DB3-44760ECB14A5}">
-  <dimension ref="A1:BG69"/>
+  <dimension ref="A1:BH69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="117" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="91" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="47" max="47" width="6.5" customWidth="1"/>
+    <col min="49" max="49" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:60" ht="18">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="32" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="32" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="32" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="32" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="32" t="s">
+      <c r="R1" s="35"/>
+      <c r="S1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="34" t="s">
+      <c r="T1" s="35"/>
+      <c r="U1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34" t="s">
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34" t="s">
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="34">
+        <v>16.55</v>
+      </c>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34" t="s">
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34" t="s">
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="32" t="s">
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="32" t="s">
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="32" t="s">
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="32" t="s">
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="19" t="s">
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="AZ1">
+        <v>-3.7100000000000001E-2</v>
+      </c>
+      <c r="BA1" s="8">
+        <v>1.0419</v>
+      </c>
+      <c r="BB1" s="8">
+        <v>1.0419</v>
+      </c>
+      <c r="BC1" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="8"/>
-      <c r="BB1">
-        <v>-6.6799999999999998E-2</v>
-      </c>
-      <c r="BC1">
+      <c r="BD1">
         <v>1.0549999999999999</v>
       </c>
-      <c r="BE1">
+      <c r="BF1">
         <v>1.0549999999999999</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>26</v>
       </c>
       <c r="BG1" t="s">
         <v>26</v>
       </c>
+      <c r="BH1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" ht="18">
+    <row r="2" spans="1:60" ht="18">
       <c r="A2" s="9"/>
       <c r="B2" s="6"/>
       <c r="C2" s="9"/>
@@ -9891,88 +12740,99 @@
       <c r="AB2" s="6">
         <v>1.0371999999999999</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2">
+        <v>-3.7100000000000001E-2</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>1.0419</v>
+      </c>
+      <c r="AE2" s="6">
         <v>-4.7300000000000002E-2</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AF2" s="6">
         <v>1.0465</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AG2" s="6">
         <v>-6.6799999999999998E-2</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AH2" s="6">
         <v>1.0549999999999999</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AI2" s="6">
         <v>-8.3099999999999993E-2</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AJ2" s="6">
         <v>1.0622</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AK2" s="6">
         <v>-0.1047</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AL2" s="6">
         <v>1.0339</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AM2" s="6">
         <v>-0.10349999999999999</v>
       </c>
-      <c r="AL2" s="6">
+      <c r="AN2" s="6">
         <v>1.0369999999999999</v>
       </c>
-      <c r="AM2" s="6">
+      <c r="AO2" s="6">
         <v>-0.10780000000000001</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AP2" s="6">
         <v>1.0438000000000001</v>
       </c>
-      <c r="AO2" s="6">
+      <c r="AQ2" s="6">
         <v>-9.8299999999999998E-2</v>
       </c>
-      <c r="AP2" s="6">
+      <c r="AR2" s="6">
         <v>1.1243000000000001</v>
       </c>
-      <c r="AQ2" s="6">
+      <c r="AS2" s="6">
         <v>-0.1154</v>
       </c>
-      <c r="AR2" s="6">
+      <c r="AT2" s="6">
         <v>1.0586</v>
       </c>
-      <c r="AS2" s="6">
+      <c r="AU2" s="6">
         <v>-0.1113</v>
       </c>
-      <c r="AT2" s="6">
+      <c r="AV2" s="6">
         <v>1.0102</v>
       </c>
-      <c r="AU2" s="30" t="s">
+      <c r="AW2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="8" t="s">
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="AZ2">
+        <v>-7.1599999999999997E-2</v>
+      </c>
+      <c r="BA2" s="8">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="BB2" s="8">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="BC2" t="s">
         <v>26</v>
       </c>
-      <c r="BA2" s="8"/>
-      <c r="BB2">
-        <v>-0.10580000000000001</v>
-      </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>1.0004999999999999</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>1.0004999999999999</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>26</v>
       </c>
       <c r="BG2" t="s">
         <v>26</v>
       </c>
+      <c r="BH2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" ht="18">
+    <row r="3" spans="1:60" ht="18">
       <c r="A3" s="9"/>
       <c r="B3" s="6"/>
       <c r="C3" s="9"/>
@@ -10033,86 +12893,97 @@
       <c r="AB3" s="6">
         <v>0.97609999999999997</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3">
+        <v>-7.1599999999999997E-2</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="AE3" s="6">
         <v>-8.3299999999999999E-2</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AF3" s="6">
         <v>0.98880000000000001</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AG3" s="6">
         <v>-0.10580000000000001</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AH3" s="6">
         <v>1.0004999999999999</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AI3" s="6">
         <v>-0.11070000000000001</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AJ3" s="6">
         <v>1.0335000000000001</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AK3" s="6">
         <v>-9.5399999999999999E-2</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AL3" s="6">
         <v>1.0681</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AM3" s="6">
         <v>-8.9200000000000002E-2</v>
       </c>
-      <c r="AL3" s="6">
+      <c r="AN3" s="6">
         <v>1.0748</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AO3" s="6">
         <v>-9.1999999999999998E-2</v>
       </c>
-      <c r="AN3" s="6">
+      <c r="AP3" s="6">
         <v>1.0779000000000001</v>
       </c>
-      <c r="AO3" s="6">
+      <c r="AQ3" s="6">
         <v>-0.12479999999999999</v>
       </c>
-      <c r="AP3" s="6">
+      <c r="AR3" s="6">
         <v>1.1093</v>
       </c>
-      <c r="AQ3" s="6">
+      <c r="AS3" s="6">
         <v>-7.9399999999999998E-2</v>
       </c>
-      <c r="AR3" s="6">
+      <c r="AT3" s="6">
         <v>1.163</v>
       </c>
-      <c r="AS3" s="6">
+      <c r="AU3" s="6">
         <v>-6.8500000000000005E-2</v>
       </c>
-      <c r="AT3" s="6">
+      <c r="AV3" s="6">
         <v>1.1971000000000001</v>
       </c>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="8" t="s">
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AZ3" s="7" t="s">
+      <c r="AZ3">
+        <v>-1.44E-2</v>
+      </c>
+      <c r="BA3" s="8">
+        <v>1.0943000000000001</v>
+      </c>
+      <c r="BB3" s="8">
+        <v>1.0943000000000001</v>
+      </c>
+      <c r="BC3" t="s">
         <v>26</v>
       </c>
-      <c r="BA3" s="8"/>
-      <c r="BB3">
-        <v>-4.1099999999999998E-2</v>
-      </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>1.1031</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>1.1031</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>26</v>
       </c>
       <c r="BG3" t="s">
         <v>26</v>
       </c>
+      <c r="BH3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" ht="18">
+    <row r="4" spans="1:60" ht="18">
       <c r="A4" s="9"/>
       <c r="B4" s="6"/>
       <c r="C4" s="9"/>
@@ -10173,86 +13044,97 @@
       <c r="AB4" s="6">
         <v>1.0911</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4">
+        <v>-1.44E-2</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>1.0943000000000001</v>
+      </c>
+      <c r="AE4" s="6">
         <v>-2.35E-2</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AF4" s="6">
         <v>1.0974999999999999</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AG4" s="6">
         <v>-4.1099999999999998E-2</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AH4" s="6">
         <v>1.1031</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AI4" s="6">
         <v>-5.5500000000000001E-2</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AJ4" s="6">
         <v>1.1080000000000001</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AK4" s="6">
         <v>-9.0800000000000006E-2</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AL4" s="6">
         <v>1.0742</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AM4" s="6">
         <v>-0.10290000000000001</v>
       </c>
-      <c r="AL4" s="6">
+      <c r="AN4" s="6">
         <v>1.0726</v>
       </c>
-      <c r="AM4" s="6">
+      <c r="AO4" s="6">
         <v>-0.1038</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AP4" s="6">
         <v>1.0752999999999999</v>
       </c>
-      <c r="AO4" s="6">
+      <c r="AQ4" s="6">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="AP4" s="6">
+      <c r="AR4" s="6">
         <v>1.1671</v>
       </c>
-      <c r="AQ4" s="6">
+      <c r="AS4" s="6">
         <v>-6.13E-2</v>
       </c>
-      <c r="AR4" s="6">
+      <c r="AT4" s="6">
         <v>1.2344999999999999</v>
       </c>
-      <c r="AS4" s="6">
+      <c r="AU4" s="6">
         <v>-0.1105</v>
       </c>
-      <c r="AT4" s="6">
+      <c r="AV4" s="6">
         <v>0.74139999999999995</v>
       </c>
-      <c r="AU4" s="30"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="8" t="s">
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AZ4" s="7" t="s">
+      <c r="AZ4">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="BA4" s="8">
+        <v>1.1428</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>1.1428</v>
+      </c>
+      <c r="BC4" t="s">
         <v>26</v>
       </c>
-      <c r="BA4" s="8"/>
-      <c r="BB4">
-        <v>-0.12089999999999999</v>
-      </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>1.0355000000000001</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>1.0355000000000001</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>26</v>
       </c>
       <c r="BG4" t="s">
         <v>26</v>
       </c>
+      <c r="BH4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" ht="18">
+    <row r="5" spans="1:60" ht="18">
       <c r="A5" s="9"/>
       <c r="B5" s="6"/>
       <c r="C5" s="9"/>
@@ -10313,86 +13195,97 @@
       <c r="AB5" s="6">
         <v>1.1409</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>1.1428</v>
+      </c>
+      <c r="AE5" s="6">
         <v>-0.13420000000000001</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AF5" s="6">
         <v>1.0396000000000001</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AG5" s="6">
         <v>-0.12089999999999999</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AH5" s="6">
         <v>1.0355000000000001</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AI5" s="6">
         <v>-9.6100000000000005E-2</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AJ5" s="6">
         <v>1.0752999999999999</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AK5" s="6">
         <v>-6.6299999999999998E-2</v>
       </c>
-      <c r="AJ5" s="6">
+      <c r="AL5" s="6">
         <v>1.1123000000000001</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AM5" s="6">
         <v>-7.2499999999999995E-2</v>
       </c>
-      <c r="AL5" s="6">
+      <c r="AN5" s="6">
         <v>1.1161000000000001</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AO5" s="6">
         <v>-7.2599999999999998E-2</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AP5" s="6">
         <v>1.1191</v>
       </c>
-      <c r="AO5" s="6">
+      <c r="AQ5" s="6">
         <v>-0.14430000000000001</v>
       </c>
-      <c r="AP5" s="6">
+      <c r="AR5" s="6">
         <v>1.1082000000000001</v>
       </c>
-      <c r="AQ5" s="6">
+      <c r="AS5" s="6">
         <v>-0.21679999999999999</v>
       </c>
-      <c r="AR5" s="6">
+      <c r="AT5" s="6">
         <v>0.83709999999999996</v>
       </c>
-      <c r="AS5" s="6">
+      <c r="AU5" s="6">
         <v>-1.5900000000000001E-2</v>
       </c>
-      <c r="AT5" s="6">
+      <c r="AV5" s="6">
         <v>1.2981</v>
       </c>
-      <c r="AU5" s="30"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="8" t="s">
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AZ5" s="7" t="s">
+      <c r="AZ5">
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="BA5" s="8">
+        <v>1.0423</v>
+      </c>
+      <c r="BB5" s="8">
+        <v>1.0423</v>
+      </c>
+      <c r="BC5" t="s">
         <v>26</v>
       </c>
-      <c r="BA5" s="8"/>
-      <c r="BB5">
-        <v>-0.10489999999999999</v>
-      </c>
-      <c r="BC5">
+      <c r="BD5">
         <v>1.0781000000000001</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>1.0781000000000001</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>26</v>
       </c>
       <c r="BG5" t="s">
         <v>26</v>
       </c>
+      <c r="BH5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" ht="18">
+    <row r="6" spans="1:60" ht="18">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -10453,86 +13346,97 @@
       <c r="AB6" s="6">
         <v>0.90839999999999999</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6">
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>1.0423</v>
+      </c>
+      <c r="AE6" s="6">
         <v>-0.11609999999999999</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AF6" s="6">
         <v>1.0828</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AG6" s="6">
         <v>-0.10489999999999999</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AH6" s="6">
         <v>1.0781000000000001</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AI6" s="6">
         <v>-0.12479999999999999</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AJ6" s="6">
         <v>1.0102</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AK6" s="6">
         <v>-0.13950000000000001</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AL6" s="6">
         <v>1.0179</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AM6" s="6">
         <v>-0.1406</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AN6" s="6">
         <v>1.0078</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AO6" s="6">
         <v>-0.14510000000000001</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AP6" s="6">
         <v>1.0182</v>
       </c>
-      <c r="AO6" s="6">
+      <c r="AQ6" s="6">
         <v>-0.16350000000000001</v>
       </c>
-      <c r="AP6" s="6">
+      <c r="AR6" s="6">
         <v>1.0784</v>
       </c>
-      <c r="AQ6" s="6">
+      <c r="AS6" s="6">
         <v>-5.6800000000000003E-2</v>
       </c>
-      <c r="AR6" s="6">
+      <c r="AT6" s="6">
         <v>1.2841</v>
       </c>
-      <c r="AS6" s="6">
+      <c r="AU6" s="6">
         <v>-0.3175</v>
       </c>
-      <c r="AT6" s="6">
+      <c r="AV6" s="6">
         <v>0.88719999999999999</v>
       </c>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ6" s="7" t="s">
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ6">
+        <v>-0.122</v>
+      </c>
+      <c r="BA6" s="8">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="BB6" s="8">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="BC6" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="8"/>
-      <c r="BB6">
-        <v>-2.58E-2</v>
-      </c>
-      <c r="BC6">
+      <c r="BD6">
         <v>1.1476</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>1.1476</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>26</v>
       </c>
       <c r="BG6" t="s">
         <v>26</v>
       </c>
+      <c r="BH6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" ht="18">
+    <row r="7" spans="1:60" ht="18">
       <c r="A7" s="9"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -10593,86 +13497,97 @@
       <c r="AB7" s="6">
         <v>1.0448</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AC7">
+        <v>-0.122</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="AE7" s="6">
         <v>-9.9000000000000008E-3</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AF7" s="6">
         <v>1.1446000000000001</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AG7" s="6">
         <v>-2.58E-2</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AH7" s="6">
         <v>1.1476</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AI7" s="6">
         <v>-0.1474</v>
       </c>
-      <c r="AH7" s="6">
+      <c r="AJ7" s="6">
         <v>1.0004999999999999</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AK7" s="6">
         <v>-0.1416</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AL7" s="6">
         <v>1.0024</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AM7" s="6">
         <v>-0.1487</v>
       </c>
-      <c r="AL7" s="6">
+      <c r="AN7" s="6">
         <v>1.0233000000000001</v>
       </c>
-      <c r="AM7" s="6">
+      <c r="AO7" s="6">
         <v>-0.15060000000000001</v>
       </c>
-      <c r="AN7" s="6">
+      <c r="AP7" s="6">
         <v>1.0257000000000001</v>
       </c>
-      <c r="AO7" s="6">
+      <c r="AQ7" s="6">
         <v>-0.1489</v>
       </c>
-      <c r="AP7" s="6">
+      <c r="AR7" s="6">
         <v>1.1251</v>
       </c>
-      <c r="AQ7" s="6">
+      <c r="AS7" s="6">
         <v>-0.18010000000000001</v>
       </c>
-      <c r="AR7" s="6">
+      <c r="AT7" s="6">
         <v>0.75490000000000002</v>
       </c>
-      <c r="AS7" s="6">
+      <c r="AU7" s="6">
         <v>-0.33750000000000002</v>
       </c>
-      <c r="AT7" s="6">
+      <c r="AV7" s="6">
         <v>0.98160000000000003</v>
       </c>
-      <c r="AU7" s="30"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="8" t="s">
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AZ7" s="7" t="s">
+      <c r="AZ7">
+        <v>-0.122</v>
+      </c>
+      <c r="BA7" s="8">
+        <v>1.0859000000000001</v>
+      </c>
+      <c r="BB7" s="8">
+        <v>1.0859000000000001</v>
+      </c>
+      <c r="BC7" t="s">
         <v>26</v>
       </c>
-      <c r="BA7" s="8"/>
-      <c r="BB7">
-        <v>-0.15720000000000001</v>
-      </c>
-      <c r="BC7">
+      <c r="BD7">
         <v>1.0014000000000001</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>1.0014000000000001</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>26</v>
       </c>
       <c r="BG7" t="s">
         <v>26</v>
       </c>
+      <c r="BH7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" ht="18">
+    <row r="8" spans="1:60" ht="18">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -10733,86 +13648,97 @@
       <c r="AB8" s="6">
         <v>1.089</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AC8">
+        <v>-0.122</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>1.0859000000000001</v>
+      </c>
+      <c r="AE8" s="6">
         <v>-0.13600000000000001</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AF8" s="6">
         <v>0.92520000000000002</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AG8" s="6">
         <v>-0.15720000000000001</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AH8" s="6">
         <v>1.0014000000000001</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AI8" s="6">
         <v>-3.8899999999999997E-2</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AJ8" s="6">
         <v>1.1504000000000001</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AK8" s="6">
         <v>-4.8500000000000001E-2</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AL8" s="6">
         <v>1.1534</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AM8" s="6">
         <v>-5.3699999999999998E-2</v>
       </c>
-      <c r="AL8" s="6">
+      <c r="AN8" s="6">
         <v>1.1565000000000001</v>
       </c>
-      <c r="AM8" s="6">
+      <c r="AO8" s="6">
         <v>-5.33E-2</v>
       </c>
-      <c r="AN8" s="6">
+      <c r="AP8" s="6">
         <v>1.1596</v>
       </c>
-      <c r="AO8" s="6">
+      <c r="AQ8" s="6">
         <v>-2.4500000000000001E-2</v>
       </c>
-      <c r="AP8" s="6">
+      <c r="AR8" s="6">
         <v>1.2081999999999999</v>
       </c>
-      <c r="AQ8" s="6">
+      <c r="AS8" s="6">
         <v>-0.30980000000000002</v>
       </c>
-      <c r="AR8" s="6">
+      <c r="AT8" s="6">
         <v>1.0366</v>
       </c>
-      <c r="AS8" s="6">
+      <c r="AU8" s="6">
         <v>-0.248</v>
       </c>
-      <c r="AT8" s="6">
+      <c r="AV8" s="6">
         <v>0.76359999999999995</v>
       </c>
-      <c r="AU8" s="30"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="8" t="s">
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AZ8" s="7" t="s">
+      <c r="AZ8">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="BA8" s="8">
+        <v>1.0063</v>
+      </c>
+      <c r="BB8" s="8">
+        <v>1.0063</v>
+      </c>
+      <c r="BC8" t="s">
         <v>26</v>
       </c>
-      <c r="BA8" s="8"/>
-      <c r="BB8">
-        <v>-0.16270000000000001</v>
-      </c>
-      <c r="BC8">
+      <c r="BD8">
         <v>0.94089999999999996</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>0.94089999999999996</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>26</v>
       </c>
       <c r="BG8" t="s">
         <v>26</v>
       </c>
+      <c r="BH8" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" ht="18">
+    <row r="9" spans="1:60" ht="18">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -10873,86 +13799,97 @@
       <c r="AB9" s="6">
         <v>1.0076000000000001</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AC9">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>1.0063</v>
+      </c>
+      <c r="AE9" s="6">
         <v>-0.16969999999999999</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AF9" s="6">
         <v>1.0044999999999999</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AG9" s="6">
         <v>-0.16270000000000001</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AH9" s="6">
         <v>0.94089999999999996</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AI9" s="6">
         <v>-0.1867</v>
       </c>
-      <c r="AH9" s="6">
+      <c r="AJ9" s="6">
         <v>0.96819999999999995</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AK9" s="6">
         <v>-0.18210000000000001</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AL9" s="6">
         <v>0.97189999999999999</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AM9" s="6">
         <v>-0.1812</v>
       </c>
-      <c r="AL9" s="6">
+      <c r="AN9" s="6">
         <v>0.97899999999999998</v>
       </c>
-      <c r="AM9" s="6">
+      <c r="AO9" s="6">
         <v>-0.18459999999999999</v>
       </c>
-      <c r="AN9" s="6">
+      <c r="AP9" s="6">
         <v>0.99109999999999998</v>
       </c>
-      <c r="AO9" s="6">
+      <c r="AQ9" s="6">
         <v>-0.17530000000000001</v>
       </c>
-      <c r="AP9" s="6">
+      <c r="AR9" s="6">
         <v>0.86370000000000002</v>
       </c>
-      <c r="AQ9" s="6">
+      <c r="AS9" s="6">
         <v>-0.31819999999999998</v>
       </c>
-      <c r="AR9" s="6">
+      <c r="AT9" s="6">
         <v>0.9395</v>
       </c>
-      <c r="AS9" s="9">
+      <c r="AU9" s="9">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="AT9" s="6">
+      <c r="AV9" s="6">
         <v>1.3546</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="8" t="s">
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AZ9" s="7" t="s">
+      <c r="AZ9">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="BA9" s="8">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="BB9" s="8">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="BC9" t="s">
         <v>26</v>
       </c>
-      <c r="BA9" s="8"/>
-      <c r="BB9">
-        <v>-1.9699999999999999E-2</v>
-      </c>
-      <c r="BC9">
+      <c r="BD9">
         <v>1.1879999999999999</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>1.1879999999999999</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>26</v>
       </c>
       <c r="BG9" t="s">
         <v>26</v>
       </c>
+      <c r="BH9" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" ht="18">
+    <row r="10" spans="1:60" ht="18">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -11013,86 +13950,97 @@
       <c r="AB10" s="6">
         <v>1.1862999999999999</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="AE10" s="6">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AF10" s="6">
         <v>1.1875</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AG10" s="6">
         <v>-1.9699999999999999E-2</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AH10" s="6">
         <v>1.1879999999999999</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AI10" s="6">
         <v>-0.18559999999999999</v>
       </c>
-      <c r="AH10" s="6">
+      <c r="AJ10" s="6">
         <v>0.95389999999999997</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AK10" s="6">
         <v>-0.1452</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AL10" s="6">
         <v>1.1262000000000001</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AM10" s="6">
         <v>-0.14330000000000001</v>
       </c>
-      <c r="AL10" s="6">
+      <c r="AN10" s="6">
         <v>1.1234999999999999</v>
       </c>
-      <c r="AM10" s="6">
+      <c r="AO10" s="6">
         <v>-0.14280000000000001</v>
       </c>
-      <c r="AN10" s="6">
+      <c r="AP10" s="6">
         <v>1.1226</v>
       </c>
-      <c r="AO10" s="6">
+      <c r="AQ10" s="6">
         <v>-0.17899999999999999</v>
       </c>
-      <c r="AP10" s="6">
+      <c r="AR10" s="6">
         <v>1.1367</v>
       </c>
-      <c r="AQ10" s="6">
+      <c r="AS10" s="6">
         <v>-0.2974</v>
       </c>
-      <c r="AR10" s="6">
+      <c r="AT10" s="6">
         <v>1.1391</v>
       </c>
-      <c r="AS10" s="6">
+      <c r="AU10" s="6">
         <v>-0.35270000000000001</v>
       </c>
-      <c r="AT10" s="6">
+      <c r="AV10" s="6">
         <v>1.0712999999999999</v>
       </c>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ10" s="7" t="s">
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ10">
+        <v>-0.15859999999999999</v>
+      </c>
+      <c r="BA10" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="BB10" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="BC10" t="s">
         <v>26</v>
       </c>
-      <c r="BA10" s="8"/>
-      <c r="BB10">
-        <v>-0.19439999999999999</v>
-      </c>
-      <c r="BC10">
+      <c r="BD10">
         <v>0.96709999999999996</v>
       </c>
-      <c r="BE10">
+      <c r="BF10">
         <v>0.96709999999999996</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>26</v>
       </c>
       <c r="BG10" t="s">
         <v>26</v>
       </c>
+      <c r="BH10" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" ht="18">
+    <row r="11" spans="1:60" ht="18">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -11153,85 +14101,94 @@
       <c r="AB11" s="6">
         <v>0.87429999999999997</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AC11">
+        <v>-0.15859999999999999</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="AE11" s="6">
         <v>-0.1595</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AF11" s="6">
         <v>0.87570000000000003</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AG11" s="6">
         <v>-0.19439999999999999</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AH11" s="6">
         <v>0.96709999999999996</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AI11" s="6">
         <v>-3.1600000000000003E-2</v>
       </c>
-      <c r="AH11" s="6">
+      <c r="AJ11" s="6">
         <v>1.1889000000000001</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AK11" s="6">
         <v>-4.0300000000000002E-2</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AL11" s="6">
         <v>1.1906000000000001</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AM11" s="6">
         <v>-4.48E-2</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AN11" s="6">
         <v>1.1930000000000001</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AO11" s="6">
         <v>-4.3799999999999999E-2</v>
       </c>
-      <c r="AN11" s="6">
+      <c r="AP11" s="6">
         <v>1.1961999999999999</v>
       </c>
-      <c r="AO11" s="6">
+      <c r="AQ11" s="6">
         <v>-0.21390000000000001</v>
       </c>
-      <c r="AP11" s="6">
+      <c r="AR11" s="6">
         <v>1.1193</v>
       </c>
-      <c r="AQ11" s="6">
+      <c r="AS11" s="6">
         <v>-6.0999999999999999E-2</v>
       </c>
-      <c r="AR11" s="6">
+      <c r="AT11" s="6">
         <v>1.3384</v>
       </c>
-      <c r="AS11" s="6">
+      <c r="AU11" s="6">
         <v>-0.29699999999999999</v>
       </c>
-      <c r="AT11" s="6">
+      <c r="AV11" s="6">
         <v>0.78500000000000003</v>
       </c>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="8" t="s">
+      <c r="AW11" s="32"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ11" s="8" t="s">
+      <c r="AZ11">
+        <v>-0.2135</v>
+      </c>
+      <c r="BA11" s="8">
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="BB11" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="BA11" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB11">
-        <v>-9.7900000000000001E-2</v>
       </c>
       <c r="BC11">
         <v>-9.7900000000000001E-2</v>
       </c>
       <c r="BD11">
+        <v>-9.7900000000000001E-2</v>
+      </c>
+      <c r="BE11">
         <v>1.3989</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BF11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="18">
+    <row r="12" spans="1:60" ht="18">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -11292,87 +14249,92 @@
       <c r="AB12" s="6">
         <v>1.4037999999999999</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6">
         <v>-0.13880000000000001</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AF12" s="6">
         <v>1.55</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AG12" s="6">
         <v>-0.1268</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AH12" s="6">
         <v>1.5542</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AI12" s="6">
         <v>-0.1178</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AJ12" s="6">
         <v>1.5581</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AK12" s="6">
         <v>-0.11219999999999999</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AL12" s="6">
         <v>1.5612999999999999</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AM12" s="6">
         <v>-0.1099</v>
       </c>
-      <c r="AL12" s="6">
+      <c r="AN12" s="6">
         <v>1.5633999999999999</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AO12" s="6">
         <v>-0.1119</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AP12" s="6">
         <v>1.5642</v>
       </c>
-      <c r="AO12" s="6">
+      <c r="AQ12" s="6">
         <v>-8.6400000000000005E-2</v>
       </c>
-      <c r="AP12" s="6">
+      <c r="AR12" s="6">
         <v>1.42</v>
       </c>
-      <c r="AQ12" s="6">
+      <c r="AS12" s="6">
         <v>-6.9999999999999999E-4</v>
       </c>
-      <c r="AR12" s="6">
+      <c r="AT12" s="6">
         <v>1.3993</v>
       </c>
-      <c r="AS12" s="6">
+      <c r="AU12" s="6">
         <v>-6.8999999999999999E-3</v>
       </c>
-      <c r="AT12" s="6">
+      <c r="AV12" s="6">
         <v>1.4837</v>
       </c>
-      <c r="AU12" s="31" t="s">
+      <c r="AW12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="8" t="s">
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ12" s="8" t="s">
+      <c r="AZ12">
+        <v>-0.2195</v>
+      </c>
+      <c r="BA12" s="8">
+        <v>0.30709999999999998</v>
+      </c>
+      <c r="BB12" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="BA12" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB12">
-        <v>-5.3400000000000003E-2</v>
       </c>
       <c r="BC12">
         <v>-5.3400000000000003E-2</v>
       </c>
       <c r="BD12">
+        <v>-5.3400000000000003E-2</v>
+      </c>
+      <c r="BE12">
         <v>1.3519000000000001</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BF12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="18">
+    <row r="13" spans="1:60" ht="18">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -11433,85 +14395,90 @@
       <c r="AB13" s="6">
         <v>1.3585</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6">
         <v>-0.1079</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AF13" s="6">
         <v>1.3960999999999999</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AG13" s="6">
         <v>-0.1169</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AH13" s="6">
         <v>1.3876999999999999</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AI13" s="6">
         <v>-0.1242</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AJ13" s="6">
         <v>1.381</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AK13" s="6">
         <v>-0.12909999999999999</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AL13" s="6">
         <v>1.377</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AM13" s="6">
         <v>-0.1007</v>
       </c>
-      <c r="AL13" s="6">
+      <c r="AN13" s="6">
         <v>1.6444000000000001</v>
       </c>
-      <c r="AM13" s="6">
+      <c r="AO13" s="6">
         <v>-9.9500000000000005E-2</v>
       </c>
-      <c r="AN13" s="6">
+      <c r="AP13" s="6">
         <v>1.6439999999999999</v>
       </c>
-      <c r="AO13" s="6">
+      <c r="AQ13" s="6">
         <v>-4.2200000000000001E-2</v>
       </c>
-      <c r="AP13" s="6">
+      <c r="AR13" s="6">
         <v>1.3858999999999999</v>
       </c>
-      <c r="AQ13" s="9">
+      <c r="AS13" s="9">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="AR13" s="6">
+      <c r="AT13" s="6">
         <v>1.3953</v>
       </c>
-      <c r="AS13" s="6">
+      <c r="AU13" s="6">
         <v>-3.3500000000000002E-2</v>
       </c>
-      <c r="AT13" s="6">
+      <c r="AV13" s="6">
         <v>1.5105</v>
       </c>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="8" t="s">
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ13" s="8" t="s">
+      <c r="AZ13">
+        <v>-0.1764</v>
+      </c>
+      <c r="BA13" s="8">
+        <v>0.4642</v>
+      </c>
+      <c r="BB13" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="BA13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB13">
-        <v>-0.1583</v>
       </c>
       <c r="BC13">
         <v>-0.1583</v>
       </c>
       <c r="BD13">
+        <v>-0.1583</v>
+      </c>
+      <c r="BE13">
         <v>1.4513</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BF13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="18">
+    <row r="14" spans="1:60" ht="18">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -11572,85 +14539,90 @@
       <c r="AB14" s="6">
         <v>1.5464</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6">
         <v>-6.4399999999999999E-2</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AF14" s="6">
         <v>1.3514999999999999</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AG14" s="6">
         <v>-7.4399999999999994E-2</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AH14" s="6">
         <v>1.3435999999999999</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AI14" s="6">
         <v>-8.2600000000000007E-2</v>
       </c>
-      <c r="AH14" s="6">
+      <c r="AJ14" s="6">
         <v>1.3373999999999999</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AK14" s="6">
         <v>-0.1053</v>
       </c>
-      <c r="AJ14" s="6">
+      <c r="AL14" s="6">
         <v>1.6471</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AM14" s="6">
         <v>-0.1308</v>
       </c>
-      <c r="AL14" s="6">
+      <c r="AN14" s="6">
         <v>1.3758999999999999</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AO14" s="6">
         <v>-0.1283</v>
       </c>
-      <c r="AN14" s="6">
+      <c r="AP14" s="6">
         <v>1.3777999999999999</v>
       </c>
-      <c r="AO14" s="6">
+      <c r="AQ14" s="6">
         <v>-0.12089999999999999</v>
       </c>
-      <c r="AP14" s="6">
+      <c r="AR14" s="6">
         <v>1.5650999999999999</v>
       </c>
-      <c r="AQ14" s="9">
+      <c r="AS14" s="9">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="AR14" s="6">
+      <c r="AT14" s="6">
         <v>1.3861000000000001</v>
       </c>
-      <c r="AS14" s="9">
+      <c r="AU14" s="9">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AT14" s="6">
+      <c r="AV14" s="6">
         <v>1.4646999999999999</v>
       </c>
-      <c r="AU14" s="31"/>
-      <c r="AV14" s="7"/>
-      <c r="AW14" s="8" t="s">
+      <c r="AW14" s="33"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ14" s="8" t="s">
+      <c r="AZ14">
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="BA14" s="8">
+        <v>0.1857</v>
+      </c>
+      <c r="BB14" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="BA14" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB14">
-        <v>-0.1686</v>
       </c>
       <c r="BC14">
         <v>-0.1686</v>
       </c>
       <c r="BD14">
+        <v>-0.1686</v>
+      </c>
+      <c r="BE14">
         <v>1.5443</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BF14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="18">
+    <row r="15" spans="1:60" ht="18">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -11711,85 +14683,90 @@
       <c r="AB15" s="6">
         <v>1.4557</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6">
         <v>-0.16739999999999999</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AF15" s="6">
         <v>1.4492</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AG15" s="6">
         <v>-0.17530000000000001</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AH15" s="6">
         <v>1.4419999999999999</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AI15" s="6">
         <v>-0.1129</v>
       </c>
-      <c r="AH15" s="6">
+      <c r="AJ15" s="6">
         <v>1.6518999999999999</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AK15" s="6">
         <v>-8.8200000000000001E-2</v>
       </c>
-      <c r="AJ15" s="6">
+      <c r="AL15" s="6">
         <v>1.3339000000000001</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AM15" s="6">
         <v>-9.0300000000000005E-2</v>
       </c>
-      <c r="AL15" s="6">
+      <c r="AN15" s="6">
         <v>1.3332999999999999</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AO15" s="6">
         <v>-8.7900000000000006E-2</v>
       </c>
-      <c r="AN15" s="6">
+      <c r="AP15" s="6">
         <v>1.3358000000000001</v>
       </c>
-      <c r="AO15" s="6">
+      <c r="AQ15" s="6">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="AP15" s="6">
+      <c r="AR15" s="6">
         <v>1.3527</v>
       </c>
-      <c r="AQ15" s="6">
+      <c r="AS15" s="6">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="AR15" s="6">
+      <c r="AT15" s="6">
         <v>1.3893</v>
       </c>
-      <c r="AS15" s="9">
+      <c r="AU15" s="9">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="AT15" s="6">
+      <c r="AV15" s="6">
         <v>1.4507000000000001</v>
       </c>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="7"/>
-      <c r="AW15" s="8" t="s">
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ15" s="8" t="s">
+      <c r="AZ15">
+        <v>-0.22470000000000001</v>
+      </c>
+      <c r="BA15" s="8">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="BB15" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="BA15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB15">
-        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="BC15">
         <v>-2.1000000000000001E-2</v>
       </c>
       <c r="BD15">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="BE15">
         <v>1.3066</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BF15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="18">
+    <row r="16" spans="1:60" ht="18">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -11850,85 +14827,90 @@
       <c r="AB16" s="6">
         <v>1.3152999999999999</v>
       </c>
-      <c r="AC16" s="6">
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6">
         <v>-3.4099999999999998E-2</v>
       </c>
-      <c r="AD16" s="6">
+      <c r="AF16" s="6">
         <v>1.3098000000000001</v>
       </c>
-      <c r="AE16" s="6">
+      <c r="AG16" s="6">
         <v>-0.1229</v>
       </c>
-      <c r="AF16" s="6">
+      <c r="AH16" s="6">
         <v>1.6591</v>
       </c>
-      <c r="AG16" s="6">
+      <c r="AI16" s="6">
         <v>-0.18149999999999999</v>
       </c>
-      <c r="AH16" s="6">
+      <c r="AJ16" s="6">
         <v>1.4365000000000001</v>
       </c>
-      <c r="AI16" s="6">
+      <c r="AK16" s="6">
         <v>-0.1855</v>
       </c>
-      <c r="AJ16" s="6">
+      <c r="AL16" s="6">
         <v>1.4333</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AM16" s="6">
         <v>-0.18679999999999999</v>
       </c>
-      <c r="AL16" s="6">
+      <c r="AN16" s="6">
         <v>1.4323999999999999</v>
       </c>
-      <c r="AM16" s="6">
+      <c r="AO16" s="6">
         <v>-0.1845</v>
       </c>
-      <c r="AN16" s="6">
+      <c r="AP16" s="6">
         <v>1.4339</v>
       </c>
-      <c r="AO16" s="6">
+      <c r="AQ16" s="6">
         <v>-0.1535</v>
       </c>
-      <c r="AP16" s="6">
+      <c r="AR16" s="6">
         <v>1.4659</v>
       </c>
-      <c r="AQ16" s="6">
+      <c r="AS16" s="6">
         <v>-0.1089</v>
       </c>
-      <c r="AR16" s="6">
+      <c r="AT16" s="6">
         <v>1.5395000000000001</v>
       </c>
-      <c r="AS16" s="6">
+      <c r="AU16" s="6">
         <v>-5.8599999999999999E-2</v>
       </c>
-      <c r="AT16" s="6">
+      <c r="AV16" s="6">
         <v>1.5451999999999999</v>
       </c>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="7"/>
-      <c r="AW16" s="8" t="s">
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ16" s="8" t="s">
+      <c r="AZ16">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="BA16" s="8">
+        <v>0.55810000000000004</v>
+      </c>
+      <c r="BB16" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="BA16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB16">
-        <v>4.0000000000000002E-4</v>
       </c>
       <c r="BC16">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="BD16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="BE16">
         <v>1.2615000000000001</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BF16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="18">
+    <row r="17" spans="1:58" ht="18">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -11989,85 +14971,90 @@
       <c r="AB17" s="6">
         <v>1.272</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6">
         <v>-0.13450000000000001</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AF17" s="6">
         <v>1.669</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AG17" s="6">
         <v>-4.5199999999999997E-2</v>
       </c>
-      <c r="AF17" s="6">
+      <c r="AH17" s="6">
         <v>1.3035000000000001</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AI17" s="6">
         <v>-5.4300000000000001E-2</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AJ17" s="6">
         <v>1.2987</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="AK17" s="6">
         <v>-6.0600000000000001E-2</v>
       </c>
-      <c r="AJ17" s="6">
+      <c r="AL17" s="6">
         <v>1.2963</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AM17" s="6">
         <v>-6.3299999999999995E-2</v>
       </c>
-      <c r="AL17" s="6">
+      <c r="AN17" s="6">
         <v>1.2964</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AO17" s="6">
         <v>-6.1199999999999997E-2</v>
       </c>
-      <c r="AN17" s="6">
+      <c r="AP17" s="6">
         <v>1.2992999999999999</v>
       </c>
-      <c r="AO17" s="6">
+      <c r="AQ17" s="6">
         <v>-9.2299999999999993E-2</v>
       </c>
-      <c r="AP17" s="6">
+      <c r="AR17" s="6">
         <v>1.6335999999999999</v>
       </c>
-      <c r="AQ17" s="6">
+      <c r="AS17" s="6">
         <v>-0.01</v>
       </c>
-      <c r="AR17" s="6">
+      <c r="AT17" s="6">
         <v>1.3768</v>
       </c>
-      <c r="AS17" s="9">
+      <c r="AU17" s="9">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="AT17" s="6">
+      <c r="AV17" s="6">
         <v>1.4371</v>
       </c>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="7"/>
-      <c r="AW17" s="8" t="s">
+      <c r="AW17" s="33"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ17" s="8" t="s">
+      <c r="AZ17">
+        <v>-0.21879999999999999</v>
+      </c>
+      <c r="BA17" s="8">
+        <v>0.1091</v>
+      </c>
+      <c r="BB17" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="BA17" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB17">
-        <v>-0.2387</v>
       </c>
       <c r="BC17">
         <v>-0.2387</v>
       </c>
       <c r="BD17">
+        <v>-0.2387</v>
+      </c>
+      <c r="BE17">
         <v>1.5085</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="18">
+    <row r="18" spans="1:58" ht="18">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -12128,85 +15115,90 @@
       <c r="AB18" s="6">
         <v>1.6811</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6">
         <v>-1.5299999999999999E-2</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AF18" s="6">
         <v>1.2685999999999999</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AG18" s="6">
         <v>-2.76E-2</v>
       </c>
-      <c r="AF18" s="6">
+      <c r="AH18" s="6">
         <v>1.2644</v>
       </c>
-      <c r="AG18" s="6">
+      <c r="AI18" s="6">
         <v>-3.7699999999999997E-2</v>
       </c>
-      <c r="AH18" s="6">
+      <c r="AJ18" s="6">
         <v>1.2614000000000001</v>
       </c>
-      <c r="AI18" s="6">
+      <c r="AK18" s="6">
         <v>-4.48E-2</v>
       </c>
-      <c r="AJ18" s="6">
+      <c r="AL18" s="6">
         <v>1.2602</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AM18" s="6">
         <v>-4.8000000000000001E-2</v>
       </c>
-      <c r="AL18" s="6">
+      <c r="AN18" s="6">
         <v>1.2612000000000001</v>
       </c>
-      <c r="AM18" s="6">
+      <c r="AO18" s="6">
         <v>-4.6300000000000001E-2</v>
       </c>
-      <c r="AN18" s="6">
+      <c r="AP18" s="6">
         <v>1.2643</v>
       </c>
-      <c r="AO18" s="6">
+      <c r="AQ18" s="6">
         <v>-1.5E-3</v>
       </c>
-      <c r="AP18" s="6">
+      <c r="AR18" s="6">
         <v>1.3180000000000001</v>
       </c>
-      <c r="AQ18" s="6">
+      <c r="AS18" s="6">
         <v>-2.2800000000000001E-2</v>
       </c>
-      <c r="AR18" s="6">
+      <c r="AT18" s="6">
         <v>1.6256999999999999</v>
       </c>
-      <c r="AS18" s="9">
+      <c r="AU18" s="9">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="AT18" s="6">
+      <c r="AV18" s="6">
         <v>1.4191</v>
       </c>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="7"/>
-      <c r="AW18" s="8" t="s">
+      <c r="AW18" s="33"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ18" s="8" t="s">
+      <c r="AZ18">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="BA18" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="BA18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB18">
-        <v>-0.15670000000000001</v>
       </c>
       <c r="BC18">
         <v>-0.15670000000000001</v>
       </c>
       <c r="BD18">
+        <v>-0.15670000000000001</v>
+      </c>
+      <c r="BE18">
         <v>1.7067000000000001</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BF18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="18">
+    <row r="19" spans="1:58" ht="18">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -12267,85 +15259,90 @@
       <c r="AB19" s="6">
         <v>1.5157</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6">
         <v>-0.2445</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AF19" s="6">
         <v>1.5124</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AG19" s="6">
         <v>-0.25019999999999998</v>
       </c>
-      <c r="AF19" s="6">
+      <c r="AH19" s="6">
         <v>1.5085</v>
       </c>
-      <c r="AG19" s="6">
+      <c r="AI19" s="6">
         <v>-0.25419999999999998</v>
       </c>
-      <c r="AH19" s="6">
+      <c r="AJ19" s="6">
         <v>1.5057</v>
       </c>
-      <c r="AI19" s="6">
+      <c r="AK19" s="6">
         <v>-0.25640000000000002</v>
       </c>
-      <c r="AJ19" s="6">
+      <c r="AL19" s="6">
         <v>1.5044</v>
       </c>
-      <c r="AK19" s="6">
+      <c r="AM19" s="6">
         <v>-0.25659999999999999</v>
       </c>
-      <c r="AL19" s="6">
+      <c r="AN19" s="6">
         <v>1.5047999999999999</v>
       </c>
-      <c r="AM19" s="6">
+      <c r="AO19" s="6">
         <v>-0.25419999999999998</v>
       </c>
-      <c r="AN19" s="6">
+      <c r="AP19" s="6">
         <v>1.5065</v>
       </c>
-      <c r="AO19" s="9">
+      <c r="AQ19" s="9">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AP19" s="6">
+      <c r="AR19" s="6">
         <v>1.2826</v>
       </c>
-      <c r="AQ19" s="6">
+      <c r="AS19" s="6">
         <v>-3.9E-2</v>
       </c>
-      <c r="AR19" s="6">
+      <c r="AT19" s="6">
         <v>1.3712</v>
       </c>
-      <c r="AS19" s="9">
+      <c r="AU19" s="9">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="AT19" s="6">
+      <c r="AV19" s="6">
         <v>1.3926000000000001</v>
       </c>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="7"/>
-      <c r="AW19" s="8" t="s">
+      <c r="AW19" s="33"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ19" s="8" t="s">
+      <c r="AZ19">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="BA19" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="BA19" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB19">
-        <v>1.24E-2</v>
       </c>
       <c r="BC19">
         <v>1.24E-2</v>
       </c>
       <c r="BD19">
+        <v>1.24E-2</v>
+      </c>
+      <c r="BE19">
         <v>1.2169000000000001</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BF19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="18">
+    <row r="20" spans="1:58" ht="18">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -12406,85 +15403,90 @@
       <c r="AB20" s="6">
         <v>1.2291000000000001</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6">
         <v>-6.4999999999999997E-3</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AF20" s="6">
         <v>1.2279</v>
       </c>
-      <c r="AE20" s="6">
+      <c r="AG20" s="6">
         <v>-0.02</v>
       </c>
-      <c r="AF20" s="6">
+      <c r="AH20" s="6">
         <v>1.2261</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AI20" s="6">
         <v>-3.1E-2</v>
       </c>
-      <c r="AH20" s="6">
+      <c r="AJ20" s="6">
         <v>1.2250000000000001</v>
       </c>
-      <c r="AI20" s="6">
+      <c r="AK20" s="6">
         <v>-0.19159999999999999</v>
       </c>
-      <c r="AJ20" s="6">
+      <c r="AL20" s="6">
         <v>1.3062</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AM20" s="6">
         <v>-0.19139999999999999</v>
       </c>
-      <c r="AL20" s="6">
+      <c r="AN20" s="6">
         <v>1.3145</v>
       </c>
-      <c r="AM20" s="6">
+      <c r="AO20" s="6">
         <v>-0.1983</v>
       </c>
-      <c r="AN20" s="6">
+      <c r="AP20" s="6">
         <v>1.3192999999999999</v>
       </c>
-      <c r="AO20" s="6">
+      <c r="AQ20" s="6">
         <v>-0.2359</v>
       </c>
-      <c r="AP20" s="6">
+      <c r="AR20" s="6">
         <v>1.5385</v>
       </c>
-      <c r="AQ20" s="6">
+      <c r="AS20" s="6">
         <v>-7.9500000000000001E-2</v>
       </c>
-      <c r="AR20" s="6">
+      <c r="AT20" s="6">
         <v>1.3734</v>
       </c>
-      <c r="AS20" s="6">
+      <c r="AU20" s="6">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="AT20" s="6">
+      <c r="AV20" s="6">
         <v>1.6053999999999999</v>
       </c>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="7"/>
-      <c r="AW20" s="8" t="s">
+      <c r="AW20" s="33"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ20" s="8" t="s">
+      <c r="AZ20">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="BA20" s="8">
+        <v>0.5181</v>
+      </c>
+      <c r="BB20" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="BA20" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB20">
-        <v>1.77E-2</v>
       </c>
       <c r="BC20">
         <v>1.77E-2</v>
       </c>
       <c r="BD20">
+        <v>1.77E-2</v>
+      </c>
+      <c r="BE20">
         <v>1.1725000000000001</v>
       </c>
-      <c r="BE20" t="s">
+      <c r="BF20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="18">
+    <row r="21" spans="1:58" ht="18">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -12545,71 +15547,71 @@
       <c r="AB21" s="6">
         <v>1.1862999999999999</v>
       </c>
-      <c r="AC21" s="6">
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AF21" s="6">
         <v>1.1875</v>
       </c>
-      <c r="AE21" s="6">
+      <c r="AG21" s="6">
         <v>-0.2089</v>
       </c>
-      <c r="AF21" s="6">
+      <c r="AH21" s="6">
         <v>1.2791999999999999</v>
       </c>
-      <c r="AG21" s="6">
+      <c r="AI21" s="6">
         <v>-0.19739999999999999</v>
       </c>
-      <c r="AH21" s="6">
+      <c r="AJ21" s="6">
         <v>1.2946</v>
       </c>
-      <c r="AI21" s="6">
+      <c r="AK21" s="6">
         <v>-3.8899999999999997E-2</v>
       </c>
-      <c r="AJ21" s="6">
+      <c r="AL21" s="6">
         <v>1.2252000000000001</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AM21" s="6">
         <v>-4.2700000000000002E-2</v>
       </c>
-      <c r="AL21" s="6">
+      <c r="AN21" s="6">
         <v>1.2270000000000001</v>
       </c>
-      <c r="AM21" s="6">
+      <c r="AO21" s="6">
         <v>-4.1300000000000003E-2</v>
       </c>
-      <c r="AN21" s="6">
+      <c r="AP21" s="6">
         <v>1.2302</v>
       </c>
-      <c r="AO21" s="6">
+      <c r="AQ21" s="6">
         <v>-7.4000000000000003E-3</v>
       </c>
-      <c r="AP21" s="6">
+      <c r="AR21" s="6">
         <v>1.2465999999999999</v>
       </c>
-      <c r="AQ21" s="6">
+      <c r="AS21" s="6">
         <v>-4.48E-2</v>
       </c>
-      <c r="AR21" s="6">
+      <c r="AT21" s="6">
         <v>1.6465000000000001</v>
       </c>
-      <c r="AS21" s="6">
+      <c r="AU21" s="6">
         <v>-7.8899999999999998E-2</v>
       </c>
-      <c r="AT21" s="6">
+      <c r="AV21" s="6">
         <v>1.5869</v>
       </c>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="7"/>
-      <c r="AW21" s="8" t="s">
+      <c r="AW21" s="33"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ21" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
     </row>
-    <row r="22" spans="1:57" ht="18">
+    <row r="22" spans="1:58" ht="18">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -12670,72 +15672,72 @@
       <c r="AB22" s="6">
         <v>1.8230999999999999</v>
       </c>
-      <c r="AC22" s="6">
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6">
         <v>-0.12640000000000001</v>
       </c>
-      <c r="AD22" s="6">
+      <c r="AF22" s="6">
         <v>1.8102</v>
       </c>
-      <c r="AE22" s="6">
+      <c r="AG22" s="6">
         <v>-0.22639999999999999</v>
       </c>
-      <c r="AF22" s="6">
+      <c r="AH22" s="6">
         <v>2.0142000000000002</v>
       </c>
-      <c r="AG22" s="6">
+      <c r="AI22" s="6">
         <v>-0.122</v>
       </c>
-      <c r="AH22" s="6">
+      <c r="AJ22" s="6">
         <v>2.1821999999999999</v>
       </c>
-      <c r="AI22" s="6">
+      <c r="AK22" s="6">
         <v>-0.1198</v>
       </c>
-      <c r="AJ22" s="6">
+      <c r="AL22" s="6">
         <v>2.1753</v>
       </c>
-      <c r="AK22" s="6">
+      <c r="AM22" s="6">
         <v>-0.11799999999999999</v>
       </c>
-      <c r="AL22" s="6">
+      <c r="AN22" s="6">
         <v>2.1707000000000001</v>
       </c>
-      <c r="AM22" s="6">
+      <c r="AO22" s="6">
         <v>-0.11650000000000001</v>
       </c>
-      <c r="AN22" s="6">
+      <c r="AP22" s="6">
         <v>2.169</v>
       </c>
-      <c r="AO22" s="6">
+      <c r="AQ22" s="6">
         <v>-0.1075</v>
       </c>
-      <c r="AP22" s="6">
+      <c r="AR22" s="6">
         <v>2.1497999999999999</v>
       </c>
-      <c r="AQ22" s="6">
+      <c r="AS22" s="6">
         <v>-7.3300000000000004E-2</v>
       </c>
-      <c r="AR22" s="6">
+      <c r="AT22" s="6">
         <v>2.0535999999999999</v>
       </c>
-      <c r="AS22" s="6">
+      <c r="AU22" s="6">
         <v>-5.8099999999999999E-2</v>
       </c>
-      <c r="AT22" s="6">
+      <c r="AV22" s="6">
         <v>1.9810000000000001</v>
       </c>
-      <c r="AU22" s="30" t="s">
+      <c r="AW22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AW22" s="8" t="s">
+      <c r="AY22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ22" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
     </row>
-    <row r="23" spans="1:57" ht="18">
+    <row r="23" spans="1:58" ht="18">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -12796,70 +15798,70 @@
       <c r="AB23" s="6">
         <v>2.0167000000000002</v>
       </c>
-      <c r="AC23" s="6">
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6">
         <v>-0.22770000000000001</v>
       </c>
-      <c r="AD23" s="6">
+      <c r="AF23" s="6">
         <v>2.0154999999999998</v>
       </c>
-      <c r="AE23" s="6">
+      <c r="AG23" s="6">
         <v>-0.1242</v>
       </c>
-      <c r="AF23" s="6">
+      <c r="AH23" s="6">
         <v>2.1913</v>
       </c>
-      <c r="AG23" s="6">
+      <c r="AI23" s="6">
         <v>-0.22559999999999999</v>
       </c>
-      <c r="AH23" s="6">
+      <c r="AJ23" s="6">
         <v>2.0125000000000002</v>
       </c>
-      <c r="AI23" s="6">
+      <c r="AK23" s="6">
         <v>-0.22539999999999999</v>
       </c>
-      <c r="AJ23" s="6">
+      <c r="AL23" s="6">
         <v>2.0104000000000002</v>
       </c>
-      <c r="AK23" s="6">
+      <c r="AM23" s="6">
         <v>-0.2258</v>
       </c>
-      <c r="AL23" s="6">
+      <c r="AN23" s="6">
         <v>2.0078999999999998</v>
       </c>
-      <c r="AM23" s="6">
+      <c r="AO23" s="6">
         <v>-0.22689999999999999</v>
       </c>
-      <c r="AN23" s="6">
+      <c r="AP23" s="6">
         <v>2.0047000000000001</v>
       </c>
-      <c r="AO23" s="6">
+      <c r="AQ23" s="6">
         <v>-0.24129999999999999</v>
       </c>
-      <c r="AP23" s="6">
+      <c r="AR23" s="6">
         <v>1.9822</v>
       </c>
-      <c r="AQ23" s="6">
+      <c r="AS23" s="6">
         <v>-2.93E-2</v>
       </c>
-      <c r="AR23" s="6">
+      <c r="AT23" s="6">
         <v>1.7437</v>
       </c>
-      <c r="AS23" s="6">
+      <c r="AU23" s="6">
         <v>-0.16520000000000001</v>
       </c>
-      <c r="AT23" s="6">
+      <c r="AV23" s="6">
         <v>2.1252</v>
       </c>
-      <c r="AU23" s="30"/>
-      <c r="AW23" s="8" t="s">
+      <c r="AW23" s="32"/>
+      <c r="AY23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ23" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
     </row>
-    <row r="24" spans="1:57" ht="18">
+    <row r="24" spans="1:58" ht="18">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -12920,70 +15922,70 @@
       <c r="AB24" s="6">
         <v>2.2136</v>
       </c>
-      <c r="AC24" s="6">
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6">
         <v>-0.12640000000000001</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AF24" s="6">
         <v>2.2021999999999999</v>
       </c>
-      <c r="AE24" s="6">
+      <c r="AG24" s="6">
         <v>-0.11609999999999999</v>
       </c>
-      <c r="AF24" s="6">
+      <c r="AH24" s="6">
         <v>1.7995000000000001</v>
       </c>
-      <c r="AG24" s="6">
+      <c r="AI24" s="6">
         <v>-0.1077</v>
       </c>
-      <c r="AH24" s="6">
+      <c r="AJ24" s="6">
         <v>1.7918000000000001</v>
       </c>
-      <c r="AI24" s="6">
+      <c r="AK24" s="6">
         <v>-0.1019</v>
       </c>
-      <c r="AJ24" s="6">
+      <c r="AL24" s="6">
         <v>1.7867</v>
       </c>
-      <c r="AK24" s="6">
+      <c r="AM24" s="6">
         <v>-9.9099999999999994E-2</v>
       </c>
-      <c r="AL24" s="6">
+      <c r="AN24" s="6">
         <v>1.784</v>
       </c>
-      <c r="AM24" s="6">
+      <c r="AO24" s="6">
         <v>-9.9599999999999994E-2</v>
       </c>
-      <c r="AN24" s="6">
+      <c r="AP24" s="6">
         <v>1.7838000000000001</v>
       </c>
-      <c r="AO24" s="6">
+      <c r="AQ24" s="6">
         <v>-0.10340000000000001</v>
       </c>
-      <c r="AP24" s="6">
+      <c r="AR24" s="6">
         <v>1.774</v>
       </c>
-      <c r="AQ24" s="6">
+      <c r="AS24" s="6">
         <v>-0.21479999999999999</v>
       </c>
-      <c r="AR24" s="6">
+      <c r="AT24" s="6">
         <v>2.1949999999999998</v>
       </c>
-      <c r="AS24" s="6">
+      <c r="AU24" s="6">
         <v>-3.5999999999999997E-2</v>
       </c>
-      <c r="AT24" s="6">
+      <c r="AV24" s="6">
         <v>1.7828999999999999</v>
       </c>
-      <c r="AU24" s="30"/>
-      <c r="AW24" s="8" t="s">
+      <c r="AW24" s="32"/>
+      <c r="AY24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ24" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
     </row>
-    <row r="25" spans="1:57" ht="18">
+    <row r="25" spans="1:58" ht="18">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -13044,70 +16046,70 @@
       <c r="AB25" s="6">
         <v>1.6811</v>
       </c>
-      <c r="AC25" s="6">
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6">
         <v>-0.13450000000000001</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AF25" s="6">
         <v>1.669</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AG25" s="6">
         <v>-0.1229</v>
       </c>
-      <c r="AF25" s="6">
+      <c r="AH25" s="6">
         <v>1.6591</v>
       </c>
-      <c r="AG25" s="6">
+      <c r="AI25" s="6">
         <v>-0.1129</v>
       </c>
-      <c r="AH25" s="6">
+      <c r="AJ25" s="6">
         <v>1.6518999999999999</v>
       </c>
-      <c r="AI25" s="6">
+      <c r="AK25" s="6">
         <v>-0.1053</v>
       </c>
-      <c r="AJ25" s="6">
+      <c r="AL25" s="6">
         <v>1.6471</v>
       </c>
-      <c r="AK25" s="6">
+      <c r="AM25" s="6">
         <v>-0.1007</v>
       </c>
-      <c r="AL25" s="6">
+      <c r="AN25" s="6">
         <v>1.6444000000000001</v>
       </c>
-      <c r="AM25" s="6">
+      <c r="AO25" s="6">
         <v>-9.9500000000000005E-2</v>
       </c>
-      <c r="AN25" s="6">
+      <c r="AP25" s="6">
         <v>1.6439999999999999</v>
       </c>
-      <c r="AO25" s="6">
+      <c r="AQ25" s="6">
         <v>-9.2299999999999993E-2</v>
       </c>
-      <c r="AP25" s="6">
+      <c r="AR25" s="6">
         <v>1.6335999999999999</v>
       </c>
-      <c r="AQ25" s="6">
+      <c r="AS25" s="6">
         <v>-0.30399999999999999</v>
       </c>
-      <c r="AR25" s="6">
+      <c r="AT25" s="6">
         <v>1.9954000000000001</v>
       </c>
-      <c r="AS25" s="6">
+      <c r="AU25" s="6">
         <v>-0.17749999999999999</v>
       </c>
-      <c r="AT25" s="6">
+      <c r="AV25" s="6">
         <v>2.1558999999999999</v>
       </c>
-      <c r="AU25" s="30"/>
-      <c r="AW25" s="8" t="s">
+      <c r="AW25" s="32"/>
+      <c r="AY25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ25" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
     </row>
-    <row r="26" spans="1:57" ht="18">
+    <row r="26" spans="1:58" ht="18">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -13168,70 +16170,70 @@
       <c r="AB26" s="6">
         <v>1.7751999999999999</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6">
         <v>-0.28939999999999999</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AF26" s="6">
         <v>2.3001999999999998</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AG26" s="6">
         <v>-0.28060000000000002</v>
       </c>
-      <c r="AF26" s="6">
+      <c r="AH26" s="6">
         <v>2.2911000000000001</v>
       </c>
-      <c r="AG26" s="6">
+      <c r="AI26" s="6">
         <v>-0.27400000000000002</v>
       </c>
-      <c r="AH26" s="6">
+      <c r="AJ26" s="6">
         <v>2.2841999999999998</v>
       </c>
-      <c r="AI26" s="6">
+      <c r="AK26" s="6">
         <v>-0.26960000000000001</v>
       </c>
-      <c r="AJ26" s="6">
+      <c r="AL26" s="6">
         <v>2.2795000000000001</v>
       </c>
-      <c r="AK26" s="6">
+      <c r="AM26" s="6">
         <v>-0.2676</v>
       </c>
-      <c r="AL26" s="6">
+      <c r="AN26" s="6">
         <v>2.2768999999999999</v>
       </c>
-      <c r="AM26" s="6">
+      <c r="AO26" s="6">
         <v>-0.26829999999999998</v>
       </c>
-      <c r="AN26" s="6">
+      <c r="AP26" s="6">
         <v>2.2770000000000001</v>
       </c>
-      <c r="AO26" s="6">
+      <c r="AQ26" s="6">
         <v>-0.2722</v>
       </c>
-      <c r="AP26" s="6">
+      <c r="AR26" s="6">
         <v>2.2690000000000001</v>
       </c>
-      <c r="AQ26" s="6">
+      <c r="AS26" s="6">
         <v>-0.2457</v>
       </c>
-      <c r="AR26" s="6">
+      <c r="AT26" s="6">
         <v>2.2174</v>
       </c>
-      <c r="AS26" s="6">
+      <c r="AU26" s="6">
         <v>-6.6699999999999995E-2</v>
       </c>
-      <c r="AT26" s="6">
+      <c r="AV26" s="6">
         <v>1.7674000000000001</v>
       </c>
-      <c r="AU26" s="30"/>
-      <c r="AW26" s="8" t="s">
+      <c r="AW26" s="32"/>
+      <c r="AY26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ26" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
     </row>
-    <row r="27" spans="1:57" ht="18">
+    <row r="27" spans="1:58" ht="18">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -13292,70 +16294,70 @@
       <c r="AB27" s="6">
         <v>2.3108</v>
       </c>
-      <c r="AC27" s="6">
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6">
         <v>-0.34910000000000002</v>
       </c>
-      <c r="AD27" s="6">
+      <c r="AF27" s="6">
         <v>1.7565</v>
       </c>
-      <c r="AE27" s="6">
+      <c r="AG27" s="6">
         <v>-0.33679999999999999</v>
       </c>
-      <c r="AF27" s="6">
+      <c r="AH27" s="6">
         <v>1.7410000000000001</v>
       </c>
-      <c r="AG27" s="6">
+      <c r="AI27" s="6">
         <v>-0.3256</v>
       </c>
-      <c r="AH27" s="6">
+      <c r="AJ27" s="6">
         <v>1.7296</v>
       </c>
-      <c r="AI27" s="6">
+      <c r="AK27" s="6">
         <v>-0.31659999999999999</v>
       </c>
-      <c r="AJ27" s="6">
+      <c r="AL27" s="6">
         <v>1.7219</v>
       </c>
-      <c r="AK27" s="6">
+      <c r="AM27" s="6">
         <v>-0.31080000000000002</v>
       </c>
-      <c r="AL27" s="6">
+      <c r="AN27" s="6">
         <v>1.7174</v>
       </c>
-      <c r="AM27" s="6">
+      <c r="AO27" s="6">
         <v>-0.30919999999999997</v>
       </c>
-      <c r="AN27" s="6">
+      <c r="AP27" s="6">
         <v>1.7163999999999999</v>
       </c>
-      <c r="AO27" s="6">
+      <c r="AQ27" s="6">
         <v>-0.2984</v>
       </c>
-      <c r="AP27" s="6">
+      <c r="AR27" s="6">
         <v>1.6867000000000001</v>
       </c>
-      <c r="AQ27" s="6">
+      <c r="AS27" s="6">
         <v>-0.1173</v>
       </c>
-      <c r="AR27" s="6">
+      <c r="AT27" s="6">
         <v>1.6667000000000001</v>
       </c>
-      <c r="AS27" s="6">
+      <c r="AU27" s="6">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="AT27" s="6">
+      <c r="AV27" s="6">
         <v>1.7371000000000001</v>
       </c>
-      <c r="AU27" s="30"/>
-      <c r="AW27" s="8" t="s">
+      <c r="AW27" s="32"/>
+      <c r="AY27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ27" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
     </row>
-    <row r="28" spans="1:57" ht="18">
+    <row r="28" spans="1:58" ht="18">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -13416,70 +16418,70 @@
       <c r="AB28" s="6">
         <v>1.5464</v>
       </c>
-      <c r="AC28" s="6">
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6">
         <v>-0.13880000000000001</v>
       </c>
-      <c r="AD28" s="6">
+      <c r="AF28" s="6">
         <v>1.55</v>
       </c>
-      <c r="AE28" s="6">
+      <c r="AG28" s="6">
         <v>-0.1268</v>
       </c>
-      <c r="AF28" s="6">
+      <c r="AH28" s="6">
         <v>1.5542</v>
       </c>
-      <c r="AG28" s="6">
+      <c r="AI28" s="6">
         <v>-0.1178</v>
       </c>
-      <c r="AH28" s="6">
+      <c r="AJ28" s="6">
         <v>1.5581</v>
       </c>
-      <c r="AI28" s="6">
+      <c r="AK28" s="6">
         <v>-0.11219999999999999</v>
       </c>
-      <c r="AJ28" s="6">
+      <c r="AL28" s="6">
         <v>1.5612999999999999</v>
       </c>
-      <c r="AK28" s="6">
+      <c r="AM28" s="6">
         <v>-0.1099</v>
       </c>
-      <c r="AL28" s="6">
+      <c r="AN28" s="6">
         <v>1.5633999999999999</v>
       </c>
-      <c r="AM28" s="6">
+      <c r="AO28" s="6">
         <v>-0.1119</v>
       </c>
-      <c r="AN28" s="6">
+      <c r="AP28" s="6">
         <v>1.5642</v>
       </c>
-      <c r="AO28" s="6">
+      <c r="AQ28" s="6">
         <v>-0.39219999999999999</v>
       </c>
-      <c r="AP28" s="6">
+      <c r="AR28" s="6">
         <v>1.7826</v>
       </c>
-      <c r="AQ28" s="6">
+      <c r="AS28" s="6">
         <v>-4.48E-2</v>
       </c>
-      <c r="AR28" s="6">
+      <c r="AT28" s="6">
         <v>1.6465000000000001</v>
       </c>
-      <c r="AS28" s="6">
+      <c r="AU28" s="6">
         <v>-1.2800000000000001E-2</v>
       </c>
-      <c r="AT28" s="6">
+      <c r="AV28" s="6">
         <v>1.7339</v>
       </c>
-      <c r="AU28" s="30"/>
-      <c r="AW28" s="8" t="s">
+      <c r="AW28" s="32"/>
+      <c r="AY28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ28" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA28" s="8"/>
+      <c r="BB28" s="8"/>
     </row>
-    <row r="29" spans="1:57" ht="18">
+    <row r="29" spans="1:58" ht="18">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -13540,70 +16542,70 @@
       <c r="AB29" s="6">
         <v>2.4546999999999999</v>
       </c>
-      <c r="AC29" s="6">
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6">
         <v>-0.25480000000000003</v>
       </c>
-      <c r="AD29" s="6">
+      <c r="AF29" s="6">
         <v>2.4504999999999999</v>
       </c>
-      <c r="AE29" s="6">
+      <c r="AG29" s="6">
         <v>-0.28620000000000001</v>
       </c>
-      <c r="AF29" s="6">
+      <c r="AH29" s="6">
         <v>2.4245000000000001</v>
       </c>
-      <c r="AG29" s="6">
+      <c r="AI29" s="6">
         <v>-0.28079999999999999</v>
       </c>
-      <c r="AH29" s="6">
+      <c r="AJ29" s="6">
         <v>2.4161999999999999</v>
       </c>
-      <c r="AI29" s="6">
+      <c r="AK29" s="6">
         <v>-0.27689999999999998</v>
       </c>
-      <c r="AJ29" s="6">
+      <c r="AL29" s="6">
         <v>2.4106000000000001</v>
       </c>
-      <c r="AK29" s="6">
+      <c r="AM29" s="6">
         <v>-0.2747</v>
       </c>
-      <c r="AL29" s="6">
+      <c r="AN29" s="6">
         <v>2.4077000000000002</v>
       </c>
-      <c r="AM29" s="6">
+      <c r="AO29" s="6">
         <v>-0.27429999999999999</v>
       </c>
-      <c r="AN29" s="6">
+      <c r="AP29" s="6">
         <v>2.4083000000000001</v>
       </c>
-      <c r="AO29" s="6">
+      <c r="AQ29" s="6">
         <v>-0.12089999999999999</v>
       </c>
-      <c r="AP29" s="6">
+      <c r="AR29" s="6">
         <v>1.5650999999999999</v>
       </c>
-      <c r="AQ29" s="6">
+      <c r="AS29" s="6">
         <v>-2.2800000000000001E-2</v>
       </c>
-      <c r="AR29" s="6">
+      <c r="AT29" s="6">
         <v>1.6256999999999999</v>
       </c>
-      <c r="AS29" s="6">
+      <c r="AU29" s="6">
         <v>-3.4500000000000003E-2</v>
       </c>
-      <c r="AT29" s="6">
+      <c r="AV29" s="6">
         <v>1.7274</v>
       </c>
-      <c r="AU29" s="30"/>
-      <c r="AW29" s="8" t="s">
+      <c r="AW29" s="32"/>
+      <c r="AY29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ29" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
     </row>
-    <row r="30" spans="1:57" ht="18">
+    <row r="30" spans="1:58" ht="18">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -13664,70 +16666,70 @@
       <c r="AB30" s="6">
         <v>1.5157</v>
       </c>
-      <c r="AC30" s="6">
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6">
         <v>-0.29289999999999999</v>
       </c>
-      <c r="AD30" s="6">
+      <c r="AF30" s="6">
         <v>2.4357000000000002</v>
       </c>
-      <c r="AE30" s="6">
+      <c r="AG30" s="6">
         <v>-0.25159999999999999</v>
       </c>
-      <c r="AF30" s="6">
+      <c r="AH30" s="6">
         <v>2.4466000000000001</v>
       </c>
-      <c r="AG30" s="6">
+      <c r="AI30" s="6">
         <v>-0.24940000000000001</v>
       </c>
-      <c r="AH30" s="6">
+      <c r="AJ30" s="6">
         <v>2.4430000000000001</v>
       </c>
-      <c r="AI30" s="6">
+      <c r="AK30" s="6">
         <v>-0.24829999999999999</v>
       </c>
-      <c r="AJ30" s="6">
+      <c r="AL30" s="6">
         <v>2.4398</v>
       </c>
-      <c r="AK30" s="6">
+      <c r="AM30" s="6">
         <v>-0.24840000000000001</v>
       </c>
-      <c r="AL30" s="6">
+      <c r="AN30" s="6">
         <v>2.4369999999999998</v>
       </c>
-      <c r="AM30" s="6">
+      <c r="AO30" s="6">
         <v>-0.25</v>
       </c>
-      <c r="AN30" s="6">
+      <c r="AP30" s="6">
         <v>2.4346000000000001</v>
       </c>
-      <c r="AO30" s="6">
+      <c r="AQ30" s="6">
         <v>-0.31569999999999998</v>
       </c>
-      <c r="AP30" s="6">
+      <c r="AR30" s="6">
         <v>2.3549000000000002</v>
       </c>
-      <c r="AQ30" s="6">
+      <c r="AS30" s="6">
         <v>-0.21490000000000001</v>
       </c>
-      <c r="AR30" s="6">
+      <c r="AT30" s="6">
         <v>1.6771</v>
       </c>
-      <c r="AS30" s="6">
+      <c r="AU30" s="6">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="AT30" s="6">
+      <c r="AV30" s="6">
         <v>1.7290000000000001</v>
       </c>
-      <c r="AU30" s="30"/>
-      <c r="AW30" s="8" t="s">
+      <c r="AW30" s="32"/>
+      <c r="AY30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ30" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
     </row>
-    <row r="31" spans="1:57" ht="18">
+    <row r="31" spans="1:58" ht="18">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -13788,70 +16790,70 @@
       <c r="AB31" s="6">
         <v>2.4489000000000001</v>
       </c>
-      <c r="AC31" s="6">
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6">
         <v>-0.15540000000000001</v>
       </c>
-      <c r="AD31" s="6">
+      <c r="AF31" s="6">
         <v>2.5160999999999998</v>
       </c>
-      <c r="AE31" s="6">
+      <c r="AG31" s="6">
         <v>-0.15359999999999999</v>
       </c>
-      <c r="AF31" s="6">
+      <c r="AH31" s="6">
         <v>2.5114000000000001</v>
       </c>
-      <c r="AG31" s="6">
+      <c r="AI31" s="6">
         <v>-0.152</v>
       </c>
-      <c r="AH31" s="6">
+      <c r="AJ31" s="6">
         <v>2.5072000000000001</v>
       </c>
-      <c r="AI31" s="6">
+      <c r="AK31" s="6">
         <v>-0.15090000000000001</v>
       </c>
-      <c r="AJ31" s="6">
+      <c r="AL31" s="6">
         <v>2.5036</v>
       </c>
-      <c r="AK31" s="6">
+      <c r="AM31" s="6">
         <v>-0.34399999999999997</v>
       </c>
-      <c r="AL31" s="6">
+      <c r="AN31" s="6">
         <v>2.3932000000000002</v>
       </c>
-      <c r="AM31" s="6">
+      <c r="AO31" s="6">
         <v>-0.34050000000000002</v>
       </c>
-      <c r="AN31" s="6">
+      <c r="AP31" s="6">
         <v>2.3898999999999999</v>
       </c>
-      <c r="AO31" s="6">
+      <c r="AQ31" s="6">
         <v>-0.26900000000000002</v>
       </c>
-      <c r="AP31" s="6">
+      <c r="AR31" s="6">
         <v>2.4022000000000001</v>
       </c>
-      <c r="AQ31" s="6">
+      <c r="AS31" s="6">
         <v>-0.215</v>
       </c>
-      <c r="AR31" s="6">
+      <c r="AT31" s="6">
         <v>2.3233999999999999</v>
       </c>
-      <c r="AS31" s="6">
+      <c r="AU31" s="6">
         <v>-8.8300000000000003E-2</v>
       </c>
-      <c r="AT31" s="6">
+      <c r="AV31" s="6">
         <v>2.3060999999999998</v>
       </c>
-      <c r="AU31" s="30"/>
-      <c r="AW31" s="8" t="s">
+      <c r="AW31" s="32"/>
+      <c r="AY31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ31" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA31" s="8"/>
+      <c r="BB31" s="8"/>
     </row>
-    <row r="32" spans="1:57" ht="18">
+    <row r="32" spans="1:58" ht="18">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -13915,65 +16917,69 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>0.55810000000000004</v>
+      </c>
+      <c r="AG32" s="6">
         <v>-0.09</v>
       </c>
-      <c r="AF32" s="6">
+      <c r="AH32" s="6">
         <v>0.55969999999999998</v>
       </c>
-      <c r="AG32" s="6">
+      <c r="AI32" s="6">
         <v>-8.7499999999999994E-2</v>
       </c>
-      <c r="AH32" s="6">
+      <c r="AJ32" s="6">
         <v>0.56069999999999998</v>
       </c>
-      <c r="AI32" s="6">
+      <c r="AK32" s="6">
         <v>-8.6199999999999999E-2</v>
       </c>
-      <c r="AJ32" s="6">
+      <c r="AL32" s="6">
         <v>0.56110000000000004</v>
       </c>
-      <c r="AK32" s="6">
+      <c r="AM32" s="6">
         <v>-8.5900000000000004E-2</v>
       </c>
-      <c r="AL32" s="6">
+      <c r="AN32" s="6">
         <v>0.56089999999999995</v>
       </c>
-      <c r="AM32" s="6">
+      <c r="AO32" s="6">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="AN32" s="6">
+      <c r="AP32" s="6">
         <v>0.55989999999999995</v>
       </c>
-      <c r="AO32" s="6">
+      <c r="AQ32" s="6">
         <v>-9.3299999999999994E-2</v>
       </c>
-      <c r="AP32" s="6">
+      <c r="AR32" s="6">
         <v>0.55269999999999997</v>
       </c>
-      <c r="AQ32" s="6">
+      <c r="AS32" s="6">
         <v>-7.5600000000000001E-2</v>
       </c>
-      <c r="AR32" s="6">
+      <c r="AT32" s="6">
         <v>0.55430000000000001</v>
       </c>
-      <c r="AS32" s="6">
+      <c r="AU32" s="6">
         <v>-0.1105</v>
       </c>
-      <c r="AT32" s="6">
+      <c r="AV32" s="6">
         <v>0.74139999999999995</v>
       </c>
-      <c r="AU32" s="31" t="s">
+      <c r="AW32" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AW32" s="8" t="s">
+      <c r="AY32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ32" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA32" s="8"/>
+      <c r="BB32" s="8"/>
     </row>
-    <row r="33" spans="1:53" ht="18">
+    <row r="33" spans="1:54" ht="18">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -14037,63 +17043,67 @@
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="6">
+        <v>-0.1595</v>
+      </c>
+      <c r="AF33" s="6">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="AG33" s="6">
         <v>-0.16120000000000001</v>
       </c>
-      <c r="AF33" s="6">
+      <c r="AH33" s="6">
         <v>0.87680000000000002</v>
       </c>
-      <c r="AG33" s="6">
+      <c r="AI33" s="6">
         <v>-0.16270000000000001</v>
-      </c>
-      <c r="AH33" s="6">
-        <v>0.87739999999999996</v>
-      </c>
-      <c r="AI33" s="6">
-        <v>-0.16400000000000001</v>
       </c>
       <c r="AJ33" s="6">
         <v>0.87739999999999996</v>
       </c>
       <c r="AK33" s="6">
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="AL33" s="6">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="AM33" s="6">
         <v>-0.16500000000000001</v>
       </c>
-      <c r="AL33" s="6">
+      <c r="AN33" s="6">
         <v>0.87680000000000002</v>
       </c>
-      <c r="AM33" s="6">
+      <c r="AO33" s="6">
         <v>-0.1656</v>
       </c>
-      <c r="AN33" s="6">
+      <c r="AP33" s="6">
         <v>0.87549999999999994</v>
       </c>
-      <c r="AO33" s="6">
+      <c r="AQ33" s="6">
         <v>-0.17530000000000001</v>
       </c>
-      <c r="AP33" s="6">
+      <c r="AR33" s="6">
         <v>0.86370000000000002</v>
       </c>
-      <c r="AQ33" s="6">
+      <c r="AS33" s="6">
         <v>-0.18010000000000001</v>
       </c>
-      <c r="AR33" s="6">
+      <c r="AT33" s="6">
         <v>0.75490000000000002</v>
       </c>
-      <c r="AS33" s="6">
+      <c r="AU33" s="6">
         <v>-6.3899999999999998E-2</v>
       </c>
-      <c r="AT33" s="6">
+      <c r="AV33" s="6">
         <v>0.54169999999999996</v>
       </c>
-      <c r="AU33" s="31"/>
-      <c r="AW33" s="8" t="s">
+      <c r="AW33" s="33"/>
+      <c r="AY33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ33" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA33" s="8"/>
+      <c r="BB33" s="8"/>
     </row>
-    <row r="34" spans="1:53" ht="18">
+    <row r="34" spans="1:54" ht="18">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -14157,63 +17167,67 @@
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
       <c r="AE34" s="6">
+        <v>-0.24260000000000001</v>
+      </c>
+      <c r="AF34" s="6">
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="AG34" s="6">
         <v>-0.24179999999999999</v>
       </c>
-      <c r="AF34" s="6">
+      <c r="AH34" s="6">
         <v>0.6986</v>
       </c>
-      <c r="AG34" s="6">
+      <c r="AI34" s="6">
         <v>-0.24149999999999999</v>
       </c>
-      <c r="AH34" s="6">
+      <c r="AJ34" s="6">
         <v>0.70209999999999995</v>
       </c>
-      <c r="AI34" s="6">
+      <c r="AK34" s="6">
         <v>-0.24199999999999999</v>
       </c>
-      <c r="AJ34" s="6">
+      <c r="AL34" s="6">
         <v>0.70679999999999998</v>
       </c>
-      <c r="AK34" s="6">
+      <c r="AM34" s="6">
         <v>-0.2432</v>
       </c>
-      <c r="AL34" s="6">
+      <c r="AN34" s="6">
         <v>0.71299999999999997</v>
       </c>
-      <c r="AM34" s="6">
+      <c r="AO34" s="6">
         <v>-0.24510000000000001</v>
       </c>
-      <c r="AN34" s="6">
+      <c r="AP34" s="6">
         <v>0.72140000000000004</v>
       </c>
-      <c r="AO34" s="6">
+      <c r="AQ34" s="6">
         <v>-0.26740000000000003</v>
       </c>
-      <c r="AP34" s="6">
+      <c r="AR34" s="6">
         <v>0.71279999999999999</v>
       </c>
-      <c r="AQ34" s="6">
+      <c r="AS34" s="6">
         <v>-0.21679999999999999</v>
       </c>
-      <c r="AR34" s="6">
+      <c r="AT34" s="6">
         <v>0.83709999999999996</v>
       </c>
-      <c r="AS34" s="6">
+      <c r="AU34" s="6">
         <v>-0.248</v>
       </c>
-      <c r="AT34" s="6">
+      <c r="AV34" s="6">
         <v>0.76359999999999995</v>
       </c>
-      <c r="AU34" s="31"/>
-      <c r="AW34" s="8" t="s">
+      <c r="AW34" s="33"/>
+      <c r="AY34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ34" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA34" s="8"/>
+      <c r="BB34" s="8"/>
     </row>
-    <row r="35" spans="1:53" ht="18">
+    <row r="35" spans="1:54" ht="18">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -14277,63 +17291,67 @@
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
       <c r="AE35" s="6">
+        <v>-0.19839999999999999</v>
+      </c>
+      <c r="AF35" s="6">
+        <v>0.8427</v>
+      </c>
+      <c r="AG35" s="6">
         <v>-0.2402</v>
       </c>
-      <c r="AF35" s="6">
+      <c r="AH35" s="6">
         <v>0.77810000000000001</v>
       </c>
-      <c r="AG35" s="6">
+      <c r="AI35" s="6">
         <v>-0.2387</v>
       </c>
-      <c r="AH35" s="6">
+      <c r="AJ35" s="6">
         <v>0.78190000000000004</v>
       </c>
-      <c r="AI35" s="6">
+      <c r="AK35" s="6">
         <v>-0.24060000000000001</v>
       </c>
-      <c r="AJ35" s="6">
+      <c r="AL35" s="6">
         <v>0.62080000000000002</v>
       </c>
-      <c r="AK35" s="6">
+      <c r="AM35" s="6">
         <v>-0.24229999999999999</v>
       </c>
-      <c r="AL35" s="6">
+      <c r="AN35" s="6">
         <v>0.62660000000000005</v>
       </c>
-      <c r="AM35" s="6">
+      <c r="AO35" s="6">
         <v>-0.24429999999999999</v>
       </c>
-      <c r="AN35" s="6">
+      <c r="AP35" s="6">
         <v>0.63429999999999997</v>
       </c>
-      <c r="AO35" s="6">
+      <c r="AQ35" s="6">
         <v>-0.26490000000000002</v>
       </c>
-      <c r="AP35" s="6">
+      <c r="AR35" s="6">
         <v>0.61360000000000003</v>
       </c>
-      <c r="AQ35" s="6">
+      <c r="AS35" s="6">
         <v>-0.32729999999999998</v>
       </c>
-      <c r="AR35" s="6">
+      <c r="AT35" s="6">
         <v>0.74929999999999997</v>
       </c>
-      <c r="AS35" s="6">
+      <c r="AU35" s="6">
         <v>-0.27939999999999998</v>
       </c>
-      <c r="AT35" s="6">
+      <c r="AV35" s="6">
         <v>0.67700000000000005</v>
       </c>
-      <c r="AU35" s="31"/>
-      <c r="AW35" s="8" t="s">
+      <c r="AW35" s="33"/>
+      <c r="AY35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ35" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA35" s="8"/>
+      <c r="BB35" s="8"/>
     </row>
-    <row r="36" spans="1:53" ht="18">
+    <row r="36" spans="1:54" ht="18">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -14397,63 +17415,67 @@
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
       <c r="AE36" s="6">
+        <v>-0.24229999999999999</v>
+      </c>
+      <c r="AF36" s="6">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="AG36" s="6">
         <v>-0.23849999999999999</v>
       </c>
-      <c r="AF36" s="6">
+      <c r="AH36" s="6">
         <v>0.61339999999999995</v>
       </c>
-      <c r="AG36" s="6">
+      <c r="AI36" s="6">
         <v>-0.23930000000000001</v>
       </c>
-      <c r="AH36" s="6">
+      <c r="AJ36" s="6">
         <v>0.61660000000000004</v>
       </c>
-      <c r="AI36" s="6">
+      <c r="AK36" s="6">
         <v>-0.23830000000000001</v>
       </c>
-      <c r="AJ36" s="6">
+      <c r="AL36" s="6">
         <v>0.78690000000000004</v>
       </c>
-      <c r="AK36" s="6">
+      <c r="AM36" s="6">
         <v>-0.23899999999999999</v>
       </c>
-      <c r="AL36" s="6">
+      <c r="AN36" s="6">
         <v>0.79369999999999996</v>
       </c>
-      <c r="AM36" s="6">
+      <c r="AO36" s="6">
         <v>-0.24110000000000001</v>
       </c>
-      <c r="AN36" s="6">
+      <c r="AP36" s="6">
         <v>0.80289999999999995</v>
       </c>
-      <c r="AO36" s="6">
+      <c r="AQ36" s="6">
         <v>-0.2681</v>
       </c>
-      <c r="AP36" s="6">
+      <c r="AR36" s="6">
         <v>0.80569999999999997</v>
       </c>
-      <c r="AQ36" s="6">
+      <c r="AS36" s="6">
         <v>-0.33210000000000001</v>
       </c>
-      <c r="AR36" s="6">
+      <c r="AT36" s="6">
         <v>0.65290000000000004</v>
       </c>
-      <c r="AS36" s="6">
+      <c r="AU36" s="6">
         <v>-0.26179999999999998</v>
       </c>
-      <c r="AT36" s="6">
+      <c r="AV36" s="6">
         <v>0.56310000000000004</v>
       </c>
-      <c r="AU36" s="31"/>
-      <c r="AW36" s="8" t="s">
+      <c r="AW36" s="33"/>
+      <c r="AY36" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ36" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA36" s="8"/>
+      <c r="BB36" s="8"/>
     </row>
-    <row r="37" spans="1:53" ht="18">
+    <row r="37" spans="1:54" ht="18">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -14517,63 +17539,67 @@
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
       <c r="AE37" s="6">
+        <v>-0.2382</v>
+      </c>
+      <c r="AF37" s="6">
+        <v>0.61080000000000001</v>
+      </c>
+      <c r="AG37" s="6">
         <v>-0.2331</v>
       </c>
-      <c r="AF37" s="6">
+      <c r="AH37" s="6">
         <v>0.85219999999999996</v>
       </c>
-      <c r="AG37" s="6">
+      <c r="AI37" s="6">
         <v>-0.2301</v>
       </c>
-      <c r="AH37" s="6">
+      <c r="AJ37" s="6">
         <v>0.85609999999999997</v>
       </c>
-      <c r="AI37" s="6">
+      <c r="AK37" s="6">
         <v>-0.18779999999999999</v>
       </c>
-      <c r="AJ37" s="6">
+      <c r="AL37" s="6">
         <v>0.49490000000000001</v>
       </c>
-      <c r="AK37" s="6">
+      <c r="AM37" s="6">
         <v>-0.19309999999999999</v>
       </c>
-      <c r="AL37" s="6">
+      <c r="AN37" s="6">
         <v>0.49719999999999998</v>
       </c>
-      <c r="AM37" s="6">
+      <c r="AO37" s="6">
         <v>-0.19939999999999999</v>
       </c>
-      <c r="AN37" s="6">
+      <c r="AP37" s="6">
         <v>0.49380000000000002</v>
       </c>
-      <c r="AO37" s="6">
+      <c r="AQ37" s="6">
         <v>-0.2641</v>
       </c>
-      <c r="AP37" s="6">
+      <c r="AR37" s="6">
         <v>0.50690000000000002</v>
       </c>
-      <c r="AQ37" s="6">
+      <c r="AS37" s="6">
         <v>-0.3236</v>
       </c>
-      <c r="AR37" s="6">
+      <c r="AT37" s="6">
         <v>0.84460000000000002</v>
       </c>
-      <c r="AS37" s="6">
+      <c r="AU37" s="6">
         <v>-0.29699999999999999</v>
       </c>
-      <c r="AT37" s="6">
+      <c r="AV37" s="6">
         <v>0.78500000000000003</v>
       </c>
-      <c r="AU37" s="31"/>
-      <c r="AW37" s="8" t="s">
+      <c r="AW37" s="33"/>
+      <c r="AY37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ37" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA37" s="8"/>
+      <c r="BB37" s="8"/>
     </row>
-    <row r="38" spans="1:53" ht="18">
+    <row r="38" spans="1:54" ht="18">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -14637,63 +17663,67 @@
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
       <c r="AE38" s="6">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="AF38" s="6">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="AG38" s="6">
         <v>-0.2316</v>
       </c>
-      <c r="AF38" s="6">
+      <c r="AH38" s="6">
         <v>0.86170000000000002</v>
       </c>
-      <c r="AG38" s="6">
+      <c r="AI38" s="6">
         <v>-0.1832</v>
       </c>
-      <c r="AH38" s="6">
+      <c r="AJ38" s="6">
         <v>0.48830000000000001</v>
       </c>
-      <c r="AI38" s="6">
+      <c r="AK38" s="6">
         <v>-0.2286</v>
       </c>
-      <c r="AJ38" s="6">
+      <c r="AL38" s="6">
         <v>0.86129999999999995</v>
       </c>
-      <c r="AK38" s="6">
+      <c r="AM38" s="6">
         <v>-0.2288</v>
       </c>
-      <c r="AL38" s="6">
+      <c r="AN38" s="6">
         <v>0.86860000000000004</v>
       </c>
-      <c r="AM38" s="6">
+      <c r="AO38" s="6">
         <v>-0.2407</v>
       </c>
-      <c r="AN38" s="6">
+      <c r="AP38" s="6">
         <v>0.53959999999999997</v>
       </c>
-      <c r="AO38" s="6">
+      <c r="AQ38" s="6">
         <v>-0.26490000000000002</v>
       </c>
-      <c r="AP38" s="6">
+      <c r="AR38" s="6">
         <v>0.89480000000000004</v>
       </c>
-      <c r="AQ38" s="6">
+      <c r="AS38" s="6">
         <v>-0.33839999999999998</v>
       </c>
-      <c r="AR38" s="6">
+      <c r="AT38" s="6">
         <v>0.55810000000000004</v>
       </c>
-      <c r="AS38" s="6">
+      <c r="AU38" s="6">
         <v>-0.1113</v>
       </c>
-      <c r="AT38" s="6">
+      <c r="AV38" s="6">
         <v>1.0102</v>
       </c>
-      <c r="AU38" s="31"/>
-      <c r="AW38" s="8" t="s">
+      <c r="AW38" s="33"/>
+      <c r="AY38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ38" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA38" s="8"/>
+      <c r="BB38" s="8"/>
     </row>
-    <row r="39" spans="1:53" ht="18">
+    <row r="39" spans="1:54" ht="18">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -14757,63 +17787,67 @@
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
       <c r="AE39" s="6">
+        <v>-0.23699999999999999</v>
+      </c>
+      <c r="AF39" s="6">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="AG39" s="6">
         <v>-0.1794</v>
       </c>
-      <c r="AF39" s="6">
+      <c r="AH39" s="6">
         <v>0.47789999999999999</v>
       </c>
-      <c r="AG39" s="6">
+      <c r="AI39" s="6">
         <v>-0.2344</v>
       </c>
-      <c r="AH39" s="6">
+      <c r="AJ39" s="6">
         <v>0.52300000000000002</v>
       </c>
-      <c r="AI39" s="6">
+      <c r="AK39" s="6">
         <v>-0.23649999999999999</v>
       </c>
-      <c r="AJ39" s="6">
+      <c r="AL39" s="6">
         <v>0.52700000000000002</v>
       </c>
-      <c r="AK39" s="6">
+      <c r="AM39" s="6">
         <v>-0.23860000000000001</v>
       </c>
-      <c r="AL39" s="6">
+      <c r="AN39" s="6">
         <v>0.53239999999999998</v>
       </c>
-      <c r="AM39" s="6">
+      <c r="AO39" s="6">
         <v>-0.2311</v>
       </c>
-      <c r="AN39" s="6">
+      <c r="AP39" s="6">
         <v>0.87890000000000001</v>
       </c>
-      <c r="AO39" s="6">
+      <c r="AQ39" s="6">
         <v>-0.28339999999999999</v>
       </c>
-      <c r="AP39" s="6">
+      <c r="AR39" s="6">
         <v>0.4874</v>
       </c>
-      <c r="AQ39" s="6">
+      <c r="AS39" s="6">
         <v>-0.1154</v>
       </c>
-      <c r="AR39" s="6">
+      <c r="AT39" s="6">
         <v>1.0586</v>
       </c>
-      <c r="AS39" s="6">
+      <c r="AU39" s="6">
         <v>-0.24879999999999999</v>
       </c>
-      <c r="AT39" s="6">
+      <c r="AV39" s="6">
         <v>0.43519999999999998</v>
       </c>
-      <c r="AU39" s="31"/>
-      <c r="AW39" s="8" t="s">
+      <c r="AW39" s="33"/>
+      <c r="AY39" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ39" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA39" s="8"/>
+      <c r="BB39" s="8"/>
     </row>
-    <row r="40" spans="1:53" ht="18">
+    <row r="40" spans="1:54" ht="18">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -14877,63 +17911,67 @@
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
       <c r="AE40" s="6">
+        <v>-0.28050000000000003</v>
+      </c>
+      <c r="AF40" s="6">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="AG40" s="6">
         <v>-0.16270000000000001</v>
       </c>
-      <c r="AF40" s="6">
+      <c r="AH40" s="6">
         <v>0.94089999999999996</v>
       </c>
-      <c r="AG40" s="6">
+      <c r="AI40" s="6">
         <v>-0.214</v>
       </c>
-      <c r="AH40" s="6">
+      <c r="AJ40" s="6">
         <v>0.92059999999999997</v>
       </c>
-      <c r="AI40" s="6">
+      <c r="AK40" s="6">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="AJ40" s="6">
+      <c r="AL40" s="6">
         <v>0.92549999999999999</v>
       </c>
-      <c r="AK40" s="6">
+      <c r="AM40" s="6">
         <v>-0.21060000000000001</v>
       </c>
-      <c r="AL40" s="6">
+      <c r="AN40" s="6">
         <v>0.93320000000000003</v>
       </c>
-      <c r="AM40" s="6">
+      <c r="AO40" s="6">
         <v>-0.21340000000000001</v>
       </c>
-      <c r="AN40" s="6">
+      <c r="AP40" s="6">
         <v>0.94469999999999998</v>
       </c>
-      <c r="AO40" s="6">
+      <c r="AQ40" s="6">
         <v>-0.25690000000000002</v>
       </c>
-      <c r="AP40" s="6">
+      <c r="AR40" s="6">
         <v>0.98099999999999998</v>
       </c>
-      <c r="AQ40" s="6">
+      <c r="AS40" s="6">
         <v>-0.31819999999999998</v>
       </c>
-      <c r="AR40" s="6">
+      <c r="AT40" s="6">
         <v>0.9395</v>
       </c>
-      <c r="AS40" s="6">
+      <c r="AU40" s="6">
         <v>-0.3175</v>
       </c>
-      <c r="AT40" s="6">
+      <c r="AV40" s="6">
         <v>0.88719999999999999</v>
       </c>
-      <c r="AU40" s="31"/>
-      <c r="AW40" s="8" t="s">
+      <c r="AW40" s="33"/>
+      <c r="AY40" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ40" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="BA40" s="8"/>
+      <c r="BB40" s="8"/>
     </row>
-    <row r="41" spans="1:53" ht="18">
+    <row r="41" spans="1:54" ht="18">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="6"/>
@@ -14997,62 +18035,67 @@
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="AF41" s="6">
+        <v>0.5181</v>
+      </c>
+      <c r="AG41" s="6">
         <v>-0.2326</v>
       </c>
-      <c r="AF41" s="6">
+      <c r="AH41" s="6">
         <v>0.5202</v>
       </c>
-      <c r="AG41" s="6">
+      <c r="AI41" s="6">
         <v>-0.18559999999999999</v>
       </c>
-      <c r="AH41" s="6">
+      <c r="AJ41" s="6">
         <v>0.95389999999999997</v>
       </c>
-      <c r="AI41" s="6">
+      <c r="AK41" s="6">
         <v>-0.18210000000000001</v>
       </c>
-      <c r="AJ41" s="6">
+      <c r="AL41" s="6">
         <v>0.97189999999999999</v>
       </c>
-      <c r="AK41" s="6">
+      <c r="AM41" s="6">
         <v>-0.1812</v>
       </c>
-      <c r="AL41" s="6">
+      <c r="AN41" s="6">
         <v>0.97899999999999998</v>
       </c>
-      <c r="AM41" s="6">
+      <c r="AO41" s="6">
         <v>-0.18459999999999999</v>
       </c>
-      <c r="AN41" s="6">
+      <c r="AP41" s="6">
         <v>0.99109999999999998</v>
       </c>
-      <c r="AO41" s="6">
+      <c r="AQ41" s="6">
         <v>-0.26640000000000003</v>
       </c>
-      <c r="AP41" s="6">
+      <c r="AR41" s="6">
         <v>0.39329999999999998</v>
       </c>
-      <c r="AQ41" s="6">
+      <c r="AS41" s="6">
         <v>-0.33989999999999998</v>
       </c>
-      <c r="AR41" s="6">
+      <c r="AT41" s="6">
         <v>0.46460000000000001</v>
       </c>
-      <c r="AS41" s="6">
+      <c r="AU41" s="6">
         <v>-0.33750000000000002</v>
       </c>
-      <c r="AT41" s="6">
+      <c r="AV41" s="6">
         <v>0.98160000000000003</v>
       </c>
-      <c r="AU41" s="31"/>
-      <c r="AW41" s="8" t="s">
+      <c r="AW41" s="33"/>
+      <c r="AY41" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AY41" s="8"/>
-      <c r="AZ41" s="8"/>
       <c r="BA41" s="8"/>
+      <c r="BB41" s="8"/>
     </row>
-    <row r="42" spans="1:53" ht="18">
+    <row r="42" spans="1:54" ht="18">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -15116,64 +18159,69 @@
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6">
+        <v>-0.2135</v>
+      </c>
+      <c r="AF42" s="6">
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="AG42" s="6">
         <v>-0.22320000000000001</v>
       </c>
-      <c r="AF42" s="6">
+      <c r="AH42" s="6">
         <v>0.30809999999999998</v>
       </c>
-      <c r="AG42" s="6">
+      <c r="AI42" s="6">
         <v>-0.2268</v>
       </c>
-      <c r="AH42" s="6">
+      <c r="AJ42" s="6">
         <v>0.31019999999999998</v>
       </c>
-      <c r="AI42" s="6">
+      <c r="AK42" s="6">
         <v>-0.23019999999999999</v>
       </c>
-      <c r="AJ42" s="6">
+      <c r="AL42" s="6">
         <v>0.31359999999999999</v>
       </c>
-      <c r="AK42" s="6">
+      <c r="AM42" s="6">
         <v>-0.23330000000000001</v>
       </c>
-      <c r="AL42" s="6">
+      <c r="AN42" s="6">
         <v>0.31850000000000001</v>
       </c>
-      <c r="AM42" s="6">
+      <c r="AO42" s="6">
         <v>-0.23580000000000001</v>
       </c>
-      <c r="AN42" s="6">
+      <c r="AP42" s="6">
         <v>0.3251</v>
       </c>
-      <c r="AO42" s="6">
+      <c r="AQ42" s="6">
         <v>-9.3299999999999994E-2</v>
       </c>
-      <c r="AP42" s="6">
+      <c r="AR42" s="6">
         <v>0.55269999999999997</v>
       </c>
-      <c r="AQ42" s="6">
+      <c r="AS42" s="6">
         <v>-7.5600000000000001E-2</v>
       </c>
-      <c r="AR42" s="6">
+      <c r="AT42" s="6">
         <v>0.55430000000000001</v>
       </c>
-      <c r="AS42" s="6">
+      <c r="AU42" s="6">
         <v>-0.24990000000000001</v>
       </c>
-      <c r="AT42" s="6">
+      <c r="AV42" s="6">
         <v>0.30280000000000001</v>
       </c>
-      <c r="AU42" s="30" t="s">
+      <c r="AW42" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AW42" s="8" t="s">
+      <c r="AY42" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AY42" s="8"/>
-      <c r="AZ42" s="8"/>
       <c r="BA42" s="8"/>
+      <c r="BB42" s="8"/>
     </row>
-    <row r="43" spans="1:53" ht="18">
+    <row r="43" spans="1:54" ht="18">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -15237,62 +18285,67 @@
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6">
+        <v>-0.2195</v>
+      </c>
+      <c r="AF43" s="6">
+        <v>0.30709999999999998</v>
+      </c>
+      <c r="AG43" s="6">
         <v>-0.223</v>
       </c>
-      <c r="AF43" s="6">
+      <c r="AH43" s="6">
         <v>0.28649999999999998</v>
       </c>
-      <c r="AG43" s="6">
+      <c r="AI43" s="6">
         <v>-0.2321</v>
       </c>
-      <c r="AH43" s="6">
+      <c r="AJ43" s="6">
         <v>0.2923</v>
       </c>
-      <c r="AI43" s="6">
+      <c r="AK43" s="6">
         <v>-0.24060000000000001</v>
       </c>
-      <c r="AJ43" s="6">
+      <c r="AL43" s="6">
         <v>0.29449999999999998</v>
       </c>
-      <c r="AK43" s="6">
+      <c r="AM43" s="6">
         <v>-0.24790000000000001</v>
       </c>
-      <c r="AL43" s="6">
+      <c r="AN43" s="6">
         <v>0.2928</v>
       </c>
-      <c r="AM43" s="6">
+      <c r="AO43" s="6">
         <v>-0.23350000000000001</v>
       </c>
-      <c r="AN43" s="6">
+      <c r="AP43" s="6">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AO43" s="6">
+      <c r="AQ43" s="6">
         <v>-0.27050000000000002</v>
       </c>
-      <c r="AP43" s="6">
+      <c r="AR43" s="6">
         <v>0.26889999999999997</v>
       </c>
-      <c r="AQ43" s="6">
+      <c r="AS43" s="6">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="AR43" s="6">
+      <c r="AT43" s="6">
         <v>0</v>
       </c>
-      <c r="AS43" s="6">
+      <c r="AU43" s="6">
         <v>-6.3899999999999998E-2</v>
       </c>
-      <c r="AT43" s="6">
+      <c r="AV43" s="6">
         <v>0.54169999999999996</v>
       </c>
-      <c r="AU43" s="30"/>
-      <c r="AW43" s="8" t="s">
+      <c r="AW43" s="32"/>
+      <c r="AY43" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AY43" s="8"/>
-      <c r="AZ43" s="8"/>
       <c r="BA43" s="8"/>
+      <c r="BB43" s="8"/>
     </row>
-    <row r="44" spans="1:53" ht="18">
+    <row r="44" spans="1:54" ht="18">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -15356,62 +18409,67 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6">
+        <v>-0.1764</v>
+      </c>
+      <c r="AF44" s="6">
+        <v>0.4642</v>
+      </c>
+      <c r="AG44" s="6">
         <v>-0.21790000000000001</v>
       </c>
-      <c r="AF44" s="6">
+      <c r="AH44" s="6">
         <v>0.1857</v>
       </c>
-      <c r="AG44" s="6">
+      <c r="AI44" s="6">
         <v>-0.2225</v>
       </c>
-      <c r="AH44" s="6">
+      <c r="AJ44" s="6">
         <v>0.18709999999999999</v>
       </c>
-      <c r="AI44" s="6">
+      <c r="AK44" s="6">
         <v>-0.2268</v>
       </c>
-      <c r="AJ44" s="6">
+      <c r="AL44" s="6">
         <v>0.18990000000000001</v>
       </c>
-      <c r="AK44" s="6">
+      <c r="AM44" s="6">
         <v>-0.2306</v>
       </c>
-      <c r="AL44" s="6">
+      <c r="AN44" s="6">
         <v>0.19450000000000001</v>
       </c>
-      <c r="AM44" s="6">
+      <c r="AO44" s="6">
         <v>-0.25359999999999999</v>
       </c>
-      <c r="AN44" s="6">
+      <c r="AP44" s="6">
         <v>0.2863</v>
       </c>
-      <c r="AO44" s="6">
+      <c r="AQ44" s="6">
         <v>-0.26640000000000003</v>
       </c>
-      <c r="AP44" s="6">
+      <c r="AR44" s="6">
         <v>0.39329999999999998</v>
       </c>
-      <c r="AQ44" s="6">
+      <c r="AS44" s="6">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="AR44" s="6">
+      <c r="AT44" s="6">
         <v>0</v>
       </c>
-      <c r="AS44" s="6">
+      <c r="AU44" s="6">
         <v>-0.24479999999999999</v>
       </c>
-      <c r="AT44" s="6">
+      <c r="AV44" s="6">
         <v>0.15970000000000001</v>
       </c>
-      <c r="AU44" s="30"/>
-      <c r="AW44" s="8" t="s">
+      <c r="AW44" s="32"/>
+      <c r="AY44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AY44" s="8"/>
-      <c r="AZ44" s="8"/>
       <c r="BA44" s="8"/>
+      <c r="BB44" s="8"/>
     </row>
-    <row r="45" spans="1:53" ht="18">
+    <row r="45" spans="1:54" ht="18">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -15475,40 +18533,40 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6">
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="AF45" s="6">
+        <v>0.1857</v>
+      </c>
+      <c r="AG45" s="6">
         <v>-0.1794</v>
       </c>
-      <c r="AF45" s="6">
+      <c r="AH45" s="6">
         <v>0.47789999999999999</v>
       </c>
-      <c r="AG45" s="6">
+      <c r="AI45" s="6">
         <v>-0.2301</v>
       </c>
-      <c r="AH45" s="6">
+      <c r="AJ45" s="6">
         <v>0.42070000000000002</v>
       </c>
-      <c r="AI45" s="6">
+      <c r="AK45" s="6">
         <v>-0.23280000000000001</v>
       </c>
-      <c r="AJ45" s="6">
+      <c r="AL45" s="6">
         <v>0.4244</v>
       </c>
-      <c r="AK45" s="6">
+      <c r="AM45" s="6">
         <v>-0.2354</v>
       </c>
-      <c r="AL45" s="6">
+      <c r="AN45" s="6">
         <v>0.42949999999999999</v>
       </c>
-      <c r="AM45" s="6">
+      <c r="AO45" s="6">
         <v>-0.23769999999999999</v>
       </c>
-      <c r="AN45" s="6">
+      <c r="AP45" s="6">
         <v>0.4365</v>
-      </c>
-      <c r="AO45" s="6">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="AP45" s="6">
-        <v>0</v>
       </c>
       <c r="AQ45" s="6">
         <v>-5.9999999999999995E-4</v>
@@ -15517,20 +18575,25 @@
         <v>0</v>
       </c>
       <c r="AS45" s="6">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="AT45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="6">
         <v>-0.24879999999999999</v>
       </c>
-      <c r="AT45" s="6">
+      <c r="AV45" s="6">
         <v>0.43519999999999998</v>
       </c>
-      <c r="AU45" s="30"/>
-      <c r="AW45" s="8" t="s">
+      <c r="AW45" s="32"/>
+      <c r="AY45" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AY45" s="8"/>
-      <c r="AZ45" s="8"/>
       <c r="BA45" s="8"/>
+      <c r="BB45" s="8"/>
     </row>
-    <row r="46" spans="1:53" ht="18">
+    <row r="46" spans="1:54" ht="18">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -15594,62 +18657,67 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6">
+        <v>-0.22470000000000001</v>
+      </c>
+      <c r="AF46" s="6">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="AG46" s="6">
         <v>-0.2273</v>
       </c>
-      <c r="AF46" s="6">
+      <c r="AH46" s="6">
         <v>0.41810000000000003</v>
       </c>
-      <c r="AG46" s="6">
+      <c r="AI46" s="6">
         <v>-0.1832</v>
       </c>
-      <c r="AH46" s="6">
+      <c r="AJ46" s="6">
         <v>0.48830000000000001</v>
       </c>
-      <c r="AI46" s="6">
+      <c r="AK46" s="6">
         <v>-0.18779999999999999</v>
       </c>
-      <c r="AJ46" s="6">
+      <c r="AL46" s="6">
         <v>0.49490000000000001</v>
       </c>
-      <c r="AK46" s="6">
+      <c r="AM46" s="6">
         <v>-8.5900000000000004E-2</v>
       </c>
-      <c r="AL46" s="6">
+      <c r="AN46" s="6">
         <v>0.56089999999999995</v>
       </c>
-      <c r="AM46" s="6">
+      <c r="AO46" s="6">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="AN46" s="6">
+      <c r="AP46" s="6">
         <v>0.55989999999999995</v>
       </c>
-      <c r="AO46" s="6">
+      <c r="AQ46" s="6">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="AP46" s="6">
+      <c r="AR46" s="6">
         <v>0</v>
       </c>
-      <c r="AQ46" s="6">
+      <c r="AS46" s="6">
         <v>-0.33679999999999999</v>
       </c>
-      <c r="AR46" s="6">
+      <c r="AT46" s="6">
         <v>0.3604</v>
       </c>
-      <c r="AS46" s="6">
+      <c r="AU46" s="6">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="AT46" s="6">
+      <c r="AV46" s="6">
         <v>0</v>
       </c>
-      <c r="AU46" s="30"/>
-      <c r="AW46" s="8" t="s">
+      <c r="AW46" s="32"/>
+      <c r="AY46" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AY46" s="8"/>
-      <c r="AZ46" s="8"/>
       <c r="BA46" s="8"/>
+      <c r="BB46" s="8"/>
     </row>
-    <row r="47" spans="1:53" ht="18">
+    <row r="47" spans="1:54" ht="18">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -15713,62 +18781,67 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="AF47" s="6">
+        <v>0.55810000000000004</v>
+      </c>
+      <c r="AG47" s="6">
         <v>-0.09</v>
       </c>
-      <c r="AF47" s="6">
+      <c r="AH47" s="6">
         <v>0.55969999999999998</v>
       </c>
-      <c r="AG47" s="6">
+      <c r="AI47" s="6">
         <v>-8.7499999999999994E-2</v>
       </c>
-      <c r="AH47" s="6">
+      <c r="AJ47" s="6">
         <v>0.56069999999999998</v>
       </c>
-      <c r="AI47" s="6">
+      <c r="AK47" s="6">
         <v>-8.6199999999999999E-2</v>
       </c>
-      <c r="AJ47" s="6">
+      <c r="AL47" s="6">
         <v>0.56110000000000004</v>
       </c>
-      <c r="AK47" s="6">
+      <c r="AM47" s="6">
         <v>-0.19309999999999999</v>
       </c>
-      <c r="AL47" s="6">
+      <c r="AN47" s="6">
         <v>0.49719999999999998</v>
       </c>
-      <c r="AM47" s="6">
+      <c r="AO47" s="6">
         <v>-0.19939999999999999</v>
       </c>
-      <c r="AN47" s="6">
+      <c r="AP47" s="6">
         <v>0.49380000000000002</v>
       </c>
-      <c r="AO47" s="6">
+      <c r="AQ47" s="6">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="AP47" s="6">
+      <c r="AR47" s="6">
         <v>0</v>
       </c>
-      <c r="AQ47" s="6">
+      <c r="AS47" s="6">
         <v>-0.3402</v>
       </c>
-      <c r="AR47" s="6">
+      <c r="AT47" s="6">
         <v>0.2475</v>
       </c>
-      <c r="AS47" s="6">
+      <c r="AU47" s="6">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="AT47" s="6">
+      <c r="AV47" s="6">
         <v>0</v>
       </c>
-      <c r="AU47" s="30"/>
-      <c r="AW47" s="8" t="s">
+      <c r="AW47" s="32"/>
+      <c r="AY47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AY47" s="8"/>
-      <c r="AZ47" s="8"/>
       <c r="BA47" s="8"/>
+      <c r="BB47" s="8"/>
     </row>
-    <row r="48" spans="1:53" ht="18">
+    <row r="48" spans="1:54" ht="18">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -15832,50 +18905,55 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6">
+        <v>-0.21879999999999999</v>
+      </c>
+      <c r="AF48" s="6">
+        <v>0.1091</v>
+      </c>
+      <c r="AG48" s="6">
         <v>-0.2266</v>
       </c>
-      <c r="AF48" s="6">
+      <c r="AH48" s="6">
         <v>0.1133</v>
       </c>
-      <c r="AG48" s="6">
+      <c r="AI48" s="6">
         <v>-0.23400000000000001</v>
       </c>
-      <c r="AH48" s="6">
+      <c r="AJ48" s="6">
         <v>0.11509999999999999</v>
       </c>
-      <c r="AI48" s="21"/>
-      <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
       <c r="AL48" s="21"/>
       <c r="AM48" s="21"/>
       <c r="AN48" s="21"/>
-      <c r="AO48" s="6">
+      <c r="AO48" s="21"/>
+      <c r="AP48" s="21"/>
+      <c r="AQ48" s="6">
         <v>-0.2843</v>
       </c>
-      <c r="AP48" s="6">
+      <c r="AR48" s="6">
         <v>0.12509999999999999</v>
       </c>
-      <c r="AQ48" s="6">
+      <c r="AS48" s="6">
         <v>-0.33989999999999998</v>
       </c>
-      <c r="AR48" s="6">
+      <c r="AT48" s="6">
         <v>0.46460000000000001</v>
       </c>
-      <c r="AS48" s="6">
+      <c r="AU48" s="6">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="AT48" s="6">
+      <c r="AV48" s="6">
         <v>0</v>
       </c>
-      <c r="AU48" s="30"/>
-      <c r="AW48" s="8" t="s">
+      <c r="AW48" s="32"/>
+      <c r="AY48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AY48" s="8"/>
-      <c r="AZ48" s="8"/>
       <c r="BA48" s="8"/>
+      <c r="BB48" s="8"/>
     </row>
-    <row r="49" spans="1:59" ht="18">
+    <row r="49" spans="1:60" ht="18">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -15948,33 +19026,34 @@
       <c r="AL49" s="21"/>
       <c r="AM49" s="21"/>
       <c r="AN49" s="21"/>
-      <c r="AO49" s="6">
+      <c r="AO49" s="21"/>
+      <c r="AP49" s="21"/>
+      <c r="AQ49" s="6">
         <v>-0.2641</v>
       </c>
-      <c r="AP49" s="6">
+      <c r="AR49" s="6">
         <v>0.50690000000000002</v>
       </c>
-      <c r="AQ49" s="6">
+      <c r="AS49" s="6">
         <v>-0.33810000000000001</v>
       </c>
-      <c r="AR49" s="6">
+      <c r="AT49" s="6">
         <v>0.1201</v>
       </c>
-      <c r="AS49" s="6">
+      <c r="AU49" s="6">
         <v>-0.30859999999999999</v>
       </c>
-      <c r="AT49" s="6">
+      <c r="AV49" s="6">
         <v>0.31119999999999998</v>
       </c>
-      <c r="AU49" s="30"/>
-      <c r="AW49" s="8" t="s">
+      <c r="AW49" s="32"/>
+      <c r="AY49" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AY49" s="8"/>
-      <c r="AZ49" s="8"/>
       <c r="BA49" s="8"/>
+      <c r="BB49" s="8"/>
     </row>
-    <row r="50" spans="1:59" ht="18">
+    <row r="50" spans="1:60" ht="18">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -16041,51 +19120,52 @@
       <c r="AF50" s="21"/>
       <c r="AG50" s="21"/>
       <c r="AH50" s="21"/>
-      <c r="AI50" s="6">
+      <c r="AI50" s="21"/>
+      <c r="AJ50" s="21"/>
+      <c r="AK50" s="6">
         <v>-0.2409</v>
       </c>
-      <c r="AJ50" s="6">
+      <c r="AL50" s="6">
         <v>0.1143</v>
       </c>
-      <c r="AK50" s="6">
+      <c r="AM50" s="6">
         <v>-0.24679999999999999</v>
       </c>
-      <c r="AL50" s="6">
+      <c r="AN50" s="6">
         <v>0.111</v>
       </c>
-      <c r="AM50" s="6">
+      <c r="AO50" s="6">
         <v>-0.25140000000000001</v>
       </c>
-      <c r="AN50" s="6">
+      <c r="AP50" s="6">
         <v>0.10440000000000001</v>
       </c>
-      <c r="AO50" s="6">
+      <c r="AQ50" s="6">
         <v>-0.28339999999999999</v>
       </c>
-      <c r="AP50" s="6">
+      <c r="AR50" s="6">
         <v>0.4874</v>
       </c>
-      <c r="AQ50" s="6">
+      <c r="AS50" s="6">
         <v>-0.33839999999999998</v>
       </c>
-      <c r="AR50" s="6">
+      <c r="AT50" s="6">
         <v>0.55810000000000004</v>
       </c>
-      <c r="AS50" s="6">
+      <c r="AU50" s="6">
         <v>-0.26179999999999998</v>
       </c>
-      <c r="AT50" s="6">
+      <c r="AV50" s="6">
         <v>0.56310000000000004</v>
       </c>
-      <c r="AU50" s="30"/>
-      <c r="AW50" s="8" t="s">
+      <c r="AW50" s="32"/>
+      <c r="AY50" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AY50" s="8"/>
-      <c r="AZ50" s="8"/>
       <c r="BA50" s="8"/>
+      <c r="BB50" s="8"/>
     </row>
-    <row r="51" spans="1:59">
+    <row r="51" spans="1:60">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -16149,56 +19229,66 @@
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
       <c r="AE51" s="6">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="AF51" s="6">
+        <v>0.5181</v>
+      </c>
+      <c r="AG51" s="6">
         <v>-0.2326</v>
       </c>
-      <c r="AF51" s="6">
+      <c r="AH51" s="6">
         <v>0.5202</v>
       </c>
-      <c r="AG51" s="6">
+      <c r="AI51" s="6">
         <v>-0.2344</v>
       </c>
-      <c r="AH51" s="6">
+      <c r="AJ51" s="6">
         <v>0.52300000000000002</v>
       </c>
-      <c r="AI51" s="6">
+      <c r="AK51" s="6">
         <v>-0.23649999999999999</v>
       </c>
-      <c r="AJ51" s="6">
+      <c r="AL51" s="6">
         <v>0.52700000000000002</v>
       </c>
-      <c r="AK51" s="6">
+      <c r="AM51" s="6">
         <v>-0.23860000000000001</v>
       </c>
-      <c r="AL51" s="6">
+      <c r="AN51" s="6">
         <v>0.53239999999999998</v>
       </c>
-      <c r="AM51" s="6">
+      <c r="AO51" s="6">
         <v>-0.2407</v>
       </c>
-      <c r="AN51" s="6">
+      <c r="AP51" s="6">
         <v>0.53959999999999997</v>
       </c>
-      <c r="AO51" s="6">
+      <c r="AQ51" s="6">
         <v>-0.33800000000000002</v>
       </c>
-      <c r="AP51" s="6">
+      <c r="AR51" s="6">
         <v>0.2198</v>
       </c>
-      <c r="AQ51" s="6">
+      <c r="AS51" s="6">
         <v>-0.3518</v>
       </c>
-      <c r="AR51" s="6">
+      <c r="AT51" s="6">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="AS51" s="6">
+      <c r="AU51" s="6">
         <v>-0.25530000000000003</v>
       </c>
-      <c r="AT51" s="6">
+      <c r="AV51" s="6">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="AU51" s="30"/>
+      <c r="AW51" s="32"/>
     </row>
-    <row r="52" spans="1:59">
+    <row r="52" spans="1:60">
+      <c r="G52">
+        <f>MAX(G2:G51)</f>
+        <v>3.4599999999999999E-2</v>
+      </c>
       <c r="O52">
         <f>MAX(O2:O51)</f>
         <v>1.78E-2</v>
@@ -16227,310 +19317,314 @@
         <f>MAX(AA2:AA51)</f>
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="AC52">
-        <f>MAX(AC2:AC51)</f>
-        <v>-5.0000000000000001E-3</v>
-      </c>
       <c r="AE52">
         <f>MAX(AE2:AE51)</f>
-        <v>-1.9699999999999999E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="AG52">
         <f>MAX(AG2:AG51)</f>
-        <v>-3.1E-2</v>
+        <v>-1.9699999999999999E-2</v>
       </c>
       <c r="AI52">
         <f>MAX(AI2:AI51)</f>
-        <v>-3.8899999999999997E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="AK52">
         <f>MAX(AK2:AK51)</f>
-        <v>-4.2700000000000002E-2</v>
+        <v>-3.8899999999999997E-2</v>
       </c>
       <c r="AM52">
         <f>MAX(AM2:AM51)</f>
-        <v>-4.1300000000000003E-2</v>
+        <v>-4.2700000000000002E-2</v>
       </c>
       <c r="AO52">
         <f>MAX(AO2:AO51)</f>
-        <v>2.9999999999999997E-4</v>
+        <v>-4.1300000000000003E-2</v>
       </c>
       <c r="AQ52">
         <f>MAX(AQ2:AQ51)</f>
-        <v>1.0500000000000001E-2</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AS52">
         <f>MAX(AS2:AS51)</f>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="AU52">
+        <f>MAX(AU2:AU51)</f>
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:59" ht="18">
-      <c r="A53" s="32" t="s">
+    <row r="53" spans="1:60" ht="18">
+      <c r="A53" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="32" t="s">
+      <c r="B53" s="35"/>
+      <c r="C53" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="32" t="s">
+      <c r="D53" s="35"/>
+      <c r="E53" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="33"/>
-      <c r="G53" s="32" t="s">
+      <c r="F53" s="35"/>
+      <c r="G53" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="33"/>
-      <c r="I53" s="32" t="s">
+      <c r="H53" s="35"/>
+      <c r="I53" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="33"/>
-      <c r="K53" s="32" t="s">
+      <c r="J53" s="35"/>
+      <c r="K53" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L53" s="33"/>
-      <c r="M53" s="32" t="s">
+      <c r="L53" s="35"/>
+      <c r="M53" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="33"/>
-      <c r="O53" s="32" t="s">
+      <c r="N53" s="35"/>
+      <c r="O53" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="32" t="s">
+      <c r="P53" s="35"/>
+      <c r="Q53" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="R53" s="33"/>
-      <c r="S53" s="32" t="s">
+      <c r="R53" s="35"/>
+      <c r="S53" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="T53" s="33"/>
-      <c r="U53" s="34" t="s">
+      <c r="T53" s="35"/>
+      <c r="U53" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34" t="s">
+      <c r="V53" s="36"/>
+      <c r="W53" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34" t="s">
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34" t="s">
+      <c r="Z53" s="36"/>
+      <c r="AA53" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="34" t="s">
+      <c r="AB53" s="36"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AD53" s="34"/>
-      <c r="AE53" s="34" t="s">
+      <c r="AF53" s="36"/>
+      <c r="AG53" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AF53" s="34"/>
-      <c r="AG53" s="34" t="s">
+      <c r="AH53" s="36"/>
+      <c r="AI53" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AH53" s="34"/>
-      <c r="AI53" s="34" t="s">
+      <c r="AJ53" s="36"/>
+      <c r="AK53" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AJ53" s="34"/>
-      <c r="AK53" s="34" t="s">
+      <c r="AL53" s="36"/>
+      <c r="AM53" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AL53" s="34"/>
-      <c r="AM53" s="32" t="s">
+      <c r="AN53" s="36"/>
+      <c r="AO53" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AN53" s="33"/>
-      <c r="AO53" s="32" t="s">
+      <c r="AP53" s="35"/>
+      <c r="AQ53" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AP53" s="33"/>
-      <c r="AQ53" s="32" t="s">
+      <c r="AR53" s="35"/>
+      <c r="AS53" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AR53" s="33"/>
-      <c r="AS53" s="32" t="s">
+      <c r="AT53" s="35"/>
+      <c r="AU53" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AT53" s="33"/>
-      <c r="AU53" s="19" t="s">
+      <c r="AV53" s="35"/>
+      <c r="AW53" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AV53" s="7"/>
-      <c r="AW53" s="8" t="s">
+      <c r="AX53" s="7"/>
+      <c r="AY53" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AZ53" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA53" s="8"/>
-      <c r="BB53">
+      <c r="BA53" s="7"/>
+      <c r="BB53" s="8"/>
+      <c r="BC53">
         <v>-6.6799999999999998E-2</v>
       </c>
-      <c r="BC53">
+      <c r="BD53">
         <v>1.0549999999999999</v>
       </c>
-      <c r="BE53">
+      <c r="BF53">
         <v>1.0549999999999999</v>
-      </c>
-      <c r="BF53" t="s">
-        <v>26</v>
       </c>
       <c r="BG53" t="s">
         <v>26</v>
       </c>
+      <c r="BH53" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="54" spans="1:59">
-      <c r="O54" s="35">
+    <row r="54" spans="1:60">
+      <c r="O54" s="28">
         <v>18</v>
       </c>
-      <c r="P54" s="35">
+      <c r="P54" s="28">
         <v>1.78E-2</v>
       </c>
-      <c r="Q54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="W54" s="35"/>
+      <c r="Q54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="W54" s="28"/>
     </row>
-    <row r="55" spans="1:59">
-      <c r="O55" s="35">
+    <row r="55" spans="1:60">
+      <c r="O55" s="28">
         <v>17.5</v>
       </c>
-      <c r="P55" s="35">
+      <c r="P55" s="28">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:59">
-      <c r="O56" s="35">
+    <row r="56" spans="1:60">
+      <c r="O56" s="28">
         <v>17</v>
       </c>
-      <c r="P56" s="35">
+      <c r="P56" s="28">
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:59">
-      <c r="O57" s="35">
+    <row r="57" spans="1:60">
+      <c r="O57" s="28">
         <v>16.899999999999999</v>
       </c>
-      <c r="P57" s="35">
+      <c r="P57" s="28">
         <v>1.77E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:59">
-      <c r="O58" s="35">
+    <row r="58" spans="1:60">
+      <c r="O58" s="28">
         <v>16.8</v>
       </c>
-      <c r="P58" s="35">
+      <c r="P58" s="28">
         <v>2.2499999999999999E-2</v>
       </c>
+      <c r="R58">
+        <f>101325+16550</f>
+        <v>117875</v>
+      </c>
     </row>
-    <row r="59" spans="1:59">
-      <c r="O59" s="35">
+    <row r="59" spans="1:60">
+      <c r="O59" s="28">
         <v>16.7</v>
       </c>
-      <c r="P59" s="35">
+      <c r="P59" s="28">
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:59">
-      <c r="O60" s="35">
+    <row r="60" spans="1:60">
+      <c r="O60" s="28">
         <v>16.600000000000001</v>
       </c>
-      <c r="P60" s="35">
+      <c r="P60" s="28">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:59">
-      <c r="O61" s="35">
+    <row r="61" spans="1:60">
+      <c r="O61" s="28">
         <v>16.5</v>
       </c>
-      <c r="P61" s="35">
+      <c r="P61" s="28">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:59">
-      <c r="O62" s="35">
+    <row r="62" spans="1:60">
+      <c r="O62" s="28">
         <v>16.399999999999999</v>
       </c>
-      <c r="P62" s="35">
+      <c r="P62" s="28">
         <v>-1.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:59">
-      <c r="O63" s="35">
+    <row r="63" spans="1:60">
+      <c r="O63" s="28">
         <v>16.3</v>
       </c>
-      <c r="P63" s="35">
+      <c r="P63" s="28">
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:59">
-      <c r="O64" s="35">
+    <row r="64" spans="1:60">
+      <c r="O64" s="28">
         <v>16.2</v>
       </c>
-      <c r="P64" s="35">
+      <c r="P64" s="28">
         <v>-3.8899999999999997E-2</v>
       </c>
     </row>
     <row r="65" spans="15:16">
-      <c r="O65" s="35">
+      <c r="O65" s="28">
         <v>16.100000000000001</v>
       </c>
-      <c r="P65" s="35">
+      <c r="P65" s="28">
         <v>-4.2700000000000002E-2</v>
       </c>
     </row>
     <row r="66" spans="15:16">
-      <c r="O66" s="35">
+      <c r="O66" s="28">
         <v>16</v>
       </c>
-      <c r="P66" s="35">
+      <c r="P66" s="28">
         <v>-4.1300000000000003E-2</v>
       </c>
     </row>
     <row r="67" spans="15:16">
-      <c r="O67" s="35">
+      <c r="O67" s="28">
         <v>15</v>
       </c>
-      <c r="P67" s="35">
+      <c r="P67" s="28">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="68" spans="15:16">
-      <c r="O68" s="35">
+      <c r="O68" s="28">
         <v>12.5</v>
       </c>
-      <c r="P68" s="35">
+      <c r="P68" s="28">
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="15:16">
-      <c r="O69" s="35">
+      <c r="O69" s="28">
         <v>10</v>
       </c>
-      <c r="P69" s="35">
+      <c r="P69" s="28">
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="AO53:AP53"/>
+  <mergeCells count="52">
     <mergeCell ref="AQ53:AR53"/>
     <mergeCell ref="AS53:AT53"/>
-    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AU53:AV53"/>
     <mergeCell ref="AG53:AH53"/>
     <mergeCell ref="AI53:AJ53"/>
     <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AM53:AN53"/>
+    <mergeCell ref="AO53:AP53"/>
     <mergeCell ref="U53:V53"/>
     <mergeCell ref="W53:X53"/>
     <mergeCell ref="Y53:Z53"/>
     <mergeCell ref="AA53:AB53"/>
-    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="AE53:AF53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="O53:P53"/>
@@ -16550,25 +19644,26 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AU2:AU11"/>
-    <mergeCell ref="AU12:AU21"/>
-    <mergeCell ref="AU22:AU31"/>
-    <mergeCell ref="AU32:AU41"/>
-    <mergeCell ref="AU42:AU51"/>
+    <mergeCell ref="AW2:AW11"/>
+    <mergeCell ref="AW12:AW21"/>
+    <mergeCell ref="AW22:AW31"/>
+    <mergeCell ref="AW32:AW41"/>
+    <mergeCell ref="AW42:AW51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16576,27 +19671,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F20E5F-3D36-9C46-9CAF-0042F3D18B7F}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED53D93-006C-C844-BC6D-94AF68143AA5}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1">
-        <f>LN(1000)</f>
-        <v>6.9077552789821368</v>
+        <f>20000-4681</f>
+        <v>15319</v>
       </c>
       <c r="B1">
-        <f>A1/(6000*0.00002)</f>
-        <v>57.564627324851138</v>
+        <f>0.117/0.00000000281</f>
+        <v>41637010.676156588</v>
       </c>
       <c r="C1">
-        <f>B1/1680</f>
-        <v>3.4264659121935201E-2</v>
+        <f>LN(B1)/(A1*0.00002)</f>
+        <v>57.263855373772351</v>
+      </c>
+      <c r="D1">
+        <f>C1/1680</f>
+        <v>3.4085628198674021E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <f>16834-3425</f>
+        <v>13409</v>
+      </c>
+      <c r="B2">
+        <f>25.57/0.000000006</f>
+        <v>4261666666.6666665</v>
+      </c>
+      <c r="C2">
+        <f>LN(B2)/(A2*0.00002)</f>
+        <v>82.679268241559583</v>
+      </c>
+      <c r="D2">
+        <f>C2/1680</f>
+        <v>4.9213850143785466E-2</v>
       </c>
     </row>
   </sheetData>

--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFAE764-96E9-FF4A-B731-8E6C73232261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5CC573-68D6-7447-A755-FAB52167C347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="steady" sheetId="1" r:id="rId1"/>
     <sheet name="eigenvalues-drdv" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="60">
   <si>
     <t>pr</t>
   </si>
@@ -189,6 +190,51 @@
   </si>
   <si>
     <t>16.54kpa</t>
+  </si>
+  <si>
+    <t>unstable</t>
+  </si>
+  <si>
+    <t>Speedline</t>
+  </si>
+  <si>
+    <t>Unstable conditions</t>
+  </si>
+  <si>
+    <t>nd</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>16.3 kPa</t>
+  </si>
+  <si>
+    <t>16.4 kPa</t>
+  </si>
+  <si>
+    <t>16.5 kPa</t>
+  </si>
+  <si>
+    <t>16.6 kPa</t>
+  </si>
+  <si>
+    <t>16.7 kPa</t>
+  </si>
+  <si>
+    <t>53-58</t>
+  </si>
+  <si>
+    <t>64-70</t>
+  </si>
+  <si>
+    <t>5--7</t>
+  </si>
+  <si>
+    <t>75-80</t>
+  </si>
+  <si>
+    <t>L. He 1997 JPP</t>
   </si>
 </sst>
 </file>
@@ -378,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,10 +508,20 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,12 +531,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,13 +572,34 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15227216389617962"/>
+          <c:y val="4.2141112569262174E-2"/>
+          <c:w val="0.79280311315252261"/>
+          <c:h val="0.81893937736949529"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>steady!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -539,11 +610,228 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>steady!$G$3:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00013110742068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.00039332226204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99829560353115987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99174023249715937</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98662704309063887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98605891093435893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98549077877807889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98492264662179874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9843108119919588</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98365527488855875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98291233283803869</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98208198584039863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98120793636919845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98024648195087849</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9792413250589983</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97382221833755789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9661305829909973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96403286426011714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96154182326719695</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96005593916615672</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95870116248579673</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95835154269731671</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95415610523555638</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94698889957171573</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>steady!$D$3:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1.2401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2999000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3637999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3965000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4429000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4440999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4464999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4477</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4488000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4509000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.452</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4572000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.462</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4628000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4637</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4639</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4639</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4641</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D537-4545-A842-5D1BCCDEB8FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>steady!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unstable conditions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:noFill/>
@@ -553,119 +841,101 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>steady!$G$3:$G$27</c:f>
+              <c:f>steady!$G$14:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.98291233283803869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.00013110742068</c:v>
+                  <c:v>0.98208198584039863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.00039332226204</c:v>
+                  <c:v>0.98120793636919845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99829560353115987</c:v>
+                  <c:v>0.98024648195087849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99174023249715937</c:v>
+                  <c:v>0.9792413250589983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98662704309063887</c:v>
+                  <c:v>0.97382221833755789</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9792413250589983</c:v>
+                  <c:v>0.9661305829909973</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97382221833755789</c:v>
+                  <c:v>0.96403286426011714</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9661305829909973</c:v>
+                  <c:v>0.96154182326719695</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96403286426011714</c:v>
+                  <c:v>0.96005593916615672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96154182326719695</c:v>
+                  <c:v>0.95870116248579673</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96005593916615672</c:v>
+                  <c:v>0.95835154269731671</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95870116248579673</c:v>
+                  <c:v>0.95415610523555638</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95835154269731671</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.95415610523555638</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0.94698889957171573</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>steady!$D$3:$D$27</c:f>
+              <c:f>steady!$D$14:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.2401</c:v>
+                  <c:v>1.4477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2999000000000001</c:v>
+                  <c:v>1.4488000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3637999999999999</c:v>
+                  <c:v>1.4499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3965000000000001</c:v>
+                  <c:v>1.4509000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4283999999999999</c:v>
+                  <c:v>1.452</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4404999999999999</c:v>
+                  <c:v>1.4572000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.452</c:v>
+                  <c:v>1.462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4572000000000001</c:v>
+                  <c:v>1.4628000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.462</c:v>
+                  <c:v>1.4634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4628000000000001</c:v>
+                  <c:v>1.4637</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4634</c:v>
+                  <c:v>1.4639</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4637</c:v>
+                  <c:v>1.4639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4639</c:v>
+                  <c:v>1.4641</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4639</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4641</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>1.4635</c:v>
                 </c:pt>
               </c:numCache>
@@ -674,7 +944,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D537-4545-A842-5D1BCCDEB8FB}"/>
+              <c16:uniqueId val="{00000000-08C1-F349-A612-5B2BAC2F0E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -712,6 +982,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>massflow [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -768,6 +1091,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>PR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -872,7 +1254,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1757330854476524"/>
+          <c:y val="3.9826297754447362E-2"/>
+          <c:w val="0.75776811752697593"/>
+          <c:h val="0.81199493292505098"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -889,11 +1281,228 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>steady!$G$3:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00013110742068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.00039332226204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99829560353115987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99174023249715937</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98662704309063887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98605891093435893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98549077877807889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98492264662179874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9843108119919588</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98365527488855875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98291233283803869</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98208198584039863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98120793636919845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98024648195087849</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9792413250589983</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97382221833755789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9661305829909973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96403286426011714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96154182326719695</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96005593916615672</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95870116248579673</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95835154269731671</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95415610523555638</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94698889957171573</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>steady!$E$3:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.66490000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79290000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81889999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8196</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.81950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.81789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.81469999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-153E-804E-9423-10FA06A858B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>steady!$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unstable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:noFill/>
@@ -903,119 +1512,101 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>steady!$G$3:$G$27</c:f>
+              <c:f>steady!$G$14:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.98291233283803869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.00013110742068</c:v>
+                  <c:v>0.98208198584039863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.00039332226204</c:v>
+                  <c:v>0.98120793636919845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99829560353115987</c:v>
+                  <c:v>0.98024648195087849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99174023249715937</c:v>
+                  <c:v>0.9792413250589983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98662704309063887</c:v>
+                  <c:v>0.97382221833755789</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9792413250589983</c:v>
+                  <c:v>0.9661305829909973</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97382221833755789</c:v>
+                  <c:v>0.96403286426011714</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9661305829909973</c:v>
+                  <c:v>0.96154182326719695</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96403286426011714</c:v>
+                  <c:v>0.96005593916615672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96154182326719695</c:v>
+                  <c:v>0.95870116248579673</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96005593916615672</c:v>
+                  <c:v>0.95835154269731671</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95870116248579673</c:v>
+                  <c:v>0.95415610523555638</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95835154269731671</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.95415610523555638</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0.94698889957171573</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>steady!$E$3:$E$27</c:f>
+              <c:f>steady!$E$14:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.66490000000000005</c:v>
+                  <c:v>0.81889999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72309999999999997</c:v>
+                  <c:v>0.81930000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77229999999999999</c:v>
+                  <c:v>0.8196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79290000000000005</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81040000000000001</c:v>
+                  <c:v>0.82030000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81599999999999995</c:v>
+                  <c:v>0.82150000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82030000000000003</c:v>
+                  <c:v>0.82130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82150000000000001</c:v>
+                  <c:v>0.82099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82130000000000003</c:v>
+                  <c:v>0.82040000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82099999999999995</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82040000000000002</c:v>
+                  <c:v>0.81950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.82</c:v>
+                  <c:v>0.81940000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.81950000000000001</c:v>
+                  <c:v>0.81789999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81940000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.81789999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0.81469999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1024,7 +1615,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-153E-804E-9423-10FA06A858B2}"/>
+              <c16:uniqueId val="{00000000-0D65-C347-8C04-4DBA1EE5BD19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1062,6 +1653,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>massflow [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1099,7 +1749,7 @@
         <c:axId val="1985680335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.85000000000000009"/>
+          <c:max val="0.83000000000000007"/>
           <c:min val="0.65000000000000013"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1118,6 +1768,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1152,7 +1861,7 @@
         <c:crossAx val="2026039519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="6.0000000000000012E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10123,6 +10832,367 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eigenvalues-drdv'!$AE$1:$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.54kpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$AE$2:$AE$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-3.9100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.3899999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.13969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.12479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.17469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1588</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1041</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.14419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.0299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.9499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.1391</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.13070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.2283</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.12709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.1391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.29330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.35370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.14419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.25629999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.29570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.33110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1847</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.1588</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.12479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.2432</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.23810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.2631</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.23849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.3899999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.20979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.21809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.17530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.21110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.22359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.2157</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.23050000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$AF$2:$AF$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0427999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0417000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0852999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5485</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.452</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3122</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6737</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2284999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1871</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8151999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2067999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6737</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3043999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7637</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5485</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4521999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4409000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5721000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5575</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.87509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69420000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.60970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.69840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2732</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.45810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.18590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.41589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5575</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51729999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B2B-4749-AC28-10D17A97378C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -10138,8 +11208,8 @@
         <c:axId val="143884368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.000000000000001E-2"/>
-          <c:min val="-5.000000000000001E-2"/>
+          <c:max val="0.1"/>
+          <c:min val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -10147,7 +11217,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -10186,7 +11256,7 @@
         <c:crossAx val="143886048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="143886048"/>
@@ -10260,8 +11330,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.75906787693205013"/>
           <c:y val="6.3240011665208512E-2"/>
-          <c:w val="0.16763433216681248"/>
-          <c:h val="0.20986256926217553"/>
+          <c:w val="0.19200835752909065"/>
+          <c:h val="0.36914593913652549"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10311,6 +11381,2071 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17447142023913681"/>
+          <c:y val="6.7214384660250787E-2"/>
+          <c:w val="0.7766050597841937"/>
+          <c:h val="0.79250036453776607"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.7 kPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$2:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="6">
+                  <c:v>0.88429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87719000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85796249999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84508571428571422</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82863333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80708000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77654999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.73146666666666671</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.57579999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-923A-8646-A295-B05FBA87BFD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.6 kPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$8:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$8:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88436363636363635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87709000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8681888888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85738749999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84412857142857145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82713333333333339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80478000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77290000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-923A-8646-A295-B05FBA87BFD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.5 kPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$8:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$8:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88467272727272728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87721000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86805555555555558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85692499999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84321428571428569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82558333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80224000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76869999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71910000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-923A-8646-A295-B05FBA87BFD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.4 kPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$8:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$8:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88505454545454543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85655000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84241428571428578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82416666666666671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79990000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76477499999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71463333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-923A-8646-A295-B05FBA87BFD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.3 kPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$8:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$8:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88532727272727274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84171428571428564</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82296666666666662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76152500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71463333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-923A-8646-A295-B05FBA87BFD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L. He 1997 JPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$23:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$23:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-923A-8646-A295-B05FBA87BFD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="768691568"/>
+        <c:axId val="768693200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="768691568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ND</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768693200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="768693200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Rotation speed (absolute frame)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768691568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56336063503324041"/>
+          <c:y val="0.47685185185185186"/>
+          <c:w val="0.27540791319349278"/>
+          <c:h val="0.32677274715660543"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17447142023913681"/>
+          <c:y val="6.7214384660250787E-2"/>
+          <c:w val="0.7766050597841937"/>
+          <c:h val="0.79250036453776607"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.7 kPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$2:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="6">
+                  <c:v>0.88429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87719000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85796249999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84508571428571422</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82863333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80708000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77654999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.73146666666666671</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.57579999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDB0-1942-8C15-65969EED15C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.6 kPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$8:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$8:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88436363636363635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87709000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8681888888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85738749999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84412857142857145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82713333333333339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80478000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77290000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDB0-1942-8C15-65969EED15C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.5 kPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$8:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$8:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88467272727272728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87721000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86805555555555558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85692499999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84321428571428569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82558333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80224000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76869999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71910000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDB0-1942-8C15-65969EED15C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.4 kPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$8:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$8:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88505454545454543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85655000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84241428571428578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82416666666666671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79990000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76477499999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71463333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDB0-1942-8C15-65969EED15C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.3 kPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$8:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$8:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88532727272727274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84171428571428564</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82296666666666662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76152500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71463333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EDB0-1942-8C15-65969EED15C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="768691568"/>
+        <c:axId val="768693200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="768691568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ND</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768693200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="768693200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Rotation speed (absolute frame)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768691568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56336063503324041"/>
+          <c:y val="0.47685185185185186"/>
+          <c:w val="0.27540791319349278"/>
+          <c:h val="0.32677274715660543"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -10534,6 +13669,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13669,20 +16884,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>138289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13709,16 +17956,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>201789</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>735189</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>107245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13745,6 +17992,157 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7239</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>188904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635003</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Left Brace 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C8BE1F-C09E-544D-BA97-E06B0FAA82B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4705351" y="5312125"/>
+          <a:ext cx="290873" cy="2292875"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 56827"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>225778</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>56445</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1883657" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249B61E9-1059-704F-A13D-B429578E03C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3922889" y="6575778"/>
+          <a:ext cx="1883657" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Unstable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>conditions</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13826,16 +18224,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>773045</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>392350</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>193264</xdr:rowOff>
+      <xdr:rowOff>122709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>414132</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>33437</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>165654</xdr:rowOff>
+      <xdr:rowOff>95098</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13895,6 +18293,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623834</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>655934</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>46611</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F97FCE2-66A1-3646-BB5B-8E37AC349A02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>446593</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>478694</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0638658-7CE4-1B4D-9B12-A276AD7BA5D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14200,46 +18677,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EA66BB-B451-4F4E-B1C9-5E3A555EB221}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="10.83203125" style="2"/>
     <col min="8" max="13" width="10.83203125" style="1"/>
     <col min="14" max="14" width="21.33203125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="22" t="s">
         <v>34</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -14270,8 +18751,11 @@
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="15"/>
+      <c r="O2" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="3">
         <f>101325+B3*1000</f>
         <v>101325</v>
@@ -14303,9 +18787,9 @@
       <c r="M3" s="21"/>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A20" si="0">101325+B4*1000</f>
+        <f t="shared" ref="A4:A29" si="0">101325+B4*1000</f>
         <v>106325</v>
       </c>
       <c r="B4" s="3">
@@ -14324,7 +18808,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G20" si="1">C4/0.22882</f>
+        <f t="shared" ref="G4:G29" si="1">C4/0.22882</f>
         <v>1.00013110742068</v>
       </c>
       <c r="H4" s="3"/>
@@ -14335,7 +18819,7 @@
       <c r="M4" s="21"/>
       <c r="N4" s="15"/>
     </row>
-    <row r="5" spans="1:14" s="13" customFormat="1">
+    <row r="5" spans="1:15" s="13" customFormat="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>111325</v>
@@ -14367,7 +18851,7 @@
       <c r="M5" s="21"/>
       <c r="N5" s="16"/>
     </row>
-    <row r="6" spans="1:14" s="13" customFormat="1">
+    <row r="6" spans="1:15" s="13" customFormat="1">
       <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>113825</v>
@@ -14399,7 +18883,7 @@
       <c r="M6" s="21"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" s="13" customFormat="1">
+    <row r="7" spans="1:15" s="13" customFormat="1">
       <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>116325</v>
@@ -14431,7 +18915,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" s="13" customFormat="1">
+    <row r="8" spans="1:15" s="13" customFormat="1">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>117325</v>
@@ -14463,29 +18947,29 @@
       <c r="M8" s="21"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" s="13" customFormat="1">
+    <row r="9" spans="1:15" s="13" customFormat="1">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
-        <v>118325</v>
+        <v>117425</v>
       </c>
       <c r="B9" s="10">
-        <v>17</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C9" s="11">
-        <v>0.22406999999999999</v>
+        <v>0.22563</v>
       </c>
       <c r="D9" s="10">
-        <v>1.452</v>
+        <v>1.4417</v>
       </c>
       <c r="E9" s="10">
-        <v>0.82030000000000003</v>
+        <v>0.8165</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>0.9792413250589983</v>
+        <v>0.98605891093435893</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="21"/>
@@ -14495,29 +18979,29 @@
       <c r="M9" s="21"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" s="13" customFormat="1">
+    <row r="10" spans="1:15" s="13" customFormat="1">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
-        <v>118825</v>
+        <v>117525</v>
       </c>
       <c r="B10" s="10">
-        <v>17.5</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.22283</v>
+        <v>16.2</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.22550000000000001</v>
       </c>
       <c r="D10" s="10">
-        <v>1.4572000000000001</v>
+        <v>1.4429000000000001</v>
       </c>
       <c r="E10" s="10">
-        <v>0.82150000000000001</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>0.97382221833755789</v>
+        <v>0.98549077877807889</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="21"/>
@@ -14527,29 +19011,29 @@
       <c r="M10" s="21"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" s="13" customFormat="1">
+    <row r="11" spans="1:15" s="13" customFormat="1">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
-        <v>119325</v>
+        <v>117625</v>
       </c>
       <c r="B11" s="10">
-        <v>18</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.22106999999999999</v>
+        <v>16.3</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.22536999999999999</v>
       </c>
       <c r="D11" s="10">
-        <v>1.462</v>
+        <v>1.4440999999999999</v>
       </c>
       <c r="E11" s="10">
-        <v>0.82130000000000003</v>
+        <v>0.8175</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="1"/>
-        <v>0.9661305829909973</v>
+        <v>0.98492264662179874</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="21"/>
@@ -14559,29 +19043,29 @@
       <c r="M11" s="21"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1">
+    <row r="12" spans="1:15" s="13" customFormat="1">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
-        <v>119425</v>
+        <v>117725</v>
       </c>
       <c r="B12" s="10">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.22059000000000001</v>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.22523000000000001</v>
       </c>
       <c r="D12" s="10">
-        <v>1.4628000000000001</v>
+        <v>1.4453</v>
       </c>
       <c r="E12" s="10">
-        <v>0.82099999999999995</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>0.96403286426011714</v>
+        <v>0.9843108119919588</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="21"/>
@@ -14591,29 +19075,29 @@
       <c r="M12" s="21"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" s="13" customFormat="1">
+    <row r="13" spans="1:15" s="13" customFormat="1">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
-        <v>119525</v>
+        <v>117825</v>
       </c>
       <c r="B13" s="10">
-        <v>18.2</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.22001999999999999</v>
+        <v>16.5</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.22508</v>
       </c>
       <c r="D13" s="10">
-        <v>1.4634</v>
+        <v>1.4464999999999999</v>
       </c>
       <c r="E13" s="10">
-        <v>0.82040000000000002</v>
+        <v>0.81840000000000002</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="1"/>
-        <v>0.96154182326719695</v>
+        <v>0.98365527488855875</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="21"/>
@@ -14623,29 +19107,29 @@
       <c r="M13" s="21"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" s="13" customFormat="1">
+    <row r="14" spans="1:15" s="13" customFormat="1">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
-        <v>119575</v>
+        <v>117925</v>
       </c>
       <c r="B14" s="10">
-        <v>18.25</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.21967999999999999</v>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.22491</v>
       </c>
       <c r="D14" s="10">
-        <v>1.4637</v>
+        <v>1.4477</v>
       </c>
       <c r="E14" s="10">
-        <v>0.82</v>
+        <v>0.81889999999999996</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>0.96005593916615672</v>
+        <v>0.98291233283803869</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="21"/>
@@ -14655,29 +19139,29 @@
       <c r="M14" s="21"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" s="13" customFormat="1">
-      <c r="A15" s="18">
+    <row r="15" spans="1:15" s="13" customFormat="1">
+      <c r="A15" s="10">
         <f t="shared" si="0"/>
-        <v>119615</v>
-      </c>
-      <c r="B15" s="23">
-        <v>18.29</v>
-      </c>
-      <c r="C15" s="23">
-        <v>0.21937000000000001</v>
-      </c>
-      <c r="D15" s="23">
-        <v>1.4639</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0.81950000000000001</v>
-      </c>
-      <c r="F15" s="23" t="s">
+        <v>118025</v>
+      </c>
+      <c r="B15" s="10">
+        <v>16.7</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.22472</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1.4488000000000001</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>0.95870116248579673</v>
+        <v>0.98208198584039863</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="21"/>
@@ -14685,31 +19169,31 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="16"/>
+      <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" s="13" customFormat="1">
+    <row r="16" spans="1:15" s="13" customFormat="1">
       <c r="A16" s="10">
         <f t="shared" si="0"/>
-        <v>119625</v>
-      </c>
-      <c r="B16" s="23">
-        <v>18.3</v>
-      </c>
-      <c r="C16" s="23">
-        <v>0.21929000000000001</v>
-      </c>
-      <c r="D16" s="23">
-        <v>1.4639</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0.81940000000000002</v>
-      </c>
-      <c r="F16" s="23" t="s">
+        <v>118125</v>
+      </c>
+      <c r="B16" s="10">
+        <v>16.8</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.22452</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1.4499</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.8196</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>0.95835154269731671</v>
+        <v>0.98120793636919845</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="21"/>
@@ -14717,31 +19201,31 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="16"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" s="13" customFormat="1">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
-        <v>119725</v>
-      </c>
-      <c r="B17" s="23">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="C17" s="23">
-        <v>0.21833</v>
-      </c>
-      <c r="D17" s="23">
-        <v>1.4641</v>
-      </c>
-      <c r="E17" s="23">
-        <v>0.81789999999999996</v>
-      </c>
-      <c r="F17" s="23" t="s">
+        <v>118225</v>
+      </c>
+      <c r="B17" s="10">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.2243</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1.4509000000000001</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>0.95415610523555638</v>
+        <v>0.98024648195087849</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="21"/>
@@ -14749,31 +19233,31 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="16"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" s="13" customFormat="1">
-      <c r="A18" s="18">
+      <c r="A18" s="10">
         <f t="shared" si="0"/>
-        <v>119825</v>
-      </c>
-      <c r="B18" s="23">
-        <v>18.5</v>
-      </c>
-      <c r="C18" s="23">
-        <v>0.21668999999999999</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1.4635</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0.81469999999999998</v>
-      </c>
-      <c r="F18" s="23" t="s">
+        <v>118325</v>
+      </c>
+      <c r="B18" s="10">
+        <v>17</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.22406999999999999</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1.452</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>0.94698889957171573</v>
+        <v>0.9792413250589983</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="21"/>
@@ -14781,59 +19265,352 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="16"/>
+      <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="3">
+    <row r="19" spans="1:14" s="13" customFormat="1">
+      <c r="A19" s="10">
         <f t="shared" si="0"/>
-        <v>119925</v>
-      </c>
-      <c r="B19" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4">
+        <v>118825</v>
+      </c>
+      <c r="B19" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.22283</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1.4572000000000001</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>0.97382221833755789</v>
+      </c>
+      <c r="H19" s="10"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="15"/>
+      <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="3">
+    <row r="20" spans="1:14" s="13" customFormat="1">
+      <c r="A20" s="10">
         <f t="shared" si="0"/>
-        <v>120325</v>
-      </c>
-      <c r="B20" s="3">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4">
+        <v>119325</v>
+      </c>
+      <c r="B20" s="10">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.22106999999999999</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1.462</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>0.9661305829909973</v>
+      </c>
+      <c r="H20" s="10"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="15"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" s="13" customFormat="1">
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
+        <v>119425</v>
+      </c>
+      <c r="B21" s="10">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.22059000000000001</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1.4628000000000001</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="1"/>
+        <v>0.96403286426011714</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="1:14" s="13" customFormat="1">
+      <c r="A22" s="10">
+        <f t="shared" si="0"/>
+        <v>119525</v>
+      </c>
+      <c r="B22" s="10">
+        <v>18.2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.22001999999999999</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1.4634</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.82040000000000002</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="1"/>
+        <v>0.96154182326719695</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" s="13" customFormat="1">
+      <c r="A23" s="10">
+        <f t="shared" si="0"/>
+        <v>119575</v>
+      </c>
+      <c r="B23" s="10">
+        <v>18.25</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.21967999999999999</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1.4637</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.96005593916615672</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:14" s="13" customFormat="1">
+      <c r="A24" s="18">
+        <f t="shared" si="0"/>
+        <v>119615</v>
+      </c>
+      <c r="B24" s="23">
+        <v>18.29</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.21937000000000001</v>
+      </c>
+      <c r="D24" s="23">
+        <v>1.4639</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="25">
+        <f t="shared" si="1"/>
+        <v>0.95870116248579673</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="1:14" s="13" customFormat="1">
+      <c r="A25" s="10">
+        <f t="shared" si="0"/>
+        <v>119625</v>
+      </c>
+      <c r="B25" s="23">
+        <v>18.3</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.21929000000000001</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1.4639</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="1"/>
+        <v>0.95835154269731671</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" s="13" customFormat="1">
+      <c r="A26" s="10">
+        <f t="shared" si="0"/>
+        <v>119725</v>
+      </c>
+      <c r="B26" s="23">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.21833</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1.4641</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="1"/>
+        <v>0.95415610523555638</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="1:14" s="13" customFormat="1">
+      <c r="A27" s="18">
+        <f t="shared" si="0"/>
+        <v>119825</v>
+      </c>
+      <c r="B27" s="23">
+        <v>18.5</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0.21668999999999999</v>
+      </c>
+      <c r="D27" s="23">
+        <v>1.4635</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" si="1"/>
+        <v>0.94698889957171573</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>119925</v>
+      </c>
+      <c r="B28" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>120325</v>
+      </c>
+      <c r="B29" s="3">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="N32" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14850,8 +19627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47BBAE-5C45-FC47-9DB3-44760ECB14A5}">
   <dimension ref="A1:BH69"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="92" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView topLeftCell="P1" zoomScale="90" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14860,106 +19637,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="33" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="33" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="33" t="s">
+      <c r="R1" s="38"/>
+      <c r="S1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="35" t="s">
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35" t="s">
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="33">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="37">
         <v>16.55</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="33" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="35" t="s">
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35" t="s">
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35" t="s">
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35" t="s">
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35" t="s">
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="33" t="s">
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="33" t="s">
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="33" t="s">
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="33" t="s">
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AX1" s="34"/>
+      <c r="AX1" s="38"/>
       <c r="AY1" s="19" t="s">
         <v>27</v>
       </c>
@@ -15116,7 +19893,7 @@
       <c r="AX2" s="6">
         <v>1.0102</v>
       </c>
-      <c r="AY2" s="36" t="s">
+      <c r="AY2" s="35" t="s">
         <v>26</v>
       </c>
       <c r="AZ2" s="7"/>
@@ -15272,7 +20049,7 @@
       <c r="AX3" s="6">
         <v>1.1971000000000001</v>
       </c>
-      <c r="AY3" s="36"/>
+      <c r="AY3" s="35"/>
       <c r="AZ3" s="7"/>
       <c r="BA3" s="29" t="s">
         <v>32</v>
@@ -15426,7 +20203,7 @@
       <c r="AX4" s="6">
         <v>0.74139999999999995</v>
       </c>
-      <c r="AY4" s="36"/>
+      <c r="AY4" s="35"/>
       <c r="AZ4" s="7"/>
       <c r="BA4" s="29" t="s">
         <v>32</v>
@@ -15580,7 +20357,7 @@
       <c r="AX5" s="6">
         <v>1.2981</v>
       </c>
-      <c r="AY5" s="36"/>
+      <c r="AY5" s="35"/>
       <c r="AZ5" s="7"/>
       <c r="BA5" s="29" t="s">
         <v>32</v>
@@ -15734,7 +20511,7 @@
       <c r="AX6" s="6">
         <v>0.88719999999999999</v>
       </c>
-      <c r="AY6" s="36"/>
+      <c r="AY6" s="35"/>
       <c r="AZ6" s="7"/>
       <c r="BA6" s="29" t="s">
         <v>32</v>
@@ -15888,7 +20665,7 @@
       <c r="AX7" s="6">
         <v>0.98160000000000003</v>
       </c>
-      <c r="AY7" s="36"/>
+      <c r="AY7" s="35"/>
       <c r="AZ7" s="7"/>
       <c r="BA7" s="29" t="s">
         <v>32</v>
@@ -16042,7 +20819,7 @@
       <c r="AX8" s="6">
         <v>0.76359999999999995</v>
       </c>
-      <c r="AY8" s="36"/>
+      <c r="AY8" s="35"/>
       <c r="AZ8" s="7"/>
       <c r="BA8" s="29" t="s">
         <v>32</v>
@@ -16196,7 +20973,7 @@
       <c r="AX9" s="6">
         <v>1.3546</v>
       </c>
-      <c r="AY9" s="36"/>
+      <c r="AY9" s="35"/>
       <c r="AZ9" s="7"/>
       <c r="BA9" s="29" t="s">
         <v>32</v>
@@ -16350,7 +21127,7 @@
       <c r="AX10" s="6">
         <v>1.0712999999999999</v>
       </c>
-      <c r="AY10" s="36"/>
+      <c r="AY10" s="35"/>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="29" t="s">
         <v>33</v>
@@ -16504,7 +21281,7 @@
       <c r="AX11" s="6">
         <v>0.78500000000000003</v>
       </c>
-      <c r="AY11" s="36"/>
+      <c r="AY11" s="35"/>
       <c r="AZ11" s="7"/>
       <c r="BA11" s="29" t="s">
         <v>32</v>
@@ -16649,7 +21426,7 @@
       <c r="AX12" s="6">
         <v>1.4837</v>
       </c>
-      <c r="AY12" s="37" t="s">
+      <c r="AY12" s="36" t="s">
         <v>28</v>
       </c>
       <c r="AZ12" s="7"/>
@@ -16796,7 +21573,7 @@
       <c r="AX13" s="6">
         <v>1.5105</v>
       </c>
-      <c r="AY13" s="37"/>
+      <c r="AY13" s="36"/>
       <c r="AZ13" s="7"/>
       <c r="BA13" s="29" t="s">
         <v>32</v>
@@ -16941,7 +21718,7 @@
       <c r="AX14" s="6">
         <v>1.4646999999999999</v>
       </c>
-      <c r="AY14" s="37"/>
+      <c r="AY14" s="36"/>
       <c r="AZ14" s="7"/>
       <c r="BA14" s="29" t="s">
         <v>32</v>
@@ -17086,7 +21863,7 @@
       <c r="AX15" s="6">
         <v>1.4507000000000001</v>
       </c>
-      <c r="AY15" s="37"/>
+      <c r="AY15" s="36"/>
       <c r="AZ15" s="7"/>
       <c r="BA15" s="29" t="s">
         <v>32</v>
@@ -17231,7 +22008,7 @@
       <c r="AX16" s="6">
         <v>1.5451999999999999</v>
       </c>
-      <c r="AY16" s="37"/>
+      <c r="AY16" s="36"/>
       <c r="AZ16" s="7"/>
       <c r="BA16" s="29" t="s">
         <v>32</v>
@@ -17376,7 +22153,7 @@
       <c r="AX17" s="6">
         <v>1.4371</v>
       </c>
-      <c r="AY17" s="37"/>
+      <c r="AY17" s="36"/>
       <c r="AZ17" s="7"/>
       <c r="BA17" s="29" t="s">
         <v>32</v>
@@ -17521,7 +22298,7 @@
       <c r="AX18" s="6">
         <v>1.4191</v>
       </c>
-      <c r="AY18" s="37"/>
+      <c r="AY18" s="36"/>
       <c r="AZ18" s="7"/>
       <c r="BA18" s="29" t="s">
         <v>32</v>
@@ -17666,7 +22443,7 @@
       <c r="AX19" s="6">
         <v>1.3926000000000001</v>
       </c>
-      <c r="AY19" s="37"/>
+      <c r="AY19" s="36"/>
       <c r="AZ19" s="7"/>
       <c r="BA19" s="29" t="s">
         <v>32</v>
@@ -17811,7 +22588,7 @@
       <c r="AX20" s="6">
         <v>1.6053999999999999</v>
       </c>
-      <c r="AY20" s="37"/>
+      <c r="AY20" s="36"/>
       <c r="AZ20" s="7"/>
       <c r="BA20" s="29" t="s">
         <v>32</v>
@@ -17878,16 +22655,16 @@
       <c r="X21" s="6">
         <v>1.1788000000000001</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y21" s="32">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="Z21" s="20">
         <v>1.1835</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="32">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AB21" s="20">
         <v>1.1862999999999999</v>
       </c>
       <c r="AC21" s="9">
@@ -17956,7 +22733,7 @@
       <c r="AX21" s="6">
         <v>1.5869</v>
       </c>
-      <c r="AY21" s="37"/>
+      <c r="AY21" s="36"/>
       <c r="AZ21" s="7"/>
       <c r="BA21" s="29" t="s">
         <v>32</v>
@@ -18098,7 +22875,7 @@
       <c r="AX22" s="6">
         <v>1.9810000000000001</v>
       </c>
-      <c r="AY22" s="36" t="s">
+      <c r="AY22" s="35" t="s">
         <v>29</v>
       </c>
       <c r="BA22" s="29" t="s">
@@ -18241,7 +23018,7 @@
       <c r="AX23" s="6">
         <v>2.1252</v>
       </c>
-      <c r="AY23" s="36"/>
+      <c r="AY23" s="35"/>
       <c r="BA23" s="29" t="s">
         <v>32</v>
       </c>
@@ -18382,7 +23159,7 @@
       <c r="AX24" s="6">
         <v>1.7828999999999999</v>
       </c>
-      <c r="AY24" s="36"/>
+      <c r="AY24" s="35"/>
       <c r="BA24" s="29" t="s">
         <v>32</v>
       </c>
@@ -18523,7 +23300,7 @@
       <c r="AX25" s="6">
         <v>2.1558999999999999</v>
       </c>
-      <c r="AY25" s="36"/>
+      <c r="AY25" s="35"/>
       <c r="BA25" s="29" t="s">
         <v>32</v>
       </c>
@@ -18664,7 +23441,7 @@
       <c r="AX26" s="6">
         <v>1.7674000000000001</v>
       </c>
-      <c r="AY26" s="36"/>
+      <c r="AY26" s="35"/>
       <c r="BA26" s="29" t="s">
         <v>32</v>
       </c>
@@ -18805,7 +23582,7 @@
       <c r="AX27" s="6">
         <v>1.7371000000000001</v>
       </c>
-      <c r="AY27" s="36"/>
+      <c r="AY27" s="35"/>
       <c r="BA27" s="29" t="s">
         <v>32</v>
       </c>
@@ -18946,7 +23723,7 @@
       <c r="AX28" s="6">
         <v>1.7339</v>
       </c>
-      <c r="AY28" s="36"/>
+      <c r="AY28" s="35"/>
       <c r="BA28" s="29" t="s">
         <v>32</v>
       </c>
@@ -19087,7 +23864,7 @@
       <c r="AX29" s="6">
         <v>1.7274</v>
       </c>
-      <c r="AY29" s="36"/>
+      <c r="AY29" s="35"/>
       <c r="BA29" s="29" t="s">
         <v>32</v>
       </c>
@@ -19228,7 +24005,7 @@
       <c r="AX30" s="6">
         <v>1.7290000000000001</v>
       </c>
-      <c r="AY30" s="36"/>
+      <c r="AY30" s="35"/>
       <c r="BA30" s="29" t="s">
         <v>32</v>
       </c>
@@ -19369,7 +24146,7 @@
       <c r="AX31" s="6">
         <v>2.3060999999999998</v>
       </c>
-      <c r="AY31" s="36"/>
+      <c r="AY31" s="35"/>
       <c r="BA31" s="29" t="s">
         <v>32</v>
       </c>
@@ -19510,7 +24287,7 @@
       <c r="AX32" s="6">
         <v>0.74139999999999995</v>
       </c>
-      <c r="AY32" s="37" t="s">
+      <c r="AY32" s="36" t="s">
         <v>30</v>
       </c>
       <c r="BA32" s="29" t="s">
@@ -19653,7 +24430,7 @@
       <c r="AX33" s="6">
         <v>0.54169999999999996</v>
       </c>
-      <c r="AY33" s="37"/>
+      <c r="AY33" s="36"/>
       <c r="BA33" s="29" t="s">
         <v>32</v>
       </c>
@@ -19794,7 +24571,7 @@
       <c r="AX34" s="6">
         <v>0.76359999999999995</v>
       </c>
-      <c r="AY34" s="37"/>
+      <c r="AY34" s="36"/>
       <c r="BA34" s="29" t="s">
         <v>32</v>
       </c>
@@ -19935,7 +24712,7 @@
       <c r="AX35" s="6">
         <v>0.67700000000000005</v>
       </c>
-      <c r="AY35" s="37"/>
+      <c r="AY35" s="36"/>
       <c r="BA35" s="29" t="s">
         <v>32</v>
       </c>
@@ -20076,7 +24853,7 @@
       <c r="AX36" s="6">
         <v>0.56310000000000004</v>
       </c>
-      <c r="AY36" s="37"/>
+      <c r="AY36" s="36"/>
       <c r="BA36" s="29" t="s">
         <v>32</v>
       </c>
@@ -20217,7 +24994,7 @@
       <c r="AX37" s="6">
         <v>0.78500000000000003</v>
       </c>
-      <c r="AY37" s="37"/>
+      <c r="AY37" s="36"/>
       <c r="BA37" s="29" t="s">
         <v>32</v>
       </c>
@@ -20358,7 +25135,7 @@
       <c r="AX38" s="6">
         <v>1.0102</v>
       </c>
-      <c r="AY38" s="37"/>
+      <c r="AY38" s="36"/>
       <c r="BA38" s="29" t="s">
         <v>32</v>
       </c>
@@ -20499,7 +25276,7 @@
       <c r="AX39" s="6">
         <v>0.43519999999999998</v>
       </c>
-      <c r="AY39" s="37"/>
+      <c r="AY39" s="36"/>
       <c r="BA39" s="29" t="s">
         <v>32</v>
       </c>
@@ -20640,7 +25417,7 @@
       <c r="AX40" s="6">
         <v>0.88719999999999999</v>
       </c>
-      <c r="AY40" s="37"/>
+      <c r="AY40" s="36"/>
       <c r="BA40" s="29" t="s">
         <v>32</v>
       </c>
@@ -20781,7 +25558,7 @@
       <c r="AX41" s="6">
         <v>0.98160000000000003</v>
       </c>
-      <c r="AY41" s="37"/>
+      <c r="AY41" s="36"/>
       <c r="BA41" s="8" t="s">
         <v>32</v>
       </c>
@@ -20913,7 +25690,7 @@
       <c r="AX42" s="6">
         <v>0.30280000000000001</v>
       </c>
-      <c r="AY42" s="36" t="s">
+      <c r="AY42" s="35" t="s">
         <v>31</v>
       </c>
       <c r="BA42" s="8" t="s">
@@ -21047,7 +25824,7 @@
       <c r="AX43" s="6">
         <v>0.54169999999999996</v>
       </c>
-      <c r="AY43" s="36"/>
+      <c r="AY43" s="35"/>
       <c r="BA43" s="8" t="s">
         <v>32</v>
       </c>
@@ -21179,7 +25956,7 @@
       <c r="AX44" s="6">
         <v>0.15970000000000001</v>
       </c>
-      <c r="AY44" s="36"/>
+      <c r="AY44" s="35"/>
       <c r="BA44" s="8" t="s">
         <v>32</v>
       </c>
@@ -21311,7 +26088,7 @@
       <c r="AX45" s="6">
         <v>0.43519999999999998</v>
       </c>
-      <c r="AY45" s="36"/>
+      <c r="AY45" s="35"/>
       <c r="BA45" s="8" t="s">
         <v>32</v>
       </c>
@@ -21443,7 +26220,7 @@
       <c r="AX46" s="6">
         <v>0</v>
       </c>
-      <c r="AY46" s="36"/>
+      <c r="AY46" s="35"/>
       <c r="BA46" s="8" t="s">
         <v>32</v>
       </c>
@@ -21575,7 +26352,7 @@
       <c r="AX47" s="6">
         <v>0</v>
       </c>
-      <c r="AY47" s="36"/>
+      <c r="AY47" s="35"/>
       <c r="BA47" s="8" t="s">
         <v>32</v>
       </c>
@@ -21695,7 +26472,7 @@
       <c r="AX48" s="6">
         <v>0</v>
       </c>
-      <c r="AY48" s="36"/>
+      <c r="AY48" s="35"/>
       <c r="BA48" s="8" t="s">
         <v>32</v>
       </c>
@@ -21791,7 +26568,7 @@
       <c r="AX49" s="6">
         <v>0.31119999999999998</v>
       </c>
-      <c r="AY49" s="36"/>
+      <c r="AY49" s="35"/>
       <c r="BA49" s="8" t="s">
         <v>32</v>
       </c>
@@ -21899,7 +26676,7 @@
       <c r="AX50" s="6">
         <v>0.56310000000000004</v>
       </c>
-      <c r="AY50" s="36"/>
+      <c r="AY50" s="35"/>
       <c r="BA50" s="8" t="s">
         <v>32</v>
       </c>
@@ -22031,7 +26808,7 @@
       <c r="AX51" s="6">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="AY51" s="36"/>
+      <c r="AY51" s="35"/>
     </row>
     <row r="52" spans="1:60">
       <c r="G52">
@@ -22104,102 +26881,102 @@
       </c>
     </row>
     <row r="53" spans="1:60" ht="18">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="33" t="s">
+      <c r="B53" s="38"/>
+      <c r="C53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="33" t="s">
+      <c r="D53" s="38"/>
+      <c r="E53" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="33" t="s">
+      <c r="F53" s="38"/>
+      <c r="G53" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="34"/>
-      <c r="I53" s="33" t="s">
+      <c r="H53" s="38"/>
+      <c r="I53" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="34"/>
-      <c r="K53" s="33" t="s">
+      <c r="J53" s="38"/>
+      <c r="K53" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L53" s="34"/>
-      <c r="M53" s="33" t="s">
+      <c r="L53" s="38"/>
+      <c r="M53" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="34"/>
-      <c r="O53" s="33" t="s">
+      <c r="N53" s="38"/>
+      <c r="O53" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="33" t="s">
+      <c r="P53" s="38"/>
+      <c r="Q53" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="R53" s="34"/>
-      <c r="S53" s="33" t="s">
+      <c r="R53" s="38"/>
+      <c r="S53" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="T53" s="34"/>
-      <c r="U53" s="35" t="s">
+      <c r="T53" s="38"/>
+      <c r="U53" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35" t="s">
+      <c r="V53" s="39"/>
+      <c r="W53" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35" t="s">
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35" t="s">
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AB53" s="35"/>
+      <c r="AB53" s="39"/>
       <c r="AC53" s="27"/>
       <c r="AD53" s="27"/>
       <c r="AE53" s="28"/>
       <c r="AF53" s="28"/>
-      <c r="AG53" s="35" t="s">
+      <c r="AG53" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AH53" s="35"/>
-      <c r="AI53" s="35" t="s">
+      <c r="AH53" s="39"/>
+      <c r="AI53" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="35" t="s">
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AL53" s="35"/>
-      <c r="AM53" s="35" t="s">
+      <c r="AL53" s="39"/>
+      <c r="AM53" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AN53" s="35"/>
-      <c r="AO53" s="35" t="s">
+      <c r="AN53" s="39"/>
+      <c r="AO53" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AP53" s="35"/>
-      <c r="AQ53" s="33" t="s">
+      <c r="AP53" s="39"/>
+      <c r="AQ53" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AR53" s="34"/>
-      <c r="AS53" s="33" t="s">
+      <c r="AR53" s="38"/>
+      <c r="AS53" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AT53" s="34"/>
-      <c r="AU53" s="33" t="s">
+      <c r="AT53" s="38"/>
+      <c r="AU53" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AV53" s="34"/>
-      <c r="AW53" s="33" t="s">
+      <c r="AV53" s="38"/>
+      <c r="AW53" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AX53" s="34"/>
+      <c r="AX53" s="38"/>
       <c r="AY53" s="19" t="s">
         <v>27</v>
       </c>
@@ -22359,11 +27136,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AY2:AY11"/>
-    <mergeCell ref="AY12:AY21"/>
-    <mergeCell ref="AY22:AY31"/>
-    <mergeCell ref="AY32:AY41"/>
-    <mergeCell ref="AY42:AY51"/>
+    <mergeCell ref="AS53:AT53"/>
+    <mergeCell ref="AU53:AV53"/>
+    <mergeCell ref="AW53:AX53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AM53:AN53"/>
+    <mergeCell ref="AO53:AP53"/>
+    <mergeCell ref="AQ53:AR53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="AA53:AB53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="AS1:AT1"/>
@@ -22380,38 +27184,11 @@
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="AA53:AB53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AS53:AT53"/>
-    <mergeCell ref="AU53:AV53"/>
-    <mergeCell ref="AW53:AX53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AM53:AN53"/>
-    <mergeCell ref="AO53:AP53"/>
-    <mergeCell ref="AQ53:AR53"/>
+    <mergeCell ref="AY2:AY11"/>
+    <mergeCell ref="AY12:AY21"/>
+    <mergeCell ref="AY22:AY31"/>
+    <mergeCell ref="AY32:AY41"/>
+    <mergeCell ref="AY42:AY51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22419,11 +27196,524 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086B0700-9516-3C4C-B971-7E3CA479F4B9}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1.2614000000000001</v>
+      </c>
+      <c r="C8">
+        <v>1.2644</v>
+      </c>
+      <c r="D8">
+        <v>1.2685999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.272</v>
+      </c>
+      <c r="F8">
+        <v>1.2726999999999999</v>
+      </c>
+      <c r="H8">
+        <f>1-B8/$A$8</f>
+        <v>0.88532727272727274</v>
+      </c>
+      <c r="I8">
+        <f>1-C8/$A$8</f>
+        <v>0.88505454545454543</v>
+      </c>
+      <c r="J8">
+        <f>1-D8/$A$8</f>
+        <v>0.88467272727272728</v>
+      </c>
+      <c r="K8">
+        <f>1-E8/$A$8</f>
+        <v>0.88436363636363635</v>
+      </c>
+      <c r="L8">
+        <f>1-F8/$A$8</f>
+        <v>0.88429999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="C9">
+        <v>1.2261</v>
+      </c>
+      <c r="D9">
+        <v>1.2279</v>
+      </c>
+      <c r="E9">
+        <v>1.2291000000000001</v>
+      </c>
+      <c r="F9">
+        <v>1.2281</v>
+      </c>
+      <c r="H9">
+        <f>1-B9/$A$9</f>
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="I9">
+        <f>1-C9/$A$9</f>
+        <v>0.87739</v>
+      </c>
+      <c r="J9">
+        <f>1-D9/$A$9</f>
+        <v>0.87721000000000005</v>
+      </c>
+      <c r="K9">
+        <f>1-E9/$A$9</f>
+        <v>0.87709000000000004</v>
+      </c>
+      <c r="L9">
+        <f>1-F9/$A$9</f>
+        <v>0.87719000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.1889000000000001</v>
+      </c>
+      <c r="C10">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="D10">
+        <v>1.1875</v>
+      </c>
+      <c r="E10">
+        <v>1.1862999999999999</v>
+      </c>
+      <c r="F10">
+        <v>1.1835</v>
+      </c>
+      <c r="H10">
+        <f>1-B10/$A$10</f>
+        <v>0.8679</v>
+      </c>
+      <c r="I10">
+        <f>1-C10/$A$10</f>
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="J10">
+        <f>1-D10/$A$10</f>
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="K10">
+        <f>1-E10/$A$10</f>
+        <v>0.8681888888888889</v>
+      </c>
+      <c r="L10">
+        <f>1-F10/$A$10</f>
+        <v>0.86850000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1.1504000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.1476</v>
+      </c>
+      <c r="D11">
+        <v>1.1446000000000001</v>
+      </c>
+      <c r="E11">
+        <v>1.1409</v>
+      </c>
+      <c r="F11">
+        <v>1.1363000000000001</v>
+      </c>
+      <c r="H11">
+        <f>1-B11/$A$11</f>
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="I11">
+        <f>1-C11/$A$11</f>
+        <v>0.85655000000000003</v>
+      </c>
+      <c r="J11">
+        <f>1-D11/$A$11</f>
+        <v>0.85692499999999994</v>
+      </c>
+      <c r="K11">
+        <f>1-E11/$A$11</f>
+        <v>0.85738749999999997</v>
+      </c>
+      <c r="L11">
+        <f>1-F11/$A$11</f>
+        <v>0.85796249999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="C12">
+        <v>1.1031</v>
+      </c>
+      <c r="D12">
+        <v>1.0974999999999999</v>
+      </c>
+      <c r="E12">
+        <v>1.0911</v>
+      </c>
+      <c r="F12">
+        <v>1.0844</v>
+      </c>
+      <c r="H12">
+        <f>1-B12/$A$12</f>
+        <v>0.84171428571428564</v>
+      </c>
+      <c r="I12">
+        <f>1-C12/$A$12</f>
+        <v>0.84241428571428578</v>
+      </c>
+      <c r="J12">
+        <f>1-D12/$A$12</f>
+        <v>0.84321428571428569</v>
+      </c>
+      <c r="K12">
+        <f>1-E12/$A$12</f>
+        <v>0.84412857142857145</v>
+      </c>
+      <c r="L12">
+        <f>1-F12/$A$12</f>
+        <v>0.84508571428571422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1.0622</v>
+      </c>
+      <c r="C13">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="D13">
+        <v>1.0465</v>
+      </c>
+      <c r="E13">
+        <v>1.0371999999999999</v>
+      </c>
+      <c r="F13">
+        <v>1.0282</v>
+      </c>
+      <c r="H13">
+        <f>1-B13/$A$13</f>
+        <v>0.82296666666666662</v>
+      </c>
+      <c r="I13">
+        <f>1-C13/$A$13</f>
+        <v>0.82416666666666671</v>
+      </c>
+      <c r="J13">
+        <f>1-D13/$A$13</f>
+        <v>0.82558333333333334</v>
+      </c>
+      <c r="K13">
+        <f>1-E13/$A$13</f>
+        <v>0.82713333333333339</v>
+      </c>
+      <c r="L13">
+        <f>1-F13/$A$13</f>
+        <v>0.82863333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1.0102</v>
+      </c>
+      <c r="C14">
+        <v>1.0004999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="F14">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="H14">
+        <f>1-B14/$A$14</f>
+        <v>0.79796</v>
+      </c>
+      <c r="I14">
+        <f>1-C14/$A$14</f>
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="J14">
+        <f>1-D14/$A$14</f>
+        <v>0.80224000000000006</v>
+      </c>
+      <c r="K14">
+        <f>1-E14/$A$14</f>
+        <v>0.80478000000000005</v>
+      </c>
+      <c r="L14">
+        <f>1-F14/$A$14</f>
+        <v>0.80708000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.95389999999999997</v>
+      </c>
+      <c r="C15">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="H15">
+        <f>1-B15/$A$15</f>
+        <v>0.76152500000000001</v>
+      </c>
+      <c r="I15">
+        <f>1-C15/$A$15</f>
+        <v>0.76477499999999998</v>
+      </c>
+      <c r="J15">
+        <f>1-D15/$A$15</f>
+        <v>0.76869999999999994</v>
+      </c>
+      <c r="K15">
+        <f>1-E15/$A$15</f>
+        <v>0.77290000000000003</v>
+      </c>
+      <c r="L15">
+        <f>1-F15/$A$15</f>
+        <v>0.77654999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="C16">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="D16">
+        <v>0.8427</v>
+      </c>
+      <c r="E16">
+        <v>0.8226</v>
+      </c>
+      <c r="F16">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="H16">
+        <f>1-B16/$A$16</f>
+        <v>0.71463333333333334</v>
+      </c>
+      <c r="I16">
+        <f>1-C16/$A$16</f>
+        <v>0.71463333333333334</v>
+      </c>
+      <c r="J16">
+        <f>1-D16/$A$16</f>
+        <v>0.71910000000000007</v>
+      </c>
+      <c r="K16">
+        <f>1-E16/$A$16</f>
+        <v>0.7258</v>
+      </c>
+      <c r="L16">
+        <f>1-F16/$A$16</f>
+        <v>0.73146666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="L17">
+        <f>1-F17/$A$17</f>
+        <v>0.66520000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.42420000000000002</v>
+      </c>
+      <c r="L18">
+        <f>1-F18/$A$18</f>
+        <v>0.57579999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f>0.01*55.5</f>
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED53D93-006C-C844-BC6D-94AF68143AA5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22433,37 +27723,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <f>27658-22156</f>
-        <v>5502</v>
+        <v>20000</v>
       </c>
       <c r="B1">
-        <v>1.2</v>
+        <v>1000000</v>
       </c>
       <c r="C1">
         <f>LN(B1)/(A1*0.00002)</f>
-        <v>1.6568662013263775</v>
+        <v>34.538776394910684</v>
       </c>
       <c r="D1">
         <f>C1/1680</f>
-        <v>9.8622988174189145E-4</v>
+        <v>2.0558795473161123E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <f>16834-3425</f>
-        <v>13409</v>
+        <v>40000</v>
       </c>
       <c r="B2">
-        <f>25.57/0.000000006</f>
-        <v>4261666666.6666665</v>
+        <f>0.00035/0.000000001</f>
+        <v>350000</v>
       </c>
       <c r="C2">
         <f>LN(B2)/(A2*0.00002)</f>
-        <v>82.679268241559583</v>
+        <v>15.957110541831995</v>
       </c>
       <c r="D2">
         <f>C2/1680</f>
-        <v>4.9213850143785466E-2</v>
+        <v>9.4982800844238061E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
+++ b/keyResults/rotor67-22passage/rotor67-annular-cascade-validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengjie/Documents/GitHub/eigenvalueStability/keyResults/rotor67-22passage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0398B92-23EA-9342-B4AA-1D6A26D6D6A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292543EF-3F4D-944D-961D-96A79D777B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="19560" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
+    <workbookView xWindow="17760" yWindow="1240" windowWidth="20040" windowHeight="18620" activeTab="1" xr2:uid="{7F26DCCE-6B3D-F64F-ABE2-2B5A5ED9D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="steady" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="111">
   <si>
     <t>pr</t>
   </si>
@@ -378,6 +378,18 @@
   <si>
     <t>ND=18.6-18.9</t>
   </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>trace2</t>
+  </si>
+  <si>
+    <t>trace3</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
 </sst>
 </file>
 
@@ -386,7 +398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -462,8 +474,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +542,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -578,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -673,6 +703,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,18 +719,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11359,10 +11392,12 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="15"/>
+            <c:symbol val="square"/>
+            <c:size val="26"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
               <a:ln w="25400">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
@@ -21526,13 +21561,15 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="10"/>
+            <c:size val="33"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -24279,247 +24316,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="30"/>
+          <c:idx val="31"/>
           <c:order val="30"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'eigenvalues-drdv'!$DX$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ND=0.9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="31750">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'eigenvalues-drdv'!$DX$2:$DX$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>-0.25829999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.56440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.92330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.69769999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.89710000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.14399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1.1603000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-8.8099999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.89480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.6189</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.4428000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.0784</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.74319999999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.25480000000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.0924999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.1905</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.923</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.4514999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.6812</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.3336000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.7709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.8512</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.1110000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'eigenvalues-drdv'!$DY$2:$DY$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.629</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2931999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16209999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3824000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.5655</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.3069999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.51029999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.9899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.38919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.91020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.0992000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.51039999999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.3252999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.4188000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.51980000000000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.3751</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.55169999999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.5101</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.87429999999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.0470999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-8A8A-2C4F-80C7-339F3ED40E0D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="31"/>
-          <c:order val="31"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$DZ$1</c:f>
@@ -24760,7 +24558,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="32"/>
-          <c:order val="32"/>
+          <c:order val="31"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$EB$1</c:f>
@@ -24999,7 +24797,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="33"/>
-          <c:order val="33"/>
+          <c:order val="32"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$ED$1</c:f>
@@ -25240,7 +25038,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="34"/>
-          <c:order val="34"/>
+          <c:order val="33"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$EF$1</c:f>
@@ -25479,7 +25277,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="35"/>
-          <c:order val="35"/>
+          <c:order val="34"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$EH$1</c:f>
@@ -25718,7 +25516,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="36"/>
-          <c:order val="36"/>
+          <c:order val="35"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$EJ$1</c:f>
@@ -25957,7 +25755,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="37"/>
-          <c:order val="37"/>
+          <c:order val="36"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$EL$1</c:f>
@@ -26199,7 +25997,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="38"/>
-          <c:order val="38"/>
+          <c:order val="37"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$EN$1</c:f>
@@ -26441,7 +26239,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="39"/>
-          <c:order val="39"/>
+          <c:order val="38"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$EP$1</c:f>
@@ -26680,7 +26478,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="40"/>
-          <c:order val="40"/>
+          <c:order val="39"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$ER$1</c:f>
@@ -27459,7 +27257,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="41"/>
-          <c:order val="41"/>
+          <c:order val="40"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$ET$1</c:f>
@@ -28238,7 +28036,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="42"/>
-          <c:order val="42"/>
+          <c:order val="41"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$EV$1</c:f>
@@ -29023,7 +28821,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="43"/>
-          <c:order val="43"/>
+          <c:order val="42"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$EX$1</c:f>
@@ -29808,7 +29606,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="44"/>
-          <c:order val="44"/>
+          <c:order val="43"/>
           <c:tx>
             <c:strRef>
               <c:f>'eigenvalues-drdv'!$EZ$1</c:f>
@@ -30591,6 +30389,689 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="45"/>
+          <c:order val="44"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eigenvalues-drdv'!$DW$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$DW$40:$DW$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.1671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.17319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.18479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.2238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.25829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.31069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.39389999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.47299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.48170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.51959999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.5665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.60540000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.63529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.66020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.68230000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF2B-0549-BDF5-DC6BCF1976B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="46"/>
+          <c:order val="45"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eigenvalues-drdv'!$DW$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$DW$40:$DW$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.1671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.17319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.18479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.2238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.25829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.31069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.39389999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.47299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.48170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.51959999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.5665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.60540000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.63529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.66020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.68230000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$DX$40:$DX$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.87549999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0268999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1104000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1971000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2848999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3722000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4583999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5436000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7165999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0038999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1189</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2551000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2671000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2827000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF2B-0549-BDF5-DC6BCF1976B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="47"/>
+          <c:order val="46"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eigenvalues-drdv'!$DY$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trace2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$DY$40:$DY$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.11360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.12620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.1389</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.15160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.1736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.18490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.19170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.19089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.18260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.16969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.156</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.1439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$DZ$40:$DZ$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.5644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7697000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1608999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3824000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6175999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7422</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0095000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2854999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4178999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5459000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6709999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF2B-0549-BDF5-DC6BCF1976B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="48"/>
+          <c:order val="47"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eigenvalues-drdv'!$EA$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trace3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$EA$40:$EA$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.43269999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.45390000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.47949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.51359999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.55559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.60370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.6099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.58589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.56440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.54569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.52900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.51380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.49990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.4869</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.47449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.4627</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.4511</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.43980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.42849999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$EB$40:$EB$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54259999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.63270000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68389999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70720000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72919999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CF2B-0549-BDF5-DC6BCF1976B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -30606,7 +31087,7 @@
         <c:axId val="143884368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-1"/>
+          <c:min val="-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -30842,8 +31323,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.79575018413759158"/>
           <c:y val="2.7966306604641378E-2"/>
-          <c:w val="0.18103248599598135"/>
-          <c:h val="0.95196930500738708"/>
+          <c:w val="0.12563073167214781"/>
+          <c:h val="0.96191936758944019"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -30922,6 +31403,718 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$BN$2:$BN$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>-0.1671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.11360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.43269999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.0911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.69220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.0838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.25159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.0838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.2886</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.1671</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.6154999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.8956999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.9220999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.46579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.0931000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.4481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.0911</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.11360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.4502000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.6985999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.11360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.25159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.69220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.1671</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.46579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.0911</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.8956999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.9220999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.0838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.70350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.0838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.2886</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.4148000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.6154999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.6985999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.4481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.7789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.867</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.1671</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.0931000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.5958999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.5960999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.79369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.2063999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.4502000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.46579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.25159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.69220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.70350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.11360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.79369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.0911</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.1671</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.9220999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.8956999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.4148000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.2063999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.5958999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.5960999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.7789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.3125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.972</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.43269999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-3.0263</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.867</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.6985999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.0838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.0838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.2886</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2.4481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.6154999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-3.2360000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eigenvalues-drdv'!$BO$2:$BO$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>0.87549999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5644</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2364999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0137</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4346000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.4199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.87549999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8433999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9093</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1276999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6744</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2364999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.5644</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4643999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5644</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4346000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0137</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.87549999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1276999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2364999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8433999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9093</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.4199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.1262999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-6.4199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.7646999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4643999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.6744</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5265</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.9011</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.87549999999999994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.3932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.3934000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1276999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.4346000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.0137</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.1262999999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5644</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2364999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.87549999999999994</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.9093</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8433999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.7646999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.3932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.3934000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.5265</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.6908000000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.3932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9011</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.4643999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.4199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-6.4199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.6744</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5355000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94F9-B84E-847C-32D5776D6811}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389834799"/>
+        <c:axId val="389836431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="389834799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389836431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="389836431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389834799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -32001,7 +33194,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -33267,6 +34460,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -37434,6 +38667,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -37782,16 +39531,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>134</xdr:col>
-      <xdr:colOff>386719</xdr:colOff>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>215117</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>171621</xdr:rowOff>
+      <xdr:rowOff>181249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>149</xdr:col>
-      <xdr:colOff>737972</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>171621</xdr:rowOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>372534</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37813,6 +39562,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>314066</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>429053</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>137295</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5205B3EB-17F7-8B4E-A74B-FF1A0544227B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -38216,23 +40001,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="22" t="s">
         <v>33</v>
       </c>
@@ -39147,8 +40932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47BBAE-5C45-FC47-9DB3-44760ECB14A5}">
   <dimension ref="A1:FA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EB4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="EY15" sqref="EY15"/>
+    <sheetView tabSelected="1" topLeftCell="BK42" zoomScale="75" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="BN50" sqref="BN50:BO50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -39159,112 +40944,112 @@
     <col min="55" max="55" width="12.33203125" customWidth="1"/>
     <col min="56" max="56" width="2.83203125" customWidth="1"/>
     <col min="61" max="62" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="10.83203125" style="43"/>
-    <col min="76" max="77" width="10.83203125" style="44"/>
-    <col min="80" max="81" width="10.83203125" style="45"/>
+    <col min="66" max="67" width="10.83203125" style="36"/>
+    <col min="76" max="77" width="10.83203125" style="37"/>
+    <col min="80" max="81" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:157" ht="18">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="43"/>
+      <c r="S1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="40" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40" t="s">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="38">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="42">
         <v>16.55</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="38" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="40" t="s">
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40" t="s">
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40" t="s">
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40" t="s">
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40" t="s">
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="38" t="s">
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="38" t="s">
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="38" t="s">
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="38" t="s">
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AX1" s="39"/>
+      <c r="AX1" s="43"/>
       <c r="AY1" s="19" t="s">
         <v>27</v>
       </c>
@@ -39282,13 +41067,13 @@
       <c r="BD1">
         <v>-0.12714859738429199</v>
       </c>
-      <c r="BE1" s="38" t="s">
+      <c r="BE1" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="BF1" s="39"/>
+      <c r="BF1" s="43"/>
       <c r="BG1" s="8"/>
       <c r="BL1" s="8"/>
-      <c r="BN1" s="43" t="s">
+      <c r="BN1" s="36" t="s">
         <v>60</v>
       </c>
       <c r="BP1" t="s">
@@ -39303,13 +41088,13 @@
       <c r="BV1" t="s">
         <v>80</v>
       </c>
-      <c r="BX1" s="44" t="s">
+      <c r="BX1" s="37" t="s">
         <v>70</v>
       </c>
       <c r="BZ1" t="s">
         <v>69</v>
       </c>
-      <c r="CB1" s="45" t="s">
+      <c r="CB1" s="38" t="s">
         <v>71</v>
       </c>
       <c r="CD1" t="s">
@@ -39551,7 +41336,7 @@
       <c r="AX2" s="6">
         <v>1.0102</v>
       </c>
-      <c r="AY2" s="41" t="s">
+      <c r="AY2" s="44" t="s">
         <v>26</v>
       </c>
       <c r="AZ2" s="7"/>
@@ -39575,10 +41360,13 @@
         <v>1.0438000000000001</v>
       </c>
       <c r="BL2" s="8"/>
-      <c r="BN2" s="43">
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="47">
         <v>-0.1671</v>
       </c>
-      <c r="BO2" s="43">
+      <c r="BO2" s="47">
         <v>0.87549999999999994</v>
       </c>
       <c r="BP2">
@@ -39605,10 +41393,10 @@
       <c r="BW2">
         <v>1.1319999999999999</v>
       </c>
-      <c r="BX2" s="44">
+      <c r="BX2" s="37">
         <v>-4.3200000000000002E-2</v>
       </c>
-      <c r="BY2" s="44">
+      <c r="BY2" s="37">
         <v>1.2303999999999999</v>
       </c>
       <c r="BZ2">
@@ -39617,10 +41405,10 @@
       <c r="CA2">
         <v>1.1962999999999999</v>
       </c>
-      <c r="CB2" s="45">
+      <c r="CB2" s="38">
         <v>-4.8099999999999997E-2</v>
       </c>
-      <c r="CC2" s="45">
+      <c r="CC2" s="38">
         <v>1.2645</v>
       </c>
       <c r="CD2">
@@ -39647,10 +41435,10 @@
       <c r="CK2">
         <v>0.99109999999999998</v>
       </c>
-      <c r="CL2" s="43">
+      <c r="CL2" s="36">
         <v>-9.3799999999999994E-2</v>
       </c>
-      <c r="CM2" s="43">
+      <c r="CM2" s="36">
         <v>1.0779000000000001</v>
       </c>
       <c r="CN2">
@@ -39976,7 +41764,7 @@
       <c r="AX3" s="6">
         <v>1.1971000000000001</v>
       </c>
-      <c r="AY3" s="41"/>
+      <c r="AY3" s="44"/>
       <c r="AZ3" s="7"/>
       <c r="BA3" s="8" t="s">
         <v>32</v>
@@ -39998,10 +41786,13 @@
         <v>1.0779000000000001</v>
       </c>
       <c r="BL3" s="8"/>
-      <c r="BN3" s="43">
+      <c r="BM3">
+        <v>2</v>
+      </c>
+      <c r="BN3" s="47">
         <v>-0.11360000000000001</v>
       </c>
-      <c r="BO3" s="43">
+      <c r="BO3" s="47">
         <v>1.5644</v>
       </c>
       <c r="BP3">
@@ -40028,10 +41819,10 @@
       <c r="BW3">
         <v>0.49359999999999998</v>
       </c>
-      <c r="BX3" s="44">
+      <c r="BX3" s="37">
         <v>-0.2457</v>
       </c>
-      <c r="BY3" s="44">
+      <c r="BY3" s="37">
         <v>0.63439999999999996</v>
       </c>
       <c r="BZ3">
@@ -40040,10 +41831,10 @@
       <c r="CA3">
         <v>0.53969999999999996</v>
       </c>
-      <c r="CB3" s="45">
+      <c r="CB3" s="38">
         <v>-0.2465</v>
       </c>
-      <c r="CC3" s="45">
+      <c r="CC3" s="38">
         <v>0.72140000000000004</v>
       </c>
       <c r="CD3">
@@ -40070,10 +41861,10 @@
       <c r="CK3">
         <v>1.4340999999999999</v>
       </c>
-      <c r="CL3" s="43">
+      <c r="CL3" s="36">
         <v>-0.39810000000000001</v>
       </c>
-      <c r="CM3" s="43">
+      <c r="CM3" s="36">
         <v>1.635</v>
       </c>
       <c r="CN3">
@@ -40387,7 +42178,7 @@
       <c r="AX4" s="6">
         <v>0.74139999999999995</v>
       </c>
-      <c r="AY4" s="41"/>
+      <c r="AY4" s="44"/>
       <c r="AZ4" s="7"/>
       <c r="BA4" s="8" t="s">
         <v>32</v>
@@ -40445,10 +42236,10 @@
       <c r="CK4">
         <v>0.48270000000000002</v>
       </c>
-      <c r="CL4" s="43">
+      <c r="CL4" s="36">
         <v>-0.25290000000000001</v>
       </c>
-      <c r="CM4" s="43">
+      <c r="CM4" s="36">
         <v>0.1042</v>
       </c>
       <c r="CN4">
@@ -40738,7 +42529,7 @@
       <c r="AX5" s="6">
         <v>1.2981</v>
       </c>
-      <c r="AY5" s="41"/>
+      <c r="AY5" s="44"/>
       <c r="AZ5" s="7"/>
       <c r="BA5" s="8" t="s">
         <v>32</v>
@@ -40766,10 +42557,10 @@
       <c r="BW5">
         <v>1.7421</v>
       </c>
-      <c r="CL5" s="43">
+      <c r="CL5" s="36">
         <v>-0.93369999999999997</v>
       </c>
-      <c r="CM5" s="43">
+      <c r="CM5" s="36">
         <v>0.87280000000000002</v>
       </c>
       <c r="CN5">
@@ -41047,7 +42838,7 @@
       <c r="AX6" s="6">
         <v>0.88719999999999999</v>
       </c>
-      <c r="AY6" s="41"/>
+      <c r="AY6" s="44"/>
       <c r="AZ6" s="7"/>
       <c r="BA6" s="8" t="s">
         <v>32</v>
@@ -41069,8 +42860,8 @@
         <v>1.0182</v>
       </c>
       <c r="BL6" s="8"/>
-      <c r="CL6" s="43"/>
-      <c r="CM6" s="43"/>
+      <c r="CL6" s="36"/>
+      <c r="CM6" s="36"/>
       <c r="CN6">
         <v>-0.99360000000000004</v>
       </c>
@@ -41346,7 +43137,7 @@
       <c r="AX7" s="6">
         <v>0.98160000000000003</v>
       </c>
-      <c r="AY7" s="41"/>
+      <c r="AY7" s="44"/>
       <c r="AZ7" s="7"/>
       <c r="BA7" s="8" t="s">
         <v>32</v>
@@ -41368,8 +43159,8 @@
         <v>1.0257000000000001</v>
       </c>
       <c r="BL7" s="8"/>
-      <c r="CL7" s="43"/>
-      <c r="CM7" s="43"/>
+      <c r="CL7" s="36"/>
+      <c r="CM7" s="36"/>
       <c r="DG7" s="8" t="s">
         <v>32</v>
       </c>
@@ -41639,7 +43430,7 @@
       <c r="AX8" s="6">
         <v>0.76359999999999995</v>
       </c>
-      <c r="AY8" s="41"/>
+      <c r="AY8" s="44"/>
       <c r="AZ8" s="7"/>
       <c r="BA8" s="8" t="s">
         <v>32</v>
@@ -41661,8 +43452,8 @@
         <v>1.1596</v>
       </c>
       <c r="BL8" s="8"/>
-      <c r="CL8" s="43"/>
-      <c r="CM8" s="43"/>
+      <c r="CL8" s="36"/>
+      <c r="CM8" s="36"/>
       <c r="DG8" s="8" t="s">
         <v>32</v>
       </c>
@@ -41932,7 +43723,7 @@
       <c r="AX9" s="6">
         <v>1.3546</v>
       </c>
-      <c r="AY9" s="41"/>
+      <c r="AY9" s="44"/>
       <c r="AZ9" s="7"/>
       <c r="BA9" s="8" t="s">
         <v>32</v>
@@ -41954,8 +43745,8 @@
         <v>0.99109999999999998</v>
       </c>
       <c r="BL9" s="8"/>
-      <c r="CL9" s="43"/>
-      <c r="CM9" s="43"/>
+      <c r="CL9" s="36"/>
+      <c r="CM9" s="36"/>
       <c r="DG9" s="8" t="s">
         <v>32</v>
       </c>
@@ -42225,7 +44016,7 @@
       <c r="AX10" s="6">
         <v>1.0712999999999999</v>
       </c>
-      <c r="AY10" s="41"/>
+      <c r="AY10" s="44"/>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="8" t="s">
         <v>32</v>
@@ -42247,8 +44038,8 @@
         <v>1.1226</v>
       </c>
       <c r="BL10" s="8"/>
-      <c r="CL10" s="43"/>
-      <c r="CM10" s="43"/>
+      <c r="CL10" s="36"/>
+      <c r="CM10" s="36"/>
       <c r="DG10" s="8" t="s">
         <v>32</v>
       </c>
@@ -42518,7 +44309,7 @@
       <c r="AX11" s="6">
         <v>0.78500000000000003</v>
       </c>
-      <c r="AY11" s="41"/>
+      <c r="AY11" s="44"/>
       <c r="AZ11" s="7"/>
       <c r="BA11" s="29" t="s">
         <v>32</v>
@@ -42541,8 +44332,8 @@
       <c r="CI11">
         <v>1.0250999999999999</v>
       </c>
-      <c r="CL11" s="43"/>
-      <c r="CM11" s="43"/>
+      <c r="CL11" s="36"/>
+      <c r="CM11" s="36"/>
       <c r="CV11">
         <v>-0.25290000000000001</v>
       </c>
@@ -42830,7 +44621,7 @@
       <c r="AX12" s="6">
         <v>1.4837</v>
       </c>
-      <c r="AY12" s="42" t="s">
+      <c r="AY12" s="45" t="s">
         <v>28</v>
       </c>
       <c r="AZ12" s="7"/>
@@ -43154,7 +44945,7 @@
       <c r="AX13" s="6">
         <v>1.5105</v>
       </c>
-      <c r="AY13" s="42"/>
+      <c r="AY13" s="45"/>
       <c r="AZ13" s="7"/>
       <c r="BA13" s="29" t="s">
         <v>32</v>
@@ -43171,10 +44962,10 @@
       <c r="BS13">
         <v>-0.49359999999999998</v>
       </c>
-      <c r="BX13" s="44">
+      <c r="BX13" s="37">
         <v>-0.56599999999999995</v>
       </c>
-      <c r="BY13" s="44">
+      <c r="BY13" s="37">
         <v>-0.1174</v>
       </c>
       <c r="BZ13">
@@ -43506,7 +45297,7 @@
       <c r="AX14" s="6">
         <v>1.4646999999999999</v>
       </c>
-      <c r="AY14" s="42"/>
+      <c r="AY14" s="45"/>
       <c r="AZ14" s="7"/>
       <c r="BA14" s="29" t="s">
         <v>32</v>
@@ -43517,10 +45308,13 @@
       <c r="BF14" s="6">
         <v>1.3777999999999999</v>
       </c>
-      <c r="BN14" s="43">
+      <c r="BM14" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN14" s="47">
         <v>-0.43269999999999997</v>
       </c>
-      <c r="BO14" s="43">
+      <c r="BO14" s="47">
         <v>0</v>
       </c>
       <c r="BR14">
@@ -43541,10 +45335,10 @@
       <c r="BW14">
         <v>1.1059000000000001</v>
       </c>
-      <c r="BX14" s="44">
+      <c r="BX14" s="37">
         <v>-1.1182000000000001</v>
       </c>
-      <c r="BY14" s="44">
+      <c r="BY14" s="37">
         <v>-5.9999999999999995E-4</v>
       </c>
       <c r="BZ14">
@@ -43553,10 +45347,10 @@
       <c r="CA14">
         <v>-1.2999999999999999E-3</v>
       </c>
-      <c r="CB14" s="45">
+      <c r="CB14" s="38">
         <v>-1.4147000000000001</v>
       </c>
-      <c r="CC14" s="45">
+      <c r="CC14" s="38">
         <v>0.51680000000000004</v>
       </c>
       <c r="CD14">
@@ -43894,7 +45688,7 @@
       <c r="AX15" s="6">
         <v>1.4507000000000001</v>
       </c>
-      <c r="AY15" s="42"/>
+      <c r="AY15" s="45"/>
       <c r="AZ15" s="7"/>
       <c r="BA15" s="29" t="s">
         <v>32</v>
@@ -43905,10 +45699,13 @@
       <c r="BF15" s="6">
         <v>1.3358000000000001</v>
       </c>
-      <c r="BN15" s="43">
+      <c r="BM15">
+        <v>14</v>
+      </c>
+      <c r="BN15" s="36">
         <v>-1.0911</v>
       </c>
-      <c r="BO15" s="43">
+      <c r="BO15" s="36">
         <v>1.2364999999999999</v>
       </c>
       <c r="BR15">
@@ -43929,10 +45726,10 @@
       <c r="BW15">
         <v>2.2770999999999999</v>
       </c>
-      <c r="BX15" s="44">
+      <c r="BX15" s="37">
         <v>-1.3975</v>
       </c>
-      <c r="BY15" s="44">
+      <c r="BY15" s="37">
         <v>0.38440000000000002</v>
       </c>
       <c r="BZ15">
@@ -43941,10 +45738,10 @@
       <c r="CA15">
         <v>0.2671</v>
       </c>
-      <c r="CB15" s="45">
+      <c r="CB15" s="38">
         <v>-1.1182000000000001</v>
       </c>
-      <c r="CC15" s="45">
+      <c r="CC15" s="38">
         <v>0</v>
       </c>
       <c r="CD15">
@@ -44294,7 +46091,7 @@
       <c r="AX16" s="6">
         <v>1.5451999999999999</v>
       </c>
-      <c r="AY16" s="42"/>
+      <c r="AY16" s="45"/>
       <c r="AZ16" s="7"/>
       <c r="BA16" s="29" t="s">
         <v>32</v>
@@ -44305,10 +46102,13 @@
       <c r="BF16" s="6">
         <v>1.4339</v>
       </c>
-      <c r="BN16" s="43">
+      <c r="BM16">
+        <v>15</v>
+      </c>
+      <c r="BN16" s="47">
         <v>-0.69220000000000004</v>
       </c>
-      <c r="BO16" s="43">
+      <c r="BO16" s="47">
         <v>2.0137</v>
       </c>
       <c r="BR16">
@@ -44329,10 +46129,10 @@
       <c r="BW16">
         <v>0.1512</v>
       </c>
-      <c r="BX16" s="44">
+      <c r="BX16" s="37">
         <v>-0.24249999999999999</v>
       </c>
-      <c r="BY16" s="44">
+      <c r="BY16" s="37">
         <v>-0.80289999999999995</v>
       </c>
       <c r="BZ16">
@@ -44341,10 +46141,10 @@
       <c r="CA16">
         <v>1.1379999999999999</v>
       </c>
-      <c r="CB16" s="45">
+      <c r="CB16" s="38">
         <v>-0.2465</v>
       </c>
-      <c r="CC16" s="45">
+      <c r="CC16" s="38">
         <v>-0.72140000000000004</v>
       </c>
       <c r="CD16">
@@ -44700,7 +46500,7 @@
       <c r="AX17" s="6">
         <v>1.4371</v>
       </c>
-      <c r="AY17" s="42"/>
+      <c r="AY17" s="45"/>
       <c r="AZ17" s="7"/>
       <c r="BA17" s="29" t="s">
         <v>32</v>
@@ -44711,10 +46511,13 @@
       <c r="BF17" s="6">
         <v>1.2992999999999999</v>
       </c>
-      <c r="BN17" s="43">
+      <c r="BM17">
+        <v>16</v>
+      </c>
+      <c r="BN17" s="48">
         <v>-1.0838000000000001</v>
       </c>
-      <c r="BO17" s="43">
+      <c r="BO17" s="48">
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="BP17">
@@ -44741,10 +46544,10 @@
       <c r="BW17">
         <v>1.3698999999999999</v>
       </c>
-      <c r="BX17" s="44">
+      <c r="BX17" s="37">
         <v>-1.9345000000000001</v>
       </c>
-      <c r="BY17" s="44">
+      <c r="BY17" s="37">
         <v>1.2371000000000001</v>
       </c>
       <c r="BZ17">
@@ -44753,10 +46556,10 @@
       <c r="CA17">
         <v>-0.87890000000000001</v>
       </c>
-      <c r="CB17" s="45">
+      <c r="CB17" s="38">
         <v>-2.0200999999999998</v>
       </c>
-      <c r="CC17" s="45">
+      <c r="CC17" s="38">
         <v>1.329</v>
       </c>
       <c r="CD17">
@@ -45112,7 +46915,7 @@
       <c r="AX18" s="6">
         <v>1.4191</v>
       </c>
-      <c r="AY18" s="42"/>
+      <c r="AY18" s="45"/>
       <c r="AZ18" s="7"/>
       <c r="BA18" s="29" t="s">
         <v>32</v>
@@ -45123,10 +46926,13 @@
       <c r="BF18" s="6">
         <v>1.2643</v>
       </c>
-      <c r="BN18" s="43">
+      <c r="BM18">
+        <v>17</v>
+      </c>
+      <c r="BN18" s="36">
         <v>-0.25159999999999999</v>
       </c>
-      <c r="BO18" s="43">
+      <c r="BO18" s="36">
         <v>2.4346000000000001</v>
       </c>
       <c r="BP18">
@@ -45153,10 +46959,10 @@
       <c r="BW18">
         <v>1.2E-2</v>
       </c>
-      <c r="BX18" s="44">
+      <c r="BX18" s="37">
         <v>-1.7323</v>
       </c>
-      <c r="BY18" s="44">
+      <c r="BY18" s="37">
         <v>2.2168000000000001</v>
       </c>
       <c r="BZ18">
@@ -45165,10 +46971,10 @@
       <c r="CA18">
         <v>2.0291999999999999</v>
       </c>
-      <c r="CB18" s="45">
+      <c r="CB18" s="38">
         <v>-1.4147000000000001</v>
       </c>
-      <c r="CC18" s="45">
+      <c r="CC18" s="38">
         <v>-0.51680000000000004</v>
       </c>
       <c r="CD18">
@@ -45524,7 +47330,7 @@
       <c r="AX19" s="6">
         <v>1.3926000000000001</v>
       </c>
-      <c r="AY19" s="42"/>
+      <c r="AY19" s="45"/>
       <c r="AZ19" s="7"/>
       <c r="BA19" s="29" t="s">
         <v>32</v>
@@ -45537,10 +47343,13 @@
       </c>
       <c r="BH19" s="8"/>
       <c r="BL19" s="8"/>
-      <c r="BN19" s="43">
+      <c r="BM19">
+        <v>18</v>
+      </c>
+      <c r="BN19" s="48">
         <v>-1.0838000000000001</v>
       </c>
-      <c r="BO19" s="43">
+      <c r="BO19" s="48">
         <v>-6.4199999999999993E-2</v>
       </c>
       <c r="BP19">
@@ -45567,10 +47376,10 @@
       <c r="BW19">
         <v>-0.1128</v>
       </c>
-      <c r="BX19" s="44">
+      <c r="BX19" s="37">
         <v>-1.4258</v>
       </c>
-      <c r="BY19" s="44">
+      <c r="BY19" s="37">
         <v>-0.6643</v>
       </c>
       <c r="BZ19">
@@ -45579,10 +47388,10 @@
       <c r="CA19">
         <v>2.8338000000000001</v>
       </c>
-      <c r="CB19" s="45">
+      <c r="CB19" s="38">
         <v>-4.8099999999999997E-2</v>
       </c>
-      <c r="CC19" s="45">
+      <c r="CC19" s="38">
         <v>-1.2645</v>
       </c>
       <c r="CD19">
@@ -45938,7 +47747,7 @@
       <c r="AX20" s="6">
         <v>1.6053999999999999</v>
       </c>
-      <c r="AY20" s="42"/>
+      <c r="AY20" s="45"/>
       <c r="AZ20" s="7"/>
       <c r="BA20" s="29" t="s">
         <v>32</v>
@@ -45951,10 +47760,13 @@
       </c>
       <c r="BH20" s="8"/>
       <c r="BL20" s="8"/>
-      <c r="BN20" s="43">
+      <c r="BM20">
+        <v>19</v>
+      </c>
+      <c r="BN20" s="36">
         <v>-1.2886</v>
       </c>
-      <c r="BO20" s="43">
+      <c r="BO20" s="36">
         <v>0</v>
       </c>
       <c r="BP20">
@@ -45981,10 +47793,10 @@
       <c r="BW20">
         <v>-0.74990000000000001</v>
       </c>
-      <c r="BX20" s="44">
+      <c r="BX20" s="37">
         <v>-1.0984</v>
       </c>
-      <c r="BY20" s="44">
+      <c r="BY20" s="37">
         <v>2.9550000000000001</v>
       </c>
       <c r="BZ20">
@@ -45993,10 +47805,10 @@
       <c r="CA20">
         <v>-0.83140000000000003</v>
       </c>
-      <c r="CB20" s="45">
+      <c r="CB20" s="38">
         <v>-1.8187</v>
       </c>
-      <c r="CC20" s="45">
+      <c r="CC20" s="38">
         <v>2.3927</v>
       </c>
       <c r="CD20">
@@ -46352,7 +48164,7 @@
       <c r="AX21" s="6">
         <v>1.5869</v>
       </c>
-      <c r="AY21" s="42"/>
+      <c r="AY21" s="45"/>
       <c r="AZ21" s="7"/>
       <c r="BA21" s="29" t="s">
         <v>32</v>
@@ -46365,10 +48177,13 @@
       </c>
       <c r="BH21" s="8"/>
       <c r="BL21" s="8"/>
-      <c r="BN21" s="43">
+      <c r="BM21">
+        <v>20</v>
+      </c>
+      <c r="BN21" s="36">
         <v>-0.1671</v>
       </c>
-      <c r="BO21" s="43">
+      <c r="BO21" s="36">
         <v>-0.87549999999999994</v>
       </c>
       <c r="BP21">
@@ -46395,10 +48210,10 @@
       <c r="BW21">
         <v>-0.32979999999999998</v>
       </c>
-      <c r="BX21" s="44">
+      <c r="BX21" s="37">
         <v>-6.3E-2</v>
       </c>
-      <c r="BY21" s="44">
+      <c r="BY21" s="37">
         <v>-1.2996000000000001</v>
       </c>
       <c r="BZ21">
@@ -46407,10 +48222,10 @@
       <c r="CA21">
         <v>-1.3360000000000001</v>
       </c>
-      <c r="CB21" s="45">
+      <c r="CB21" s="38">
         <v>-1.1439999999999999</v>
       </c>
-      <c r="CC21" s="45">
+      <c r="CC21" s="38">
         <v>3.1185999999999998</v>
       </c>
       <c r="CD21">
@@ -46766,7 +48581,7 @@
       <c r="AX22" s="6">
         <v>1.9810000000000001</v>
       </c>
-      <c r="AY22" s="41" t="s">
+      <c r="AY22" s="44" t="s">
         <v>29</v>
       </c>
       <c r="BA22" s="29" t="s">
@@ -46780,10 +48595,13 @@
       </c>
       <c r="BH22" s="8"/>
       <c r="BL22" s="8"/>
-      <c r="BN22" s="43">
+      <c r="BM22">
+        <v>21</v>
+      </c>
+      <c r="BN22" s="36">
         <v>-1.6154999999999999</v>
       </c>
-      <c r="BO22" s="43">
+      <c r="BO22" s="36">
         <v>0</v>
       </c>
       <c r="BP22">
@@ -46810,10 +48628,10 @@
       <c r="BW22">
         <v>0.77449999999999997</v>
       </c>
-      <c r="BX22" s="44">
+      <c r="BX22" s="37">
         <v>-2.3748</v>
       </c>
-      <c r="BY22" s="44">
+      <c r="BY22" s="37">
         <v>0.40610000000000002</v>
       </c>
       <c r="BZ22">
@@ -46822,10 +48640,10 @@
       <c r="CA22">
         <v>0.45479999999999998</v>
       </c>
-      <c r="CB22" s="45">
+      <c r="CB22" s="38">
         <v>-2.3281999999999998</v>
       </c>
-      <c r="CC22" s="45">
+      <c r="CC22" s="38">
         <v>0.37930000000000003</v>
       </c>
       <c r="CD22">
@@ -47181,7 +48999,7 @@
       <c r="AX23" s="6">
         <v>2.1252</v>
       </c>
-      <c r="AY23" s="41"/>
+      <c r="AY23" s="44"/>
       <c r="BA23" s="29" t="s">
         <v>32</v>
       </c>
@@ -47193,10 +49011,13 @@
       </c>
       <c r="BH23" s="8"/>
       <c r="BL23" s="8"/>
-      <c r="BN23" s="43">
+      <c r="BM23">
+        <v>22</v>
+      </c>
+      <c r="BN23" s="36">
         <v>-1.8956999999999999</v>
       </c>
-      <c r="BO23" s="43">
+      <c r="BO23" s="36">
         <v>1.8433999999999999</v>
       </c>
       <c r="BP23">
@@ -47223,10 +49044,10 @@
       <c r="BW23">
         <v>1.6359999999999999</v>
       </c>
-      <c r="BX23" s="44">
+      <c r="BX23" s="37">
         <v>-2.2904</v>
       </c>
-      <c r="BY23" s="44">
+      <c r="BY23" s="37">
         <v>-0.37690000000000001</v>
       </c>
       <c r="BZ23">
@@ -47235,10 +49056,10 @@
       <c r="CA23">
         <v>-0.39169999999999999</v>
       </c>
-      <c r="CB23" s="45">
+      <c r="CB23" s="38">
         <v>-2.3281999999999998</v>
       </c>
-      <c r="CC23" s="45">
+      <c r="CC23" s="38">
         <v>-0.37930000000000003</v>
       </c>
       <c r="CD23">
@@ -47594,7 +49415,7 @@
       <c r="AX24" s="6">
         <v>1.7828999999999999</v>
       </c>
-      <c r="AY24" s="41"/>
+      <c r="AY24" s="44"/>
       <c r="BA24" s="29" t="s">
         <v>32</v>
       </c>
@@ -47606,10 +49427,13 @@
       </c>
       <c r="BH24" s="8"/>
       <c r="BL24" s="8"/>
-      <c r="BN24" s="43">
+      <c r="BM24">
+        <v>23</v>
+      </c>
+      <c r="BN24" s="36">
         <v>-1.9220999999999999</v>
       </c>
-      <c r="BO24" s="43">
+      <c r="BO24" s="36">
         <v>1.9093</v>
       </c>
       <c r="BP24">
@@ -47636,10 +49460,10 @@
       <c r="BW24">
         <v>0.76819999999999999</v>
       </c>
-      <c r="BX24" s="44">
+      <c r="BX24" s="37">
         <v>-2.6208</v>
       </c>
-      <c r="BY24" s="44">
+      <c r="BY24" s="37">
         <v>1.7524</v>
       </c>
       <c r="BZ24">
@@ -47648,10 +49472,10 @@
       <c r="CA24">
         <v>1.5177</v>
       </c>
-      <c r="CB24" s="45">
+      <c r="CB24" s="38">
         <v>-0.84930000000000005</v>
       </c>
-      <c r="CC24" s="45">
+      <c r="CC24" s="38">
         <v>3.6493000000000002</v>
       </c>
       <c r="CD24">
@@ -48007,7 +49831,7 @@
       <c r="AX25" s="6">
         <v>2.1558999999999999</v>
       </c>
-      <c r="AY25" s="41"/>
+      <c r="AY25" s="44"/>
       <c r="BA25" s="29" t="s">
         <v>32</v>
       </c>
@@ -48019,10 +49843,13 @@
       </c>
       <c r="BH25" s="8"/>
       <c r="BL25" s="8"/>
-      <c r="BN25" s="43">
+      <c r="BM25">
+        <v>24</v>
+      </c>
+      <c r="BN25" s="36">
         <v>-0.46579999999999999</v>
       </c>
-      <c r="BO25" s="43">
+      <c r="BO25" s="36">
         <v>3.1276999999999999</v>
       </c>
       <c r="BP25">
@@ -48049,10 +49876,10 @@
       <c r="BW25">
         <v>-1.4677</v>
       </c>
-      <c r="BX25" s="44">
+      <c r="BX25" s="37">
         <v>-0.8619</v>
       </c>
-      <c r="BY25" s="44">
+      <c r="BY25" s="37">
         <v>3.8046000000000002</v>
       </c>
       <c r="BZ25">
@@ -48061,10 +49888,10 @@
       <c r="CA25">
         <v>3.1995</v>
       </c>
-      <c r="CB25" s="45">
+      <c r="CB25" s="38">
         <v>-2.6776</v>
       </c>
-      <c r="CC25" s="45">
+      <c r="CC25" s="38">
         <v>2.1322999999999999</v>
       </c>
       <c r="CD25">
@@ -48420,7 +50247,7 @@
       <c r="AX26" s="6">
         <v>1.7674000000000001</v>
       </c>
-      <c r="AY26" s="41"/>
+      <c r="AY26" s="44"/>
       <c r="BA26" s="29" t="s">
         <v>32</v>
       </c>
@@ -48432,10 +50259,13 @@
       </c>
       <c r="BH26" s="8"/>
       <c r="BL26" s="8"/>
-      <c r="BN26" s="43">
+      <c r="BM26">
+        <v>25</v>
+      </c>
+      <c r="BN26" s="36">
         <v>-2.0931000000000002</v>
       </c>
-      <c r="BO26" s="43">
+      <c r="BO26" s="36">
         <v>0</v>
       </c>
       <c r="BP26">
@@ -48462,10 +50292,10 @@
       <c r="BW26">
         <v>3.4971000000000001</v>
       </c>
-      <c r="BX26" s="44">
+      <c r="BX26" s="37">
         <v>-2.0983999999999998</v>
       </c>
-      <c r="BY26" s="44">
+      <c r="BY26" s="37">
         <v>-1.425</v>
       </c>
       <c r="BZ26">
@@ -48474,10 +50304,10 @@
       <c r="CA26">
         <v>3.9306999999999999</v>
       </c>
-      <c r="CB26" s="45">
+      <c r="CB26" s="38">
         <v>-2.0200999999999998</v>
       </c>
-      <c r="CC26" s="45">
+      <c r="CC26" s="38">
         <v>-1.329</v>
       </c>
       <c r="CD26">
@@ -48833,7 +50663,7 @@
       <c r="AX27" s="6">
         <v>1.7371000000000001</v>
       </c>
-      <c r="AY27" s="41"/>
+      <c r="AY27" s="44"/>
       <c r="BA27" s="29" t="s">
         <v>32</v>
       </c>
@@ -48845,10 +50675,13 @@
       </c>
       <c r="BH27" s="8"/>
       <c r="BL27" s="8"/>
-      <c r="BN27" s="43">
+      <c r="BM27">
+        <v>26</v>
+      </c>
+      <c r="BN27" s="36">
         <v>-2.4481999999999999</v>
       </c>
-      <c r="BO27" s="43">
+      <c r="BO27" s="36">
         <v>0.6744</v>
       </c>
       <c r="BP27">
@@ -48875,10 +50708,10 @@
       <c r="BW27">
         <v>1.3949</v>
       </c>
-      <c r="BX27" s="44">
+      <c r="BX27" s="37">
         <v>-3.218</v>
       </c>
-      <c r="BY27" s="44">
+      <c r="BY27" s="37">
         <v>0.88700000000000001</v>
       </c>
       <c r="BZ27">
@@ -48887,10 +50720,10 @@
       <c r="CA27">
         <v>0.85099999999999998</v>
       </c>
-      <c r="CB27" s="45">
+      <c r="CB27" s="38">
         <v>-3.2652000000000001</v>
       </c>
-      <c r="CC27" s="45">
+      <c r="CC27" s="38">
         <v>0.93740000000000001</v>
       </c>
       <c r="CD27">
@@ -49246,7 +51079,7 @@
       <c r="AX28" s="6">
         <v>1.7339</v>
       </c>
-      <c r="AY28" s="41"/>
+      <c r="AY28" s="44"/>
       <c r="BA28" s="29" t="s">
         <v>32</v>
       </c>
@@ -49258,10 +51091,13 @@
       </c>
       <c r="BH28" s="8"/>
       <c r="BL28" s="8"/>
-      <c r="BN28" s="43">
+      <c r="BM28">
+        <v>27</v>
+      </c>
+      <c r="BN28" s="47">
         <v>-1.0911</v>
       </c>
-      <c r="BO28" s="43">
+      <c r="BO28" s="47">
         <v>-1.2364999999999999</v>
       </c>
       <c r="BP28">
@@ -49288,10 +51124,10 @@
       <c r="BW28">
         <v>0.67369999999999997</v>
       </c>
-      <c r="BX28" s="44">
+      <c r="BX28" s="37">
         <v>-1.9524999999999999</v>
       </c>
-      <c r="BY28" s="44">
+      <c r="BY28" s="37">
         <v>3.7685</v>
       </c>
       <c r="BZ28">
@@ -49300,10 +51136,10 @@
       <c r="CA28">
         <v>3.7658</v>
       </c>
-      <c r="CB28" s="45">
+      <c r="CB28" s="38">
         <v>-3.0369999999999999</v>
       </c>
-      <c r="CC28" s="45">
+      <c r="CC28" s="38">
         <v>2.4487999999999999</v>
       </c>
       <c r="CD28">
@@ -49659,7 +51495,7 @@
       <c r="AX29" s="6">
         <v>1.7274</v>
       </c>
-      <c r="AY29" s="41"/>
+      <c r="AY29" s="44"/>
       <c r="BA29" s="29" t="s">
         <v>32</v>
       </c>
@@ -49669,10 +51505,13 @@
       <c r="BF29" s="6">
         <v>2.4083000000000001</v>
       </c>
-      <c r="BN29" s="43">
+      <c r="BM29">
+        <v>28</v>
+      </c>
+      <c r="BN29" s="47">
         <v>-0.11360000000000001</v>
       </c>
-      <c r="BO29" s="43">
+      <c r="BO29" s="47">
         <v>-1.5644</v>
       </c>
       <c r="BP29">
@@ -49699,10 +51538,10 @@
       <c r="BW29">
         <v>-1.1339999999999999</v>
       </c>
-      <c r="BX29" s="44">
+      <c r="BX29" s="37">
         <v>-3.0802999999999998</v>
       </c>
-      <c r="BY29" s="44">
+      <c r="BY29" s="37">
         <v>2.5661999999999998</v>
       </c>
       <c r="BZ29">
@@ -49711,10 +51550,10 @@
       <c r="CA29">
         <v>-1.5349999999999999</v>
       </c>
-      <c r="CB29" s="45">
+      <c r="CB29" s="38">
         <v>-3.5394000000000001</v>
       </c>
-      <c r="CC29" s="45">
+      <c r="CC29" s="38">
         <v>0.17330000000000001</v>
       </c>
       <c r="CD29">
@@ -50070,7 +51909,7 @@
       <c r="AX30" s="6">
         <v>1.7290000000000001</v>
       </c>
-      <c r="AY30" s="41"/>
+      <c r="AY30" s="44"/>
       <c r="BA30" s="29" t="s">
         <v>32</v>
       </c>
@@ -50081,10 +51920,13 @@
         <v>2.4346000000000001</v>
       </c>
       <c r="BH30" s="8"/>
-      <c r="BN30" s="43">
+      <c r="BM30">
+        <v>29</v>
+      </c>
+      <c r="BN30" s="36">
         <v>-2.4502000000000002</v>
       </c>
-      <c r="BO30" s="43">
+      <c r="BO30" s="36">
         <v>0</v>
       </c>
       <c r="BP30">
@@ -50111,10 +51953,10 @@
       <c r="BW30">
         <v>1.6425000000000001</v>
       </c>
-      <c r="BX30" s="44">
+      <c r="BX30" s="37">
         <v>-3.5590999999999999</v>
       </c>
-      <c r="BY30" s="44">
+      <c r="BY30" s="37">
         <v>0.18</v>
       </c>
       <c r="BZ30">
@@ -50123,10 +51965,10 @@
       <c r="CA30">
         <v>2.6676000000000002</v>
       </c>
-      <c r="CB30" s="45">
+      <c r="CB30" s="38">
         <v>-3.5394000000000001</v>
       </c>
-      <c r="CC30" s="45">
+      <c r="CC30" s="38">
         <v>-0.17330000000000001</v>
       </c>
       <c r="CD30">
@@ -50482,7 +52324,7 @@
       <c r="AX31" s="6">
         <v>2.3060999999999998</v>
       </c>
-      <c r="AY31" s="41"/>
+      <c r="AY31" s="44"/>
       <c r="BA31" s="29" t="s">
         <v>32</v>
       </c>
@@ -50493,10 +52335,13 @@
         <v>2.3898999999999999</v>
       </c>
       <c r="BH31" s="8"/>
-      <c r="BN31" s="43">
+      <c r="BM31">
+        <v>30</v>
+      </c>
+      <c r="BN31" s="36">
         <v>-2.6985999999999999</v>
       </c>
-      <c r="BO31" s="43">
+      <c r="BO31" s="36">
         <v>1.4643999999999999</v>
       </c>
       <c r="BP31">
@@ -50523,10 +52368,10 @@
       <c r="BW31">
         <v>-3.6400000000000002E-2</v>
       </c>
-      <c r="BX31" s="44">
+      <c r="BX31" s="37">
         <v>-3.5217000000000001</v>
       </c>
-      <c r="BY31" s="44">
+      <c r="BY31" s="37">
         <v>-0.17</v>
       </c>
       <c r="BZ31">
@@ -50535,10 +52380,10 @@
       <c r="CA31">
         <v>0.1905</v>
       </c>
-      <c r="CB31" s="45">
+      <c r="CB31" s="38">
         <v>-3.6859000000000002</v>
       </c>
-      <c r="CC31" s="45">
+      <c r="CC31" s="38">
         <v>1.6207</v>
       </c>
       <c r="CD31">
@@ -50894,7 +52739,7 @@
       <c r="AX32" s="6">
         <v>0.74139999999999995</v>
       </c>
-      <c r="AY32" s="42" t="s">
+      <c r="AY32" s="45" t="s">
         <v>30</v>
       </c>
       <c r="BA32" s="29" t="s">
@@ -50907,10 +52752,13 @@
         <v>0.55989999999999995</v>
       </c>
       <c r="BH32" s="8"/>
-      <c r="BN32" s="43">
+      <c r="BM32">
+        <v>31</v>
+      </c>
+      <c r="BN32" s="36">
         <v>-0.11360000000000001</v>
       </c>
-      <c r="BO32" s="43">
+      <c r="BO32" s="36">
         <v>1.5644</v>
       </c>
       <c r="BP32">
@@ -50937,10 +52785,10 @@
       <c r="BW32">
         <v>1.6442000000000001</v>
       </c>
-      <c r="BX32" s="44">
+      <c r="BX32" s="37">
         <v>-4.3200000000000002E-2</v>
       </c>
-      <c r="BY32" s="44">
+      <c r="BY32" s="37">
         <v>1.2303999999999999</v>
       </c>
       <c r="BZ32">
@@ -50949,10 +52797,10 @@
       <c r="CA32">
         <v>1.1962999999999999</v>
       </c>
-      <c r="CB32" s="45">
+      <c r="CB32" s="38">
         <v>-4.8099999999999997E-2</v>
       </c>
-      <c r="CC32" s="45">
+      <c r="CC32" s="38">
         <v>1.2645</v>
       </c>
       <c r="CD32">
@@ -51209,7 +53057,7 @@
       <c r="AX33" s="6">
         <v>0.54169999999999996</v>
       </c>
-      <c r="AY33" s="42"/>
+      <c r="AY33" s="45"/>
       <c r="BA33" s="29" t="s">
         <v>32</v>
       </c>
@@ -51220,10 +53068,13 @@
         <v>0.87549999999999994</v>
       </c>
       <c r="BH33" s="8"/>
-      <c r="BN33" s="43">
+      <c r="BM33">
+        <v>32</v>
+      </c>
+      <c r="BN33" s="47">
         <v>-0.25159999999999999</v>
       </c>
-      <c r="BO33" s="43">
+      <c r="BO33" s="47">
         <v>2.4346000000000001</v>
       </c>
       <c r="BP33">
@@ -51250,10 +53101,10 @@
       <c r="BW33">
         <v>2.2770999999999999</v>
       </c>
-      <c r="BX33" s="44">
+      <c r="BX33" s="37">
         <v>-0.2457</v>
       </c>
-      <c r="BY33" s="44">
+      <c r="BY33" s="37">
         <v>0.63439999999999996</v>
       </c>
       <c r="BZ33">
@@ -51262,10 +53113,10 @@
       <c r="CA33">
         <v>2.8338000000000001</v>
       </c>
-      <c r="CB33" s="45">
+      <c r="CB33" s="38">
         <v>-0.2465</v>
       </c>
-      <c r="CC33" s="45">
+      <c r="CC33" s="38">
         <v>0.72140000000000004</v>
       </c>
       <c r="CD33">
@@ -51522,7 +53373,7 @@
       <c r="AX34" s="6">
         <v>0.76359999999999995</v>
       </c>
-      <c r="AY34" s="42"/>
+      <c r="AY34" s="45"/>
       <c r="BA34" s="29" t="s">
         <v>32</v>
       </c>
@@ -51533,10 +53384,13 @@
         <v>0.72140000000000004</v>
       </c>
       <c r="BH34" s="8"/>
-      <c r="BN34" s="43">
+      <c r="BM34">
+        <v>33</v>
+      </c>
+      <c r="BN34" s="36">
         <v>-0.69220000000000004</v>
       </c>
-      <c r="BO34" s="43">
+      <c r="BO34" s="36">
         <v>2.0137</v>
       </c>
       <c r="BP34">
@@ -51563,10 +53417,10 @@
       <c r="BW34">
         <v>1.7421</v>
       </c>
-      <c r="BX34" s="44">
+      <c r="BX34" s="37">
         <v>-1.0984</v>
       </c>
-      <c r="BY34" s="44">
+      <c r="BY34" s="37">
         <v>2.9550000000000001</v>
       </c>
       <c r="BZ34">
@@ -51575,10 +53429,10 @@
       <c r="CA34">
         <v>0.53969999999999996</v>
       </c>
-      <c r="CB34" s="45">
+      <c r="CB34" s="38">
         <v>-1.1439999999999999</v>
       </c>
-      <c r="CC34" s="45">
+      <c r="CC34" s="38">
         <v>3.1185999999999998</v>
       </c>
       <c r="CD34">
@@ -51835,7 +53689,7 @@
       <c r="AX35" s="6">
         <v>0.67700000000000005</v>
       </c>
-      <c r="AY35" s="42"/>
+      <c r="AY35" s="45"/>
       <c r="BA35" s="29" t="s">
         <v>32</v>
       </c>
@@ -51846,10 +53700,13 @@
         <v>0.63429999999999997</v>
       </c>
       <c r="BH35" s="8"/>
-      <c r="BN35" s="43">
+      <c r="BM35">
+        <v>34</v>
+      </c>
+      <c r="BN35" s="36">
         <v>-0.1671</v>
       </c>
-      <c r="BO35" s="43">
+      <c r="BO35" s="36">
         <v>0.87549999999999994</v>
       </c>
       <c r="BP35">
@@ -51876,10 +53733,10 @@
       <c r="BW35">
         <v>1.1319999999999999</v>
       </c>
-      <c r="BX35" s="44">
+      <c r="BX35" s="37">
         <v>-1.7323</v>
       </c>
-      <c r="BY35" s="44">
+      <c r="BY35" s="37">
         <v>2.2168000000000001</v>
       </c>
       <c r="BZ35">
@@ -51888,10 +53745,10 @@
       <c r="CA35">
         <v>2.0291999999999999</v>
       </c>
-      <c r="CB35" s="45">
+      <c r="CB35" s="38">
         <v>-0.84930000000000005</v>
       </c>
-      <c r="CC35" s="45">
+      <c r="CC35" s="38">
         <v>3.6493000000000002</v>
       </c>
       <c r="CD35">
@@ -52148,7 +54005,7 @@
       <c r="AX36" s="6">
         <v>0.56310000000000004</v>
       </c>
-      <c r="AY36" s="42"/>
+      <c r="AY36" s="45"/>
       <c r="BA36" s="29" t="s">
         <v>32</v>
       </c>
@@ -52159,10 +54016,13 @@
         <v>0.80289999999999995</v>
       </c>
       <c r="BH36" s="8"/>
-      <c r="BN36" s="43">
+      <c r="BM36">
+        <v>35</v>
+      </c>
+      <c r="BN36" s="36">
         <v>-0.46579999999999999</v>
       </c>
-      <c r="BO36" s="43">
+      <c r="BO36" s="36">
         <v>3.1276999999999999</v>
       </c>
       <c r="BP36" s="8">
@@ -52189,16 +54049,16 @@
       <c r="BW36">
         <v>1.1059000000000001</v>
       </c>
-      <c r="BX36" s="44">
+      <c r="BX36" s="37">
         <v>-0.8619</v>
       </c>
-      <c r="BY36" s="44">
+      <c r="BY36" s="37">
         <v>3.8046000000000002</v>
       </c>
-      <c r="CB36" s="45">
+      <c r="CB36" s="38">
         <v>-1.8187</v>
       </c>
-      <c r="CC36" s="45">
+      <c r="CC36" s="38">
         <v>2.3927</v>
       </c>
       <c r="CD36">
@@ -52443,7 +54303,7 @@
       <c r="AX37" s="6">
         <v>0.78500000000000003</v>
       </c>
-      <c r="AY37" s="42"/>
+      <c r="AY37" s="45"/>
       <c r="BA37" s="29" t="s">
         <v>32</v>
       </c>
@@ -52454,10 +54314,13 @@
         <v>0.49380000000000002</v>
       </c>
       <c r="BH37" s="8"/>
-      <c r="BN37" s="43">
+      <c r="BM37">
+        <v>36</v>
+      </c>
+      <c r="BN37" s="36">
         <v>-1.0911</v>
       </c>
-      <c r="BO37" s="43">
+      <c r="BO37" s="36">
         <v>1.2364999999999999</v>
       </c>
       <c r="BP37" s="8">
@@ -52714,7 +54577,7 @@
       <c r="AX38" s="6">
         <v>1.0102</v>
       </c>
-      <c r="AY38" s="42"/>
+      <c r="AY38" s="45"/>
       <c r="BA38" s="29" t="s">
         <v>32</v>
       </c>
@@ -52725,10 +54588,13 @@
         <v>0.53959999999999997</v>
       </c>
       <c r="BH38" s="8"/>
-      <c r="BN38" s="43">
+      <c r="BM38">
+        <v>37</v>
+      </c>
+      <c r="BN38" s="36">
         <v>-1.8956999999999999</v>
       </c>
-      <c r="BO38" s="43">
+      <c r="BO38" s="36">
         <v>1.8433999999999999</v>
       </c>
       <c r="BP38" s="8">
@@ -52943,7 +54809,7 @@
       <c r="AX39" s="6">
         <v>0.43519999999999998</v>
       </c>
-      <c r="AY39" s="42"/>
+      <c r="AY39" s="45"/>
       <c r="BA39" s="29" t="s">
         <v>32</v>
       </c>
@@ -52954,10 +54820,13 @@
         <v>0.87890000000000001</v>
       </c>
       <c r="BH39" s="8"/>
-      <c r="BN39" s="43">
+      <c r="BM39">
+        <v>38</v>
+      </c>
+      <c r="BN39" s="36">
         <v>-1.9220999999999999</v>
       </c>
-      <c r="BO39" s="43">
+      <c r="BO39" s="36">
         <v>1.9093</v>
       </c>
       <c r="BP39" s="8">
@@ -52998,6 +54867,15 @@
       </c>
       <c r="DI39">
         <v>1.9652000000000001</v>
+      </c>
+      <c r="DW39" t="s">
+        <v>107</v>
+      </c>
+      <c r="DY39" t="s">
+        <v>108</v>
+      </c>
+      <c r="EA39" t="s">
+        <v>109</v>
       </c>
       <c r="EH39" s="8" t="s">
         <v>32</v>
@@ -53160,7 +55038,7 @@
       <c r="AX40" s="6">
         <v>0.88719999999999999</v>
       </c>
-      <c r="AY40" s="42"/>
+      <c r="AY40" s="45"/>
       <c r="BA40" s="29" t="s">
         <v>32</v>
       </c>
@@ -53185,6 +55063,28 @@
         <v>-5.9999999999999995E-4</v>
       </c>
       <c r="DI40">
+        <v>0</v>
+      </c>
+      <c r="DR40" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV40" s="39"/>
+      <c r="DW40">
+        <v>-0.1671</v>
+      </c>
+      <c r="DX40">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="DY40">
+        <v>-0.11360000000000001</v>
+      </c>
+      <c r="DZ40">
+        <v>1.5644</v>
+      </c>
+      <c r="EA40">
+        <v>-0.43269999999999997</v>
+      </c>
+      <c r="EB40">
         <v>0</v>
       </c>
       <c r="EH40" s="8" t="s">
@@ -53348,7 +55248,7 @@
       <c r="AX41" s="6">
         <v>0.98160000000000003</v>
       </c>
-      <c r="AY41" s="42"/>
+      <c r="AY41" s="45"/>
       <c r="BA41" s="8" t="s">
         <v>32</v>
       </c>
@@ -53376,6 +55276,28 @@
       </c>
       <c r="DI41">
         <v>0</v>
+      </c>
+      <c r="DR41" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV41" s="39"/>
+      <c r="DW41">
+        <v>-0.17319999999999999</v>
+      </c>
+      <c r="DX41">
+        <v>0.94820000000000004</v>
+      </c>
+      <c r="DY41">
+        <v>-0.1135</v>
+      </c>
+      <c r="DZ41">
+        <v>1.6234999999999999</v>
+      </c>
+      <c r="EA41">
+        <v>-0.438</v>
+      </c>
+      <c r="EB41">
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="EH41" s="8" t="s">
         <v>32</v>
@@ -53538,7 +55460,7 @@
       <c r="AX42" s="6">
         <v>0.30280000000000001</v>
       </c>
-      <c r="AY42" s="41" t="s">
+      <c r="AY42" s="44" t="s">
         <v>31</v>
       </c>
       <c r="BA42" s="8" t="s">
@@ -53554,10 +55476,10 @@
       <c r="BP42" s="8"/>
       <c r="BQ42" s="35"/>
       <c r="BT42" s="8"/>
-      <c r="CB42" s="45">
+      <c r="CB42" s="38">
         <v>-1.4147000000000001</v>
       </c>
-      <c r="CC42" s="45">
+      <c r="CC42" s="38">
         <v>0.51680000000000004</v>
       </c>
       <c r="CR42">
@@ -53586,6 +55508,28 @@
       </c>
       <c r="DI42">
         <v>0</v>
+      </c>
+      <c r="DR42" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV42" s="39"/>
+      <c r="DW42">
+        <v>-0.1774</v>
+      </c>
+      <c r="DX42">
+        <v>1.0268999999999999</v>
+      </c>
+      <c r="DY42">
+        <v>-0.1163</v>
+      </c>
+      <c r="DZ42">
+        <v>1.6917</v>
+      </c>
+      <c r="EA42">
+        <v>-0.45390000000000003</v>
+      </c>
+      <c r="EB42">
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="EH42" s="8" t="s">
         <v>32</v>
@@ -53748,7 +55692,7 @@
       <c r="AX43" s="6">
         <v>0.54169999999999996</v>
       </c>
-      <c r="AY43" s="41"/>
+      <c r="AY43" s="44"/>
       <c r="BA43" s="8" t="s">
         <v>32</v>
       </c>
@@ -53762,10 +55706,10 @@
       <c r="BP43" s="8"/>
       <c r="BQ43" s="35"/>
       <c r="BT43" s="8"/>
-      <c r="CB43" s="45">
+      <c r="CB43" s="38">
         <v>-0.56079999999999997</v>
       </c>
-      <c r="CC43" s="45">
+      <c r="CC43" s="38">
         <v>0</v>
       </c>
       <c r="CH43">
@@ -53812,6 +55756,28 @@
       </c>
       <c r="DI43">
         <v>0</v>
+      </c>
+      <c r="DR43" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV43" s="39"/>
+      <c r="DW43">
+        <v>-0.1802</v>
+      </c>
+      <c r="DX43">
+        <v>1.1104000000000001</v>
+      </c>
+      <c r="DY43">
+        <v>-0.1211</v>
+      </c>
+      <c r="DZ43">
+        <v>1.7697000000000001</v>
+      </c>
+      <c r="EA43">
+        <v>-0.47949999999999998</v>
+      </c>
+      <c r="EB43">
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="EH43" s="8" t="s">
         <v>32</v>
@@ -53974,7 +55940,7 @@
       <c r="AX44" s="6">
         <v>0.15970000000000001</v>
       </c>
-      <c r="AY44" s="41"/>
+      <c r="AY44" s="44"/>
       <c r="BA44" s="8" t="s">
         <v>32</v>
       </c>
@@ -53994,10 +55960,10 @@
       <c r="BW44">
         <v>0.1512</v>
       </c>
-      <c r="CB44" s="45">
+      <c r="CB44" s="38">
         <v>-2.0200999999999998</v>
       </c>
-      <c r="CC44" s="45">
+      <c r="CC44" s="38">
         <v>1.329</v>
       </c>
       <c r="CD44">
@@ -54068,6 +56034,28 @@
       </c>
       <c r="DI44">
         <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="DR44" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV44" s="39"/>
+      <c r="DW44">
+        <v>-0.1822</v>
+      </c>
+      <c r="DX44">
+        <v>1.1971000000000001</v>
+      </c>
+      <c r="DY44">
+        <v>-0.12620000000000001</v>
+      </c>
+      <c r="DZ44">
+        <v>1.8573</v>
+      </c>
+      <c r="EA44">
+        <v>-0.51359999999999995</v>
+      </c>
+      <c r="EB44">
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="EH44" s="8" t="s">
         <v>32</v>
@@ -54230,7 +56218,7 @@
       <c r="AX45" s="6">
         <v>0.43519999999999998</v>
       </c>
-      <c r="AY45" s="41"/>
+      <c r="AY45" s="44"/>
       <c r="BA45" s="8" t="s">
         <v>32</v>
       </c>
@@ -54241,10 +56229,13 @@
         <v>0.4365</v>
       </c>
       <c r="BH45" s="8"/>
-      <c r="BN45" s="43">
+      <c r="BM45">
+        <v>44</v>
+      </c>
+      <c r="BN45" s="36">
         <v>-1.0838000000000001</v>
       </c>
-      <c r="BO45" s="43">
+      <c r="BO45" s="36">
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="BP45" s="8">
@@ -54277,10 +56268,10 @@
       <c r="CA45">
         <v>1.1379999999999999</v>
       </c>
-      <c r="CB45" s="45">
+      <c r="CB45" s="38">
         <v>-1.1182000000000001</v>
       </c>
-      <c r="CC45" s="45">
+      <c r="CC45" s="38">
         <v>0</v>
       </c>
       <c r="CD45">
@@ -54363,6 +56354,28 @@
       </c>
       <c r="DI45">
         <v>0.14560000000000001</v>
+      </c>
+      <c r="DR45" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV45" s="39"/>
+      <c r="DW45">
+        <v>-0.18479999999999999</v>
+      </c>
+      <c r="DX45">
+        <v>1.2848999999999999</v>
+      </c>
+      <c r="DY45">
+        <v>-0.1303</v>
+      </c>
+      <c r="DZ45">
+        <v>1.9532</v>
+      </c>
+      <c r="EA45">
+        <v>-0.55559999999999998</v>
+      </c>
+      <c r="EB45">
+        <v>0.13289999999999999</v>
       </c>
       <c r="EH45" s="8" t="s">
         <v>32</v>
@@ -54525,7 +56538,7 @@
       <c r="AX46" s="6">
         <v>0</v>
       </c>
-      <c r="AY46" s="41"/>
+      <c r="AY46" s="44"/>
       <c r="BA46" s="8" t="s">
         <v>32</v>
       </c>
@@ -54536,10 +56549,13 @@
         <v>0.55989999999999995</v>
       </c>
       <c r="BH46" s="8"/>
-      <c r="BN46" s="43">
+      <c r="BM46">
+        <v>45</v>
+      </c>
+      <c r="BN46" s="36">
         <v>-0.70350000000000001</v>
       </c>
-      <c r="BO46" s="43">
+      <c r="BO46" s="36">
         <v>4.1262999999999996</v>
       </c>
       <c r="BP46" s="8">
@@ -54572,10 +56588,10 @@
       <c r="CA46">
         <v>3.9306999999999999</v>
       </c>
-      <c r="CB46" s="45">
+      <c r="CB46" s="38">
         <v>-2.6776</v>
       </c>
-      <c r="CC46" s="45">
+      <c r="CC46" s="38">
         <v>2.1322999999999999</v>
       </c>
       <c r="CD46">
@@ -54664,6 +56680,28 @@
       </c>
       <c r="DI46">
         <v>4.1771000000000003</v>
+      </c>
+      <c r="DR46" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV46" s="39"/>
+      <c r="DW46">
+        <v>-0.1905</v>
+      </c>
+      <c r="DX46">
+        <v>1.3722000000000001</v>
+      </c>
+      <c r="DY46">
+        <v>-0.1331</v>
+      </c>
+      <c r="DZ46">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="EA46">
+        <v>-0.60370000000000001</v>
+      </c>
+      <c r="EB46">
+        <v>0.20169999999999999</v>
       </c>
       <c r="EH46" s="8" t="s">
         <v>32</v>
@@ -54826,7 +56864,7 @@
       <c r="AX47" s="6">
         <v>0</v>
       </c>
-      <c r="AY47" s="41"/>
+      <c r="AY47" s="44"/>
       <c r="BA47" s="8" t="s">
         <v>32</v>
       </c>
@@ -54837,10 +56875,13 @@
         <v>0.49380000000000002</v>
       </c>
       <c r="BH47" s="8"/>
-      <c r="BN47" s="43">
+      <c r="BM47">
+        <v>46</v>
+      </c>
+      <c r="BN47" s="36">
         <v>-1.0838000000000001</v>
       </c>
-      <c r="BO47" s="43">
+      <c r="BO47" s="36">
         <v>-6.4199999999999993E-2</v>
       </c>
       <c r="BP47" s="8">
@@ -54873,10 +56914,10 @@
       <c r="CA47">
         <v>0.2671</v>
       </c>
-      <c r="CB47" s="45">
+      <c r="CB47" s="38">
         <v>-0.2465</v>
       </c>
-      <c r="CC47" s="45">
+      <c r="CC47" s="38">
         <v>-0.72140000000000004</v>
       </c>
       <c r="CD47">
@@ -54971,6 +57012,28 @@
       </c>
       <c r="DI47">
         <v>-2.3199999999999998E-2</v>
+      </c>
+      <c r="DR47" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV47" s="39"/>
+      <c r="DW47">
+        <v>-0.2024</v>
+      </c>
+      <c r="DX47">
+        <v>1.4583999999999999</v>
+      </c>
+      <c r="DY47">
+        <v>-0.1356</v>
+      </c>
+      <c r="DZ47">
+        <v>2.1608999999999998</v>
+      </c>
+      <c r="EA47">
+        <v>-0.6099</v>
+      </c>
+      <c r="EB47">
+        <v>0.30470000000000003</v>
       </c>
       <c r="EH47" s="8" t="s">
         <v>32</v>
@@ -55121,17 +57184,20 @@
       <c r="AX48" s="6">
         <v>0</v>
       </c>
-      <c r="AY48" s="41"/>
+      <c r="AY48" s="44"/>
       <c r="BA48" s="8" t="s">
         <v>32</v>
       </c>
       <c r="BE48" s="30"/>
       <c r="BF48" s="30"/>
       <c r="BH48" s="8"/>
-      <c r="BN48" s="43">
+      <c r="BM48">
+        <v>47</v>
+      </c>
+      <c r="BN48" s="48">
         <v>-1.2886</v>
       </c>
-      <c r="BO48" s="43">
+      <c r="BO48" s="48">
         <v>0</v>
       </c>
       <c r="BP48" s="8">
@@ -55164,10 +57230,10 @@
       <c r="CA48">
         <v>3.1995</v>
       </c>
-      <c r="CB48" s="45">
+      <c r="CB48" s="38">
         <v>-2.3281999999999998</v>
       </c>
-      <c r="CC48" s="45">
+      <c r="CC48" s="38">
         <v>0.37930000000000003</v>
       </c>
       <c r="CD48">
@@ -55262,6 +57328,28 @@
       </c>
       <c r="DI48">
         <v>2.7522000000000002</v>
+      </c>
+      <c r="DR48" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV48" s="39"/>
+      <c r="DW48">
+        <v>-0.2238</v>
+      </c>
+      <c r="DX48">
+        <v>1.5436000000000001</v>
+      </c>
+      <c r="DY48">
+        <v>-0.1389</v>
+      </c>
+      <c r="DZ48">
+        <v>2.2702</v>
+      </c>
+      <c r="EA48">
+        <v>-0.58589999999999998</v>
+      </c>
+      <c r="EB48">
+        <v>0.37359999999999999</v>
       </c>
       <c r="EH48" s="8" t="s">
         <v>32</v>
@@ -55388,17 +57476,20 @@
       <c r="AX49" s="6">
         <v>0.31119999999999998</v>
       </c>
-      <c r="AY49" s="41"/>
+      <c r="AY49" s="44"/>
       <c r="BA49" s="8" t="s">
         <v>32</v>
       </c>
       <c r="BE49" s="30"/>
       <c r="BF49" s="30"/>
       <c r="BH49" s="8"/>
-      <c r="BN49" s="43">
+      <c r="BM49">
+        <v>48</v>
+      </c>
+      <c r="BN49" s="36">
         <v>-2.4148000000000001</v>
       </c>
-      <c r="BO49" s="43">
+      <c r="BO49" s="36">
         <v>2.7646999999999999</v>
       </c>
       <c r="BP49" s="8">
@@ -55431,10 +57522,10 @@
       <c r="CA49">
         <v>-1.2999999999999999E-3</v>
       </c>
-      <c r="CB49" s="45">
+      <c r="CB49" s="38">
         <v>-1.4147000000000001</v>
       </c>
-      <c r="CC49" s="45">
+      <c r="CC49" s="38">
         <v>-0.51680000000000004</v>
       </c>
       <c r="CD49">
@@ -55529,6 +57620,28 @@
       </c>
       <c r="DI49">
         <v>-9.9199999999999997E-2</v>
+      </c>
+      <c r="DR49" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV49" s="39"/>
+      <c r="DW49">
+        <v>-0.25829999999999997</v>
+      </c>
+      <c r="DX49">
+        <v>1.629</v>
+      </c>
+      <c r="DY49">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="DZ49">
+        <v>2.3824000000000001</v>
+      </c>
+      <c r="EA49">
+        <v>-0.56440000000000001</v>
+      </c>
+      <c r="EB49">
+        <v>0.4254</v>
       </c>
       <c r="EH49" s="8" t="s">
         <v>32</v>
@@ -55667,7 +57780,7 @@
       <c r="AX50" s="6">
         <v>0.56310000000000004</v>
       </c>
-      <c r="AY50" s="41"/>
+      <c r="AY50" s="44"/>
       <c r="BA50" s="8" t="s">
         <v>32</v>
       </c>
@@ -55678,10 +57791,13 @@
         <v>0.10440000000000001</v>
       </c>
       <c r="BH50" s="8"/>
-      <c r="BN50" s="43">
+      <c r="BM50">
+        <v>49</v>
+      </c>
+      <c r="BN50" s="48">
         <v>-1.6154999999999999</v>
       </c>
-      <c r="BO50" s="43">
+      <c r="BO50" s="48">
         <v>0</v>
       </c>
       <c r="BP50" s="8">
@@ -55714,10 +57830,10 @@
       <c r="CA50">
         <v>-0.23569999999999999</v>
       </c>
-      <c r="CB50" s="45">
+      <c r="CB50" s="38">
         <v>-1.9587000000000001</v>
       </c>
-      <c r="CC50" s="45">
+      <c r="CC50" s="38">
         <v>4.3387000000000002</v>
       </c>
       <c r="CD50">
@@ -55812,6 +57928,28 @@
       </c>
       <c r="DI50">
         <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="DR50" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV50" s="39"/>
+      <c r="DW50">
+        <v>-0.31069999999999998</v>
+      </c>
+      <c r="DX50">
+        <v>1.7165999999999999</v>
+      </c>
+      <c r="DY50">
+        <v>-0.15160000000000001</v>
+      </c>
+      <c r="DZ50">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="EA50">
+        <v>-0.54569999999999996</v>
+      </c>
+      <c r="EB50">
+        <v>0.46899999999999997</v>
       </c>
       <c r="EH50" s="8" t="s">
         <v>32</v>
@@ -55974,17 +58112,20 @@
       <c r="AX51" s="6">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="AY51" s="41"/>
+      <c r="AY51" s="44"/>
       <c r="BE51" s="6">
         <v>-0.2407</v>
       </c>
       <c r="BF51" s="6">
         <v>0.53959999999999997</v>
       </c>
-      <c r="BN51" s="43">
+      <c r="BM51">
+        <v>50</v>
+      </c>
+      <c r="BN51" s="36">
         <v>-2.6985999999999999</v>
       </c>
-      <c r="BO51" s="43">
+      <c r="BO51" s="36">
         <v>1.4643999999999999</v>
       </c>
       <c r="BP51" s="8">
@@ -56017,10 +58158,10 @@
       <c r="CA51">
         <v>3.7658</v>
       </c>
-      <c r="CB51" s="45">
+      <c r="CB51" s="38">
         <v>-3.0369999999999999</v>
       </c>
-      <c r="CC51" s="45">
+      <c r="CC51" s="38">
         <v>2.4487999999999999</v>
       </c>
       <c r="CD51">
@@ -56115,6 +58256,28 @@
       </c>
       <c r="DI51">
         <v>2.8647</v>
+      </c>
+      <c r="DR51" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV51" s="39"/>
+      <c r="DW51">
+        <v>-0.39389999999999997</v>
+      </c>
+      <c r="DX51">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="DY51">
+        <v>-0.1618</v>
+      </c>
+      <c r="DZ51">
+        <v>2.6175999999999999</v>
+      </c>
+      <c r="EA51">
+        <v>-0.52900000000000003</v>
+      </c>
+      <c r="EB51">
+        <v>0.50760000000000005</v>
       </c>
       <c r="EH51" s="8" t="s">
         <v>32</v>
@@ -56223,10 +58386,13 @@
         <f>MAX(BE2:BE51)</f>
         <v>-4.1300000000000003E-2</v>
       </c>
-      <c r="BN52" s="43">
+      <c r="BM52">
+        <v>51</v>
+      </c>
+      <c r="BN52" s="36">
         <v>-2.4481999999999999</v>
       </c>
-      <c r="BO52" s="43">
+      <c r="BO52" s="36">
         <v>0.6744</v>
       </c>
       <c r="BP52" s="8">
@@ -56259,10 +58425,10 @@
       <c r="CA52">
         <v>1.5177</v>
       </c>
-      <c r="CB52" s="45">
+      <c r="CB52" s="38">
         <v>-4.8099999999999997E-2</v>
       </c>
-      <c r="CC52" s="45">
+      <c r="CC52" s="38">
         <v>-1.2645</v>
       </c>
       <c r="CD52">
@@ -56358,6 +58524,28 @@
       <c r="DI52">
         <v>1.4504999999999999</v>
       </c>
+      <c r="DR52" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV52" s="39"/>
+      <c r="DW52">
+        <v>-0.47299999999999998</v>
+      </c>
+      <c r="DX52">
+        <v>2.0038999999999998</v>
+      </c>
+      <c r="DY52">
+        <v>-0.1736</v>
+      </c>
+      <c r="DZ52">
+        <v>2.7422</v>
+      </c>
+      <c r="EA52">
+        <v>-0.51380000000000003</v>
+      </c>
+      <c r="EB52">
+        <v>0.54259999999999997</v>
+      </c>
       <c r="EH52" s="8" t="s">
         <v>32</v>
       </c>
@@ -56393,102 +58581,102 @@
       </c>
     </row>
     <row r="53" spans="1:157" ht="18">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="38" t="s">
+      <c r="B53" s="43"/>
+      <c r="C53" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="38" t="s">
+      <c r="D53" s="43"/>
+      <c r="E53" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="39"/>
-      <c r="G53" s="38" t="s">
+      <c r="F53" s="43"/>
+      <c r="G53" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="39"/>
-      <c r="I53" s="38" t="s">
+      <c r="H53" s="43"/>
+      <c r="I53" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="39"/>
-      <c r="K53" s="38" t="s">
+      <c r="J53" s="43"/>
+      <c r="K53" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L53" s="39"/>
-      <c r="M53" s="38" t="s">
+      <c r="L53" s="43"/>
+      <c r="M53" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="39"/>
-      <c r="O53" s="38" t="s">
+      <c r="N53" s="43"/>
+      <c r="O53" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="38" t="s">
+      <c r="P53" s="43"/>
+      <c r="Q53" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="R53" s="39"/>
-      <c r="S53" s="38" t="s">
+      <c r="R53" s="43"/>
+      <c r="S53" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="T53" s="39"/>
-      <c r="U53" s="40" t="s">
+      <c r="T53" s="43"/>
+      <c r="U53" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40" t="s">
+      <c r="V53" s="46"/>
+      <c r="W53" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40" t="s">
+      <c r="X53" s="46"/>
+      <c r="Y53" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="40" t="s">
+      <c r="Z53" s="46"/>
+      <c r="AA53" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AB53" s="40"/>
+      <c r="AB53" s="46"/>
       <c r="AC53" s="27"/>
       <c r="AD53" s="27"/>
       <c r="AE53" s="28"/>
       <c r="AF53" s="28"/>
-      <c r="AG53" s="40" t="s">
+      <c r="AG53" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AH53" s="40"/>
-      <c r="AI53" s="40" t="s">
+      <c r="AH53" s="46"/>
+      <c r="AI53" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="AJ53" s="40"/>
-      <c r="AK53" s="40" t="s">
+      <c r="AJ53" s="46"/>
+      <c r="AK53" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="AL53" s="40"/>
-      <c r="AM53" s="40" t="s">
+      <c r="AL53" s="46"/>
+      <c r="AM53" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AN53" s="40"/>
-      <c r="AO53" s="40" t="s">
+      <c r="AN53" s="46"/>
+      <c r="AO53" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AP53" s="40"/>
-      <c r="AQ53" s="38" t="s">
+      <c r="AP53" s="46"/>
+      <c r="AQ53" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AR53" s="39"/>
-      <c r="AS53" s="38" t="s">
+      <c r="AR53" s="43"/>
+      <c r="AS53" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AT53" s="39"/>
-      <c r="AU53" s="38" t="s">
+      <c r="AT53" s="43"/>
+      <c r="AU53" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AV53" s="39"/>
-      <c r="AW53" s="38" t="s">
+      <c r="AV53" s="43"/>
+      <c r="AW53" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AX53" s="39"/>
+      <c r="AX53" s="43"/>
       <c r="AY53" s="19" t="s">
         <v>27</v>
       </c>
@@ -56496,14 +58684,17 @@
       <c r="BA53" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="BE53" s="38" t="s">
+      <c r="BE53" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="BF53" s="39"/>
-      <c r="BN53" s="43">
+      <c r="BF53" s="43"/>
+      <c r="BM53">
+        <v>52</v>
+      </c>
+      <c r="BN53" s="36">
         <v>-2.7789999999999999</v>
       </c>
-      <c r="BO53" s="43">
+      <c r="BO53" s="36">
         <v>2.5265</v>
       </c>
       <c r="BP53" s="8">
@@ -56530,10 +58721,10 @@
       <c r="BW53">
         <v>2.3151999999999999</v>
       </c>
-      <c r="BX53" s="44">
+      <c r="BX53" s="37">
         <v>-1.9345000000000001</v>
       </c>
-      <c r="BY53" s="44">
+      <c r="BY53" s="37">
         <v>1.2371000000000001</v>
       </c>
       <c r="BZ53">
@@ -56542,10 +58733,10 @@
       <c r="CA53">
         <v>0.45479999999999998</v>
       </c>
-      <c r="CB53" s="45">
+      <c r="CB53" s="38">
         <v>-2.3281999999999998</v>
       </c>
-      <c r="CC53" s="45">
+      <c r="CC53" s="38">
         <v>-0.37930000000000003</v>
       </c>
       <c r="CD53">
@@ -56640,6 +58831,28 @@
       </c>
       <c r="DI53">
         <v>0.67749999999999999</v>
+      </c>
+      <c r="DR53" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV53" s="39"/>
+      <c r="DW53">
+        <v>-0.48170000000000002</v>
+      </c>
+      <c r="DX53">
+        <v>2.1189</v>
+      </c>
+      <c r="DY53">
+        <v>-0.18490000000000001</v>
+      </c>
+      <c r="DZ53">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="EA53">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="EB53">
+        <v>0.57479999999999998</v>
       </c>
       <c r="EH53" s="8" t="s">
         <v>32</v>
@@ -56686,10 +58899,13 @@
       <c r="S54" s="26"/>
       <c r="U54" s="26"/>
       <c r="W54" s="26"/>
-      <c r="BN54" s="43">
+      <c r="BM54">
+        <v>53</v>
+      </c>
+      <c r="BN54" s="36">
         <v>-2.867</v>
       </c>
-      <c r="BO54" s="43">
+      <c r="BO54" s="36">
         <v>1.9011</v>
       </c>
       <c r="BP54" s="8">
@@ -56716,10 +58932,10 @@
       <c r="BW54">
         <v>0.76819999999999999</v>
       </c>
-      <c r="BX54" s="44">
+      <c r="BX54" s="37">
         <v>-1.3975</v>
       </c>
-      <c r="BY54" s="44">
+      <c r="BY54" s="37">
         <v>0.38440000000000002</v>
       </c>
       <c r="BZ54">
@@ -56728,10 +58944,10 @@
       <c r="CA54">
         <v>-0.87890000000000001</v>
       </c>
-      <c r="CB54" s="45">
+      <c r="CB54" s="38">
         <v>-1.7652000000000001</v>
       </c>
-      <c r="CC54" s="45">
+      <c r="CC54" s="38">
         <v>4.9109999999999996</v>
       </c>
       <c r="CD54">
@@ -56826,6 +59042,28 @@
       </c>
       <c r="DI54">
         <v>-0.80969999999999998</v>
+      </c>
+      <c r="DR54" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV54" s="39"/>
+      <c r="DW54">
+        <v>-0.51959999999999995</v>
+      </c>
+      <c r="DX54">
+        <v>2.1936</v>
+      </c>
+      <c r="DY54">
+        <v>-0.19170000000000001</v>
+      </c>
+      <c r="DZ54">
+        <v>3.0095000000000001</v>
+      </c>
+      <c r="EA54">
+        <v>-0.4869</v>
+      </c>
+      <c r="EB54">
+        <v>0.60470000000000002</v>
       </c>
       <c r="EH54" s="8" t="s">
         <v>32</v>
@@ -56868,10 +59106,13 @@
       <c r="P55" s="26">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="BN55" s="43">
+      <c r="BM55">
+        <v>54</v>
+      </c>
+      <c r="BN55" s="47">
         <v>-0.1671</v>
       </c>
-      <c r="BO55" s="43">
+      <c r="BO55" s="47">
         <v>-0.87549999999999994</v>
       </c>
       <c r="BP55" s="8">
@@ -56898,10 +59139,10 @@
       <c r="BW55">
         <v>1.6425000000000001</v>
       </c>
-      <c r="BX55" s="44">
+      <c r="BX55" s="37">
         <v>-0.56599999999999995</v>
       </c>
-      <c r="BY55" s="44">
+      <c r="BY55" s="37">
         <v>-0.1174</v>
       </c>
       <c r="BZ55">
@@ -56910,10 +59151,10 @@
       <c r="CA55">
         <v>-0.83140000000000003</v>
       </c>
-      <c r="CB55" s="45">
+      <c r="CB55" s="38">
         <v>-3.2652000000000001</v>
       </c>
-      <c r="CC55" s="45">
+      <c r="CC55" s="38">
         <v>0.93740000000000001</v>
       </c>
       <c r="CD55">
@@ -57008,6 +59249,28 @@
       </c>
       <c r="DI55">
         <v>-0.40339999999999998</v>
+      </c>
+      <c r="DR55" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV55" s="39"/>
+      <c r="DW55">
+        <v>-0.5665</v>
+      </c>
+      <c r="DX55">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="DY55">
+        <v>-0.19089999999999999</v>
+      </c>
+      <c r="DZ55">
+        <v>3.1484999999999999</v>
+      </c>
+      <c r="EA55">
+        <v>-0.47449999999999998</v>
+      </c>
+      <c r="EB55">
+        <v>0.63270000000000004</v>
       </c>
       <c r="EH55" s="8" t="s">
         <v>32</v>
@@ -57050,10 +59313,13 @@
       <c r="P56" s="26">
         <v>1.15E-2</v>
       </c>
-      <c r="BN56" s="43">
+      <c r="BM56">
+        <v>55</v>
+      </c>
+      <c r="BN56" s="36">
         <v>-2.0931000000000002</v>
       </c>
-      <c r="BO56" s="43">
+      <c r="BO56" s="36">
         <v>0</v>
       </c>
       <c r="BP56" s="8">
@@ -57080,10 +59346,10 @@
       <c r="BW56">
         <v>-0.74990000000000001</v>
       </c>
-      <c r="BX56" s="44">
+      <c r="BX56" s="37">
         <v>-1.1182000000000001</v>
       </c>
-      <c r="BY56" s="44">
+      <c r="BY56" s="37">
         <v>-5.9999999999999995E-4</v>
       </c>
       <c r="BZ56">
@@ -57092,10 +59358,10 @@
       <c r="CA56">
         <v>2.6676000000000002</v>
       </c>
-      <c r="CB56" s="45">
+      <c r="CB56" s="38">
         <v>-3.6859000000000002</v>
       </c>
-      <c r="CC56" s="45">
+      <c r="CC56" s="38">
         <v>1.6207</v>
       </c>
       <c r="CD56">
@@ -57190,6 +59456,28 @@
       </c>
       <c r="DI56">
         <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="DR56" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV56" s="39"/>
+      <c r="DW56">
+        <v>-0.60540000000000005</v>
+      </c>
+      <c r="DX56">
+        <v>2.2551000000000001</v>
+      </c>
+      <c r="DY56">
+        <v>-0.18260000000000001</v>
+      </c>
+      <c r="DZ56">
+        <v>3.2854999999999999</v>
+      </c>
+      <c r="EA56">
+        <v>-0.4627</v>
+      </c>
+      <c r="EB56">
+        <v>0.65910000000000002</v>
       </c>
       <c r="EH56" s="8" t="s">
         <v>32</v>
@@ -57232,10 +59520,13 @@
       <c r="P57" s="26">
         <v>1.77E-2</v>
       </c>
-      <c r="BN57" s="43">
+      <c r="BM57">
+        <v>56</v>
+      </c>
+      <c r="BN57" s="36">
         <v>-2.5958999999999999</v>
       </c>
-      <c r="BO57" s="43">
+      <c r="BO57" s="36">
         <v>3.3932000000000002</v>
       </c>
       <c r="BP57" s="8">
@@ -57262,10 +59553,10 @@
       <c r="BW57">
         <v>0.67369999999999997</v>
       </c>
-      <c r="BX57" s="44">
+      <c r="BX57" s="37">
         <v>-2.6208</v>
       </c>
-      <c r="BY57" s="44">
+      <c r="BY57" s="37">
         <v>1.7524</v>
       </c>
       <c r="BZ57">
@@ -57274,10 +59565,10 @@
       <c r="CA57">
         <v>-0.39169999999999999</v>
       </c>
-      <c r="CB57" s="45">
+      <c r="CB57" s="38">
         <v>-0.3175</v>
       </c>
-      <c r="CC57" s="45">
+      <c r="CC57" s="38">
         <v>5.7047999999999996</v>
       </c>
       <c r="CD57">
@@ -57372,6 +59663,28 @@
       </c>
       <c r="DI57">
         <v>2.6227999999999998</v>
+      </c>
+      <c r="DR57" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV57" s="39"/>
+      <c r="DW57">
+        <v>-0.63529999999999998</v>
+      </c>
+      <c r="DX57">
+        <v>2.2671000000000001</v>
+      </c>
+      <c r="DY57">
+        <v>-0.16969999999999999</v>
+      </c>
+      <c r="DZ57">
+        <v>3.4178999999999999</v>
+      </c>
+      <c r="EA57">
+        <v>-0.4511</v>
+      </c>
+      <c r="EB57">
+        <v>0.68389999999999995</v>
       </c>
       <c r="EH57" s="8" t="s">
         <v>32</v>
@@ -57418,10 +59731,13 @@
         <f>101325+16550</f>
         <v>117875</v>
       </c>
-      <c r="BN58" s="43">
+      <c r="BM58">
+        <v>57</v>
+      </c>
+      <c r="BN58" s="36">
         <v>-2.5960999999999999</v>
       </c>
-      <c r="BO58" s="43">
+      <c r="BO58" s="36">
         <v>3.3934000000000002</v>
       </c>
       <c r="BP58" s="8">
@@ -57448,10 +59764,10 @@
       <c r="BW58">
         <v>4.0713999999999997</v>
       </c>
-      <c r="BX58" s="44">
+      <c r="BX58" s="37">
         <v>-1.9524999999999999</v>
       </c>
-      <c r="BY58" s="44">
+      <c r="BY58" s="37">
         <v>3.7685</v>
       </c>
       <c r="BZ58">
@@ -57460,10 +59776,10 @@
       <c r="CA58">
         <v>-1.3360000000000001</v>
       </c>
-      <c r="CB58" s="45">
+      <c r="CB58" s="38">
         <v>-0.81820000000000004</v>
       </c>
-      <c r="CC58" s="45">
+      <c r="CC58" s="38">
         <v>5.7027999999999999</v>
       </c>
       <c r="CD58">
@@ -57558,6 +59874,28 @@
       </c>
       <c r="DI58">
         <v>3.4931999999999999</v>
+      </c>
+      <c r="DR58" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV58" s="39"/>
+      <c r="DW58">
+        <v>-0.66020000000000001</v>
+      </c>
+      <c r="DX58">
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="DY58">
+        <v>-0.156</v>
+      </c>
+      <c r="DZ58">
+        <v>3.5459000000000001</v>
+      </c>
+      <c r="EA58">
+        <v>-0.43980000000000002</v>
+      </c>
+      <c r="EB58">
+        <v>0.70720000000000005</v>
       </c>
       <c r="EH58" s="8" t="s">
         <v>32</v>
@@ -57600,10 +59938,13 @@
       <c r="P59" s="26">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="BN59" s="43">
+      <c r="BM59">
+        <v>58</v>
+      </c>
+      <c r="BN59" s="36">
         <v>-0.79369999999999996</v>
       </c>
-      <c r="BO59" s="43">
+      <c r="BO59" s="36">
         <v>4.8678999999999997</v>
       </c>
       <c r="BP59" s="8">
@@ -57630,10 +59971,10 @@
       <c r="BW59">
         <v>1.3935999999999999</v>
       </c>
-      <c r="BX59" s="44">
+      <c r="BX59" s="37">
         <v>-0.24249999999999999</v>
       </c>
-      <c r="BY59" s="44">
+      <c r="BY59" s="37">
         <v>-0.80289999999999995</v>
       </c>
       <c r="BZ59">
@@ -57642,10 +59983,10 @@
       <c r="CA59">
         <v>0.85099999999999998</v>
       </c>
-      <c r="CB59" s="45">
+      <c r="CB59" s="38">
         <v>-2.0200999999999998</v>
       </c>
-      <c r="CC59" s="45">
+      <c r="CC59" s="38">
         <v>-1.329</v>
       </c>
       <c r="CD59">
@@ -57740,6 +60081,28 @@
       </c>
       <c r="DI59">
         <v>4.9135999999999997</v>
+      </c>
+      <c r="DR59" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV59" s="39"/>
+      <c r="DW59">
+        <v>-0.68230000000000002</v>
+      </c>
+      <c r="DX59">
+        <v>2.2827000000000002</v>
+      </c>
+      <c r="DY59">
+        <v>-0.1439</v>
+      </c>
+      <c r="DZ59">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="EA59">
+        <v>-0.42849999999999999</v>
+      </c>
+      <c r="EB59">
+        <v>0.72919999999999996</v>
       </c>
       <c r="EH59" s="8" t="s">
         <v>32</v>
@@ -57782,10 +60145,13 @@
       <c r="P60" s="26">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="BN60" s="43">
+      <c r="BM60">
+        <v>59</v>
+      </c>
+      <c r="BN60" s="36">
         <v>-2.2063999999999999</v>
       </c>
-      <c r="BO60" s="43">
+      <c r="BO60" s="36">
         <v>4.2560000000000002</v>
       </c>
       <c r="BP60" s="8">
@@ -57812,10 +60178,10 @@
       <c r="BW60">
         <v>1.3959999999999999</v>
       </c>
-      <c r="BX60" s="44">
+      <c r="BX60" s="37">
         <v>-2.3748</v>
       </c>
-      <c r="BY60" s="44">
+      <c r="BY60" s="37">
         <v>0.40610000000000002</v>
       </c>
       <c r="BZ60">
@@ -57824,10 +60190,10 @@
       <c r="CA60">
         <v>5.0938999999999997</v>
       </c>
-      <c r="CB60" s="45">
+      <c r="CB60" s="38">
         <v>-3.5394000000000001</v>
       </c>
-      <c r="CC60" s="45">
+      <c r="CC60" s="38">
         <v>0.17330000000000001</v>
       </c>
       <c r="CD60">
@@ -57964,10 +60330,13 @@
       <c r="P61" s="26">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="BN61" s="43">
+      <c r="BM61">
+        <v>60</v>
+      </c>
+      <c r="BN61" s="36">
         <v>-2.4502000000000002</v>
       </c>
-      <c r="BO61" s="43">
+      <c r="BO61" s="36">
         <v>0</v>
       </c>
       <c r="BP61" s="8">
@@ -57994,10 +60363,10 @@
       <c r="BW61">
         <v>1.2508999999999999</v>
       </c>
-      <c r="BX61" s="44">
+      <c r="BX61" s="37">
         <v>-1.7592000000000001</v>
       </c>
-      <c r="BY61" s="44">
+      <c r="BY61" s="37">
         <v>4.3400999999999996</v>
       </c>
       <c r="BZ61">
@@ -58006,10 +60375,10 @@
       <c r="CA61">
         <v>1.5286</v>
       </c>
-      <c r="CB61" s="45">
+      <c r="CB61" s="38">
         <v>-4.0190999999999999</v>
       </c>
-      <c r="CC61" s="45">
+      <c r="CC61" s="38">
         <v>1.9426000000000001</v>
       </c>
       <c r="CD61">
@@ -58146,10 +60515,13 @@
       <c r="P62" s="26">
         <v>-1.9699999999999999E-2</v>
       </c>
-      <c r="BN62" s="43">
+      <c r="BM62">
+        <v>61</v>
+      </c>
+      <c r="BN62" s="36">
         <v>-0.46579999999999999</v>
       </c>
-      <c r="BO62" s="43">
+      <c r="BO62" s="36">
         <v>3.1276999999999999</v>
       </c>
       <c r="BP62" s="8">
@@ -58176,10 +60548,10 @@
       <c r="BW62">
         <v>2.2770999999999999</v>
       </c>
-      <c r="BX62" s="44">
+      <c r="BX62" s="37">
         <v>-1.0984</v>
       </c>
-      <c r="BY62" s="44">
+      <c r="BY62" s="37">
         <v>2.9550000000000001</v>
       </c>
       <c r="BZ62">
@@ -58188,10 +60560,10 @@
       <c r="CA62">
         <v>2.8338000000000001</v>
       </c>
-      <c r="CB62" s="45">
+      <c r="CB62" s="38">
         <v>-0.84930000000000005</v>
       </c>
-      <c r="CC62" s="45">
+      <c r="CC62" s="38">
         <v>3.6493000000000002</v>
       </c>
       <c r="CD62">
@@ -58325,10 +60697,13 @@
       <c r="P63" s="26">
         <v>-3.1E-2</v>
       </c>
-      <c r="BN63" s="43">
+      <c r="BM63">
+        <v>62</v>
+      </c>
+      <c r="BN63" s="36">
         <v>-0.25159999999999999</v>
       </c>
-      <c r="BO63" s="43">
+      <c r="BO63" s="36">
         <v>2.4346000000000001</v>
       </c>
       <c r="BP63" s="8">
@@ -58355,10 +60730,10 @@
       <c r="BW63">
         <v>3.4971000000000001</v>
       </c>
-      <c r="BX63" s="44">
+      <c r="BX63" s="37">
         <v>-0.8619</v>
       </c>
-      <c r="BY63" s="44">
+      <c r="BY63" s="37">
         <v>3.8046000000000002</v>
       </c>
       <c r="BZ63">
@@ -58367,10 +60742,10 @@
       <c r="CA63">
         <v>3.9306999999999999</v>
       </c>
-      <c r="CB63" s="45">
+      <c r="CB63" s="38">
         <v>-1.1439999999999999</v>
       </c>
-      <c r="CC63" s="45">
+      <c r="CC63" s="38">
         <v>3.1185999999999998</v>
       </c>
       <c r="CD63">
@@ -58504,10 +60879,13 @@
       <c r="P64" s="26">
         <v>-3.8899999999999997E-2</v>
       </c>
-      <c r="BN64" s="43">
+      <c r="BM64">
+        <v>63</v>
+      </c>
+      <c r="BN64" s="36">
         <v>-0.69220000000000004</v>
       </c>
-      <c r="BO64" s="43">
+      <c r="BO64" s="36">
         <v>2.0137</v>
       </c>
       <c r="BP64" s="8">
@@ -58534,10 +60912,10 @@
       <c r="BW64">
         <v>1.6442000000000001</v>
       </c>
-      <c r="BX64" s="44">
+      <c r="BX64" s="37">
         <v>-4.3200000000000002E-2</v>
       </c>
-      <c r="BY64" s="44">
+      <c r="BY64" s="37">
         <v>1.2303999999999999</v>
       </c>
       <c r="BZ64">
@@ -58546,10 +60924,10 @@
       <c r="CA64">
         <v>1.1962999999999999</v>
       </c>
-      <c r="CB64" s="45">
+      <c r="CB64" s="38">
         <v>-4.8099999999999997E-2</v>
       </c>
-      <c r="CC64" s="45">
+      <c r="CC64" s="38">
         <v>1.2645</v>
       </c>
       <c r="CD64">
@@ -58644,6 +61022,12 @@
       </c>
       <c r="DI64">
         <v>2.0221</v>
+      </c>
+      <c r="DJ64" s="36">
+        <v>-0.69220000000000004</v>
+      </c>
+      <c r="DK64" s="36">
+        <v>2.0137</v>
       </c>
       <c r="ER64">
         <v>-0.73470000000000002</v>
@@ -58687,10 +61071,13 @@
         <f>16540+101325</f>
         <v>117865</v>
       </c>
-      <c r="BN65" s="43">
+      <c r="BM65">
+        <v>64</v>
+      </c>
+      <c r="BN65" s="36">
         <v>-0.70350000000000001</v>
       </c>
-      <c r="BO65" s="43">
+      <c r="BO65" s="36">
         <v>4.1262999999999996</v>
       </c>
       <c r="BP65" s="8">
@@ -58717,10 +61104,10 @@
       <c r="BW65">
         <v>1.7421</v>
       </c>
-      <c r="BX65" s="44">
+      <c r="BX65" s="37">
         <v>-1.7323</v>
       </c>
-      <c r="BY65" s="44">
+      <c r="BY65" s="37">
         <v>2.2168000000000001</v>
       </c>
       <c r="BZ65">
@@ -58729,10 +61116,10 @@
       <c r="CA65">
         <v>3.7658</v>
       </c>
-      <c r="CB65" s="45">
+      <c r="CB65" s="38">
         <v>-1.8187</v>
       </c>
-      <c r="CC65" s="45">
+      <c r="CC65" s="38">
         <v>2.3927</v>
       </c>
       <c r="CD65">
@@ -58866,10 +61253,13 @@
       <c r="P66" s="26">
         <v>-4.1300000000000003E-2</v>
       </c>
-      <c r="BN66" s="43">
+      <c r="BM66">
+        <v>65</v>
+      </c>
+      <c r="BN66" s="47">
         <v>-0.11360000000000001</v>
       </c>
-      <c r="BO66" s="43">
+      <c r="BO66" s="47">
         <v>1.5644</v>
       </c>
       <c r="BP66">
@@ -58896,10 +61286,10 @@
       <c r="BW66">
         <v>3.7265999999999999</v>
       </c>
-      <c r="BX66" s="44">
+      <c r="BX66" s="37">
         <v>-1.9524999999999999</v>
       </c>
-      <c r="BY66" s="44">
+      <c r="BY66" s="37">
         <v>3.7685</v>
       </c>
       <c r="BZ66">
@@ -58908,10 +61298,10 @@
       <c r="CA66">
         <v>2.0291999999999999</v>
       </c>
-      <c r="CB66" s="45">
+      <c r="CB66" s="38">
         <v>-0.2465</v>
       </c>
-      <c r="CC66" s="45">
+      <c r="CC66" s="38">
         <v>0.72140000000000004</v>
       </c>
       <c r="CD66">
@@ -59006,6 +61396,12 @@
       </c>
       <c r="DI66">
         <v>1.6234999999999999</v>
+      </c>
+      <c r="DJ66" s="36">
+        <v>-0.11360000000000001</v>
+      </c>
+      <c r="DK66" s="36">
+        <v>1.5644</v>
       </c>
       <c r="ER66">
         <v>-5.9999999999999995E-4</v>
@@ -59045,10 +61441,13 @@
       <c r="P67" s="26">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="BN67" s="43">
+      <c r="BM67">
+        <v>66</v>
+      </c>
+      <c r="BN67" s="36">
         <v>-0.79369999999999996</v>
       </c>
-      <c r="BO67" s="43">
+      <c r="BO67" s="36">
         <v>4.8678999999999997</v>
       </c>
       <c r="BP67">
@@ -59075,10 +61474,10 @@
       <c r="BW67">
         <v>4.5369999999999999</v>
       </c>
-      <c r="BX67" s="44">
+      <c r="BX67" s="37">
         <v>-1.7592000000000001</v>
       </c>
-      <c r="BY67" s="44">
+      <c r="BY67" s="37">
         <v>4.3400999999999996</v>
       </c>
       <c r="BZ67">
@@ -59087,10 +61486,10 @@
       <c r="CA67">
         <v>3.1995</v>
       </c>
-      <c r="CB67" s="45">
+      <c r="CB67" s="38">
         <v>-1.9587000000000001</v>
       </c>
-      <c r="CC67" s="45">
+      <c r="CC67" s="38">
         <v>4.3387000000000002</v>
       </c>
       <c r="CD67">
@@ -59224,10 +61623,13 @@
       <c r="P68" s="26">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="BN68" s="43">
+      <c r="BM68">
+        <v>67</v>
+      </c>
+      <c r="BN68" s="36">
         <v>-1.0911</v>
       </c>
-      <c r="BO68" s="43">
+      <c r="BO68" s="36">
         <v>1.2364999999999999</v>
       </c>
       <c r="BP68">
@@ -59254,10 +61656,10 @@
       <c r="BW68">
         <v>1.1319999999999999</v>
       </c>
-      <c r="BX68" s="44">
+      <c r="BX68" s="37">
         <v>-0.2457</v>
       </c>
-      <c r="BY68" s="44">
+      <c r="BY68" s="37">
         <v>0.63439999999999996</v>
       </c>
       <c r="BZ68">
@@ -59266,10 +61668,10 @@
       <c r="CA68">
         <v>0.53969999999999996</v>
       </c>
-      <c r="CB68" s="45">
+      <c r="CB68" s="38">
         <v>-1.7652000000000001</v>
       </c>
-      <c r="CC68" s="45">
+      <c r="CC68" s="38">
         <v>4.9109999999999996</v>
       </c>
       <c r="CD68">
@@ -59364,6 +61766,12 @@
       </c>
       <c r="DI68">
         <v>0.94820000000000004</v>
+      </c>
+      <c r="DJ68" s="36">
+        <v>-0.1671</v>
+      </c>
+      <c r="DK68" s="36">
+        <v>0.87549999999999994</v>
       </c>
       <c r="ER68">
         <v>-5.9999999999999995E-4</v>
@@ -59403,10 +61811,13 @@
       <c r="P69" s="26">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="BN69" s="43">
+      <c r="BM69">
+        <v>68</v>
+      </c>
+      <c r="BN69" s="36">
         <v>-0.1671</v>
       </c>
-      <c r="BO69" s="43">
+      <c r="BO69" s="36">
         <v>0.87549999999999994</v>
       </c>
       <c r="BP69">
@@ -59433,10 +61844,10 @@
       <c r="BW69">
         <v>1.3698999999999999</v>
       </c>
-      <c r="BX69" s="44">
+      <c r="BX69" s="37">
         <v>-1.9345000000000001</v>
       </c>
-      <c r="BY69" s="44">
+      <c r="BY69" s="37">
         <v>1.2371000000000001</v>
       </c>
       <c r="BZ69">
@@ -59445,10 +61856,10 @@
       <c r="CA69">
         <v>1.1379999999999999</v>
       </c>
-      <c r="CB69" s="45">
+      <c r="CB69" s="38">
         <v>-2.0200999999999998</v>
       </c>
-      <c r="CC69" s="45">
+      <c r="CC69" s="38">
         <v>1.329</v>
       </c>
       <c r="CD69">
@@ -59544,6 +61955,8 @@
       <c r="DI69">
         <v>4.9135999999999997</v>
       </c>
+      <c r="DJ69" s="36"/>
+      <c r="DK69" s="36"/>
       <c r="ER69">
         <v>-5.9999999999999995E-4</v>
       </c>
@@ -59576,10 +61989,13 @@
       </c>
     </row>
     <row r="70" spans="15:157" ht="18">
-      <c r="BN70" s="43">
+      <c r="BM70">
+        <v>69</v>
+      </c>
+      <c r="BN70" s="36">
         <v>-1.9220999999999999</v>
       </c>
-      <c r="BO70" s="43">
+      <c r="BO70" s="36">
         <v>1.9093</v>
       </c>
       <c r="BP70">
@@ -59606,10 +62022,10 @@
       <c r="BW70">
         <v>1.1059000000000001</v>
       </c>
-      <c r="BX70" s="44">
+      <c r="BX70" s="37">
         <v>-2.6208</v>
       </c>
-      <c r="BY70" s="44">
+      <c r="BY70" s="37">
         <v>1.7524</v>
       </c>
       <c r="BZ70">
@@ -59618,10 +62034,10 @@
       <c r="CA70">
         <v>5.0938999999999997</v>
       </c>
-      <c r="CB70" s="45">
+      <c r="CB70" s="38">
         <v>-0.3175</v>
       </c>
-      <c r="CC70" s="45">
+      <c r="CC70" s="38">
         <v>5.7047999999999996</v>
       </c>
       <c r="CD70">
@@ -59749,10 +62165,13 @@
       </c>
     </row>
     <row r="71" spans="15:157" ht="18">
-      <c r="BN71" s="43">
+      <c r="BM71">
+        <v>70</v>
+      </c>
+      <c r="BN71" s="36">
         <v>-1.8956999999999999</v>
       </c>
-      <c r="BO71" s="43">
+      <c r="BO71" s="36">
         <v>1.8433999999999999</v>
       </c>
       <c r="BP71">
@@ -59779,10 +62198,10 @@
       <c r="BW71">
         <v>4.0713999999999997</v>
       </c>
-      <c r="BX71" s="44">
+      <c r="BX71" s="37">
         <v>-1.3975</v>
       </c>
-      <c r="BY71" s="44">
+      <c r="BY71" s="37">
         <v>0.38440000000000002</v>
       </c>
       <c r="BZ71">
@@ -59791,10 +62210,10 @@
       <c r="CA71">
         <v>1.5177</v>
       </c>
-      <c r="CB71" s="45">
+      <c r="CB71" s="38">
         <v>-2.6776</v>
       </c>
-      <c r="CC71" s="45">
+      <c r="CC71" s="38">
         <v>2.1322999999999999</v>
       </c>
       <c r="CD71">
@@ -59922,10 +62341,13 @@
       </c>
     </row>
     <row r="72" spans="15:157" ht="18">
-      <c r="BN72" s="43">
+      <c r="BM72">
+        <v>71</v>
+      </c>
+      <c r="BN72" s="36">
         <v>-2.4148000000000001</v>
       </c>
-      <c r="BO72" s="43">
+      <c r="BO72" s="36">
         <v>2.7646999999999999</v>
       </c>
       <c r="BP72">
@@ -59952,16 +62374,16 @@
       <c r="BW72">
         <v>0.49359999999999998</v>
       </c>
-      <c r="BX72" s="44">
+      <c r="BX72" s="37">
         <v>-0.98760000000000003</v>
       </c>
-      <c r="BY72" s="44">
+      <c r="BY72" s="37">
         <v>5.8143000000000002</v>
       </c>
-      <c r="CB72" s="45">
+      <c r="CB72" s="38">
         <v>-0.81820000000000004</v>
       </c>
-      <c r="CC72" s="45">
+      <c r="CC72" s="38">
         <v>5.7027999999999999</v>
       </c>
       <c r="CD72">
@@ -60083,10 +62505,13 @@
       </c>
     </row>
     <row r="73" spans="15:157" ht="18">
-      <c r="BN73" s="43">
+      <c r="BM73">
+        <v>72</v>
+      </c>
+      <c r="BN73" s="36">
         <v>-2.2063999999999999</v>
       </c>
-      <c r="BO73" s="43">
+      <c r="BO73" s="36">
         <v>4.2560000000000002</v>
       </c>
       <c r="BP73">
@@ -60113,10 +62538,10 @@
       <c r="BW73">
         <v>1.6359999999999999</v>
       </c>
-      <c r="CB73" s="45">
+      <c r="CB73" s="38">
         <v>-1.4147000000000001</v>
       </c>
-      <c r="CC73" s="45">
+      <c r="CC73" s="38">
         <v>0.51680000000000004</v>
       </c>
       <c r="CD73">
@@ -60208,10 +62633,13 @@
       </c>
     </row>
     <row r="74" spans="15:157" ht="18">
-      <c r="BN74" s="43">
+      <c r="BM74">
+        <v>73</v>
+      </c>
+      <c r="BN74" s="36">
         <v>-2.5958999999999999</v>
       </c>
-      <c r="BO74" s="43">
+      <c r="BO74" s="36">
         <v>3.3932000000000002</v>
       </c>
       <c r="BP74">
@@ -60309,10 +62737,13 @@
       </c>
     </row>
     <row r="75" spans="15:157" ht="18">
-      <c r="BN75" s="43">
+      <c r="BM75">
+        <v>74</v>
+      </c>
+      <c r="BN75" s="36">
         <v>-2.5960999999999999</v>
       </c>
-      <c r="BO75" s="43">
+      <c r="BO75" s="36">
         <v>3.3934000000000002</v>
       </c>
       <c r="BP75">
@@ -60404,10 +62835,13 @@
       </c>
     </row>
     <row r="76" spans="15:157" ht="18">
-      <c r="BN76" s="43">
+      <c r="BM76">
+        <v>75</v>
+      </c>
+      <c r="BN76" s="36">
         <v>-2.7789999999999999</v>
       </c>
-      <c r="BO76" s="43">
+      <c r="BO76" s="36">
         <v>2.5265</v>
       </c>
       <c r="BP76">
@@ -60493,10 +62927,13 @@
       </c>
     </row>
     <row r="77" spans="15:157" ht="18">
-      <c r="BN77" s="43">
+      <c r="BM77">
+        <v>76</v>
+      </c>
+      <c r="BN77" s="36">
         <v>-1.3125</v>
       </c>
-      <c r="BO77" s="43">
+      <c r="BO77" s="36">
         <v>5.6908000000000003</v>
       </c>
       <c r="BP77">
@@ -60517,10 +62954,10 @@
       <c r="BU77">
         <v>0.36680000000000001</v>
       </c>
-      <c r="BX77" s="44">
+      <c r="BX77" s="37">
         <v>-3.0802999999999998</v>
       </c>
-      <c r="BY77" s="44">
+      <c r="BY77" s="37">
         <v>2.5661999999999998</v>
       </c>
       <c r="CF77">
@@ -60600,10 +63037,13 @@
       </c>
     </row>
     <row r="78" spans="15:157" ht="18">
-      <c r="BN78" s="43">
+      <c r="BM78">
+        <v>77</v>
+      </c>
+      <c r="BN78" s="36">
         <v>-2.972</v>
       </c>
-      <c r="BO78" s="43">
+      <c r="BO78" s="36">
         <v>3.3932000000000002</v>
       </c>
       <c r="BP78">
@@ -60624,10 +63064,10 @@
       <c r="BU78">
         <v>2.4449000000000001</v>
       </c>
-      <c r="BX78" s="44">
+      <c r="BX78" s="37">
         <v>-0.56599999999999995</v>
       </c>
-      <c r="BY78" s="44">
+      <c r="BY78" s="37">
         <v>-0.1174</v>
       </c>
       <c r="CD78">
@@ -60733,16 +63173,16 @@
       <c r="BW79">
         <v>1.6425000000000001</v>
       </c>
-      <c r="BX79" s="44">
+      <c r="BX79" s="37">
         <v>-1.1182000000000001</v>
       </c>
-      <c r="BY79" s="44">
+      <c r="BY79" s="37">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="CB79" s="45">
+      <c r="CB79" s="38">
         <v>-3.0369999999999999</v>
       </c>
-      <c r="CC79" s="45">
+      <c r="CC79" s="38">
         <v>2.4487999999999999</v>
       </c>
       <c r="CD79">
@@ -60854,16 +63294,16 @@
       <c r="BW80">
         <v>0.1512</v>
       </c>
-      <c r="BX80" s="44">
+      <c r="BX80" s="37">
         <v>-0.34150000000000003</v>
       </c>
-      <c r="BY80" s="44">
+      <c r="BY80" s="37">
         <v>6.2363</v>
       </c>
-      <c r="CB80" s="45">
+      <c r="CB80" s="38">
         <v>-1.1182000000000001</v>
       </c>
-      <c r="CC80" s="45">
+      <c r="CC80" s="38">
         <v>0</v>
       </c>
       <c r="CD80">
@@ -60978,7 +63418,7 @@
         <v>0.60519999999999996</v>
       </c>
     </row>
-    <row r="81" spans="66:157" ht="18">
+    <row r="81" spans="65:157" ht="18">
       <c r="BQ81" s="35"/>
       <c r="BR81" s="8"/>
       <c r="BT81" s="8"/>
@@ -60988,10 +63428,10 @@
       <c r="BW81">
         <v>1.3949</v>
       </c>
-      <c r="BX81" s="44">
+      <c r="BX81" s="37">
         <v>-1.9918</v>
       </c>
-      <c r="BY81" s="44">
+      <c r="BY81" s="37">
         <v>5.6577000000000002</v>
       </c>
       <c r="BZ81">
@@ -61000,10 +63440,10 @@
       <c r="CA81">
         <v>0.2671</v>
       </c>
-      <c r="CB81" s="45">
+      <c r="CB81" s="38">
         <v>-2.3281999999999998</v>
       </c>
-      <c r="CC81" s="45">
+      <c r="CC81" s="38">
         <v>0.37930000000000003</v>
       </c>
       <c r="CD81">
@@ -61124,11 +63564,14 @@
         <v>0.42570000000000002</v>
       </c>
     </row>
-    <row r="82" spans="66:157" ht="18">
-      <c r="BN82" s="43">
+    <row r="82" spans="65:157" ht="18">
+      <c r="BM82">
+        <v>81</v>
+      </c>
+      <c r="BN82" s="36">
         <v>-0.43269999999999997</v>
       </c>
-      <c r="BO82" s="43">
+      <c r="BO82" s="36">
         <v>0</v>
       </c>
       <c r="BQ82" s="35"/>
@@ -61145,10 +63588,10 @@
       <c r="BW82">
         <v>1.2E-2</v>
       </c>
-      <c r="BX82" s="44">
+      <c r="BX82" s="37">
         <v>-2.3748</v>
       </c>
-      <c r="BY82" s="44">
+      <c r="BY82" s="37">
         <v>0.40610000000000002</v>
       </c>
       <c r="BZ82">
@@ -61157,10 +63600,10 @@
       <c r="CA82">
         <v>2.6676000000000002</v>
       </c>
-      <c r="CB82" s="45">
+      <c r="CB82" s="38">
         <v>-0.81779999999999997</v>
       </c>
-      <c r="CC82" s="45">
+      <c r="CC82" s="38">
         <v>6.4794</v>
       </c>
       <c r="CD82">
@@ -61281,11 +63724,14 @@
         <v>-0.65249999999999997</v>
       </c>
     </row>
-    <row r="83" spans="66:157" ht="18">
-      <c r="BN83" s="43">
+    <row r="83" spans="65:157" ht="18">
+      <c r="BM83">
+        <v>82</v>
+      </c>
+      <c r="BN83" s="36">
         <v>-3.0263</v>
       </c>
-      <c r="BO83" s="43">
+      <c r="BO83" s="36">
         <v>3.3940000000000001</v>
       </c>
       <c r="BQ83" s="35"/>
@@ -61307,10 +63753,10 @@
       <c r="BW83">
         <v>5.2786999999999997</v>
       </c>
-      <c r="BX83" s="44">
+      <c r="BX83" s="37">
         <v>-2.4643000000000002</v>
       </c>
-      <c r="BY83" s="44">
+      <c r="BY83" s="37">
         <v>5.6551999999999998</v>
       </c>
       <c r="BZ83">
@@ -61319,10 +63765,10 @@
       <c r="CA83">
         <v>5.0937999999999999</v>
       </c>
-      <c r="CB83" s="45">
+      <c r="CB83" s="38">
         <v>-0.2465</v>
       </c>
-      <c r="CC83" s="45">
+      <c r="CC83" s="38">
         <v>-0.72140000000000004</v>
       </c>
       <c r="CD83">
@@ -61443,11 +63889,14 @@
         <v>-1.4797</v>
       </c>
     </row>
-    <row r="84" spans="66:157" ht="18">
-      <c r="BN84" s="43">
+    <row r="84" spans="65:157" ht="18">
+      <c r="BM84">
+        <v>83</v>
+      </c>
+      <c r="BN84" s="36">
         <v>-2.867</v>
       </c>
-      <c r="BO84" s="43">
+      <c r="BO84" s="36">
         <v>1.9011</v>
       </c>
       <c r="BP84">
@@ -61474,10 +63923,10 @@
       <c r="BW84">
         <v>0.76819999999999999</v>
       </c>
-      <c r="BX84" s="44">
+      <c r="BX84" s="37">
         <v>-3.5044</v>
       </c>
-      <c r="BY84" s="44">
+      <c r="BY84" s="37">
         <v>4.2218</v>
       </c>
       <c r="BZ84">
@@ -61486,10 +63935,10 @@
       <c r="CA84">
         <v>-1.2999999999999999E-3</v>
       </c>
-      <c r="CB84" s="45">
+      <c r="CB84" s="38">
         <v>-1.4147000000000001</v>
       </c>
-      <c r="CC84" s="45">
+      <c r="CC84" s="38">
         <v>-0.51680000000000004</v>
       </c>
       <c r="CD84">
@@ -61610,11 +64059,14 @@
         <v>3.5891000000000002</v>
       </c>
     </row>
-    <row r="85" spans="66:157" ht="18">
-      <c r="BN85" s="43">
+    <row r="85" spans="65:157" ht="18">
+      <c r="BM85">
+        <v>84</v>
+      </c>
+      <c r="BN85" s="36">
         <v>-2.6985999999999999</v>
       </c>
-      <c r="BO85" s="43">
+      <c r="BO85" s="36">
         <v>1.4643999999999999</v>
       </c>
       <c r="BP85">
@@ -61641,10 +64093,10 @@
       <c r="BW85">
         <v>5.9668999999999999</v>
       </c>
-      <c r="BX85" s="44">
+      <c r="BX85" s="37">
         <v>-0.24249999999999999</v>
       </c>
-      <c r="BY85" s="44">
+      <c r="BY85" s="37">
         <v>-0.80289999999999995</v>
       </c>
       <c r="BZ85">
@@ -61653,10 +64105,10 @@
       <c r="CA85">
         <v>5.9721000000000002</v>
       </c>
-      <c r="CB85" s="45">
+      <c r="CB85" s="38">
         <v>-2.0718999999999999</v>
       </c>
-      <c r="CC85" s="45">
+      <c r="CC85" s="38">
         <v>6.2206999999999999</v>
       </c>
       <c r="CD85">
@@ -61783,11 +64235,14 @@
         <v>0.1951</v>
       </c>
     </row>
-    <row r="86" spans="66:157" ht="18">
-      <c r="BN86" s="43">
+    <row r="86" spans="65:157" ht="18">
+      <c r="BM86">
+        <v>85</v>
+      </c>
+      <c r="BN86" s="36">
         <v>-1.0838000000000001</v>
       </c>
-      <c r="BO86" s="43">
+      <c r="BO86" s="36">
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="BP86">
@@ -61814,10 +64269,10 @@
       <c r="BW86">
         <v>1.3935999999999999</v>
       </c>
-      <c r="BX86" s="44">
+      <c r="BX86" s="37">
         <v>-3.7995999999999999</v>
       </c>
-      <c r="BY86" s="44">
+      <c r="BY86" s="37">
         <v>3.4070999999999998</v>
       </c>
       <c r="BZ86">
@@ -61826,10 +64281,10 @@
       <c r="CA86">
         <v>-0.23569999999999999</v>
       </c>
-      <c r="CB86" s="45">
+      <c r="CB86" s="38">
         <v>-3.6890000000000001</v>
       </c>
-      <c r="CC86" s="45">
+      <c r="CC86" s="38">
         <v>4.0781999999999998</v>
       </c>
       <c r="CD86">
@@ -61956,11 +64411,14 @@
         <v>-0.4289</v>
       </c>
     </row>
-    <row r="87" spans="66:157" ht="18">
-      <c r="BN87" s="43">
+    <row r="87" spans="65:157" ht="18">
+      <c r="BM87">
+        <v>86</v>
+      </c>
+      <c r="BN87" s="36">
         <v>-1.0838000000000001</v>
       </c>
-      <c r="BO87" s="43">
+      <c r="BO87" s="36">
         <v>-6.4199999999999993E-2</v>
       </c>
       <c r="BP87">
@@ -61987,10 +64445,10 @@
       <c r="BW87">
         <v>-0.1128</v>
       </c>
-      <c r="BX87" s="44">
+      <c r="BX87" s="37">
         <v>-3.218</v>
       </c>
-      <c r="BY87" s="44">
+      <c r="BY87" s="37">
         <v>0.88700000000000001</v>
       </c>
       <c r="BZ87">
@@ -61999,10 +64457,10 @@
       <c r="CA87">
         <v>3.8166000000000002</v>
       </c>
-      <c r="CB87" s="45">
+      <c r="CB87" s="38">
         <v>-3.2652000000000001</v>
       </c>
-      <c r="CC87" s="45">
+      <c r="CC87" s="38">
         <v>0.93740000000000001</v>
       </c>
       <c r="CD87">
@@ -62129,11 +64587,14 @@
         <v>1.7507999999999999</v>
       </c>
     </row>
-    <row r="88" spans="66:157" ht="18">
-      <c r="BN88" s="43">
+    <row r="88" spans="65:157" ht="18">
+      <c r="BM88">
+        <v>87</v>
+      </c>
+      <c r="BN88" s="36">
         <v>-1.2886</v>
       </c>
-      <c r="BO88" s="43">
+      <c r="BO88" s="36">
         <v>0</v>
       </c>
       <c r="BP88">
@@ -62160,10 +64621,10 @@
       <c r="BW88">
         <v>1.3959999999999999</v>
       </c>
-      <c r="BX88" s="44">
+      <c r="BX88" s="37">
         <v>-3.5951</v>
       </c>
-      <c r="BY88" s="44">
+      <c r="BY88" s="37">
         <v>4.4797000000000002</v>
       </c>
       <c r="BZ88">
@@ -62172,10 +64633,10 @@
       <c r="CA88">
         <v>0.45479999999999998</v>
       </c>
-      <c r="CB88" s="45">
+      <c r="CB88" s="38">
         <v>-3.4733999999999998</v>
       </c>
-      <c r="CC88" s="45">
+      <c r="CC88" s="38">
         <v>4.7676999999999996</v>
       </c>
       <c r="CD88">
@@ -62302,11 +64763,14 @@
         <v>2.2528000000000001</v>
       </c>
     </row>
-    <row r="89" spans="66:157" ht="18">
-      <c r="BN89" s="43">
+    <row r="89" spans="65:157" ht="18">
+      <c r="BM89">
+        <v>88</v>
+      </c>
+      <c r="BN89" s="36">
         <v>-2.4481999999999999</v>
       </c>
-      <c r="BO89" s="43">
+      <c r="BO89" s="36">
         <v>0.6744</v>
       </c>
       <c r="BP89">
@@ -62333,10 +64797,10 @@
       <c r="BW89">
         <v>0.67369999999999997</v>
       </c>
-      <c r="BX89" s="44">
+      <c r="BX89" s="37">
         <v>-1.4258</v>
       </c>
-      <c r="BY89" s="44">
+      <c r="BY89" s="37">
         <v>-0.6643</v>
       </c>
       <c r="BZ89">
@@ -62345,10 +64809,10 @@
       <c r="CA89">
         <v>3.4155000000000002</v>
       </c>
-      <c r="CB89" s="45">
+      <c r="CB89" s="38">
         <v>-3.8755000000000002</v>
       </c>
-      <c r="CC89" s="45">
+      <c r="CC89" s="38">
         <v>3.4516</v>
       </c>
       <c r="CD89">
@@ -62475,11 +64939,14 @@
         <v>-0.58250000000000002</v>
       </c>
     </row>
-    <row r="90" spans="66:157" ht="18">
-      <c r="BN90" s="43">
+    <row r="90" spans="65:157" ht="18">
+      <c r="BM90">
+        <v>89</v>
+      </c>
+      <c r="BN90" s="36">
         <v>-1.6154999999999999</v>
       </c>
-      <c r="BO90" s="43">
+      <c r="BO90" s="36">
         <v>0</v>
       </c>
       <c r="BP90">
@@ -62506,10 +64973,10 @@
       <c r="BW90">
         <v>1.2508999999999999</v>
       </c>
-      <c r="BX90" s="44">
+      <c r="BX90" s="37">
         <v>-3.67</v>
       </c>
-      <c r="BY90" s="44">
+      <c r="BY90" s="37">
         <v>1.587</v>
       </c>
       <c r="BZ90">
@@ -62518,10 +64985,10 @@
       <c r="CA90">
         <v>5.6123000000000003</v>
       </c>
-      <c r="CB90" s="45">
+      <c r="CB90" s="38">
         <v>-3.6859000000000002</v>
       </c>
-      <c r="CC90" s="45">
+      <c r="CC90" s="38">
         <v>1.6207</v>
       </c>
       <c r="CD90">
@@ -62648,11 +65115,14 @@
         <v>0.3574</v>
       </c>
     </row>
-    <row r="91" spans="66:157" ht="18">
-      <c r="BN91" s="43">
+    <row r="91" spans="65:157" ht="18">
+      <c r="BM91">
+        <v>90</v>
+      </c>
+      <c r="BN91" s="36">
         <v>-3.2360000000000002</v>
       </c>
-      <c r="BO91" s="43">
+      <c r="BO91" s="36">
         <v>1.5355000000000001</v>
       </c>
       <c r="BP91">
@@ -62679,10 +65149,10 @@
       <c r="BW91">
         <v>-0.32979999999999998</v>
       </c>
-      <c r="BX91" s="44">
+      <c r="BX91" s="37">
         <v>-3.8929999999999998</v>
       </c>
-      <c r="BY91" s="44">
+      <c r="BY91" s="37">
         <v>2.0259999999999998</v>
       </c>
       <c r="BZ91">
@@ -62691,10 +65161,10 @@
       <c r="CA91">
         <v>5.0881999999999996</v>
       </c>
-      <c r="CB91" s="45">
+      <c r="CB91" s="38">
         <v>-2.5387</v>
       </c>
-      <c r="CC91" s="45">
+      <c r="CC91" s="38">
         <v>6.2172999999999998</v>
       </c>
       <c r="CD91">
@@ -62821,7 +65291,7 @@
         <v>0.44259999999999999</v>
       </c>
     </row>
-    <row r="92" spans="66:157">
+    <row r="92" spans="65:157">
       <c r="ER92">
         <v>-0.21049999999999999</v>
       </c>
@@ -62853,7 +65323,7 @@
         <v>1.1194999999999999</v>
       </c>
     </row>
-    <row r="93" spans="66:157">
+    <row r="93" spans="65:157">
       <c r="ER93">
         <v>-9.1800000000000007E-2</v>
       </c>
@@ -62885,7 +65355,7 @@
         <v>0.2661</v>
       </c>
     </row>
-    <row r="94" spans="66:157">
+    <row r="94" spans="65:157">
       <c r="ER94">
         <v>-0.73419999999999996</v>
       </c>
@@ -62917,7 +65387,7 @@
         <v>1.6917</v>
       </c>
     </row>
-    <row r="95" spans="66:157">
+    <row r="95" spans="65:157">
       <c r="ER95">
         <v>-0.22470000000000001</v>
       </c>
@@ -62949,7 +65419,7 @@
         <v>1.8190999999999999</v>
       </c>
     </row>
-    <row r="96" spans="66:157">
+    <row r="96" spans="65:157">
       <c r="ER96">
         <v>-5.9999999999999995E-4</v>
       </c>
@@ -63922,13 +66392,38 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BE53:BF53"/>
-    <mergeCell ref="AY2:AY11"/>
-    <mergeCell ref="AY12:AY21"/>
-    <mergeCell ref="AY22:AY31"/>
-    <mergeCell ref="AY32:AY41"/>
-    <mergeCell ref="AY42:AY51"/>
+    <mergeCell ref="AS53:AT53"/>
+    <mergeCell ref="AU53:AV53"/>
+    <mergeCell ref="AW53:AX53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AM53:AN53"/>
+    <mergeCell ref="AO53:AP53"/>
+    <mergeCell ref="AQ53:AR53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="AA53:AB53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="AS1:AT1"/>
@@ -63945,38 +66440,13 @@
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="AA53:AB53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AS53:AT53"/>
-    <mergeCell ref="AU53:AV53"/>
-    <mergeCell ref="AW53:AX53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AM53:AN53"/>
-    <mergeCell ref="AO53:AP53"/>
-    <mergeCell ref="AQ53:AR53"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BE53:BF53"/>
+    <mergeCell ref="AY2:AY11"/>
+    <mergeCell ref="AY12:AY21"/>
+    <mergeCell ref="AY22:AY31"/>
+    <mergeCell ref="AY32:AY41"/>
+    <mergeCell ref="AY42:AY51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
